--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A288D16-F61B-4455-BD96-22B19AF3EB27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC6249A-4B04-444C-93BE-441F9BBF415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="2580" windowWidth="24945" windowHeight="15900" activeTab="2" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="11355" yWindow="2430" windowWidth="26460" windowHeight="15900" activeTab="2" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
     <sheet name="Ignore" sheetId="2" r:id="rId1"/>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC6249A-4B04-444C-93BE-441F9BBF415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C8D2E-8178-45FF-96A3-E1218461EC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11355" yWindow="2430" windowWidth="26460" windowHeight="15900" activeTab="2" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="2970" yWindow="2070" windowWidth="29190" windowHeight="16125" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
     <sheet name="Ignore" sheetId="2" r:id="rId1"/>
-    <sheet name="Family" sheetId="4" r:id="rId2"/>
+    <sheet name="SF" sheetId="4" r:id="rId2"/>
     <sheet name="Fold" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -64,27 +64,6 @@
     <t>fpepq</t>
   </si>
   <si>
-    <t>DALI_family</t>
-  </si>
-  <si>
-    <t>TMalign_family</t>
-  </si>
-  <si>
-    <t>blastp_family</t>
-  </si>
-  <si>
-    <t>foldseek_family</t>
-  </si>
-  <si>
-    <t>reseek-fast_family</t>
-  </si>
-  <si>
-    <t>reseek-sensitive_family</t>
-  </si>
-  <si>
-    <t>reseek-verysensitive_family</t>
-  </si>
-  <si>
     <t>DALI_fold</t>
   </si>
   <si>
@@ -104,6 +83,27 @@
   </si>
   <si>
     <t>reseek-verysensitive_fold</t>
+  </si>
+  <si>
+    <t>DALI_sf</t>
+  </si>
+  <si>
+    <t>TMalign_sf</t>
+  </si>
+  <si>
+    <t>blastp_sf</t>
+  </si>
+  <si>
+    <t>foldseek_sf</t>
+  </si>
+  <si>
+    <t>reseek-fast_sf</t>
+  </si>
+  <si>
+    <t>reseek-sensitive_sf</t>
+  </si>
+  <si>
+    <t>reseek-verysensitive_sf</t>
   </si>
 </sst>
 </file>
@@ -523,41 +523,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="22">
-                  <c:v>1.5970000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.622E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4.3439999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.8579999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.1389</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.24110000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.41699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.70720000000000005</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.163</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.9530000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.6459999999999999</c:v>
+                <c:pt idx="7">
+                  <c:v>1.873E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0980000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.39069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,194 +890,152 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="6">
+                  <c:v>1.49E-2</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.436E-2</c:v>
+                  <c:v>2.3550000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.873E-2</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.3009999999999999E-2</c:v>
+                  <c:v>4.3709999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8719999999999999E-2</c:v>
+                  <c:v>5.289E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.5319999999999997E-2</c:v>
+                  <c:v>6.1280000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.335E-2</c:v>
+                  <c:v>7.2429999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3519999999999998E-2</c:v>
+                  <c:v>8.4559999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7790000000000003E-2</c:v>
+                  <c:v>9.4369999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3940000000000001E-2</c:v>
+                  <c:v>0.1043</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.7320000000000004E-2</c:v>
+                  <c:v>0.1187</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1142</c:v>
+                  <c:v>0.13020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13139999999999999</c:v>
+                  <c:v>0.14319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15240000000000001</c:v>
+                  <c:v>0.15809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.17130000000000001</c:v>
+                  <c:v>0.17849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.20039999999999999</c:v>
+                  <c:v>0.19570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22839999999999999</c:v>
+                  <c:v>0.2185</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.25790000000000002</c:v>
+                  <c:v>0.2389</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.29659999999999997</c:v>
+                  <c:v>0.26169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.33879999999999999</c:v>
+                  <c:v>0.28270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.39650000000000002</c:v>
+                  <c:v>0.3095</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.45090000000000002</c:v>
+                  <c:v>0.34139999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.52969999999999995</c:v>
+                  <c:v>0.37940000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.59060000000000001</c:v>
+                  <c:v>0.42220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.66869999999999996</c:v>
+                  <c:v>0.47670000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.75470000000000004</c:v>
+                  <c:v>0.53969999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.84830000000000005</c:v>
+                  <c:v>0.6139</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.94130000000000003</c:v>
+                  <c:v>0.69469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.0409999999999999</c:v>
+                  <c:v>0.79120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.145</c:v>
+                  <c:v>0.90790000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.266</c:v>
+                  <c:v>1.0289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4059999999999999</c:v>
+                  <c:v>1.1779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.54</c:v>
+                  <c:v>1.349</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.681</c:v>
+                  <c:v>1.5389999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.837</c:v>
+                  <c:v>1.764</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.9910000000000001</c:v>
+                  <c:v>1.988</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1589999999999998</c:v>
+                  <c:v>2.254</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.3180000000000001</c:v>
+                  <c:v>2.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.5110000000000001</c:v>
+                  <c:v>2.9239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.6850000000000001</c:v>
+                  <c:v>3.3119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.883</c:v>
+                  <c:v>3.7679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.081</c:v>
+                  <c:v>4.2590000000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.262</c:v>
+                  <c:v>4.8040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3.5049999999999999</c:v>
+                  <c:v>5.3840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3.694</c:v>
+                  <c:v>6.056</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3.9119999999999999</c:v>
+                  <c:v>6.7770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4.1420000000000003</c:v>
+                  <c:v>7.6360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4.3600000000000003</c:v>
+                  <c:v>8.5440000000000005</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4.5549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.7779999999999996</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.0410000000000004</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.2869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.5270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.7880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.0709999999999997</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.375</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.6509999999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.9550000000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.2880000000000003</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7.7030000000000003</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8.0809999999999995</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8.5280000000000005</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9.0239999999999991</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9.5500000000000007</c:v>
+                  <c:v>9.673</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,191 +1388,137 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="11">
+                  <c:v>1.2670000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6410000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1229999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.6579999999999999E-2</c:v>
+                </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.142E-2</c:v>
+                  <c:v>3.2469999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.4449999999999999E-2</c:v>
+                  <c:v>4.2009999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.6410000000000001E-2</c:v>
+                  <c:v>4.9059999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9800000000000002E-2</c:v>
+                  <c:v>6.1010000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.248E-2</c:v>
+                  <c:v>7.4749999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.4979999999999999E-2</c:v>
+                  <c:v>9.0270000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.819E-2</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2469999999999999E-2</c:v>
+                  <c:v>0.127</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7109999999999997E-2</c:v>
+                  <c:v>0.15210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.3709999999999999E-2</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.9419999999999999E-2</c:v>
+                  <c:v>0.21759999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.3519999999999998E-2</c:v>
+                  <c:v>0.254</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.9499999999999997E-2</c:v>
+                  <c:v>0.29060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.6360000000000002E-2</c:v>
+                  <c:v>0.33179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.4569999999999997E-2</c:v>
+                  <c:v>0.3947</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.634E-2</c:v>
+                  <c:v>0.46339999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.3479999999999994E-2</c:v>
+                  <c:v>0.54559999999999997</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1031</c:v>
+                  <c:v>0.63200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1147</c:v>
+                  <c:v>0.73370000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1242</c:v>
+                  <c:v>0.85050000000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1361</c:v>
+                  <c:v>0.98839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1507</c:v>
+                  <c:v>1.137</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.16450000000000001</c:v>
+                  <c:v>1.31</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.18</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.19750000000000001</c:v>
+                  <c:v>1.7030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.22</c:v>
+                  <c:v>1.9379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.2419</c:v>
+                  <c:v>2.2050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.26629999999999998</c:v>
+                  <c:v>2.488</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.28970000000000001</c:v>
+                  <c:v>2.8039999999999998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.316</c:v>
+                  <c:v>3.1819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.34570000000000001</c:v>
+                  <c:v>3.589</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.37859999999999999</c:v>
+                  <c:v>4.056</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.41239999999999999</c:v>
+                  <c:v>4.5369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.44819999999999999</c:v>
+                  <c:v>5.0659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.49419999999999997</c:v>
+                  <c:v>5.6449999999999996</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.54200000000000004</c:v>
+                  <c:v>6.2770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.60109999999999997</c:v>
+                  <c:v>6.9829999999999997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.66259999999999997</c:v>
+                  <c:v>7.774</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.72499999999999998</c:v>
+                  <c:v>8.6120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.8034</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.9042</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.0029999999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.1140000000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.2370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.3759999999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.546</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.7230000000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.9119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.1230000000000002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.351</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.6589999999999998</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.9790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.3690000000000002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.782</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>4.258</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.7869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.4020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6.1390000000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.8949999999999996</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.7910000000000004</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>8.7119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>9.9019999999999992</c:v>
+                  <c:v>9.5190000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1988,176 +1871,122 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="7">
+                  <c:v>1.427E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.078E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9510000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.7989999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7270000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.6629999999999995E-2</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.24E-2</c:v>
+                  <c:v>7.4389999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.7389999999999999E-2</c:v>
+                  <c:v>8.5269999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.266E-2</c:v>
+                  <c:v>9.4820000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.988E-2</c:v>
+                  <c:v>0.10580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7109999999999997E-2</c:v>
+                  <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6030000000000001E-2</c:v>
+                  <c:v>0.1343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.5840000000000001E-2</c:v>
+                  <c:v>0.1522</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5559999999999993E-2</c:v>
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.8320000000000001E-2</c:v>
+                  <c:v>0.19359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.0889999999999999E-2</c:v>
+                  <c:v>0.2203</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1069</c:v>
+                  <c:v>0.25640000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.124</c:v>
+                  <c:v>0.30059999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1419</c:v>
+                  <c:v>0.34849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.161</c:v>
+                  <c:v>0.41170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.18179999999999999</c:v>
+                  <c:v>0.49390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>0.59379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.22850000000000001</c:v>
+                  <c:v>0.71530000000000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25519999999999998</c:v>
+                  <c:v>0.86019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.28470000000000001</c:v>
+                  <c:v>1.038</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.31790000000000002</c:v>
+                  <c:v>1.254</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.35399999999999998</c:v>
+                  <c:v>1.508</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.39140000000000003</c:v>
+                  <c:v>1.8089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.4289</c:v>
+                  <c:v>2.165</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.46960000000000002</c:v>
+                  <c:v>2.585</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.51270000000000004</c:v>
+                  <c:v>3.0779999999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.56520000000000004</c:v>
+                  <c:v>3.6379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.61629999999999996</c:v>
+                  <c:v>4.32</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.67530000000000001</c:v>
+                  <c:v>5.093</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.7258</c:v>
+                  <c:v>5.9550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.79179999999999995</c:v>
+                  <c:v>6.9580000000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.85929999999999995</c:v>
+                  <c:v>8.0709999999999997</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.93140000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.0009999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.085</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.18</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.2789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.387</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.496</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.623</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.7490000000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.9079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.0779999999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.2669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.4670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.7040000000000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.968</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.2679999999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.57</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.9420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.3579999999999997</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.8410000000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.343</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.968</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.6310000000000002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7.4420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.3049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9.4139999999999997</c:v>
+                  <c:v>9.3390000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,128 +2340,86 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="14">
+                  <c:v>1.124E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.481E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9089999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3820000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.997E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.8179999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.8520000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.3060000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1619999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.14199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.18990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.32969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.41739999999999999</c:v>
+                </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.115E-2</c:v>
+                  <c:v>0.53259999999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3469999999999999E-2</c:v>
+                  <c:v>0.68169999999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6320000000000001E-2</c:v>
+                  <c:v>0.86760000000000004</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.9449999999999999E-2</c:v>
+                  <c:v>1.097</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1590000000000002E-2</c:v>
+                  <c:v>1.389</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.5600000000000001E-2</c:v>
+                  <c:v>1.7669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.997E-2</c:v>
+                  <c:v>2.2650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.4880000000000001E-2</c:v>
+                  <c:v>2.9060000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.8890000000000001E-2</c:v>
+                  <c:v>3.7360000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.505E-2</c:v>
+                  <c:v>4.8600000000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.2089999999999997E-2</c:v>
+                  <c:v>6.319</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.7529999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.5199999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.3230000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8.3849999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.6329999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.1109</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.12759999999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.14649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.1691</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.1968</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.22209999999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.2586</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.30259999999999998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.35510000000000003</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.41310000000000002</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.49509999999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.59209999999999996</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.69979999999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.83069999999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.99039999999999995</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.1950000000000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.444</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.748</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.14</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.2429999999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.0110000000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.1280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.76</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9.298</c:v>
+                  <c:v>8.4450000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2986,143 +2773,98 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="14">
+                  <c:v>1.0789999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.338E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7659999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1940000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8539999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5680000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.5940000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.7889999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3770000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4729999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2651</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.106E-2</c:v>
+                  <c:v>0.43309999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.302E-2</c:v>
+                  <c:v>0.53480000000000005</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.6140000000000002E-2</c:v>
+                  <c:v>0.65959999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.864E-2</c:v>
+                  <c:v>0.81869999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1049999999999999E-2</c:v>
+                  <c:v>1.012</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.444E-2</c:v>
+                  <c:v>1.2509999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.81E-2</c:v>
+                  <c:v>1.538</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.2469999999999999E-2</c:v>
+                  <c:v>1.8740000000000001</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.7199999999999997E-2</c:v>
+                  <c:v>2.278</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.1739999999999999E-2</c:v>
+                  <c:v>2.778</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.7809999999999998E-2</c:v>
+                  <c:v>3.3919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.5039999999999999E-2</c:v>
+                  <c:v>4.149</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.1100000000000002E-2</c:v>
+                  <c:v>5.0739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.8860000000000005E-2</c:v>
+                  <c:v>6.1859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.7960000000000002E-2</c:v>
+                  <c:v>7.5830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.7859999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.1009</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.1154</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.13089999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.1497</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.1704</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.1948</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.22459999999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.25650000000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.29349999999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.3367</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.38779999999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.45090000000000002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.51619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.6089</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.71230000000000004</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.83479999999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.97399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.1299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.3149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.5589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.8460000000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.1619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.5630000000000002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.0470000000000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.657</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>4.3650000000000002</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.2270000000000003</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6.3609999999999998</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.8979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>9.9510000000000005</c:v>
+                  <c:v>9.282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3475,161 +3217,104 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="13">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.481E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7479999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.3550000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1390000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.45E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8500000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0800000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1143</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.1472</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.1862</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23580000000000001</c:v>
+                </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.035E-2</c:v>
+                  <c:v>0.2964</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.213E-2</c:v>
+                  <c:v>0.37180000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.436E-2</c:v>
+                  <c:v>0.46589999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.5699999999999999E-2</c:v>
+                  <c:v>0.58109999999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.8200000000000001E-2</c:v>
+                  <c:v>0.71140000000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.0959999999999999E-2</c:v>
+                  <c:v>0.87490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3820000000000001E-2</c:v>
+                  <c:v>1.0609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.6939999999999999E-2</c:v>
+                  <c:v>1.2669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.9520000000000001E-2</c:v>
+                  <c:v>1.5089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.4070000000000003E-2</c:v>
+                  <c:v>1.7969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.916E-2</c:v>
+                  <c:v>2.14</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4600000000000001E-2</c:v>
+                  <c:v>2.5379999999999998</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.0130000000000001E-2</c:v>
+                  <c:v>2.9990000000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6550000000000003E-2</c:v>
+                  <c:v>3.5230000000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.3960000000000003E-2</c:v>
+                  <c:v>4.13</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.3139999999999997E-2</c:v>
+                  <c:v>4.8239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.1079999999999999E-2</c:v>
+                  <c:v>5.609</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.178E-2</c:v>
+                  <c:v>6.5540000000000003</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.10290000000000001</c:v>
+                  <c:v>7.609</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1168</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.13300000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.1525</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.17380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.19670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.22750000000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.25800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.29470000000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.3372</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.38290000000000002</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.43869999999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.50019999999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.57579999999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.65959999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.76080000000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.8841</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.0269999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.1950000000000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.377</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.5680000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.806</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.0710000000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2.7080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.1230000000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.5779999999999998</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>4.085</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>4.6769999999999996</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.3730000000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>6.1779999999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.1319999999999997</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>8.2080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>9.4480000000000004</c:v>
+                  <c:v>8.8390000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4006,11 +3691,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Family!$D$1</c:f>
+              <c:f>SF!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>blastp_family</c:v>
+                  <c:v>blastp_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4033,7 +3718,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Family!$A$2:$A$101</c:f>
+              <c:f>SF!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4342,111 +4027,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Family!$D$2:$D$102</c:f>
+              <c:f>SF!$D$2:$D$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>3.5139999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6350000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20630000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.25309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.2974</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33500000000000002</c:v>
+                  <c:v>2.3009999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37609999999999999</c:v>
+                  <c:v>9.9720000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4153</c:v>
+                  <c:v>0.40639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.45440000000000003</c:v>
+                  <c:v>1.335</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.4879</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.5272</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.56310000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.59989999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.63580000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.67010000000000003</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.70730000000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.74780000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.78820000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.82679999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86770000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.92310000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.98660000000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.0549999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.141</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.2629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.429</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.6659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.0299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.569</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.4550000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.851</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.4909999999999997</c:v>
+                  <c:v>7.6459999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4463,11 +4061,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Family!$B$1</c:f>
+              <c:f>SF!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DALI_family</c:v>
+                  <c:v>DALI_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4487,7 +4085,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Family!$A$2:$A$101</c:f>
+              <c:f>SF!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -4796,162 +4394,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Family!$B$2:$B$102</c:f>
+              <c:f>SF!$B$2:$B$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>4.5130000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10249999999999999</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16550000000000001</c:v>
+                  <c:v>1.222E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2258</c:v>
+                  <c:v>2.2210000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29149999999999998</c:v>
+                  <c:v>3.5499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.36359999999999998</c:v>
+                  <c:v>5.5480000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43769999999999998</c:v>
+                  <c:v>8.5629999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53159999999999996</c:v>
+                  <c:v>0.1176</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61580000000000001</c:v>
+                  <c:v>0.15429999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70379999999999998</c:v>
+                  <c:v>0.2009</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.79779999999999995</c:v>
+                  <c:v>0.25580000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.89139999999999997</c:v>
+                  <c:v>0.32300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9889</c:v>
+                  <c:v>0.41899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.101</c:v>
+                  <c:v>0.5363</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.228</c:v>
+                  <c:v>0.65690000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3540000000000001</c:v>
+                  <c:v>0.79979999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.466</c:v>
+                  <c:v>0.95709999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5840000000000001</c:v>
+                  <c:v>1.1299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6990000000000001</c:v>
+                  <c:v>1.331</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8340000000000001</c:v>
+                  <c:v>1.554</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9730000000000001</c:v>
+                  <c:v>1.7949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.121</c:v>
+                  <c:v>2.0459999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2639999999999998</c:v>
+                  <c:v>2.327</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.411</c:v>
+                  <c:v>2.6309999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5739999999999998</c:v>
+                  <c:v>2.931</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.7650000000000001</c:v>
+                  <c:v>3.2290000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.9529999999999998</c:v>
+                  <c:v>3.5590000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.141</c:v>
+                  <c:v>3.8849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.3679999999999999</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.556</c:v>
+                  <c:v>4.5369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.7949999999999999</c:v>
+                  <c:v>4.883</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.0259999999999998</c:v>
+                  <c:v>5.2169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.2699999999999996</c:v>
+                  <c:v>5.5490000000000004</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.5049999999999999</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.7560000000000002</c:v>
+                  <c:v>6.242</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.0060000000000002</c:v>
+                  <c:v>6.6120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.2809999999999997</c:v>
+                  <c:v>6.9660000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.5759999999999996</c:v>
+                  <c:v>7.367</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.851</c:v>
+                  <c:v>7.7750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.141</c:v>
+                  <c:v>8.1969999999999992</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.4539999999999997</c:v>
+                  <c:v>8.673</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.7510000000000003</c:v>
+                  <c:v>9.1210000000000004</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.069</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.3680000000000003</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.7329999999999997</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8.0489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>8.3960000000000008</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>8.7620000000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.0869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.5210000000000008</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.8840000000000003</c:v>
+                  <c:v>9.6590000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4968,11 +4536,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Family!$C$1</c:f>
+              <c:f>SF!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMalign_family</c:v>
+                  <c:v>TMalign_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4991,7 +4559,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Family!$A$2:$A$101</c:f>
+              <c:f>SF!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -5300,213 +4868,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Family!$C$2:$C$102</c:f>
+              <c:f>SF!$C$2:$C$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>4.5130000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.0800000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1895</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2412</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.29039999999999999</c:v>
+                  <c:v>1.5520000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.33339999999999997</c:v>
+                  <c:v>2.3189999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37340000000000001</c:v>
+                  <c:v>3.2820000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41370000000000001</c:v>
+                  <c:v>4.9059999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45219999999999999</c:v>
+                  <c:v>6.4219999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.495</c:v>
+                  <c:v>8.7239999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53390000000000004</c:v>
+                  <c:v>0.1123</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57620000000000005</c:v>
+                  <c:v>0.13719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61899999999999999</c:v>
+                  <c:v>0.1709</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.66469999999999996</c:v>
+                  <c:v>0.21410000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.70589999999999997</c:v>
+                  <c:v>0.2606</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.74370000000000003</c:v>
+                  <c:v>0.313</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.77890000000000004</c:v>
+                  <c:v>0.37280000000000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.82599999999999996</c:v>
+                  <c:v>0.44569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.87809999999999999</c:v>
+                  <c:v>0.53059999999999996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.92930000000000001</c:v>
+                  <c:v>0.63329999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.98060000000000003</c:v>
+                  <c:v>0.74329999999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.032</c:v>
+                  <c:v>0.88580000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0740000000000001</c:v>
+                  <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.129</c:v>
+                  <c:v>1.236</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.181</c:v>
+                  <c:v>1.4570000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2350000000000001</c:v>
+                  <c:v>1.6970000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2989999999999999</c:v>
+                  <c:v>1.9590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.365</c:v>
+                  <c:v>2.242</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.429</c:v>
+                  <c:v>2.585</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.5049999999999999</c:v>
+                  <c:v>2.9569999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.575</c:v>
+                  <c:v>3.4020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.6439999999999999</c:v>
+                  <c:v>3.8620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7330000000000001</c:v>
+                  <c:v>4.3890000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.8149999999999999</c:v>
+                  <c:v>4.9450000000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.901</c:v>
+                  <c:v>5.5890000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.992</c:v>
+                  <c:v>6.2320000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.0779999999999998</c:v>
+                  <c:v>6.931</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.1749999999999998</c:v>
+                  <c:v>7.6630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.278</c:v>
+                  <c:v>8.4559999999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.39</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.5049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.6269999999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.7519999999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.8740000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.1469999999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.2869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.4260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.593</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.7610000000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.9569999999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4.149</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4.3570000000000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.5759999999999996</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.851</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.1029999999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.3739999999999997</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.657</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.9610000000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.327</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.7009999999999996</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.0949999999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7.5129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.9560000000000004</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>8.5150000000000006</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9.0790000000000006</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>9.7289999999999992</c:v>
+                  <c:v>9.3170000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5523,11 +4995,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Family!$E$1</c:f>
+              <c:f>SF!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>foldseek_family</c:v>
+                  <c:v>foldseek_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5546,7 +5018,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Family!$A$2:$A$101</c:f>
+              <c:f>SF!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -5855,189 +5327,114 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Family!$E$2:$E$102</c:f>
+              <c:f>SF!$E$2:$E$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>3.8530000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.7770000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25940000000000002</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.3155</c:v>
+                  <c:v>1.24E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37419999999999998</c:v>
+                  <c:v>2.3990000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.44040000000000001</c:v>
+                  <c:v>3.9960000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.50880000000000003</c:v>
+                  <c:v>6.0479999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5746</c:v>
+                  <c:v>8.6430000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.6542</c:v>
+                  <c:v>0.1169</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.73229999999999995</c:v>
+                  <c:v>0.1515</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.82620000000000005</c:v>
+                  <c:v>0.1948</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91610000000000003</c:v>
+                  <c:v>0.2429</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0049999999999999</c:v>
+                  <c:v>0.2994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0980000000000001</c:v>
+                  <c:v>0.36709999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.1870000000000001</c:v>
+                  <c:v>0.43590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2869999999999999</c:v>
+                  <c:v>0.5171</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3839999999999999</c:v>
+                  <c:v>0.61240000000000006</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.486</c:v>
+                  <c:v>0.71279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.5920000000000001</c:v>
+                  <c:v>0.82709999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.6919999999999999</c:v>
+                  <c:v>0.9506</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.8009999999999999</c:v>
+                  <c:v>1.0860000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9059999999999999</c:v>
+                  <c:v>1.244</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.0209999999999999</c:v>
+                  <c:v>1.425</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.1520000000000001</c:v>
+                  <c:v>1.6279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2719999999999998</c:v>
+                  <c:v>1.841</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3969999999999998</c:v>
+                  <c:v>2.0880000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.5299999999999998</c:v>
+                  <c:v>2.3730000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.66</c:v>
+                  <c:v>2.6960000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.7879999999999998</c:v>
+                  <c:v>3.0590000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.9279999999999999</c:v>
+                  <c:v>3.4590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0760000000000001</c:v>
+                  <c:v>3.9079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.2240000000000002</c:v>
+                  <c:v>4.4119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.3740000000000001</c:v>
+                  <c:v>4.9790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.53</c:v>
+                  <c:v>5.5990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.6949999999999998</c:v>
+                  <c:v>6.2990000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.8460000000000001</c:v>
+                  <c:v>7.0869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.0090000000000003</c:v>
+                  <c:v>7.9729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.1890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.3630000000000004</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.5590000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.7279999999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.9240000000000004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.1280000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.335</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.532</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.76</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.9969999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.2460000000000004</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.4960000000000004</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.75</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7.0229999999999997</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.3049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7.6420000000000003</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.99</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>8.3510000000000009</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.7330000000000005</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.1590000000000007</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9.6289999999999996</c:v>
+                  <c:v>8.9410000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6054,11 +5451,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Family!$F$1</c:f>
+              <c:f>SF!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reseek-fast_family</c:v>
+                  <c:v>reseek-fast_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6078,7 +5475,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Family!$A$2:$A$101</c:f>
+              <c:f>SF!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -6387,204 +5784,99 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Family!$F$2:$F$102</c:f>
+              <c:f>SF!$F$2:$F$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>4.487E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.919E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.29220000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33679999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41830000000000001</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45569999999999999</c:v>
+                  <c:v>1.061E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49490000000000001</c:v>
+                  <c:v>1.7389999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52980000000000005</c:v>
+                  <c:v>2.614E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56340000000000001</c:v>
+                  <c:v>3.7280000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59989999999999999</c:v>
+                  <c:v>5.2089999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.63629999999999998</c:v>
+                  <c:v>6.7339999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66900000000000004</c:v>
+                  <c:v>8.7679999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.7016</c:v>
+                  <c:v>0.1162</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.73760000000000003</c:v>
+                  <c:v>0.15029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.77449999999999997</c:v>
+                  <c:v>0.19489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.80969999999999998</c:v>
+                  <c:v>0.2445</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.84360000000000002</c:v>
+                  <c:v>0.30919999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.88160000000000005</c:v>
+                  <c:v>0.3881</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91590000000000005</c:v>
+                  <c:v>0.48659999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95540000000000003</c:v>
+                  <c:v>0.60699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99460000000000004</c:v>
+                  <c:v>0.75460000000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.032</c:v>
+                  <c:v>0.92800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0780000000000001</c:v>
+                  <c:v>1.141</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1240000000000001</c:v>
+                  <c:v>1.3839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.165</c:v>
+                  <c:v>1.659</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.212</c:v>
+                  <c:v>1.9910000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.266</c:v>
+                  <c:v>2.3769999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3160000000000001</c:v>
+                  <c:v>2.8330000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3720000000000001</c:v>
+                  <c:v>3.339</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.425</c:v>
+                  <c:v>3.9350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4890000000000001</c:v>
+                  <c:v>4.6539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.556</c:v>
+                  <c:v>5.5309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.6279999999999999</c:v>
+                  <c:v>6.5590000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.6950000000000001</c:v>
+                  <c:v>7.8090000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.77</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.853</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.9379999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.0390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.1389999999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.2450000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.3540000000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.4670000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.6070000000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.75</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.0659999999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.2320000000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.4249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.64</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.8740000000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.1239999999999997</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4.4249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.7530000000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.0830000000000002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.4489999999999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.8460000000000001</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.3289999999999997</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.891</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.516</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.27</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9.1560000000000006</c:v>
+                  <c:v>9.3979999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6601,11 +5893,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Family!$G$1</c:f>
+              <c:f>SF!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reseek-sensitive_family</c:v>
+                  <c:v>reseek-sensitive_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6625,7 +5917,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Family!$A$2:$A$101</c:f>
+              <c:f>SF!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -6934,216 +6226,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Family!$G$2:$G$102</c:f>
+              <c:f>SF!$G$2:$G$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>4.487E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.919E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.29220000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33679999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41830000000000001</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.45569999999999999</c:v>
+                  <c:v>1.044E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49490000000000001</c:v>
+                  <c:v>1.7219999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.52980000000000005</c:v>
+                  <c:v>2.4889999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56340000000000001</c:v>
+                  <c:v>3.6209999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.6</c:v>
+                  <c:v>4.9149999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.63629999999999998</c:v>
+                  <c:v>6.5199999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.66910000000000003</c:v>
+                  <c:v>8.4379999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70169999999999999</c:v>
+                  <c:v>0.1124</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.73740000000000006</c:v>
+                  <c:v>0.1462</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.77470000000000006</c:v>
+                  <c:v>0.18590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.80969999999999998</c:v>
+                  <c:v>0.2399</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.84289999999999998</c:v>
+                  <c:v>0.30070000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.88129999999999997</c:v>
+                  <c:v>0.37730000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.91500000000000004</c:v>
+                  <c:v>0.46729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.95289999999999997</c:v>
+                  <c:v>0.5796</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.99390000000000001</c:v>
+                  <c:v>0.71450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.032</c:v>
+                  <c:v>0.87329999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.073</c:v>
+                  <c:v>1.0629999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1200000000000001</c:v>
+                  <c:v>1.2849999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.1619999999999999</c:v>
+                  <c:v>1.5489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.208</c:v>
+                  <c:v>1.8480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.258</c:v>
+                  <c:v>2.1619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3069999999999999</c:v>
+                  <c:v>2.5409999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.359</c:v>
+                  <c:v>2.972</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.413</c:v>
+                  <c:v>3.4649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.472</c:v>
+                  <c:v>4.0389999999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5329999999999999</c:v>
+                  <c:v>4.68</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.601</c:v>
+                  <c:v>5.39</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.67</c:v>
+                  <c:v>6.1840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7350000000000001</c:v>
+                  <c:v>7.0990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.8109999999999999</c:v>
+                  <c:v>8.1760000000000002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.9750000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.0720000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.1659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.2669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.3719999999999999</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.484</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.7370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.8740000000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.024</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.1859999999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.3530000000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.5310000000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.7269999999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.9390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.1740000000000004</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.42</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.7160000000000002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.03</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.37</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.7240000000000002</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.1029999999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.5190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.0339999999999998</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7.6130000000000004</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8.24</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8.9730000000000008</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9.8049999999999997</c:v>
+                  <c:v>9.4160000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7160,11 +6341,11 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Family!$H$1</c:f>
+              <c:f>SF!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reseek-verysensitive_family</c:v>
+                  <c:v>reseek-verysensitive_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7183,7 +6364,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Family!$A$2:$A$101</c:f>
+              <c:f>SF!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
@@ -7492,219 +6673,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Family!$H$2:$H$102</c:f>
+              <c:f>SF!$H$2:$H$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>4.4240000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.9099999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14580000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.19750000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.24660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.29189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.33660000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.37940000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.41920000000000002</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4577</c:v>
+                  <c:v>1.525E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49609999999999999</c:v>
+                  <c:v>2.239E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53239999999999998</c:v>
+                  <c:v>2.9700000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56540000000000001</c:v>
+                  <c:v>4.2819999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60270000000000001</c:v>
+                  <c:v>5.7889999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.63949999999999996</c:v>
+                  <c:v>7.7249999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.67420000000000002</c:v>
+                  <c:v>0.1009</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.70760000000000001</c:v>
+                  <c:v>0.13089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.74339999999999995</c:v>
+                  <c:v>0.17299999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.78010000000000002</c:v>
+                  <c:v>0.2238</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.8155</c:v>
+                  <c:v>0.2828</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.84970000000000001</c:v>
+                  <c:v>0.35980000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.88900000000000001</c:v>
+                  <c:v>0.45300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.92259999999999998</c:v>
+                  <c:v>0.56479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.96160000000000001</c:v>
+                  <c:v>0.69810000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.004</c:v>
+                  <c:v>0.86</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0429999999999999</c:v>
+                  <c:v>1.0609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.083</c:v>
+                  <c:v>1.288</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>1.556</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.175</c:v>
+                  <c:v>1.857</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.218</c:v>
+                  <c:v>2.2069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.27</c:v>
+                  <c:v>2.5960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.321</c:v>
+                  <c:v>3.0510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3720000000000001</c:v>
+                  <c:v>3.5409999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.4279999999999999</c:v>
+                  <c:v>4.0670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.4850000000000001</c:v>
+                  <c:v>4.673</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5489999999999999</c:v>
+                  <c:v>5.3440000000000003</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.615</c:v>
+                  <c:v>6.0940000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.6870000000000001</c:v>
+                  <c:v>6.9379999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7529999999999999</c:v>
+                  <c:v>7.8710000000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.825</c:v>
+                  <c:v>8.8829999999999991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.905</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.9950000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.1819999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.2799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.3809999999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.492</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.6080000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.7309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.8690000000000002</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.016</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.1669999999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.33</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.6789999999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.883</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4.0869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4.3239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.5759999999999996</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4.8440000000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.1580000000000004</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.4969999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.8710000000000004</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.2629999999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.6440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7.1040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7.5910000000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>8.0839999999999996</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>8.6940000000000008</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9.3789999999999996</c:v>
+                  <c:v>9.9990000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8421,20 +7488,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
-                <c:pt idx="7">
-                  <c:v>2.3009999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.9720000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40639999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.335</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.6459999999999999</c:v>
+                <c:pt idx="3">
+                  <c:v>0.1047</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8789,127 +7847,106 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
                 <c:pt idx="2">
-                  <c:v>1.222E-2</c:v>
+                  <c:v>1.1599999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2210000000000001E-2</c:v>
+                  <c:v>3.193E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5499999999999997E-2</c:v>
+                  <c:v>5.2269999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.5480000000000002E-2</c:v>
+                  <c:v>7.0379999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.5629999999999998E-2</c:v>
+                  <c:v>9.0359999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1176</c:v>
+                  <c:v>0.11020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.15429999999999999</c:v>
+                  <c:v>0.13089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2009</c:v>
+                  <c:v>0.15129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25580000000000003</c:v>
+                  <c:v>0.1792</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32300000000000001</c:v>
+                  <c:v>0.20760000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.41899999999999998</c:v>
+                  <c:v>0.23549999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5363</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.65690000000000004</c:v>
+                  <c:v>0.29559999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.79979999999999996</c:v>
+                  <c:v>0.33729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.95709999999999995</c:v>
+                  <c:v>0.38700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1299999999999999</c:v>
+                  <c:v>0.44950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.331</c:v>
+                  <c:v>0.53049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.554</c:v>
+                  <c:v>0.63390000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7949999999999999</c:v>
+                  <c:v>0.75790000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0459999999999998</c:v>
+                  <c:v>0.9113</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.327</c:v>
+                  <c:v>1.1040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6309999999999998</c:v>
+                  <c:v>1.3360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.931</c:v>
+                  <c:v>1.6220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2290000000000001</c:v>
+                  <c:v>1.9359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.5590000000000002</c:v>
+                  <c:v>2.3149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.8849999999999998</c:v>
+                  <c:v>2.7450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.2</c:v>
+                  <c:v>3.2639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.5369999999999999</c:v>
+                  <c:v>3.863</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.883</c:v>
+                  <c:v>4.4820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2169999999999996</c:v>
+                  <c:v>5.2469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.5490000000000004</c:v>
+                  <c:v>6.03</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.9</c:v>
+                  <c:v>6.9329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.242</c:v>
+                  <c:v>7.9020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.6120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.9660000000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.367</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.7750000000000004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.1969999999999992</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.673</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.1210000000000004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.6590000000000007</c:v>
+                  <c:v>9.0250000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9262,113 +8299,122 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="4">
+                  <c:v>1.0529999999999999E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5520000000000001E-2</c:v>
+                  <c:v>1.7659999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3189999999999999E-2</c:v>
+                  <c:v>2.9440000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2820000000000002E-2</c:v>
+                  <c:v>4.496E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9059999999999999E-2</c:v>
+                  <c:v>6.6900000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4219999999999999E-2</c:v>
+                  <c:v>9.5799999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7239999999999998E-2</c:v>
+                  <c:v>0.1308</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1123</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13719999999999999</c:v>
+                  <c:v>0.2319</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1709</c:v>
+                  <c:v>0.28539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21410000000000001</c:v>
+                  <c:v>0.34839999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2606</c:v>
+                  <c:v>0.4375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.313</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.37280000000000002</c:v>
+                  <c:v>0.63470000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44569999999999999</c:v>
+                  <c:v>0.74709999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.53059999999999996</c:v>
+                  <c:v>0.87960000000000005</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.63329999999999997</c:v>
+                  <c:v>1.0229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.74329999999999996</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88580000000000003</c:v>
+                  <c:v>1.359</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.05</c:v>
+                  <c:v>1.538</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.236</c:v>
+                  <c:v>1.7330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.4570000000000001</c:v>
+                  <c:v>1.944</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6970000000000001</c:v>
+                  <c:v>2.177</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.9590000000000001</c:v>
+                  <c:v>2.4260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.242</c:v>
+                  <c:v>2.69</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.585</c:v>
+                  <c:v>2.976</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9569999999999999</c:v>
+                  <c:v>3.302</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.4020000000000001</c:v>
+                  <c:v>3.6469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8620000000000001</c:v>
+                  <c:v>4.032</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.3890000000000002</c:v>
+                  <c:v>4.4219999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9450000000000003</c:v>
+                  <c:v>4.8360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.5890000000000004</c:v>
+                  <c:v>5.282</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.2320000000000002</c:v>
+                  <c:v>5.7830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.931</c:v>
+                  <c:v>6.3040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.6630000000000003</c:v>
+                  <c:v>6.8719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.4559999999999995</c:v>
+                  <c:v>7.4859999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.3170000000000002</c:v>
+                  <c:v>8.1310000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.8079999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.5549999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9721,110 +8767,83 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="3">
+                  <c:v>2.078E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0939999999999997E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.24E-2</c:v>
+                  <c:v>5.994E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3990000000000001E-2</c:v>
+                  <c:v>7.8229999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9960000000000002E-2</c:v>
+                  <c:v>9.8919999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0479999999999999E-2</c:v>
+                  <c:v>0.12239999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.6430000000000007E-2</c:v>
+                  <c:v>0.15459999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1169</c:v>
+                  <c:v>0.1913</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1515</c:v>
+                  <c:v>0.24229999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1948</c:v>
+                  <c:v>0.31019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2429</c:v>
+                  <c:v>0.4002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2994</c:v>
+                  <c:v>0.52800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.36709999999999998</c:v>
+                  <c:v>0.6895</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.43590000000000001</c:v>
+                  <c:v>0.89270000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5171</c:v>
+                  <c:v>1.155</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.61240000000000006</c:v>
+                  <c:v>1.468</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.71279999999999999</c:v>
+                  <c:v>1.855</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.82709999999999995</c:v>
+                  <c:v>2.3130000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.9506</c:v>
+                  <c:v>2.8359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.0860000000000001</c:v>
+                  <c:v>3.4390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.244</c:v>
+                  <c:v>4.1630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.425</c:v>
+                  <c:v>4.97</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6279999999999999</c:v>
+                  <c:v>5.8739999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.841</c:v>
+                  <c:v>6.8970000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0880000000000001</c:v>
+                  <c:v>8.0150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.3730000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.6960000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.0590000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.4590000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.9079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.4119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.9790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.5990000000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.2990000000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.0869999999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.9729999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.9410000000000007</c:v>
+                  <c:v>9.23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10178,95 +9197,59 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="6">
+                  <c:v>1.383E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3460000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8179999999999999E-2</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.061E-2</c:v>
+                  <c:v>6.2880000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7389999999999999E-2</c:v>
+                  <c:v>0.1022</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.614E-2</c:v>
+                  <c:v>0.1714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7280000000000001E-2</c:v>
+                  <c:v>0.27539999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2089999999999997E-2</c:v>
+                  <c:v>0.40649999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.7339999999999997E-2</c:v>
+                  <c:v>0.58550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.7679999999999994E-2</c:v>
+                  <c:v>0.82069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1162</c:v>
+                  <c:v>1.1279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.15029999999999999</c:v>
+                  <c:v>1.534</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.19489999999999999</c:v>
+                  <c:v>2.06</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2445</c:v>
+                  <c:v>2.76</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30919999999999997</c:v>
+                  <c:v>3.661</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3881</c:v>
+                  <c:v>4.8360000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.48659999999999998</c:v>
+                  <c:v>6.3369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.60699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.75460000000000005</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.92800000000000005</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.141</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.3839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.659</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.9910000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.3769999999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.8330000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.339</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.9350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.6539999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.5309999999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.5590000000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.8090000000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.3979999999999997</c:v>
+                  <c:v>8.4510000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10620,101 +9603,71 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="6">
+                  <c:v>1.2579999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1229999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5680000000000003E-2</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.044E-2</c:v>
+                  <c:v>5.7889999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.7219999999999999E-2</c:v>
+                  <c:v>9.2939999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4889999999999999E-2</c:v>
+                  <c:v>0.1449</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6209999999999999E-2</c:v>
+                  <c:v>0.22620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9149999999999999E-2</c:v>
+                  <c:v>0.33650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.5199999999999994E-2</c:v>
+                  <c:v>0.47770000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.4379999999999997E-2</c:v>
+                  <c:v>0.64470000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1124</c:v>
+                  <c:v>0.86539999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1462</c:v>
+                  <c:v>1.1439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.18590000000000001</c:v>
+                  <c:v>1.4590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2399</c:v>
+                  <c:v>1.857</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30070000000000002</c:v>
+                  <c:v>2.331</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.37730000000000002</c:v>
+                  <c:v>2.91</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.46729999999999999</c:v>
+                  <c:v>3.5960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5796</c:v>
+                  <c:v>4.4279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.71450000000000002</c:v>
+                  <c:v>5.4269999999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.87329999999999997</c:v>
+                  <c:v>6.6239999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0629999999999999</c:v>
+                  <c:v>8.0510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.2849999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.5489999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.8480000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.1619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.5409999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.972</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4649999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.0389999999999997</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.68</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.39</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.1840000000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.0990000000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.1760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.4160000000000004</c:v>
+                  <c:v>9.7490000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11067,101 +10020,80 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="101"/>
+                <c:pt idx="5">
+                  <c:v>1.026E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6590000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.184E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4050000000000001E-2</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.525E-2</c:v>
+                  <c:v>8.8660000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.239E-2</c:v>
+                  <c:v>0.1381</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9700000000000001E-2</c:v>
+                  <c:v>0.21010000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2819999999999997E-2</c:v>
+                  <c:v>0.30409999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7889999999999997E-2</c:v>
+                  <c:v>0.43230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.7249999999999999E-2</c:v>
+                  <c:v>0.59509999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1009</c:v>
+                  <c:v>0.78800000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13089999999999999</c:v>
+                  <c:v>1.02</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17299999999999999</c:v>
+                  <c:v>1.2829999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2238</c:v>
+                  <c:v>1.579</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2828</c:v>
+                  <c:v>1.9390000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.35980000000000001</c:v>
+                  <c:v>2.3450000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.45300000000000001</c:v>
+                  <c:v>2.8170000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.56479999999999997</c:v>
+                  <c:v>3.3220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.69810000000000005</c:v>
+                  <c:v>3.9180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.86</c:v>
+                  <c:v>4.5720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0609999999999999</c:v>
+                  <c:v>5.3159999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.288</c:v>
+                  <c:v>6.1529999999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.556</c:v>
+                  <c:v>7.0810000000000004</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.857</c:v>
+                  <c:v>8.1349999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2069999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.5960000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.0510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.5409999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.0670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.673</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.3440000000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.0940000000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.9379999999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.8710000000000004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.8829999999999991</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.9990000000000006</c:v>
+                  <c:v>9.2810000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13627,9 +12559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E49264-24AA-4A3A-8626-19F8BEE0B881}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13703,13 +12633,22 @@
       <c r="A8">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="B8">
+        <v>1.49E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.08</v>
       </c>
       <c r="B9">
-        <v>1.436E-2</v>
+        <v>2.3550000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.873E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.427E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -13717,7 +12656,13 @@
         <v>0.09</v>
       </c>
       <c r="B10">
-        <v>1.873E-2</v>
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D10">
+        <v>9.0980000000000005E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.078E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -13725,7 +12670,13 @@
         <v>0.1</v>
       </c>
       <c r="B11">
-        <v>2.3009999999999999E-2</v>
+        <v>4.3709999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.39069999999999999</v>
+      </c>
+      <c r="E11">
+        <v>3.0679999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -13733,7 +12684,13 @@
         <v>0.11</v>
       </c>
       <c r="B12">
-        <v>2.8719999999999999E-2</v>
+        <v>5.289E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="E12">
+        <v>3.9510000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -13741,7 +12698,16 @@
         <v>0.12</v>
       </c>
       <c r="B13">
-        <v>3.5319999999999997E-2</v>
+        <v>6.1280000000000001E-2</v>
+      </c>
+      <c r="C13">
+        <v>1.2670000000000001E-2</v>
+      </c>
+      <c r="D13">
+        <v>7.55</v>
+      </c>
+      <c r="E13">
+        <v>4.7989999999999998E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -13749,7 +12715,13 @@
         <v>0.13</v>
       </c>
       <c r="B14">
-        <v>4.335E-2</v>
+        <v>7.2429999999999994E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.6410000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>5.7270000000000001E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -13757,7 +12729,16 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="B15">
-        <v>5.3519999999999998E-2</v>
+        <v>8.4559999999999996E-2</v>
+      </c>
+      <c r="C15">
+        <v>2.1229999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>6.6629999999999995E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -13765,10 +12746,22 @@
         <v>0.15</v>
       </c>
       <c r="B16">
-        <v>6.7790000000000003E-2</v>
+        <v>9.4369999999999996E-2</v>
+      </c>
+      <c r="C16">
+        <v>2.6579999999999999E-2</v>
       </c>
       <c r="E16">
-        <v>1.24E-2</v>
+        <v>7.4389999999999998E-2</v>
+      </c>
+      <c r="F16">
+        <v>1.124E-2</v>
+      </c>
+      <c r="G16">
+        <v>1.0789999999999999E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.481E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -13776,13 +12769,22 @@
         <v>0.16</v>
       </c>
       <c r="B17">
-        <v>8.3940000000000001E-2</v>
+        <v>0.1043</v>
       </c>
       <c r="C17">
-        <v>1.142E-2</v>
+        <v>3.2469999999999999E-2</v>
       </c>
       <c r="E17">
-        <v>1.7389999999999999E-2</v>
+        <v>8.5269999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.481E-2</v>
+      </c>
+      <c r="G17">
+        <v>1.338E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.7479999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -13790,13 +12792,22 @@
         <v>0.17</v>
       </c>
       <c r="B18">
-        <v>9.7320000000000004E-2</v>
+        <v>0.1187</v>
       </c>
       <c r="C18">
-        <v>1.4449999999999999E-2</v>
+        <v>4.2009999999999999E-2</v>
       </c>
       <c r="E18">
-        <v>2.266E-2</v>
+        <v>9.4820000000000002E-2</v>
+      </c>
+      <c r="F18">
+        <v>1.9089999999999999E-2</v>
+      </c>
+      <c r="G18">
+        <v>1.7659999999999999E-2</v>
+      </c>
+      <c r="H18">
+        <v>2.3550000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -13804,13 +12815,22 @@
         <v>0.18</v>
       </c>
       <c r="B19">
-        <v>0.1142</v>
+        <v>0.13020000000000001</v>
       </c>
       <c r="C19">
-        <v>1.6410000000000001E-2</v>
+        <v>4.9059999999999999E-2</v>
       </c>
       <c r="E19">
-        <v>2.988E-2</v>
+        <v>0.10580000000000001</v>
+      </c>
+      <c r="F19">
+        <v>2.3820000000000001E-2</v>
+      </c>
+      <c r="G19">
+        <v>2.1940000000000001E-2</v>
+      </c>
+      <c r="H19">
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -13818,13 +12838,22 @@
         <v>0.19</v>
       </c>
       <c r="B20">
-        <v>0.13139999999999999</v>
+        <v>0.14319999999999999</v>
       </c>
       <c r="C20">
-        <v>1.9800000000000002E-2</v>
+        <v>6.1010000000000002E-2</v>
       </c>
       <c r="E20">
-        <v>3.7109999999999997E-2</v>
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F20">
+        <v>2.997E-2</v>
+      </c>
+      <c r="G20">
+        <v>2.8539999999999999E-2</v>
+      </c>
+      <c r="H20">
+        <v>4.1390000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -13832,13 +12861,22 @@
         <v>0.2</v>
       </c>
       <c r="B21">
-        <v>0.15240000000000001</v>
+        <v>0.15809999999999999</v>
       </c>
       <c r="C21">
-        <v>2.248E-2</v>
+        <v>7.4749999999999997E-2</v>
       </c>
       <c r="E21">
-        <v>4.6030000000000001E-2</v>
+        <v>0.1343</v>
+      </c>
+      <c r="F21">
+        <v>3.8179999999999999E-2</v>
+      </c>
+      <c r="G21">
+        <v>3.5680000000000003E-2</v>
+      </c>
+      <c r="H21">
+        <v>5.45E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -13846,13 +12884,22 @@
         <v>0.21</v>
       </c>
       <c r="B22">
-        <v>0.17130000000000001</v>
+        <v>0.17849999999999999</v>
       </c>
       <c r="C22">
-        <v>2.4979999999999999E-2</v>
+        <v>9.0270000000000003E-2</v>
       </c>
       <c r="E22">
-        <v>5.5840000000000001E-2</v>
+        <v>0.1522</v>
+      </c>
+      <c r="F22">
+        <v>4.8520000000000001E-2</v>
+      </c>
+      <c r="G22">
+        <v>4.5940000000000002E-2</v>
+      </c>
+      <c r="H22">
+        <v>6.8500000000000005E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -13860,13 +12907,22 @@
         <v>0.22</v>
       </c>
       <c r="B23">
-        <v>0.20039999999999999</v>
+        <v>0.19570000000000001</v>
       </c>
       <c r="C23">
-        <v>2.819E-2</v>
+        <v>0.106</v>
       </c>
       <c r="E23">
-        <v>6.5559999999999993E-2</v>
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="F23">
+        <v>6.3060000000000005E-2</v>
+      </c>
+      <c r="G23">
+        <v>5.7889999999999997E-2</v>
+      </c>
+      <c r="H23">
+        <v>9.0800000000000006E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -13874,16 +12930,22 @@
         <v>0.23</v>
       </c>
       <c r="B24">
-        <v>0.22839999999999999</v>
+        <v>0.2185</v>
       </c>
       <c r="C24">
-        <v>3.2469999999999999E-2</v>
-      </c>
-      <c r="D24">
-        <v>1.5970000000000002E-2</v>
+        <v>0.127</v>
       </c>
       <c r="E24">
-        <v>7.8320000000000001E-2</v>
+        <v>0.19359999999999999</v>
+      </c>
+      <c r="F24">
+        <v>8.1619999999999998E-2</v>
+      </c>
+      <c r="G24">
+        <v>7.3770000000000002E-2</v>
+      </c>
+      <c r="H24">
+        <v>0.1143</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -13891,16 +12953,22 @@
         <v>0.24</v>
       </c>
       <c r="B25">
-        <v>0.25790000000000002</v>
+        <v>0.2389</v>
       </c>
       <c r="C25">
-        <v>3.7109999999999997E-2</v>
-      </c>
-      <c r="D25">
-        <v>2.622E-2</v>
+        <v>0.15210000000000001</v>
       </c>
       <c r="E25">
-        <v>9.0889999999999999E-2</v>
+        <v>0.2203</v>
+      </c>
+      <c r="F25">
+        <v>0.106</v>
+      </c>
+      <c r="G25">
+        <v>9.4729999999999995E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.1472</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -13908,16 +12976,22 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>0.29659999999999997</v>
+        <v>0.26169999999999999</v>
       </c>
       <c r="C26">
-        <v>4.3709999999999999E-2</v>
-      </c>
-      <c r="D26">
-        <v>4.3439999999999999E-2</v>
+        <v>0.182</v>
       </c>
       <c r="E26">
-        <v>0.1069</v>
+        <v>0.25640000000000002</v>
+      </c>
+      <c r="F26">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.1216</v>
+      </c>
+      <c r="H26">
+        <v>0.1862</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -13925,16 +12999,22 @@
         <v>0.26</v>
       </c>
       <c r="B27">
-        <v>0.33879999999999999</v>
+        <v>0.28270000000000001</v>
       </c>
       <c r="C27">
-        <v>4.9419999999999999E-2</v>
-      </c>
-      <c r="D27">
-        <v>7.8579999999999997E-2</v>
+        <v>0.21759999999999999</v>
       </c>
       <c r="E27">
-        <v>0.124</v>
+        <v>0.30059999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.18990000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.157</v>
+      </c>
+      <c r="H27">
+        <v>0.23580000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -13942,19 +13022,22 @@
         <v>0.27</v>
       </c>
       <c r="B28">
-        <v>0.39650000000000002</v>
+        <v>0.3095</v>
       </c>
       <c r="C28">
-        <v>5.3519999999999998E-2</v>
-      </c>
-      <c r="D28">
-        <v>0.1389</v>
+        <v>0.254</v>
       </c>
       <c r="E28">
-        <v>0.1419</v>
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="F28">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="G28">
+        <v>0.20449999999999999</v>
       </c>
       <c r="H28">
-        <v>1.035E-2</v>
+        <v>0.2964</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -13962,19 +13045,22 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B29">
-        <v>0.45090000000000002</v>
+        <v>0.34139999999999998</v>
       </c>
       <c r="C29">
-        <v>5.9499999999999997E-2</v>
-      </c>
-      <c r="D29">
-        <v>0.24110000000000001</v>
+        <v>0.29060000000000002</v>
       </c>
       <c r="E29">
-        <v>0.161</v>
+        <v>0.41170000000000001</v>
+      </c>
+      <c r="F29">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="G29">
+        <v>0.2651</v>
       </c>
       <c r="H29">
-        <v>1.213E-2</v>
+        <v>0.37180000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -13982,19 +13068,22 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="B30">
-        <v>0.52969999999999995</v>
+        <v>0.37940000000000002</v>
       </c>
       <c r="C30">
-        <v>6.6360000000000002E-2</v>
-      </c>
-      <c r="D30">
-        <v>0.41699999999999998</v>
+        <v>0.33179999999999998</v>
       </c>
       <c r="E30">
-        <v>0.18179999999999999</v>
+        <v>0.49390000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.41739999999999999</v>
+      </c>
+      <c r="G30">
+        <v>0.34100000000000003</v>
       </c>
       <c r="H30">
-        <v>1.436E-2</v>
+        <v>0.46589999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -14002,25 +13091,22 @@
         <v>0.3</v>
       </c>
       <c r="B31">
-        <v>0.59060000000000001</v>
+        <v>0.42220000000000002</v>
       </c>
       <c r="C31">
-        <v>7.4569999999999997E-2</v>
-      </c>
-      <c r="D31">
-        <v>0.70720000000000005</v>
+        <v>0.3947</v>
       </c>
       <c r="E31">
-        <v>0.20499999999999999</v>
+        <v>0.59379999999999999</v>
       </c>
       <c r="F31">
-        <v>1.115E-2</v>
+        <v>0.53259999999999996</v>
       </c>
       <c r="G31">
-        <v>1.106E-2</v>
+        <v>0.43309999999999998</v>
       </c>
       <c r="H31">
-        <v>1.5699999999999999E-2</v>
+        <v>0.58109999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -14028,25 +13114,22 @@
         <v>0.31</v>
       </c>
       <c r="B32">
-        <v>0.66869999999999996</v>
+        <v>0.47670000000000001</v>
       </c>
       <c r="C32">
-        <v>8.634E-2</v>
-      </c>
-      <c r="D32">
-        <v>1.163</v>
+        <v>0.46339999999999998</v>
       </c>
       <c r="E32">
-        <v>0.22850000000000001</v>
+        <v>0.71530000000000005</v>
       </c>
       <c r="F32">
-        <v>1.3469999999999999E-2</v>
+        <v>0.68169999999999997</v>
       </c>
       <c r="G32">
-        <v>1.302E-2</v>
+        <v>0.53480000000000005</v>
       </c>
       <c r="H32">
-        <v>1.8200000000000001E-2</v>
+        <v>0.71140000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -14054,25 +13137,22 @@
         <v>0.32</v>
       </c>
       <c r="B33">
-        <v>0.75470000000000004</v>
+        <v>0.53969999999999996</v>
       </c>
       <c r="C33">
-        <v>9.3479999999999994E-2</v>
-      </c>
-      <c r="D33">
-        <v>1.9530000000000001</v>
+        <v>0.54559999999999997</v>
       </c>
       <c r="E33">
-        <v>0.25519999999999998</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="F33">
-        <v>1.6320000000000001E-2</v>
+        <v>0.86760000000000004</v>
       </c>
       <c r="G33">
-        <v>1.6140000000000002E-2</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="H33">
-        <v>2.0959999999999999E-2</v>
+        <v>0.87490000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -14080,25 +13160,22 @@
         <v>0.33</v>
       </c>
       <c r="B34">
-        <v>0.84830000000000005</v>
+        <v>0.6139</v>
       </c>
       <c r="C34">
-        <v>0.1031</v>
-      </c>
-      <c r="D34">
-        <v>3.2389999999999999</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="E34">
-        <v>0.28470000000000001</v>
+        <v>1.038</v>
       </c>
       <c r="F34">
-        <v>1.9449999999999999E-2</v>
+        <v>1.097</v>
       </c>
       <c r="G34">
-        <v>1.864E-2</v>
+        <v>0.81869999999999998</v>
       </c>
       <c r="H34">
-        <v>2.3820000000000001E-2</v>
+        <v>1.0609999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -14106,25 +13183,22 @@
         <v>0.34</v>
       </c>
       <c r="B35">
-        <v>0.94130000000000003</v>
+        <v>0.69469999999999998</v>
       </c>
       <c r="C35">
-        <v>0.1147</v>
-      </c>
-      <c r="D35">
-        <v>7.6459999999999999</v>
+        <v>0.73370000000000002</v>
       </c>
       <c r="E35">
-        <v>0.31790000000000002</v>
+        <v>1.254</v>
       </c>
       <c r="F35">
-        <v>2.1590000000000002E-2</v>
+        <v>1.389</v>
       </c>
       <c r="G35">
-        <v>2.1049999999999999E-2</v>
+        <v>1.012</v>
       </c>
       <c r="H35">
-        <v>2.6939999999999999E-2</v>
+        <v>1.2669999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -14132,22 +13206,22 @@
         <v>0.35</v>
       </c>
       <c r="B36">
-        <v>1.0409999999999999</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="C36">
-        <v>0.1242</v>
+        <v>0.85050000000000003</v>
       </c>
       <c r="E36">
-        <v>0.35399999999999998</v>
+        <v>1.508</v>
       </c>
       <c r="F36">
-        <v>2.5600000000000001E-2</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="G36">
-        <v>2.444E-2</v>
+        <v>1.2509999999999999</v>
       </c>
       <c r="H36">
-        <v>2.9520000000000001E-2</v>
+        <v>1.5089999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -14155,22 +13229,22 @@
         <v>0.36</v>
       </c>
       <c r="B37">
-        <v>1.145</v>
+        <v>0.90790000000000004</v>
       </c>
       <c r="C37">
-        <v>0.1361</v>
+        <v>0.98839999999999995</v>
       </c>
       <c r="E37">
-        <v>0.39140000000000003</v>
+        <v>1.8089999999999999</v>
       </c>
       <c r="F37">
-        <v>2.997E-2</v>
+        <v>2.2650000000000001</v>
       </c>
       <c r="G37">
-        <v>2.81E-2</v>
+        <v>1.538</v>
       </c>
       <c r="H37">
-        <v>3.4070000000000003E-2</v>
+        <v>1.7969999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -14178,22 +13252,22 @@
         <v>0.37</v>
       </c>
       <c r="B38">
-        <v>1.266</v>
+        <v>1.0289999999999999</v>
       </c>
       <c r="C38">
-        <v>0.1507</v>
+        <v>1.137</v>
       </c>
       <c r="E38">
-        <v>0.4289</v>
+        <v>2.165</v>
       </c>
       <c r="F38">
-        <v>3.4880000000000001E-2</v>
+        <v>2.9060000000000001</v>
       </c>
       <c r="G38">
-        <v>3.2469999999999999E-2</v>
+        <v>1.8740000000000001</v>
       </c>
       <c r="H38">
-        <v>3.916E-2</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -14201,22 +13275,22 @@
         <v>0.38</v>
       </c>
       <c r="B39">
-        <v>1.4059999999999999</v>
+        <v>1.1779999999999999</v>
       </c>
       <c r="C39">
-        <v>0.16450000000000001</v>
+        <v>1.31</v>
       </c>
       <c r="E39">
-        <v>0.46960000000000002</v>
+        <v>2.585</v>
       </c>
       <c r="F39">
-        <v>3.8890000000000001E-2</v>
+        <v>3.7360000000000002</v>
       </c>
       <c r="G39">
-        <v>3.7199999999999997E-2</v>
+        <v>2.278</v>
       </c>
       <c r="H39">
-        <v>4.4600000000000001E-2</v>
+        <v>2.5379999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -14224,22 +13298,22 @@
         <v>0.39</v>
       </c>
       <c r="B40">
-        <v>1.54</v>
+        <v>1.349</v>
       </c>
       <c r="C40">
-        <v>0.18</v>
+        <v>1.5</v>
       </c>
       <c r="E40">
-        <v>0.51270000000000004</v>
+        <v>3.0779999999999998</v>
       </c>
       <c r="F40">
-        <v>4.505E-2</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G40">
-        <v>4.1739999999999999E-2</v>
+        <v>2.778</v>
       </c>
       <c r="H40">
-        <v>5.0130000000000001E-2</v>
+        <v>2.9990000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -14247,22 +13321,22 @@
         <v>0.4</v>
       </c>
       <c r="B41">
-        <v>1.681</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="C41">
-        <v>0.19750000000000001</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="E41">
-        <v>0.56520000000000004</v>
+        <v>3.6379999999999999</v>
       </c>
       <c r="F41">
-        <v>5.2089999999999997E-2</v>
+        <v>6.319</v>
       </c>
       <c r="G41">
-        <v>4.7809999999999998E-2</v>
+        <v>3.3919999999999999</v>
       </c>
       <c r="H41">
-        <v>5.6550000000000003E-2</v>
+        <v>3.5230000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -14270,22 +13344,22 @@
         <v>0.41</v>
       </c>
       <c r="B42">
-        <v>1.837</v>
+        <v>1.764</v>
       </c>
       <c r="C42">
-        <v>0.22</v>
+        <v>1.9379999999999999</v>
       </c>
       <c r="E42">
-        <v>0.61629999999999996</v>
+        <v>4.32</v>
       </c>
       <c r="F42">
-        <v>5.7529999999999998E-2</v>
+        <v>8.4450000000000003</v>
       </c>
       <c r="G42">
-        <v>5.5039999999999999E-2</v>
+        <v>4.149</v>
       </c>
       <c r="H42">
-        <v>6.3960000000000003E-2</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -14293,22 +13367,19 @@
         <v>0.42</v>
       </c>
       <c r="B43">
-        <v>1.9910000000000001</v>
+        <v>1.988</v>
       </c>
       <c r="C43">
-        <v>0.2419</v>
+        <v>2.2050000000000001</v>
       </c>
       <c r="E43">
-        <v>0.67530000000000001</v>
-      </c>
-      <c r="F43">
-        <v>6.5199999999999994E-2</v>
+        <v>5.093</v>
       </c>
       <c r="G43">
-        <v>6.1100000000000002E-2</v>
+        <v>5.0739999999999998</v>
       </c>
       <c r="H43">
-        <v>7.3139999999999997E-2</v>
+        <v>4.8239999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -14316,22 +13387,19 @@
         <v>0.43</v>
       </c>
       <c r="B44">
-        <v>2.1589999999999998</v>
+        <v>2.254</v>
       </c>
       <c r="C44">
-        <v>0.26629999999999998</v>
+        <v>2.488</v>
       </c>
       <c r="E44">
-        <v>0.7258</v>
-      </c>
-      <c r="F44">
-        <v>7.3230000000000003E-2</v>
+        <v>5.9550000000000001</v>
       </c>
       <c r="G44">
-        <v>6.8860000000000005E-2</v>
+        <v>6.1859999999999999</v>
       </c>
       <c r="H44">
-        <v>8.1079999999999999E-2</v>
+        <v>5.609</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -14339,22 +13407,19 @@
         <v>0.44</v>
       </c>
       <c r="B45">
-        <v>2.3180000000000001</v>
+        <v>2.5819999999999999</v>
       </c>
       <c r="C45">
-        <v>0.28970000000000001</v>
+        <v>2.8039999999999998</v>
       </c>
       <c r="E45">
-        <v>0.79179999999999995</v>
-      </c>
-      <c r="F45">
-        <v>8.3849999999999994E-2</v>
+        <v>6.9580000000000002</v>
       </c>
       <c r="G45">
-        <v>7.7960000000000002E-2</v>
+        <v>7.5830000000000002</v>
       </c>
       <c r="H45">
-        <v>9.178E-2</v>
+        <v>6.5540000000000003</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -14362,22 +13427,19 @@
         <v>0.45</v>
       </c>
       <c r="B46">
-        <v>2.5110000000000001</v>
+        <v>2.9239999999999999</v>
       </c>
       <c r="C46">
-        <v>0.316</v>
+        <v>3.1819999999999999</v>
       </c>
       <c r="E46">
-        <v>0.85929999999999995</v>
-      </c>
-      <c r="F46">
-        <v>9.6329999999999999E-2</v>
+        <v>8.0709999999999997</v>
       </c>
       <c r="G46">
-        <v>8.7859999999999994E-2</v>
+        <v>9.282</v>
       </c>
       <c r="H46">
-        <v>0.10290000000000001</v>
+        <v>7.609</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -14385,22 +13447,16 @@
         <v>0.46</v>
       </c>
       <c r="B47">
-        <v>2.6850000000000001</v>
+        <v>3.3119999999999998</v>
       </c>
       <c r="C47">
-        <v>0.34570000000000001</v>
+        <v>3.589</v>
       </c>
       <c r="E47">
-        <v>0.93140000000000001</v>
-      </c>
-      <c r="F47">
-        <v>0.1109</v>
-      </c>
-      <c r="G47">
-        <v>0.1009</v>
+        <v>9.3390000000000004</v>
       </c>
       <c r="H47">
-        <v>0.1168</v>
+        <v>8.8390000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -14408,657 +13464,216 @@
         <v>0.47</v>
       </c>
       <c r="B48">
-        <v>2.883</v>
+        <v>3.7679999999999998</v>
       </c>
       <c r="C48">
-        <v>0.37859999999999999</v>
-      </c>
-      <c r="E48">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="F48">
-        <v>0.12759999999999999</v>
-      </c>
-      <c r="G48">
-        <v>0.1154</v>
-      </c>
-      <c r="H48">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.48</v>
       </c>
       <c r="B49">
-        <v>3.081</v>
+        <v>4.2590000000000003</v>
       </c>
       <c r="C49">
-        <v>0.41239999999999999</v>
-      </c>
-      <c r="E49">
-        <v>1.085</v>
-      </c>
-      <c r="F49">
-        <v>0.14649999999999999</v>
-      </c>
-      <c r="G49">
-        <v>0.13089999999999999</v>
-      </c>
-      <c r="H49">
-        <v>0.1525</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.5369999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.49</v>
       </c>
       <c r="B50">
-        <v>3.262</v>
+        <v>4.8040000000000003</v>
       </c>
       <c r="C50">
-        <v>0.44819999999999999</v>
-      </c>
-      <c r="E50">
-        <v>1.18</v>
-      </c>
-      <c r="F50">
-        <v>0.1691</v>
-      </c>
-      <c r="G50">
-        <v>0.1497</v>
-      </c>
-      <c r="H50">
-        <v>0.17380000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.0659999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.5</v>
       </c>
       <c r="B51">
-        <v>3.5049999999999999</v>
+        <v>5.3840000000000003</v>
       </c>
       <c r="C51">
-        <v>0.49419999999999997</v>
-      </c>
-      <c r="E51">
-        <v>1.2789999999999999</v>
-      </c>
-      <c r="F51">
-        <v>0.1968</v>
-      </c>
-      <c r="G51">
-        <v>0.1704</v>
-      </c>
-      <c r="H51">
-        <v>0.19670000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.6449999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.51</v>
       </c>
       <c r="B52">
-        <v>3.694</v>
+        <v>6.056</v>
       </c>
       <c r="C52">
-        <v>0.54200000000000004</v>
-      </c>
-      <c r="E52">
-        <v>1.387</v>
-      </c>
-      <c r="F52">
-        <v>0.22209999999999999</v>
-      </c>
-      <c r="G52">
-        <v>0.1948</v>
-      </c>
-      <c r="H52">
-        <v>0.22750000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.2770000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.52</v>
       </c>
       <c r="B53">
-        <v>3.9119999999999999</v>
+        <v>6.7770000000000001</v>
       </c>
       <c r="C53">
-        <v>0.60109999999999997</v>
-      </c>
-      <c r="E53">
-        <v>1.496</v>
-      </c>
-      <c r="F53">
-        <v>0.2586</v>
-      </c>
-      <c r="G53">
-        <v>0.22459999999999999</v>
-      </c>
-      <c r="H53">
-        <v>0.25800000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.9829999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.53</v>
       </c>
       <c r="B54">
-        <v>4.1420000000000003</v>
+        <v>7.6360000000000001</v>
       </c>
       <c r="C54">
-        <v>0.66259999999999997</v>
-      </c>
-      <c r="E54">
-        <v>1.623</v>
-      </c>
-      <c r="F54">
-        <v>0.30259999999999998</v>
-      </c>
-      <c r="G54">
-        <v>0.25650000000000001</v>
-      </c>
-      <c r="H54">
-        <v>0.29470000000000002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.774</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.54</v>
       </c>
       <c r="B55">
-        <v>4.3600000000000003</v>
+        <v>8.5440000000000005</v>
       </c>
       <c r="C55">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="E55">
-        <v>1.7490000000000001</v>
-      </c>
-      <c r="F55">
-        <v>0.35510000000000003</v>
-      </c>
-      <c r="G55">
-        <v>0.29349999999999998</v>
-      </c>
-      <c r="H55">
-        <v>0.3372</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.6120000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.55000000000000004</v>
       </c>
       <c r="B56">
-        <v>4.5549999999999997</v>
+        <v>9.673</v>
       </c>
       <c r="C56">
-        <v>0.8034</v>
-      </c>
-      <c r="E56">
-        <v>1.9079999999999999</v>
-      </c>
-      <c r="F56">
-        <v>0.41310000000000002</v>
-      </c>
-      <c r="G56">
-        <v>0.3367</v>
-      </c>
-      <c r="H56">
-        <v>0.38290000000000002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>9.5190000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.56000000000000005</v>
       </c>
-      <c r="B57">
-        <v>4.7779999999999996</v>
-      </c>
-      <c r="C57">
-        <v>0.9042</v>
-      </c>
-      <c r="E57">
-        <v>2.0779999999999998</v>
-      </c>
-      <c r="F57">
-        <v>0.49509999999999998</v>
-      </c>
-      <c r="G57">
-        <v>0.38779999999999998</v>
-      </c>
-      <c r="H57">
-        <v>0.43869999999999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.56999999999999995</v>
       </c>
-      <c r="B58">
-        <v>5.0410000000000004</v>
-      </c>
-      <c r="C58">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="E58">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="F58">
-        <v>0.59209999999999996</v>
-      </c>
-      <c r="G58">
-        <v>0.45090000000000002</v>
-      </c>
-      <c r="H58">
-        <v>0.50019999999999998</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B59">
-        <v>5.2869999999999999</v>
-      </c>
-      <c r="C59">
-        <v>1.1140000000000001</v>
-      </c>
-      <c r="E59">
-        <v>2.4670000000000001</v>
-      </c>
-      <c r="F59">
-        <v>0.69979999999999998</v>
-      </c>
-      <c r="G59">
-        <v>0.51619999999999999</v>
-      </c>
-      <c r="H59">
-        <v>0.57579999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.59</v>
       </c>
-      <c r="B60">
-        <v>5.5270000000000001</v>
-      </c>
-      <c r="C60">
-        <v>1.2370000000000001</v>
-      </c>
-      <c r="E60">
-        <v>2.7040000000000002</v>
-      </c>
-      <c r="F60">
-        <v>0.83069999999999999</v>
-      </c>
-      <c r="G60">
-        <v>0.6089</v>
-      </c>
-      <c r="H60">
-        <v>0.65959999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.6</v>
       </c>
-      <c r="B61">
-        <v>5.7880000000000003</v>
-      </c>
-      <c r="C61">
-        <v>1.3759999999999999</v>
-      </c>
-      <c r="E61">
-        <v>2.968</v>
-      </c>
-      <c r="F61">
-        <v>0.99039999999999995</v>
-      </c>
-      <c r="G61">
-        <v>0.71230000000000004</v>
-      </c>
-      <c r="H61">
-        <v>0.76080000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.61</v>
       </c>
-      <c r="B62">
-        <v>6.0709999999999997</v>
-      </c>
-      <c r="C62">
-        <v>1.546</v>
-      </c>
-      <c r="E62">
-        <v>3.2679999999999998</v>
-      </c>
-      <c r="F62">
-        <v>1.1950000000000001</v>
-      </c>
-      <c r="G62">
-        <v>0.83479999999999999</v>
-      </c>
-      <c r="H62">
-        <v>0.8841</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.62</v>
       </c>
-      <c r="B63">
-        <v>6.375</v>
-      </c>
-      <c r="C63">
-        <v>1.7230000000000001</v>
-      </c>
-      <c r="E63">
-        <v>3.57</v>
-      </c>
-      <c r="F63">
-        <v>1.444</v>
-      </c>
-      <c r="G63">
-        <v>0.97399999999999998</v>
-      </c>
-      <c r="H63">
-        <v>1.0269999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.63</v>
       </c>
-      <c r="B64">
-        <v>6.6509999999999998</v>
-      </c>
-      <c r="C64">
-        <v>1.9119999999999999</v>
-      </c>
-      <c r="E64">
-        <v>3.9420000000000002</v>
-      </c>
-      <c r="F64">
-        <v>1.748</v>
-      </c>
-      <c r="G64">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="H64">
-        <v>1.1950000000000001</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.64</v>
       </c>
-      <c r="B65">
-        <v>6.9550000000000001</v>
-      </c>
-      <c r="C65">
-        <v>2.1230000000000002</v>
-      </c>
-      <c r="E65">
-        <v>4.3579999999999997</v>
-      </c>
-      <c r="F65">
-        <v>2.14</v>
-      </c>
-      <c r="G65">
-        <v>1.3149999999999999</v>
-      </c>
-      <c r="H65">
-        <v>1.377</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.65</v>
       </c>
-      <c r="B66">
-        <v>7.2880000000000003</v>
-      </c>
-      <c r="C66">
-        <v>2.351</v>
-      </c>
-      <c r="E66">
-        <v>4.8410000000000002</v>
-      </c>
-      <c r="F66">
-        <v>2.64</v>
-      </c>
-      <c r="G66">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="H66">
-        <v>1.5680000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.66</v>
       </c>
-      <c r="B67">
-        <v>7.7030000000000003</v>
-      </c>
-      <c r="C67">
-        <v>2.6589999999999998</v>
-      </c>
-      <c r="E67">
-        <v>5.343</v>
-      </c>
-      <c r="F67">
-        <v>3.2429999999999999</v>
-      </c>
-      <c r="G67">
-        <v>1.8460000000000001</v>
-      </c>
-      <c r="H67">
-        <v>1.806</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.67</v>
       </c>
-      <c r="B68">
-        <v>8.0809999999999995</v>
-      </c>
-      <c r="C68">
-        <v>2.9790000000000001</v>
-      </c>
-      <c r="E68">
-        <v>5.968</v>
-      </c>
-      <c r="F68">
-        <v>4.0110000000000001</v>
-      </c>
-      <c r="G68">
-        <v>2.1619999999999999</v>
-      </c>
-      <c r="H68">
-        <v>2.0710000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.68</v>
       </c>
-      <c r="B69">
-        <v>8.5280000000000005</v>
-      </c>
-      <c r="C69">
-        <v>3.3690000000000002</v>
-      </c>
-      <c r="E69">
-        <v>6.6310000000000002</v>
-      </c>
-      <c r="F69">
-        <v>5.1280000000000001</v>
-      </c>
-      <c r="G69">
-        <v>2.5630000000000002</v>
-      </c>
-      <c r="H69">
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.69</v>
       </c>
-      <c r="B70">
-        <v>9.0239999999999991</v>
-      </c>
-      <c r="C70">
-        <v>3.782</v>
-      </c>
-      <c r="E70">
-        <v>7.4420000000000002</v>
-      </c>
-      <c r="F70">
-        <v>6.76</v>
-      </c>
-      <c r="G70">
-        <v>3.0470000000000002</v>
-      </c>
-      <c r="H70">
-        <v>2.7080000000000002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.7</v>
       </c>
-      <c r="B71">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="C71">
-        <v>4.258</v>
-      </c>
-      <c r="E71">
-        <v>8.3049999999999997</v>
-      </c>
-      <c r="F71">
-        <v>9.298</v>
-      </c>
-      <c r="G71">
-        <v>3.657</v>
-      </c>
-      <c r="H71">
-        <v>3.1230000000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.71</v>
       </c>
-      <c r="C72">
-        <v>4.7869999999999999</v>
-      </c>
-      <c r="E72">
-        <v>9.4139999999999997</v>
-      </c>
-      <c r="G72">
-        <v>4.3650000000000002</v>
-      </c>
-      <c r="H72">
-        <v>3.5779999999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.72</v>
       </c>
-      <c r="C73">
-        <v>5.4020000000000001</v>
-      </c>
-      <c r="G73">
-        <v>5.2270000000000003</v>
-      </c>
-      <c r="H73">
-        <v>4.085</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.73</v>
       </c>
-      <c r="C74">
-        <v>6.1390000000000002</v>
-      </c>
-      <c r="G74">
-        <v>6.3609999999999998</v>
-      </c>
-      <c r="H74">
-        <v>4.6769999999999996</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.74</v>
       </c>
-      <c r="C75">
-        <v>6.8949999999999996</v>
-      </c>
-      <c r="G75">
-        <v>7.8979999999999997</v>
-      </c>
-      <c r="H75">
-        <v>5.3730000000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.75</v>
       </c>
-      <c r="C76">
-        <v>7.7910000000000004</v>
-      </c>
-      <c r="G76">
-        <v>9.9510000000000005</v>
-      </c>
-      <c r="H76">
-        <v>6.1779999999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.76</v>
       </c>
-      <c r="C77">
-        <v>8.7119999999999997</v>
-      </c>
-      <c r="H77">
-        <v>7.1319999999999997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.77</v>
       </c>
-      <c r="C78">
-        <v>9.9019999999999992</v>
-      </c>
-      <c r="H78">
-        <v>8.2080000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.78</v>
       </c>
-      <c r="H79">
-        <v>9.4480000000000004</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.79</v>
       </c>
@@ -15199,103 +13814,43 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
-      <c r="B2">
-        <v>4.5130000000000003E-2</v>
-      </c>
-      <c r="C2">
-        <v>4.5130000000000003E-2</v>
-      </c>
-      <c r="D2">
-        <v>3.5139999999999998E-2</v>
-      </c>
-      <c r="E2">
-        <v>3.8530000000000002E-2</v>
-      </c>
-      <c r="F2">
-        <v>4.487E-2</v>
-      </c>
-      <c r="G2">
-        <v>4.487E-2</v>
-      </c>
-      <c r="H2">
-        <v>4.4240000000000002E-2</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.02</v>
       </c>
-      <c r="B3">
-        <v>0.10249999999999999</v>
-      </c>
-      <c r="C3">
-        <v>9.0800000000000006E-2</v>
-      </c>
-      <c r="D3">
-        <v>7.6350000000000001E-2</v>
-      </c>
-      <c r="E3">
-        <v>8.7770000000000001E-2</v>
-      </c>
-      <c r="F3">
-        <v>9.919E-2</v>
-      </c>
-      <c r="G3">
-        <v>9.919E-2</v>
-      </c>
-      <c r="H3">
-        <v>9.9099999999999994E-2</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.03</v>
       </c>
       <c r="B4">
-        <v>0.16550000000000001</v>
-      </c>
-      <c r="C4">
-        <v>0.14130000000000001</v>
-      </c>
-      <c r="D4">
-        <v>0.11890000000000001</v>
-      </c>
-      <c r="E4">
-        <v>0.14419999999999999</v>
-      </c>
-      <c r="F4">
-        <v>0.14649999999999999</v>
-      </c>
-      <c r="G4">
-        <v>0.14649999999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.14580000000000001</v>
+        <v>1.222E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -15303,25 +13858,7 @@
         <v>0.04</v>
       </c>
       <c r="B5">
-        <v>0.2258</v>
-      </c>
-      <c r="C5">
-        <v>0.1895</v>
-      </c>
-      <c r="D5">
-        <v>0.16389999999999999</v>
-      </c>
-      <c r="E5">
-        <v>0.2021</v>
-      </c>
-      <c r="F5">
-        <v>0.19789999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.19789999999999999</v>
-      </c>
-      <c r="H5">
-        <v>0.19750000000000001</v>
+        <v>2.2210000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -15329,25 +13866,7 @@
         <v>0.05</v>
       </c>
       <c r="B6">
-        <v>0.29149999999999998</v>
-      </c>
-      <c r="C6">
-        <v>0.2412</v>
-      </c>
-      <c r="D6">
-        <v>0.20630000000000001</v>
-      </c>
-      <c r="E6">
-        <v>0.25940000000000002</v>
-      </c>
-      <c r="F6">
-        <v>0.24690000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.24690000000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.24660000000000001</v>
+        <v>3.5499999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -15355,25 +13874,13 @@
         <v>0.06</v>
       </c>
       <c r="B7">
-        <v>0.36359999999999998</v>
+        <v>5.5480000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>0.29039999999999999</v>
-      </c>
-      <c r="D7">
-        <v>0.25309999999999999</v>
+        <v>1.5520000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>0.3155</v>
-      </c>
-      <c r="F7">
-        <v>0.29220000000000002</v>
-      </c>
-      <c r="G7">
-        <v>0.29220000000000002</v>
-      </c>
-      <c r="H7">
-        <v>0.29189999999999999</v>
+        <v>1.24E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -15381,25 +13888,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B8">
-        <v>0.43769999999999998</v>
+        <v>8.5629999999999998E-2</v>
       </c>
       <c r="C8">
-        <v>0.33339999999999997</v>
-      </c>
-      <c r="D8">
-        <v>0.2974</v>
+        <v>2.3189999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>0.37419999999999998</v>
-      </c>
-      <c r="F8">
-        <v>0.33679999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.33679999999999999</v>
-      </c>
-      <c r="H8">
-        <v>0.33660000000000001</v>
+        <v>2.3990000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -15407,25 +13902,16 @@
         <v>0.08</v>
       </c>
       <c r="B9">
-        <v>0.53159999999999996</v>
+        <v>0.1176</v>
       </c>
       <c r="C9">
-        <v>0.37340000000000001</v>
+        <v>3.2820000000000002E-2</v>
       </c>
       <c r="D9">
-        <v>0.33500000000000002</v>
+        <v>2.3009999999999999E-2</v>
       </c>
       <c r="E9">
-        <v>0.44040000000000001</v>
-      </c>
-      <c r="F9">
-        <v>0.37859999999999999</v>
-      </c>
-      <c r="G9">
-        <v>0.37859999999999999</v>
-      </c>
-      <c r="H9">
-        <v>0.37940000000000002</v>
+        <v>3.9960000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -15433,25 +13919,16 @@
         <v>0.09</v>
       </c>
       <c r="B10">
-        <v>0.61580000000000001</v>
+        <v>0.15429999999999999</v>
       </c>
       <c r="C10">
-        <v>0.41370000000000001</v>
+        <v>4.9059999999999999E-2</v>
       </c>
       <c r="D10">
-        <v>0.37609999999999999</v>
+        <v>9.9720000000000003E-2</v>
       </c>
       <c r="E10">
-        <v>0.50880000000000003</v>
-      </c>
-      <c r="F10">
-        <v>0.41830000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.41830000000000001</v>
-      </c>
-      <c r="H10">
-        <v>0.41920000000000002</v>
+        <v>6.0479999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -15459,25 +13936,25 @@
         <v>0.1</v>
       </c>
       <c r="B11">
-        <v>0.70379999999999998</v>
+        <v>0.2009</v>
       </c>
       <c r="C11">
-        <v>0.45219999999999999</v>
+        <v>6.4219999999999999E-2</v>
       </c>
       <c r="D11">
-        <v>0.4153</v>
+        <v>0.40639999999999998</v>
       </c>
       <c r="E11">
-        <v>0.5746</v>
+        <v>8.6430000000000007E-2</v>
       </c>
       <c r="F11">
-        <v>0.45569999999999999</v>
+        <v>1.061E-2</v>
       </c>
       <c r="G11">
-        <v>0.45569999999999999</v>
+        <v>1.044E-2</v>
       </c>
       <c r="H11">
-        <v>0.4577</v>
+        <v>1.525E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -15485,25 +13962,25 @@
         <v>0.11</v>
       </c>
       <c r="B12">
-        <v>0.79779999999999995</v>
+        <v>0.25580000000000003</v>
       </c>
       <c r="C12">
-        <v>0.495</v>
+        <v>8.7239999999999998E-2</v>
       </c>
       <c r="D12">
-        <v>0.45440000000000003</v>
+        <v>1.335</v>
       </c>
       <c r="E12">
-        <v>0.6542</v>
+        <v>0.1169</v>
       </c>
       <c r="F12">
-        <v>0.49490000000000001</v>
+        <v>1.7389999999999999E-2</v>
       </c>
       <c r="G12">
-        <v>0.49490000000000001</v>
+        <v>1.7219999999999999E-2</v>
       </c>
       <c r="H12">
-        <v>0.49609999999999999</v>
+        <v>2.239E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -15511,25 +13988,25 @@
         <v>0.12</v>
       </c>
       <c r="B13">
-        <v>0.89139999999999997</v>
+        <v>0.32300000000000001</v>
       </c>
       <c r="C13">
-        <v>0.53390000000000004</v>
+        <v>0.1123</v>
       </c>
       <c r="D13">
-        <v>0.4879</v>
+        <v>7.6459999999999999</v>
       </c>
       <c r="E13">
-        <v>0.73229999999999995</v>
+        <v>0.1515</v>
       </c>
       <c r="F13">
-        <v>0.52980000000000005</v>
+        <v>2.614E-2</v>
       </c>
       <c r="G13">
-        <v>0.52980000000000005</v>
+        <v>2.4889999999999999E-2</v>
       </c>
       <c r="H13">
-        <v>0.53239999999999998</v>
+        <v>2.9700000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -15537,25 +14014,22 @@
         <v>0.13</v>
       </c>
       <c r="B14">
-        <v>0.9889</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="C14">
-        <v>0.57620000000000005</v>
-      </c>
-      <c r="D14">
-        <v>0.5272</v>
+        <v>0.13719999999999999</v>
       </c>
       <c r="E14">
-        <v>0.82620000000000005</v>
+        <v>0.1948</v>
       </c>
       <c r="F14">
-        <v>0.56340000000000001</v>
+        <v>3.7280000000000001E-2</v>
       </c>
       <c r="G14">
-        <v>0.56340000000000001</v>
+        <v>3.6209999999999999E-2</v>
       </c>
       <c r="H14">
-        <v>0.56540000000000001</v>
+        <v>4.2819999999999997E-2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -15563,25 +14037,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="B15">
-        <v>1.101</v>
+        <v>0.5363</v>
       </c>
       <c r="C15">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="D15">
-        <v>0.56310000000000004</v>
+        <v>0.1709</v>
       </c>
       <c r="E15">
-        <v>0.91610000000000003</v>
+        <v>0.2429</v>
       </c>
       <c r="F15">
-        <v>0.59989999999999999</v>
+        <v>5.2089999999999997E-2</v>
       </c>
       <c r="G15">
-        <v>0.6</v>
+        <v>4.9149999999999999E-2</v>
       </c>
       <c r="H15">
-        <v>0.60270000000000001</v>
+        <v>5.7889999999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -15589,25 +14060,22 @@
         <v>0.15</v>
       </c>
       <c r="B16">
-        <v>1.228</v>
+        <v>0.65690000000000004</v>
       </c>
       <c r="C16">
-        <v>0.66469999999999996</v>
-      </c>
-      <c r="D16">
-        <v>0.59989999999999999</v>
+        <v>0.21410000000000001</v>
       </c>
       <c r="E16">
-        <v>1.0049999999999999</v>
+        <v>0.2994</v>
       </c>
       <c r="F16">
-        <v>0.63629999999999998</v>
+        <v>6.7339999999999997E-2</v>
       </c>
       <c r="G16">
-        <v>0.63629999999999998</v>
+        <v>6.5199999999999994E-2</v>
       </c>
       <c r="H16">
-        <v>0.63949999999999996</v>
+        <v>7.7249999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -15615,25 +14083,22 @@
         <v>0.16</v>
       </c>
       <c r="B17">
-        <v>1.3540000000000001</v>
+        <v>0.79979999999999996</v>
       </c>
       <c r="C17">
-        <v>0.70589999999999997</v>
-      </c>
-      <c r="D17">
-        <v>0.63580000000000003</v>
+        <v>0.2606</v>
       </c>
       <c r="E17">
-        <v>1.0980000000000001</v>
+        <v>0.36709999999999998</v>
       </c>
       <c r="F17">
-        <v>0.66900000000000004</v>
+        <v>8.7679999999999994E-2</v>
       </c>
       <c r="G17">
-        <v>0.66910000000000003</v>
+        <v>8.4379999999999997E-2</v>
       </c>
       <c r="H17">
-        <v>0.67420000000000002</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -15641,25 +14106,22 @@
         <v>0.17</v>
       </c>
       <c r="B18">
-        <v>1.466</v>
+        <v>0.95709999999999995</v>
       </c>
       <c r="C18">
-        <v>0.74370000000000003</v>
-      </c>
-      <c r="D18">
-        <v>0.67010000000000003</v>
+        <v>0.313</v>
       </c>
       <c r="E18">
-        <v>1.1870000000000001</v>
+        <v>0.43590000000000001</v>
       </c>
       <c r="F18">
-        <v>0.7016</v>
+        <v>0.1162</v>
       </c>
       <c r="G18">
-        <v>0.70169999999999999</v>
+        <v>0.1124</v>
       </c>
       <c r="H18">
-        <v>0.70760000000000001</v>
+        <v>0.13089999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -15667,25 +14129,22 @@
         <v>0.18</v>
       </c>
       <c r="B19">
-        <v>1.5840000000000001</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="C19">
-        <v>0.77890000000000004</v>
-      </c>
-      <c r="D19">
-        <v>0.70730000000000004</v>
+        <v>0.37280000000000002</v>
       </c>
       <c r="E19">
-        <v>1.2869999999999999</v>
+        <v>0.5171</v>
       </c>
       <c r="F19">
-        <v>0.73760000000000003</v>
+        <v>0.15029999999999999</v>
       </c>
       <c r="G19">
-        <v>0.73740000000000006</v>
+        <v>0.1462</v>
       </c>
       <c r="H19">
-        <v>0.74339999999999995</v>
+        <v>0.17299999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -15693,25 +14152,22 @@
         <v>0.19</v>
       </c>
       <c r="B20">
-        <v>1.6990000000000001</v>
+        <v>1.331</v>
       </c>
       <c r="C20">
-        <v>0.82599999999999996</v>
-      </c>
-      <c r="D20">
-        <v>0.74780000000000002</v>
+        <v>0.44569999999999999</v>
       </c>
       <c r="E20">
-        <v>1.3839999999999999</v>
+        <v>0.61240000000000006</v>
       </c>
       <c r="F20">
-        <v>0.77449999999999997</v>
+        <v>0.19489999999999999</v>
       </c>
       <c r="G20">
-        <v>0.77470000000000006</v>
+        <v>0.18590000000000001</v>
       </c>
       <c r="H20">
-        <v>0.78010000000000002</v>
+        <v>0.2238</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -15719,25 +14175,22 @@
         <v>0.2</v>
       </c>
       <c r="B21">
-        <v>1.8340000000000001</v>
+        <v>1.554</v>
       </c>
       <c r="C21">
-        <v>0.87809999999999999</v>
-      </c>
-      <c r="D21">
-        <v>0.78820000000000001</v>
+        <v>0.53059999999999996</v>
       </c>
       <c r="E21">
-        <v>1.486</v>
+        <v>0.71279999999999999</v>
       </c>
       <c r="F21">
-        <v>0.80969999999999998</v>
+        <v>0.2445</v>
       </c>
       <c r="G21">
-        <v>0.80969999999999998</v>
+        <v>0.2399</v>
       </c>
       <c r="H21">
-        <v>0.8155</v>
+        <v>0.2828</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -15745,25 +14198,22 @@
         <v>0.21</v>
       </c>
       <c r="B22">
-        <v>1.9730000000000001</v>
+        <v>1.7949999999999999</v>
       </c>
       <c r="C22">
-        <v>0.92930000000000001</v>
-      </c>
-      <c r="D22">
-        <v>0.82679999999999998</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="E22">
-        <v>1.5920000000000001</v>
+        <v>0.82709999999999995</v>
       </c>
       <c r="F22">
-        <v>0.84360000000000002</v>
+        <v>0.30919999999999997</v>
       </c>
       <c r="G22">
-        <v>0.84289999999999998</v>
+        <v>0.30070000000000002</v>
       </c>
       <c r="H22">
-        <v>0.84970000000000001</v>
+        <v>0.35980000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -15771,25 +14221,22 @@
         <v>0.22</v>
       </c>
       <c r="B23">
-        <v>2.121</v>
+        <v>2.0459999999999998</v>
       </c>
       <c r="C23">
-        <v>0.98060000000000003</v>
-      </c>
-      <c r="D23">
-        <v>0.86770000000000003</v>
+        <v>0.74329999999999996</v>
       </c>
       <c r="E23">
-        <v>1.6919999999999999</v>
+        <v>0.9506</v>
       </c>
       <c r="F23">
-        <v>0.88160000000000005</v>
+        <v>0.3881</v>
       </c>
       <c r="G23">
-        <v>0.88129999999999997</v>
+        <v>0.37730000000000002</v>
       </c>
       <c r="H23">
-        <v>0.88900000000000001</v>
+        <v>0.45300000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -15797,25 +14244,22 @@
         <v>0.23</v>
       </c>
       <c r="B24">
-        <v>2.2639999999999998</v>
+        <v>2.327</v>
       </c>
       <c r="C24">
-        <v>1.032</v>
-      </c>
-      <c r="D24">
-        <v>0.92310000000000003</v>
+        <v>0.88580000000000003</v>
       </c>
       <c r="E24">
-        <v>1.8009999999999999</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="F24">
-        <v>0.91590000000000005</v>
+        <v>0.48659999999999998</v>
       </c>
       <c r="G24">
-        <v>0.91500000000000004</v>
+        <v>0.46729999999999999</v>
       </c>
       <c r="H24">
-        <v>0.92259999999999998</v>
+        <v>0.56479999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -15823,25 +14267,22 @@
         <v>0.24</v>
       </c>
       <c r="B25">
-        <v>2.411</v>
+        <v>2.6309999999999998</v>
       </c>
       <c r="C25">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="D25">
-        <v>0.98660000000000003</v>
+        <v>1.05</v>
       </c>
       <c r="E25">
-        <v>1.9059999999999999</v>
+        <v>1.244</v>
       </c>
       <c r="F25">
-        <v>0.95540000000000003</v>
+        <v>0.60699999999999998</v>
       </c>
       <c r="G25">
-        <v>0.95289999999999997</v>
+        <v>0.5796</v>
       </c>
       <c r="H25">
-        <v>0.96160000000000001</v>
+        <v>0.69810000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -15849,25 +14290,22 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>2.5739999999999998</v>
+        <v>2.931</v>
       </c>
       <c r="C26">
-        <v>1.129</v>
-      </c>
-      <c r="D26">
-        <v>1.0549999999999999</v>
+        <v>1.236</v>
       </c>
       <c r="E26">
-        <v>2.0209999999999999</v>
+        <v>1.425</v>
       </c>
       <c r="F26">
-        <v>0.99460000000000004</v>
+        <v>0.75460000000000005</v>
       </c>
       <c r="G26">
-        <v>0.99390000000000001</v>
+        <v>0.71450000000000002</v>
       </c>
       <c r="H26">
-        <v>1.004</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -15875,25 +14313,22 @@
         <v>0.26</v>
       </c>
       <c r="B27">
-        <v>2.7650000000000001</v>
+        <v>3.2290000000000001</v>
       </c>
       <c r="C27">
-        <v>1.181</v>
-      </c>
-      <c r="D27">
-        <v>1.141</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="E27">
-        <v>2.1520000000000001</v>
+        <v>1.6279999999999999</v>
       </c>
       <c r="F27">
-        <v>1.032</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="G27">
-        <v>1.032</v>
+        <v>0.87329999999999997</v>
       </c>
       <c r="H27">
-        <v>1.0429999999999999</v>
+        <v>1.0609999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -15901,25 +14336,22 @@
         <v>0.27</v>
       </c>
       <c r="B28">
-        <v>2.9529999999999998</v>
+        <v>3.5590000000000002</v>
       </c>
       <c r="C28">
-        <v>1.2350000000000001</v>
-      </c>
-      <c r="D28">
-        <v>1.2629999999999999</v>
+        <v>1.6970000000000001</v>
       </c>
       <c r="E28">
-        <v>2.2719999999999998</v>
+        <v>1.841</v>
       </c>
       <c r="F28">
-        <v>1.0780000000000001</v>
+        <v>1.141</v>
       </c>
       <c r="G28">
-        <v>1.073</v>
+        <v>1.0629999999999999</v>
       </c>
       <c r="H28">
-        <v>1.083</v>
+        <v>1.288</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -15927,25 +14359,22 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B29">
-        <v>3.141</v>
+        <v>3.8849999999999998</v>
       </c>
       <c r="C29">
-        <v>1.2989999999999999</v>
-      </c>
-      <c r="D29">
-        <v>1.429</v>
+        <v>1.9590000000000001</v>
       </c>
       <c r="E29">
-        <v>2.3969999999999998</v>
+        <v>2.0880000000000001</v>
       </c>
       <c r="F29">
-        <v>1.1240000000000001</v>
+        <v>1.3839999999999999</v>
       </c>
       <c r="G29">
-        <v>1.1200000000000001</v>
+        <v>1.2849999999999999</v>
       </c>
       <c r="H29">
-        <v>1.1299999999999999</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -15953,25 +14382,22 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="B30">
-        <v>3.3679999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="C30">
-        <v>1.365</v>
-      </c>
-      <c r="D30">
-        <v>1.6659999999999999</v>
+        <v>2.242</v>
       </c>
       <c r="E30">
-        <v>2.5299999999999998</v>
+        <v>2.3730000000000002</v>
       </c>
       <c r="F30">
-        <v>1.165</v>
+        <v>1.659</v>
       </c>
       <c r="G30">
-        <v>1.1619999999999999</v>
+        <v>1.5489999999999999</v>
       </c>
       <c r="H30">
-        <v>1.175</v>
+        <v>1.857</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -15979,25 +14405,22 @@
         <v>0.3</v>
       </c>
       <c r="B31">
-        <v>3.556</v>
+        <v>4.5369999999999999</v>
       </c>
       <c r="C31">
-        <v>1.429</v>
-      </c>
-      <c r="D31">
-        <v>2.0299999999999998</v>
+        <v>2.585</v>
       </c>
       <c r="E31">
-        <v>2.66</v>
+        <v>2.6960000000000002</v>
       </c>
       <c r="F31">
-        <v>1.212</v>
+        <v>1.9910000000000001</v>
       </c>
       <c r="G31">
-        <v>1.208</v>
+        <v>1.8480000000000001</v>
       </c>
       <c r="H31">
-        <v>1.218</v>
+        <v>2.2069999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -16005,25 +14428,22 @@
         <v>0.31</v>
       </c>
       <c r="B32">
-        <v>3.7949999999999999</v>
+        <v>4.883</v>
       </c>
       <c r="C32">
-        <v>1.5049999999999999</v>
-      </c>
-      <c r="D32">
-        <v>2.569</v>
+        <v>2.9569999999999999</v>
       </c>
       <c r="E32">
-        <v>2.7879999999999998</v>
+        <v>3.0590000000000002</v>
       </c>
       <c r="F32">
-        <v>1.266</v>
+        <v>2.3769999999999998</v>
       </c>
       <c r="G32">
-        <v>1.258</v>
+        <v>2.1619999999999999</v>
       </c>
       <c r="H32">
-        <v>1.27</v>
+        <v>2.5960000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -16031,25 +14451,22 @@
         <v>0.32</v>
       </c>
       <c r="B33">
-        <v>4.0259999999999998</v>
+        <v>5.2169999999999996</v>
       </c>
       <c r="C33">
-        <v>1.575</v>
-      </c>
-      <c r="D33">
-        <v>3.4550000000000001</v>
+        <v>3.4020000000000001</v>
       </c>
       <c r="E33">
-        <v>2.9279999999999999</v>
+        <v>3.4590000000000001</v>
       </c>
       <c r="F33">
-        <v>1.3160000000000001</v>
+        <v>2.8330000000000002</v>
       </c>
       <c r="G33">
-        <v>1.3069999999999999</v>
+        <v>2.5409999999999999</v>
       </c>
       <c r="H33">
-        <v>1.321</v>
+        <v>3.0510000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -16057,25 +14474,22 @@
         <v>0.33</v>
       </c>
       <c r="B34">
-        <v>4.2699999999999996</v>
+        <v>5.5490000000000004</v>
       </c>
       <c r="C34">
-        <v>1.6439999999999999</v>
-      </c>
-      <c r="D34">
-        <v>4.851</v>
+        <v>3.8620000000000001</v>
       </c>
       <c r="E34">
-        <v>3.0760000000000001</v>
+        <v>3.9079999999999999</v>
       </c>
       <c r="F34">
-        <v>1.3720000000000001</v>
+        <v>3.339</v>
       </c>
       <c r="G34">
-        <v>1.359</v>
+        <v>2.972</v>
       </c>
       <c r="H34">
-        <v>1.3720000000000001</v>
+        <v>3.5409999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -16083,25 +14497,22 @@
         <v>0.34</v>
       </c>
       <c r="B35">
-        <v>4.5049999999999999</v>
+        <v>5.9</v>
       </c>
       <c r="C35">
-        <v>1.7330000000000001</v>
-      </c>
-      <c r="D35">
-        <v>9.4909999999999997</v>
+        <v>4.3890000000000002</v>
       </c>
       <c r="E35">
-        <v>3.2240000000000002</v>
+        <v>4.4119999999999999</v>
       </c>
       <c r="F35">
-        <v>1.425</v>
+        <v>3.9350000000000001</v>
       </c>
       <c r="G35">
-        <v>1.413</v>
+        <v>3.4649999999999999</v>
       </c>
       <c r="H35">
-        <v>1.4279999999999999</v>
+        <v>4.0670000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -16109,22 +14520,22 @@
         <v>0.35</v>
       </c>
       <c r="B36">
-        <v>4.7560000000000002</v>
+        <v>6.242</v>
       </c>
       <c r="C36">
-        <v>1.8149999999999999</v>
+        <v>4.9450000000000003</v>
       </c>
       <c r="E36">
-        <v>3.3740000000000001</v>
+        <v>4.9790000000000001</v>
       </c>
       <c r="F36">
-        <v>1.4890000000000001</v>
+        <v>4.6539999999999999</v>
       </c>
       <c r="G36">
-        <v>1.472</v>
+        <v>4.0389999999999997</v>
       </c>
       <c r="H36">
-        <v>1.4850000000000001</v>
+        <v>4.673</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -16132,22 +14543,22 @@
         <v>0.36</v>
       </c>
       <c r="B37">
-        <v>5.0060000000000002</v>
+        <v>6.6120000000000001</v>
       </c>
       <c r="C37">
-        <v>1.901</v>
+        <v>5.5890000000000004</v>
       </c>
       <c r="E37">
-        <v>3.53</v>
+        <v>5.5990000000000002</v>
       </c>
       <c r="F37">
-        <v>1.556</v>
+        <v>5.5309999999999997</v>
       </c>
       <c r="G37">
-        <v>1.5329999999999999</v>
+        <v>4.68</v>
       </c>
       <c r="H37">
-        <v>1.5489999999999999</v>
+        <v>5.3440000000000003</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -16155,22 +14566,22 @@
         <v>0.37</v>
       </c>
       <c r="B38">
-        <v>5.2809999999999997</v>
+        <v>6.9660000000000002</v>
       </c>
       <c r="C38">
-        <v>1.992</v>
+        <v>6.2320000000000002</v>
       </c>
       <c r="E38">
-        <v>3.6949999999999998</v>
+        <v>6.2990000000000004</v>
       </c>
       <c r="F38">
-        <v>1.6279999999999999</v>
+        <v>6.5590000000000002</v>
       </c>
       <c r="G38">
-        <v>1.601</v>
+        <v>5.39</v>
       </c>
       <c r="H38">
-        <v>1.615</v>
+        <v>6.0940000000000003</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -16178,22 +14589,22 @@
         <v>0.38</v>
       </c>
       <c r="B39">
-        <v>5.5759999999999996</v>
+        <v>7.367</v>
       </c>
       <c r="C39">
-        <v>2.0779999999999998</v>
+        <v>6.931</v>
       </c>
       <c r="E39">
-        <v>3.8460000000000001</v>
+        <v>7.0869999999999997</v>
       </c>
       <c r="F39">
-        <v>1.6950000000000001</v>
+        <v>7.8090000000000002</v>
       </c>
       <c r="G39">
-        <v>1.67</v>
+        <v>6.1840000000000002</v>
       </c>
       <c r="H39">
-        <v>1.6870000000000001</v>
+        <v>6.9379999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -16201,22 +14612,22 @@
         <v>0.39</v>
       </c>
       <c r="B40">
-        <v>5.851</v>
+        <v>7.7750000000000004</v>
       </c>
       <c r="C40">
-        <v>2.1749999999999998</v>
+        <v>7.6630000000000003</v>
       </c>
       <c r="E40">
-        <v>4.0090000000000003</v>
+        <v>7.9729999999999999</v>
       </c>
       <c r="F40">
-        <v>1.77</v>
+        <v>9.3979999999999997</v>
       </c>
       <c r="G40">
-        <v>1.7350000000000001</v>
+        <v>7.0990000000000002</v>
       </c>
       <c r="H40">
-        <v>1.7529999999999999</v>
+        <v>7.8710000000000004</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -16224,22 +14635,19 @@
         <v>0.4</v>
       </c>
       <c r="B41">
-        <v>6.141</v>
+        <v>8.1969999999999992</v>
       </c>
       <c r="C41">
-        <v>2.278</v>
+        <v>8.4559999999999995</v>
       </c>
       <c r="E41">
-        <v>4.1890000000000001</v>
-      </c>
-      <c r="F41">
-        <v>1.853</v>
+        <v>8.9410000000000007</v>
       </c>
       <c r="G41">
-        <v>1.8109999999999999</v>
+        <v>8.1760000000000002</v>
       </c>
       <c r="H41">
-        <v>1.825</v>
+        <v>8.8829999999999991</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -16247,22 +14655,16 @@
         <v>0.41</v>
       </c>
       <c r="B42">
-        <v>6.4539999999999997</v>
+        <v>8.673</v>
       </c>
       <c r="C42">
-        <v>2.39</v>
-      </c>
-      <c r="E42">
-        <v>4.3630000000000004</v>
-      </c>
-      <c r="F42">
-        <v>1.9379999999999999</v>
+        <v>9.3170000000000002</v>
       </c>
       <c r="G42">
-        <v>1.8919999999999999</v>
+        <v>9.4160000000000004</v>
       </c>
       <c r="H42">
-        <v>1.905</v>
+        <v>9.9990000000000006</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -16270,22 +14672,7 @@
         <v>0.42</v>
       </c>
       <c r="B43">
-        <v>6.7510000000000003</v>
-      </c>
-      <c r="C43">
-        <v>2.5049999999999999</v>
-      </c>
-      <c r="E43">
-        <v>4.5590000000000002</v>
-      </c>
-      <c r="F43">
-        <v>2.0390000000000001</v>
-      </c>
-      <c r="G43">
-        <v>1.9750000000000001</v>
-      </c>
-      <c r="H43">
-        <v>1.9950000000000001</v>
+        <v>9.1210000000000004</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -16293,575 +14680,185 @@
         <v>0.43</v>
       </c>
       <c r="B44">
-        <v>7.069</v>
-      </c>
-      <c r="C44">
-        <v>2.6269999999999998</v>
-      </c>
-      <c r="E44">
-        <v>4.7279999999999998</v>
-      </c>
-      <c r="F44">
-        <v>2.1389999999999998</v>
-      </c>
-      <c r="G44">
-        <v>2.0720000000000001</v>
-      </c>
-      <c r="H44">
-        <v>2.08</v>
+        <v>9.6590000000000007</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.44</v>
       </c>
-      <c r="B45">
-        <v>7.3680000000000003</v>
-      </c>
-      <c r="C45">
-        <v>2.7519999999999998</v>
-      </c>
-      <c r="E45">
-        <v>4.9240000000000004</v>
-      </c>
-      <c r="F45">
-        <v>2.2450000000000001</v>
-      </c>
-      <c r="G45">
-        <v>2.1659999999999999</v>
-      </c>
-      <c r="H45">
-        <v>2.1819999999999999</v>
-      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.45</v>
       </c>
-      <c r="B46">
-        <v>7.7329999999999997</v>
-      </c>
-      <c r="C46">
-        <v>2.8740000000000001</v>
-      </c>
-      <c r="E46">
-        <v>5.1280000000000001</v>
-      </c>
-      <c r="F46">
-        <v>2.3540000000000001</v>
-      </c>
-      <c r="G46">
-        <v>2.2669999999999999</v>
-      </c>
-      <c r="H46">
-        <v>2.2799999999999998</v>
-      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.46</v>
       </c>
-      <c r="B47">
-        <v>8.0489999999999995</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>5.335</v>
-      </c>
-      <c r="F47">
-        <v>2.4670000000000001</v>
-      </c>
-      <c r="G47">
-        <v>2.3719999999999999</v>
-      </c>
-      <c r="H47">
-        <v>2.3809999999999998</v>
-      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.47</v>
       </c>
-      <c r="B48">
-        <v>8.3960000000000008</v>
-      </c>
-      <c r="C48">
-        <v>3.1469999999999998</v>
-      </c>
-      <c r="E48">
-        <v>5.532</v>
-      </c>
-      <c r="F48">
-        <v>2.6070000000000002</v>
-      </c>
-      <c r="G48">
-        <v>2.484</v>
-      </c>
-      <c r="H48">
-        <v>2.492</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>0.48</v>
       </c>
-      <c r="B49">
-        <v>8.7620000000000005</v>
-      </c>
-      <c r="C49">
-        <v>3.2869999999999999</v>
-      </c>
-      <c r="E49">
-        <v>5.76</v>
-      </c>
-      <c r="F49">
-        <v>2.75</v>
-      </c>
-      <c r="G49">
-        <v>2.6</v>
-      </c>
-      <c r="H49">
-        <v>2.6080000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>0.49</v>
       </c>
-      <c r="B50">
-        <v>9.0869999999999997</v>
-      </c>
-      <c r="C50">
-        <v>3.4260000000000002</v>
-      </c>
-      <c r="E50">
-        <v>5.9969999999999999</v>
-      </c>
-      <c r="F50">
-        <v>2.9</v>
-      </c>
-      <c r="G50">
-        <v>2.7370000000000001</v>
-      </c>
-      <c r="H50">
-        <v>2.7309999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>0.5</v>
       </c>
-      <c r="B51">
-        <v>9.5210000000000008</v>
-      </c>
-      <c r="C51">
-        <v>3.593</v>
-      </c>
-      <c r="E51">
-        <v>6.2460000000000004</v>
-      </c>
-      <c r="F51">
-        <v>3.0659999999999998</v>
-      </c>
-      <c r="G51">
-        <v>2.8740000000000001</v>
-      </c>
-      <c r="H51">
-        <v>2.8690000000000002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>0.51</v>
       </c>
-      <c r="B52">
-        <v>9.8840000000000003</v>
-      </c>
-      <c r="C52">
-        <v>3.7610000000000001</v>
-      </c>
-      <c r="E52">
-        <v>6.4960000000000004</v>
-      </c>
-      <c r="F52">
-        <v>3.2320000000000002</v>
-      </c>
-      <c r="G52">
-        <v>3.024</v>
-      </c>
-      <c r="H52">
-        <v>3.016</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>0.52</v>
       </c>
-      <c r="C53">
-        <v>3.9569999999999999</v>
-      </c>
-      <c r="E53">
-        <v>6.75</v>
-      </c>
-      <c r="F53">
-        <v>3.4249999999999998</v>
-      </c>
-      <c r="G53">
-        <v>3.1859999999999999</v>
-      </c>
-      <c r="H53">
-        <v>3.1669999999999998</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>0.53</v>
       </c>
-      <c r="C54">
-        <v>4.149</v>
-      </c>
-      <c r="E54">
-        <v>7.0229999999999997</v>
-      </c>
-      <c r="F54">
-        <v>3.64</v>
-      </c>
-      <c r="G54">
-        <v>3.3530000000000002</v>
-      </c>
-      <c r="H54">
-        <v>3.33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0.54</v>
       </c>
-      <c r="C55">
-        <v>4.3570000000000002</v>
-      </c>
-      <c r="E55">
-        <v>7.3049999999999997</v>
-      </c>
-      <c r="F55">
-        <v>3.8740000000000001</v>
-      </c>
-      <c r="G55">
-        <v>3.5310000000000001</v>
-      </c>
-      <c r="H55">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C56">
-        <v>4.5759999999999996</v>
-      </c>
-      <c r="E56">
-        <v>7.6420000000000003</v>
-      </c>
-      <c r="F56">
-        <v>4.1239999999999997</v>
-      </c>
-      <c r="G56">
-        <v>3.7269999999999999</v>
-      </c>
-      <c r="H56">
-        <v>3.6789999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C57">
-        <v>4.851</v>
-      </c>
-      <c r="E57">
-        <v>7.99</v>
-      </c>
-      <c r="F57">
-        <v>4.4249999999999998</v>
-      </c>
-      <c r="G57">
-        <v>3.9390000000000001</v>
-      </c>
-      <c r="H57">
-        <v>3.883</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>0.56999999999999995</v>
       </c>
-      <c r="C58">
-        <v>5.1029999999999998</v>
-      </c>
-      <c r="E58">
-        <v>8.3510000000000009</v>
-      </c>
-      <c r="F58">
-        <v>4.7530000000000001</v>
-      </c>
-      <c r="G58">
-        <v>4.1740000000000004</v>
-      </c>
-      <c r="H58">
-        <v>4.0869999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C59">
-        <v>5.3739999999999997</v>
-      </c>
-      <c r="E59">
-        <v>8.7330000000000005</v>
-      </c>
-      <c r="F59">
-        <v>5.0830000000000002</v>
-      </c>
-      <c r="G59">
-        <v>4.42</v>
-      </c>
-      <c r="H59">
-        <v>4.3239999999999998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.59</v>
       </c>
-      <c r="C60">
-        <v>5.657</v>
-      </c>
-      <c r="E60">
-        <v>9.1590000000000007</v>
-      </c>
-      <c r="F60">
-        <v>5.4489999999999998</v>
-      </c>
-      <c r="G60">
-        <v>4.7160000000000002</v>
-      </c>
-      <c r="H60">
-        <v>4.5759999999999996</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>0.6</v>
       </c>
-      <c r="C61">
-        <v>5.9610000000000003</v>
-      </c>
-      <c r="E61">
-        <v>9.6289999999999996</v>
-      </c>
-      <c r="F61">
-        <v>5.8460000000000001</v>
-      </c>
-      <c r="G61">
-        <v>5.03</v>
-      </c>
-      <c r="H61">
-        <v>4.8440000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>0.61</v>
       </c>
-      <c r="C62">
-        <v>6.327</v>
-      </c>
-      <c r="F62">
-        <v>6.3289999999999997</v>
-      </c>
-      <c r="G62">
-        <v>5.37</v>
-      </c>
-      <c r="H62">
-        <v>5.1580000000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>0.62</v>
       </c>
-      <c r="C63">
-        <v>6.7009999999999996</v>
-      </c>
-      <c r="F63">
-        <v>6.891</v>
-      </c>
-      <c r="G63">
-        <v>5.7240000000000002</v>
-      </c>
-      <c r="H63">
-        <v>5.4969999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>0.63</v>
       </c>
-      <c r="C64">
-        <v>7.0949999999999998</v>
-      </c>
-      <c r="F64">
-        <v>7.516</v>
-      </c>
-      <c r="G64">
-        <v>6.1029999999999998</v>
-      </c>
-      <c r="H64">
-        <v>5.8710000000000004</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>0.64</v>
       </c>
-      <c r="C65">
-        <v>7.5129999999999999</v>
-      </c>
-      <c r="F65">
-        <v>8.27</v>
-      </c>
-      <c r="G65">
-        <v>6.5190000000000001</v>
-      </c>
-      <c r="H65">
-        <v>6.2629999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0.65</v>
       </c>
-      <c r="C66">
-        <v>7.9560000000000004</v>
-      </c>
-      <c r="F66">
-        <v>9.1560000000000006</v>
-      </c>
-      <c r="G66">
-        <v>7.0339999999999998</v>
-      </c>
-      <c r="H66">
-        <v>6.6440000000000001</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0.66</v>
       </c>
-      <c r="C67">
-        <v>8.5150000000000006</v>
-      </c>
-      <c r="G67">
-        <v>7.6130000000000004</v>
-      </c>
-      <c r="H67">
-        <v>7.1040000000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0.67</v>
       </c>
-      <c r="C68">
-        <v>9.0790000000000006</v>
-      </c>
-      <c r="G68">
-        <v>8.24</v>
-      </c>
-      <c r="H68">
-        <v>7.5910000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0.68</v>
       </c>
-      <c r="C69">
-        <v>9.7289999999999992</v>
-      </c>
-      <c r="G69">
-        <v>8.9730000000000008</v>
-      </c>
-      <c r="H69">
-        <v>8.0839999999999996</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0.69</v>
       </c>
-      <c r="G70">
-        <v>9.8049999999999997</v>
-      </c>
-      <c r="H70">
-        <v>8.6940000000000008</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0.7</v>
       </c>
-      <c r="H71">
-        <v>9.3789999999999996</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0.71</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0.72</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0.73</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0.74</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0.75</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0.76</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.77</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0.78</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0.79</v>
       </c>
@@ -16981,9 +14978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA24BEAF-4687-47A5-8CF2-B3CF9CEEAC51}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:H102"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17002,25 +14997,25 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -17038,7 +15033,7 @@
         <v>0.03</v>
       </c>
       <c r="B4">
-        <v>1.222E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -17046,7 +15041,13 @@
         <v>0.04</v>
       </c>
       <c r="B5">
-        <v>2.2210000000000001E-2</v>
+        <v>3.193E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.1047</v>
+      </c>
+      <c r="E5">
+        <v>2.078E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -17054,7 +15055,16 @@
         <v>0.05</v>
       </c>
       <c r="B6">
-        <v>3.5499999999999997E-2</v>
+        <v>5.2269999999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.0529999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.55</v>
+      </c>
+      <c r="E6">
+        <v>4.0939999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -17062,13 +15072,16 @@
         <v>0.06</v>
       </c>
       <c r="B7">
-        <v>5.5480000000000002E-2</v>
+        <v>7.0379999999999998E-2</v>
       </c>
       <c r="C7">
-        <v>1.5520000000000001E-2</v>
+        <v>1.7659999999999999E-2</v>
       </c>
       <c r="E7">
-        <v>1.24E-2</v>
+        <v>5.994E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.026E-2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -17076,13 +15089,22 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B8">
-        <v>8.5629999999999998E-2</v>
+        <v>9.0359999999999996E-2</v>
       </c>
       <c r="C8">
-        <v>2.3189999999999999E-2</v>
+        <v>2.9440000000000001E-2</v>
       </c>
       <c r="E8">
-        <v>2.3990000000000001E-2</v>
+        <v>7.8229999999999994E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.383E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.2579999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.6590000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -17090,16 +15112,22 @@
         <v>0.08</v>
       </c>
       <c r="B9">
-        <v>0.1176</v>
+        <v>0.11020000000000001</v>
       </c>
       <c r="C9">
-        <v>3.2820000000000002E-2</v>
-      </c>
-      <c r="D9">
-        <v>2.3009999999999999E-2</v>
+        <v>4.496E-2</v>
       </c>
       <c r="E9">
-        <v>3.9960000000000002E-2</v>
+        <v>9.8919999999999994E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.3460000000000002E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.1229999999999999E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.184E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -17107,16 +15135,22 @@
         <v>0.09</v>
       </c>
       <c r="B10">
-        <v>0.15429999999999999</v>
+        <v>0.13089999999999999</v>
       </c>
       <c r="C10">
-        <v>4.9059999999999999E-2</v>
-      </c>
-      <c r="D10">
-        <v>9.9720000000000003E-2</v>
+        <v>6.6900000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>6.0479999999999999E-2</v>
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="F10">
+        <v>3.8179999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>3.5680000000000003E-2</v>
+      </c>
+      <c r="H10">
+        <v>5.4050000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -17124,25 +15158,22 @@
         <v>0.1</v>
       </c>
       <c r="B11">
-        <v>0.2009</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="C11">
-        <v>6.4219999999999999E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.40639999999999998</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="E11">
-        <v>8.6430000000000007E-2</v>
+        <v>0.15459999999999999</v>
       </c>
       <c r="F11">
-        <v>1.061E-2</v>
+        <v>6.2880000000000005E-2</v>
       </c>
       <c r="G11">
-        <v>1.044E-2</v>
+        <v>5.7889999999999997E-2</v>
       </c>
       <c r="H11">
-        <v>1.525E-2</v>
+        <v>8.8660000000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -17150,25 +15181,22 @@
         <v>0.11</v>
       </c>
       <c r="B12">
-        <v>0.25580000000000003</v>
+        <v>0.1792</v>
       </c>
       <c r="C12">
-        <v>8.7239999999999998E-2</v>
-      </c>
-      <c r="D12">
-        <v>1.335</v>
+        <v>0.1308</v>
       </c>
       <c r="E12">
-        <v>0.1169</v>
+        <v>0.1913</v>
       </c>
       <c r="F12">
-        <v>1.7389999999999999E-2</v>
+        <v>0.1022</v>
       </c>
       <c r="G12">
-        <v>1.7219999999999999E-2</v>
+        <v>9.2939999999999995E-2</v>
       </c>
       <c r="H12">
-        <v>2.239E-2</v>
+        <v>0.1381</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -17176,25 +15204,22 @@
         <v>0.12</v>
       </c>
       <c r="B13">
-        <v>0.32300000000000001</v>
+        <v>0.20760000000000001</v>
       </c>
       <c r="C13">
-        <v>0.1123</v>
-      </c>
-      <c r="D13">
-        <v>7.6459999999999999</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E13">
-        <v>0.1515</v>
+        <v>0.24229999999999999</v>
       </c>
       <c r="F13">
-        <v>2.614E-2</v>
+        <v>0.1714</v>
       </c>
       <c r="G13">
-        <v>2.4889999999999999E-2</v>
+        <v>0.1449</v>
       </c>
       <c r="H13">
-        <v>2.9700000000000001E-2</v>
+        <v>0.21010000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -17202,22 +15227,22 @@
         <v>0.13</v>
       </c>
       <c r="B14">
-        <v>0.41899999999999998</v>
+        <v>0.23549999999999999</v>
       </c>
       <c r="C14">
-        <v>0.13719999999999999</v>
+        <v>0.2319</v>
       </c>
       <c r="E14">
-        <v>0.1948</v>
+        <v>0.31019999999999998</v>
       </c>
       <c r="F14">
-        <v>3.7280000000000001E-2</v>
+        <v>0.27539999999999998</v>
       </c>
       <c r="G14">
-        <v>3.6209999999999999E-2</v>
+        <v>0.22620000000000001</v>
       </c>
       <c r="H14">
-        <v>4.2819999999999997E-2</v>
+        <v>0.30409999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -17225,22 +15250,22 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="B15">
-        <v>0.5363</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="C15">
-        <v>0.1709</v>
+        <v>0.28539999999999999</v>
       </c>
       <c r="E15">
-        <v>0.2429</v>
+        <v>0.4002</v>
       </c>
       <c r="F15">
-        <v>5.2089999999999997E-2</v>
+        <v>0.40649999999999997</v>
       </c>
       <c r="G15">
-        <v>4.9149999999999999E-2</v>
+        <v>0.33650000000000002</v>
       </c>
       <c r="H15">
-        <v>5.7889999999999997E-2</v>
+        <v>0.43230000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -17248,22 +15273,22 @@
         <v>0.15</v>
       </c>
       <c r="B16">
-        <v>0.65690000000000004</v>
+        <v>0.29559999999999997</v>
       </c>
       <c r="C16">
-        <v>0.21410000000000001</v>
+        <v>0.34839999999999999</v>
       </c>
       <c r="E16">
-        <v>0.2994</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="F16">
-        <v>6.7339999999999997E-2</v>
+        <v>0.58550000000000002</v>
       </c>
       <c r="G16">
-        <v>6.5199999999999994E-2</v>
+        <v>0.47770000000000001</v>
       </c>
       <c r="H16">
-        <v>7.7249999999999999E-2</v>
+        <v>0.59509999999999996</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -17271,22 +15296,22 @@
         <v>0.16</v>
       </c>
       <c r="B17">
-        <v>0.79979999999999996</v>
+        <v>0.33729999999999999</v>
       </c>
       <c r="C17">
-        <v>0.2606</v>
+        <v>0.4375</v>
       </c>
       <c r="E17">
-        <v>0.36709999999999998</v>
+        <v>0.6895</v>
       </c>
       <c r="F17">
-        <v>8.7679999999999994E-2</v>
+        <v>0.82069999999999999</v>
       </c>
       <c r="G17">
-        <v>8.4379999999999997E-2</v>
+        <v>0.64470000000000005</v>
       </c>
       <c r="H17">
-        <v>0.1009</v>
+        <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -17294,22 +15319,22 @@
         <v>0.17</v>
       </c>
       <c r="B18">
-        <v>0.95709999999999995</v>
+        <v>0.38700000000000001</v>
       </c>
       <c r="C18">
-        <v>0.313</v>
+        <v>0.53</v>
       </c>
       <c r="E18">
-        <v>0.43590000000000001</v>
+        <v>0.89270000000000005</v>
       </c>
       <c r="F18">
-        <v>0.1162</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="G18">
-        <v>0.1124</v>
+        <v>0.86539999999999995</v>
       </c>
       <c r="H18">
-        <v>0.13089999999999999</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -17317,22 +15342,22 @@
         <v>0.18</v>
       </c>
       <c r="B19">
-        <v>1.1299999999999999</v>
+        <v>0.44950000000000001</v>
       </c>
       <c r="C19">
-        <v>0.37280000000000002</v>
+        <v>0.63470000000000004</v>
       </c>
       <c r="E19">
-        <v>0.5171</v>
+        <v>1.155</v>
       </c>
       <c r="F19">
-        <v>0.15029999999999999</v>
+        <v>1.534</v>
       </c>
       <c r="G19">
-        <v>0.1462</v>
+        <v>1.1439999999999999</v>
       </c>
       <c r="H19">
-        <v>0.17299999999999999</v>
+        <v>1.2829999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -17340,22 +15365,22 @@
         <v>0.19</v>
       </c>
       <c r="B20">
-        <v>1.331</v>
+        <v>0.53049999999999997</v>
       </c>
       <c r="C20">
-        <v>0.44569999999999999</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="E20">
-        <v>0.61240000000000006</v>
+        <v>1.468</v>
       </c>
       <c r="F20">
-        <v>0.19489999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="G20">
-        <v>0.18590000000000001</v>
+        <v>1.4590000000000001</v>
       </c>
       <c r="H20">
-        <v>0.2238</v>
+        <v>1.579</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -17363,22 +15388,22 @@
         <v>0.2</v>
       </c>
       <c r="B21">
-        <v>1.554</v>
+        <v>0.63390000000000002</v>
       </c>
       <c r="C21">
-        <v>0.53059999999999996</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="E21">
-        <v>0.71279999999999999</v>
+        <v>1.855</v>
       </c>
       <c r="F21">
-        <v>0.2445</v>
+        <v>2.76</v>
       </c>
       <c r="G21">
-        <v>0.2399</v>
+        <v>1.857</v>
       </c>
       <c r="H21">
-        <v>0.2828</v>
+        <v>1.9390000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -17386,22 +15411,22 @@
         <v>0.21</v>
       </c>
       <c r="B22">
-        <v>1.7949999999999999</v>
+        <v>0.75790000000000002</v>
       </c>
       <c r="C22">
-        <v>0.63329999999999997</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="E22">
-        <v>0.82709999999999995</v>
+        <v>2.3130000000000002</v>
       </c>
       <c r="F22">
-        <v>0.30919999999999997</v>
+        <v>3.661</v>
       </c>
       <c r="G22">
-        <v>0.30070000000000002</v>
+        <v>2.331</v>
       </c>
       <c r="H22">
-        <v>0.35980000000000001</v>
+        <v>2.3450000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -17409,22 +15434,22 @@
         <v>0.22</v>
       </c>
       <c r="B23">
-        <v>2.0459999999999998</v>
+        <v>0.9113</v>
       </c>
       <c r="C23">
-        <v>0.74329999999999996</v>
+        <v>1.18</v>
       </c>
       <c r="E23">
-        <v>0.9506</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="F23">
-        <v>0.3881</v>
+        <v>4.8360000000000003</v>
       </c>
       <c r="G23">
-        <v>0.37730000000000002</v>
+        <v>2.91</v>
       </c>
       <c r="H23">
-        <v>0.45300000000000001</v>
+        <v>2.8170000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -17432,22 +15457,22 @@
         <v>0.23</v>
       </c>
       <c r="B24">
-        <v>2.327</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="C24">
-        <v>0.88580000000000003</v>
+        <v>1.359</v>
       </c>
       <c r="E24">
-        <v>1.0860000000000001</v>
+        <v>3.4390000000000001</v>
       </c>
       <c r="F24">
-        <v>0.48659999999999998</v>
+        <v>6.3369999999999997</v>
       </c>
       <c r="G24">
-        <v>0.46729999999999999</v>
+        <v>3.5960000000000001</v>
       </c>
       <c r="H24">
-        <v>0.56479999999999997</v>
+        <v>3.3220000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -17455,22 +15480,22 @@
         <v>0.24</v>
       </c>
       <c r="B25">
-        <v>2.6309999999999998</v>
+        <v>1.3360000000000001</v>
       </c>
       <c r="C25">
-        <v>1.05</v>
+        <v>1.538</v>
       </c>
       <c r="E25">
-        <v>1.244</v>
+        <v>4.1630000000000003</v>
       </c>
       <c r="F25">
-        <v>0.60699999999999998</v>
+        <v>8.4510000000000005</v>
       </c>
       <c r="G25">
-        <v>0.5796</v>
+        <v>4.4279999999999999</v>
       </c>
       <c r="H25">
-        <v>0.69810000000000005</v>
+        <v>3.9180000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -17478,22 +15503,19 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>2.931</v>
+        <v>1.6220000000000001</v>
       </c>
       <c r="C26">
-        <v>1.236</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="E26">
-        <v>1.425</v>
-      </c>
-      <c r="F26">
-        <v>0.75460000000000005</v>
+        <v>4.97</v>
       </c>
       <c r="G26">
-        <v>0.71450000000000002</v>
+        <v>5.4269999999999996</v>
       </c>
       <c r="H26">
-        <v>0.86</v>
+        <v>4.5720000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -17501,22 +15523,19 @@
         <v>0.26</v>
       </c>
       <c r="B27">
-        <v>3.2290000000000001</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="C27">
-        <v>1.4570000000000001</v>
+        <v>1.944</v>
       </c>
       <c r="E27">
-        <v>1.6279999999999999</v>
-      </c>
-      <c r="F27">
-        <v>0.92800000000000005</v>
+        <v>5.8739999999999997</v>
       </c>
       <c r="G27">
-        <v>0.87329999999999997</v>
+        <v>6.6239999999999997</v>
       </c>
       <c r="H27">
-        <v>1.0609999999999999</v>
+        <v>5.3159999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -17524,22 +15543,19 @@
         <v>0.27</v>
       </c>
       <c r="B28">
-        <v>3.5590000000000002</v>
+        <v>2.3149999999999999</v>
       </c>
       <c r="C28">
-        <v>1.6970000000000001</v>
+        <v>2.177</v>
       </c>
       <c r="E28">
-        <v>1.841</v>
-      </c>
-      <c r="F28">
-        <v>1.141</v>
+        <v>6.8970000000000002</v>
       </c>
       <c r="G28">
-        <v>1.0629999999999999</v>
+        <v>8.0510000000000002</v>
       </c>
       <c r="H28">
-        <v>1.288</v>
+        <v>6.1529999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -17547,22 +15563,19 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B29">
-        <v>3.8849999999999998</v>
+        <v>2.7450000000000001</v>
       </c>
       <c r="C29">
-        <v>1.9590000000000001</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="E29">
-        <v>2.0880000000000001</v>
-      </c>
-      <c r="F29">
-        <v>1.3839999999999999</v>
+        <v>8.0150000000000006</v>
       </c>
       <c r="G29">
-        <v>1.2849999999999999</v>
+        <v>9.7490000000000006</v>
       </c>
       <c r="H29">
-        <v>1.556</v>
+        <v>7.0810000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -17570,22 +15583,16 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="B30">
-        <v>4.2</v>
+        <v>3.2639999999999998</v>
       </c>
       <c r="C30">
-        <v>2.242</v>
+        <v>2.69</v>
       </c>
       <c r="E30">
-        <v>2.3730000000000002</v>
-      </c>
-      <c r="F30">
-        <v>1.659</v>
-      </c>
-      <c r="G30">
-        <v>1.5489999999999999</v>
+        <v>9.23</v>
       </c>
       <c r="H30">
-        <v>1.857</v>
+        <v>8.1349999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -17593,22 +15600,13 @@
         <v>0.3</v>
       </c>
       <c r="B31">
-        <v>4.5369999999999999</v>
+        <v>3.863</v>
       </c>
       <c r="C31">
-        <v>2.585</v>
-      </c>
-      <c r="E31">
-        <v>2.6960000000000002</v>
-      </c>
-      <c r="F31">
-        <v>1.9910000000000001</v>
-      </c>
-      <c r="G31">
-        <v>1.8480000000000001</v>
+        <v>2.976</v>
       </c>
       <c r="H31">
-        <v>2.2069999999999999</v>
+        <v>9.2810000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -17616,277 +15614,139 @@
         <v>0.31</v>
       </c>
       <c r="B32">
-        <v>4.883</v>
+        <v>4.4820000000000002</v>
       </c>
       <c r="C32">
-        <v>2.9569999999999999</v>
-      </c>
-      <c r="E32">
-        <v>3.0590000000000002</v>
-      </c>
-      <c r="F32">
-        <v>2.3769999999999998</v>
-      </c>
-      <c r="G32">
-        <v>2.1619999999999999</v>
-      </c>
-      <c r="H32">
-        <v>2.5960000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.32</v>
       </c>
       <c r="B33">
-        <v>5.2169999999999996</v>
+        <v>5.2469999999999999</v>
       </c>
       <c r="C33">
-        <v>3.4020000000000001</v>
-      </c>
-      <c r="E33">
-        <v>3.4590000000000001</v>
-      </c>
-      <c r="F33">
-        <v>2.8330000000000002</v>
-      </c>
-      <c r="G33">
-        <v>2.5409999999999999</v>
-      </c>
-      <c r="H33">
-        <v>3.0510000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3.6469999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.33</v>
       </c>
       <c r="B34">
-        <v>5.5490000000000004</v>
+        <v>6.03</v>
       </c>
       <c r="C34">
-        <v>3.8620000000000001</v>
-      </c>
-      <c r="E34">
-        <v>3.9079999999999999</v>
-      </c>
-      <c r="F34">
-        <v>3.339</v>
-      </c>
-      <c r="G34">
-        <v>2.972</v>
-      </c>
-      <c r="H34">
-        <v>3.5409999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.34</v>
       </c>
       <c r="B35">
-        <v>5.9</v>
+        <v>6.9329999999999998</v>
       </c>
       <c r="C35">
-        <v>4.3890000000000002</v>
-      </c>
-      <c r="E35">
-        <v>4.4119999999999999</v>
-      </c>
-      <c r="F35">
-        <v>3.9350000000000001</v>
-      </c>
-      <c r="G35">
-        <v>3.4649999999999999</v>
-      </c>
-      <c r="H35">
-        <v>4.0670000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.4219999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.35</v>
       </c>
       <c r="B36">
-        <v>6.242</v>
+        <v>7.9020000000000001</v>
       </c>
       <c r="C36">
-        <v>4.9450000000000003</v>
-      </c>
-      <c r="E36">
-        <v>4.9790000000000001</v>
-      </c>
-      <c r="F36">
-        <v>4.6539999999999999</v>
-      </c>
-      <c r="G36">
-        <v>4.0389999999999997</v>
-      </c>
-      <c r="H36">
-        <v>4.673</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4.8360000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36</v>
       </c>
       <c r="B37">
-        <v>6.6120000000000001</v>
+        <v>9.0250000000000004</v>
       </c>
       <c r="C37">
-        <v>5.5890000000000004</v>
-      </c>
-      <c r="E37">
-        <v>5.5990000000000002</v>
-      </c>
-      <c r="F37">
-        <v>5.5309999999999997</v>
-      </c>
-      <c r="G37">
-        <v>4.68</v>
-      </c>
-      <c r="H37">
-        <v>5.3440000000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.282</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.37</v>
       </c>
-      <c r="B38">
-        <v>6.9660000000000002</v>
-      </c>
       <c r="C38">
-        <v>6.2320000000000002</v>
-      </c>
-      <c r="E38">
-        <v>6.2990000000000004</v>
-      </c>
-      <c r="F38">
-        <v>6.5590000000000002</v>
-      </c>
-      <c r="G38">
-        <v>5.39</v>
-      </c>
-      <c r="H38">
-        <v>6.0940000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.7830000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.38</v>
       </c>
-      <c r="B39">
-        <v>7.367</v>
-      </c>
       <c r="C39">
-        <v>6.931</v>
-      </c>
-      <c r="E39">
-        <v>7.0869999999999997</v>
-      </c>
-      <c r="F39">
-        <v>7.8090000000000002</v>
-      </c>
-      <c r="G39">
-        <v>6.1840000000000002</v>
-      </c>
-      <c r="H39">
-        <v>6.9379999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.3040000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.39</v>
       </c>
-      <c r="B40">
-        <v>7.7750000000000004</v>
-      </c>
       <c r="C40">
-        <v>7.6630000000000003</v>
-      </c>
-      <c r="E40">
-        <v>7.9729999999999999</v>
-      </c>
-      <c r="F40">
-        <v>9.3979999999999997</v>
-      </c>
-      <c r="G40">
-        <v>7.0990000000000002</v>
-      </c>
-      <c r="H40">
-        <v>7.8710000000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.8719999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.4</v>
       </c>
-      <c r="B41">
-        <v>8.1969999999999992</v>
-      </c>
       <c r="C41">
-        <v>8.4559999999999995</v>
-      </c>
-      <c r="E41">
-        <v>8.9410000000000007</v>
-      </c>
-      <c r="G41">
-        <v>8.1760000000000002</v>
-      </c>
-      <c r="H41">
-        <v>8.8829999999999991</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.4859999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.41</v>
       </c>
-      <c r="B42">
-        <v>8.673</v>
-      </c>
       <c r="C42">
-        <v>9.3170000000000002</v>
-      </c>
-      <c r="G42">
-        <v>9.4160000000000004</v>
-      </c>
-      <c r="H42">
-        <v>9.9990000000000006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.1310000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.42</v>
       </c>
-      <c r="B43">
-        <v>9.1210000000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>8.8079999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.43</v>
       </c>
-      <c r="B44">
-        <v>9.6590000000000007</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>9.5549999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>0.44</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>0.45</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>0.46</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>0.47</v>
       </c>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26C8D2E-8178-45FF-96A3-E1218461EC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237B7E8D-77D6-4AAC-ACAD-5E751D62312D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2970" yWindow="2070" windowWidth="29190" windowHeight="16125" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="3450" yWindow="2280" windowWidth="27720" windowHeight="15615" activeTab="2" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
     <sheet name="Ignore" sheetId="2" r:id="rId1"/>
@@ -12117,16 +12117,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12559,7 +12559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E49264-24AA-4A3A-8626-19F8BEE0B881}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14978,7 +14978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA24BEAF-4687-47A5-8CF2-B3CF9CEEAC51}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B80B181-DE6E-4D3D-9B32-CDF705C9779B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D86C54-2C3D-4F3E-8018-D9EDFDF7DF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="4230" windowWidth="23295" windowHeight="15255" activeTab="2" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="9120" yWindow="3885" windowWidth="23295" windowHeight="15255" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ignore" sheetId="4" r:id="rId1"/>
-    <sheet name="Fold" sheetId="7" r:id="rId2"/>
-    <sheet name="SF" sheetId="9" r:id="rId3"/>
+    <sheet name="SF" sheetId="9" r:id="rId1"/>
+    <sheet name="Fold" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,25 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
-  <si>
-    <t>DALI_ignore</t>
-  </si>
-  <si>
-    <t>TMalign_ignore</t>
-  </si>
-  <si>
-    <t>blastp_ignore</t>
-  </si>
-  <si>
-    <t>foldseek_ignore</t>
-  </si>
-  <si>
-    <t>reseek-fast_ignore</t>
-  </si>
-  <si>
-    <t>reseek-sensitive_ignore</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>fpepq</t>
   </si>
@@ -73,12 +54,6 @@
     <t>foldseek_fold</t>
   </si>
   <si>
-    <t>reseek-fast_fold</t>
-  </si>
-  <si>
-    <t>reseek-sensitive_fold</t>
-  </si>
-  <si>
     <t>DALI_sf</t>
   </si>
   <si>
@@ -91,10 +66,16 @@
     <t>foldseek_sf</t>
   </si>
   <si>
-    <t>reseek-fast_sf</t>
+    <t>devreseek-fast_sf</t>
   </si>
   <si>
-    <t>reseek-sensitive_sf</t>
+    <t>devreseek-sensitive_sf</t>
+  </si>
+  <si>
+    <t>devreseek-fast_fold</t>
+  </si>
+  <si>
+    <t>devreseek-sensitive_fold</t>
   </si>
 </sst>
 </file>
@@ -174,11 +155,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ignore!$D$1</c:f>
+              <c:f>SF!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>blastp_fold</c:v>
+                  <c:v>blastp_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -201,7 +182,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Ignore!$A$2:$A$44</c:f>
+              <c:f>SF!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -339,15 +320,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ignore!$D$2:$D$44</c:f>
+              <c:f>SF!$D$2:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="3">
-                  <c:v>0.10059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.5990000000000002</c:v>
+                <c:ptCount val="44"/>
+                <c:pt idx="7">
+                  <c:v>2.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6689999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6950000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -355,7 +345,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C97B-4645-A470-F32F30A3CF20}"/>
+              <c16:uniqueId val="{00000000-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -364,11 +354,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ignore!$B$1</c:f>
+              <c:f>SF!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DALI_fold</c:v>
+                  <c:v>DALI_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -388,7 +378,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Ignore!$A$2:$A$44</c:f>
+              <c:f>SF!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -526,111 +516,132 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ignore!$B$2:$B$44</c:f>
+              <c:f>SF!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="2">
-                  <c:v>1.1599999999999999E-2</c:v>
+                  <c:v>1.204E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.184E-2</c:v>
+                  <c:v>2.2030000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2179999999999997E-2</c:v>
+                  <c:v>3.5499999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0019999999999999E-2</c:v>
+                  <c:v>5.5390000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.09</c:v>
+                  <c:v>8.5449999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.11</c:v>
+                  <c:v>0.1174</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13039999999999999</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15129999999999999</c:v>
+                  <c:v>0.20030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.25480000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.20680000000000001</c:v>
+                  <c:v>0.32229999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23499999999999999</c:v>
+                  <c:v>0.41820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26550000000000001</c:v>
+                  <c:v>0.5333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.29509999999999997</c:v>
+                  <c:v>0.6542</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.3362</c:v>
+                  <c:v>0.79190000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.3851</c:v>
+                  <c:v>0.95409999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.44769999999999999</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.52880000000000005</c:v>
+                  <c:v>1.3260000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.63119999999999998</c:v>
+                  <c:v>1.5469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.754</c:v>
+                  <c:v>1.7869999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.90880000000000005</c:v>
+                  <c:v>2.0419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.097</c:v>
+                  <c:v>2.3180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.325</c:v>
+                  <c:v>2.6150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.61</c:v>
+                  <c:v>2.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9259999999999999</c:v>
+                  <c:v>3.2210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2919999999999998</c:v>
+                  <c:v>3.5339999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7309999999999999</c:v>
+                  <c:v>3.8620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.246</c:v>
+                  <c:v>4.1909999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.8380000000000001</c:v>
+                  <c:v>4.5289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.4619999999999997</c:v>
+                  <c:v>4.8520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2190000000000003</c:v>
+                  <c:v>5.194</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.9749999999999996</c:v>
+                  <c:v>5.5229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.8979999999999997</c:v>
+                  <c:v>5.8739999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.8540000000000001</c:v>
+                  <c:v>6.2140000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.9789999999999992</c:v>
+                  <c:v>6.5919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.3230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.7439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1690000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6159999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -638,7 +649,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C97B-4645-A470-F32F30A3CF20}"/>
+              <c16:uniqueId val="{00000001-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -647,11 +658,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ignore!$C$1</c:f>
+              <c:f>SF!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMalign_fold</c:v>
+                  <c:v>TMalign_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -670,7 +681,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Ignore!$A$2:$A$44</c:f>
+              <c:f>SF!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -808,126 +819,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ignore!$C$2:$C$44</c:f>
+              <c:f>SF!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="4">
-                  <c:v>1.0699999999999999E-2</c:v>
-                </c:pt>
+                <c:ptCount val="44"/>
                 <c:pt idx="5">
-                  <c:v>1.7840000000000002E-2</c:v>
+                  <c:v>1.5520000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9790000000000001E-2</c:v>
+                  <c:v>2.3189999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5310000000000003E-2</c:v>
+                  <c:v>3.2820000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.7430000000000004E-2</c:v>
+                  <c:v>4.888E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5979999999999996E-2</c:v>
+                  <c:v>6.4399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1308</c:v>
+                  <c:v>8.7239999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17799999999999999</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.23250000000000001</c:v>
+                  <c:v>0.13700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28649999999999998</c:v>
+                  <c:v>0.17119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.34910000000000002</c:v>
+                  <c:v>0.21340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.43780000000000002</c:v>
+                  <c:v>0.25969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.53069999999999995</c:v>
+                  <c:v>0.31259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.63549999999999995</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.74839999999999995</c:v>
+                  <c:v>0.44479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.878</c:v>
+                  <c:v>0.52890000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.024</c:v>
+                  <c:v>0.63260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.181</c:v>
+                  <c:v>0.74199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3580000000000001</c:v>
+                  <c:v>0.88270000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.538</c:v>
+                  <c:v>1.0469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.732</c:v>
+                  <c:v>1.232</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.9450000000000001</c:v>
+                  <c:v>1.452</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.1779999999999999</c:v>
+                  <c:v>1.6930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4260000000000002</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.6890000000000001</c:v>
+                  <c:v>2.2309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9729999999999999</c:v>
+                  <c:v>2.5750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.3010000000000002</c:v>
+                  <c:v>2.9430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.6440000000000001</c:v>
+                  <c:v>3.3849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.0289999999999999</c:v>
+                  <c:v>3.8439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.4219999999999997</c:v>
+                  <c:v>4.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.8380000000000001</c:v>
+                  <c:v>4.9210000000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.2830000000000004</c:v>
+                  <c:v>5.5609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.7839999999999998</c:v>
+                  <c:v>6.2009999999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.3049999999999997</c:v>
+                  <c:v>6.8979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.8719999999999999</c:v>
+                  <c:v>7.6289999999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.49</c:v>
+                  <c:v>8.4149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.1359999999999992</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.8119999999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.5589999999999993</c:v>
+                  <c:v>9.2690000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -935,7 +937,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C97B-4645-A470-F32F30A3CF20}"/>
+              <c16:uniqueId val="{00000002-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -944,11 +946,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ignore!$E$1</c:f>
+              <c:f>SF!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>foldseek_fold</c:v>
+                  <c:v>foldseek_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -967,7 +969,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Ignore!$A$2:$A$44</c:f>
+              <c:f>SF!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -1105,87 +1107,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ignore!$E$2:$E$44</c:f>
+              <c:f>SF!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="3">
-                  <c:v>2.078E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0759999999999998E-2</c:v>
-                </c:pt>
+                <c:ptCount val="44"/>
                 <c:pt idx="5">
-                  <c:v>5.985E-2</c:v>
+                  <c:v>1.222E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.7600000000000002E-2</c:v>
+                  <c:v>2.3640000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.8390000000000005E-2</c:v>
+                  <c:v>3.9600000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.122</c:v>
+                  <c:v>6.012E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15409999999999999</c:v>
+                  <c:v>8.5900000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1905</c:v>
+                  <c:v>0.11609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2407</c:v>
+                  <c:v>0.15129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.30919999999999997</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.39729999999999999</c:v>
+                  <c:v>0.2422</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5242</c:v>
+                  <c:v>0.29699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.68600000000000005</c:v>
+                  <c:v>0.36520000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.8881</c:v>
+                  <c:v>0.43440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.147</c:v>
+                  <c:v>0.5151</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.46</c:v>
+                  <c:v>0.60899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.841</c:v>
+                  <c:v>0.70930000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>0.82320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.819</c:v>
+                  <c:v>0.94620000000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.4220000000000002</c:v>
+                  <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.1360000000000001</c:v>
+                  <c:v>1.238</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.944</c:v>
+                  <c:v>1.4179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.8440000000000003</c:v>
+                  <c:v>1.617</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.8609999999999998</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.9749999999999996</c:v>
+                  <c:v>2.0739999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.1880000000000006</c:v>
+                  <c:v>2.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.036</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.2430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.0279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.9009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.9809999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1193,7 +1225,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C97B-4645-A470-F32F30A3CF20}"/>
+              <c16:uniqueId val="{00000003-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1202,11 +1234,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ignore!$F$1</c:f>
+              <c:f>SF!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reseek-fast_fold</c:v>
+                  <c:v>devreseek-fast_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1226,7 +1258,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Ignore!$A$2:$A$44</c:f>
+              <c:f>SF!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -1364,63 +1396,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ignore!$F$2:$F$44</c:f>
+              <c:f>SF!$F$2:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="6">
-                  <c:v>1.383E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3369999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.8179999999999999E-2</c:v>
-                </c:pt>
+                <c:ptCount val="44"/>
                 <c:pt idx="9">
-                  <c:v>6.2619999999999995E-2</c:v>
+                  <c:v>1.472E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1016</c:v>
+                  <c:v>2.3910000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16969999999999999</c:v>
+                  <c:v>3.202E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.27389999999999998</c:v>
+                  <c:v>4.5400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40539999999999998</c:v>
+                  <c:v>6.0650000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.58350000000000002</c:v>
+                  <c:v>7.9920000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.81789999999999996</c:v>
+                  <c:v>0.1031</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.123</c:v>
+                  <c:v>0.1308</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5269999999999999</c:v>
+                  <c:v>0.1646</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.048</c:v>
+                  <c:v>0.20680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7469999999999999</c:v>
+                  <c:v>0.26140000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.6419999999999999</c:v>
+                  <c:v>0.31859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8079999999999998</c:v>
+                  <c:v>0.38900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.298</c:v>
+                  <c:v>0.47089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.3719999999999999</c:v>
+                  <c:v>0.56610000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.68659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83130000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.704</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.34</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.7370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.1989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3129999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.0250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.8220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7119999999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.7889999999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0039999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1502,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C97B-4645-A470-F32F30A3CF20}"/>
+              <c16:uniqueId val="{00000004-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1437,11 +1511,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Ignore!$G$1</c:f>
+              <c:f>SF!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reseek-sensitive_fold</c:v>
+                  <c:v>devreseek-sensitive_sf</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1461,7 +1535,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Ignore!$A$2:$A$44</c:f>
+              <c:f>SF!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -1599,75 +1673,108 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ignore!$G$2:$G$44</c:f>
+              <c:f>SF!$G$2:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="6">
-                  <c:v>1.2489999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1229999999999999E-2</c:v>
-                </c:pt>
+                <c:ptCount val="44"/>
                 <c:pt idx="8">
-                  <c:v>3.5680000000000003E-2</c:v>
+                  <c:v>1.3559999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7799999999999997E-2</c:v>
+                  <c:v>2.0160000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.3030000000000002E-2</c:v>
+                  <c:v>3.0329999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.14410000000000001</c:v>
+                  <c:v>3.925E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2258</c:v>
+                  <c:v>5.3429999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.33710000000000001</c:v>
+                  <c:v>7.0730000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.47660000000000002</c:v>
+                  <c:v>9.2319999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.64459999999999995</c:v>
+                  <c:v>0.1193</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.86439999999999995</c:v>
+                  <c:v>0.15310000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1399999999999999</c:v>
+                  <c:v>0.191</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.458</c:v>
+                  <c:v>0.2402</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8560000000000001</c:v>
+                  <c:v>0.30349999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.327</c:v>
+                  <c:v>0.3795</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.903</c:v>
+                  <c:v>0.46820000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.5880000000000001</c:v>
+                  <c:v>0.57550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.4180000000000001</c:v>
+                  <c:v>0.70369999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.41</c:v>
+                  <c:v>0.8448</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.609</c:v>
+                  <c:v>1.0289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.0289999999999999</c:v>
+                  <c:v>1.2490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.7070000000000007</c:v>
+                  <c:v>1.4970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.1150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.492</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.911</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.931</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.5110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.1550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.859</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.4529999999999994</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5009999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,7 +1782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-C97B-4645-A470-F32F30A3CF20}"/>
+              <c16:uniqueId val="{00000005-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2048,7 +2155,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>blastp_ignore</c:v>
+                  <c:v>blastp_fold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2071,10 +2178,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Fold!$A$2:$A$56</c:f>
+              <c:f>Fold!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -2203,65 +2310,20 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fold!$D$2:$D$57</c:f>
+              <c:f>Fold!$D$2:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="7">
-                  <c:v>1.8020000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.8220000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.37219999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.2709999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:ptCount val="44"/>
+                <c:pt idx="3">
+                  <c:v>0.10059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>7.5990000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -2270,7 +2332,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E327-4714-AA73-98C1A294FF07}"/>
+              <c16:uniqueId val="{00000000-7427-4367-9DFB-FBF38ECB406C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2283,7 +2345,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DALI_ignore</c:v>
+                  <c:v>DALI_fold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2303,10 +2365,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Fold!$A$2:$A$56</c:f>
+              <c:f>Fold!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -2435,198 +2497,117 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fold!$B$2:$B$57</c:f>
+              <c:f>Fold!$B$2:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="44"/>
+                <c:pt idx="2">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.184E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2179999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0019999999999999E-2</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.481E-2</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3550000000000001E-2</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2910000000000002E-2</c:v>
+                  <c:v>0.13039999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.3529999999999999E-2</c:v>
+                  <c:v>0.15129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2810000000000003E-2</c:v>
+                  <c:v>0.17899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.1100000000000002E-2</c:v>
+                  <c:v>0.20680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.2340000000000002E-2</c:v>
+                  <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.4470000000000003E-2</c:v>
+                  <c:v>0.26550000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3840000000000007E-2</c:v>
+                  <c:v>0.29509999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1036</c:v>
+                  <c:v>0.3362</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11849999999999999</c:v>
+                  <c:v>0.3851</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.13009999999999999</c:v>
+                  <c:v>0.44769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1421</c:v>
+                  <c:v>0.52880000000000005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.15790000000000001</c:v>
+                  <c:v>0.63119999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.17799999999999999</c:v>
+                  <c:v>0.754</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1951</c:v>
+                  <c:v>0.90880000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.21779999999999999</c:v>
+                  <c:v>1.097</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.23780000000000001</c:v>
+                  <c:v>1.325</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.26050000000000001</c:v>
+                  <c:v>1.61</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.28210000000000002</c:v>
+                  <c:v>1.9259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.30819999999999997</c:v>
+                  <c:v>2.2919999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.33989999999999998</c:v>
+                  <c:v>2.7309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.37840000000000001</c:v>
+                  <c:v>3.246</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.42070000000000002</c:v>
+                  <c:v>3.8380000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.47199999999999998</c:v>
+                  <c:v>4.4619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.53520000000000001</c:v>
+                  <c:v>5.2190000000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.60929999999999995</c:v>
+                  <c:v>5.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.68820000000000003</c:v>
+                  <c:v>6.8979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.78500000000000003</c:v>
+                  <c:v>7.8540000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.89829999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.0189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.3380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.526</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.7470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.9710000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.2330000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.5539999999999998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.903</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.2839999999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.7080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.2169999999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.758</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.3419999999999996</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.9660000000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.7130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7.5570000000000004</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.4670000000000005</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.5709999999999997</c:v>
+                  <c:v>8.9789999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2634,7 +2615,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E327-4714-AA73-98C1A294FF07}"/>
+              <c16:uniqueId val="{00000001-7427-4367-9DFB-FBF38ECB406C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2647,7 +2628,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMalign_ignore</c:v>
+                  <c:v>TMalign_fold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2666,10 +2647,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Fold!$A$2:$A$56</c:f>
+              <c:f>Fold!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -2798,183 +2779,132 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fold!$C$2:$C$57</c:f>
+              <c:f>Fold!$C$2:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="44"/>
+                <c:pt idx="4">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7840000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9790000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5310000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7430000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5979999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1308</c:v>
+                </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.2840000000000001E-2</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.6590000000000001E-2</c:v>
+                  <c:v>0.23250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.1499999999999998E-2</c:v>
+                  <c:v>0.28649999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6939999999999999E-2</c:v>
+                  <c:v>0.34910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2469999999999999E-2</c:v>
+                  <c:v>0.43780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.2369999999999998E-2</c:v>
+                  <c:v>0.53069999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9059999999999999E-2</c:v>
+                  <c:v>0.63549999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1550000000000001E-2</c:v>
+                  <c:v>0.74839999999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.5020000000000003E-2</c:v>
+                  <c:v>0.878</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.0800000000000006E-2</c:v>
+                  <c:v>1.024</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1065</c:v>
+                  <c:v>1.181</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.12720000000000001</c:v>
+                  <c:v>1.3580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1522</c:v>
+                  <c:v>1.538</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.182</c:v>
+                  <c:v>1.732</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.21679999999999999</c:v>
+                  <c:v>1.9450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25419999999999998</c:v>
+                  <c:v>2.1779999999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.29060000000000002</c:v>
+                  <c:v>2.4260000000000002</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.33250000000000002</c:v>
+                  <c:v>2.6890000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.39319999999999999</c:v>
+                  <c:v>2.9729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4622</c:v>
+                  <c:v>3.3010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5444</c:v>
+                  <c:v>3.6440000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.63070000000000004</c:v>
+                  <c:v>4.0289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.73419999999999996</c:v>
+                  <c:v>4.4219999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.84840000000000004</c:v>
+                  <c:v>4.8380000000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.98729999999999996</c:v>
+                  <c:v>5.2830000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.133</c:v>
+                  <c:v>5.7839999999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.306</c:v>
+                  <c:v>6.3049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.4950000000000001</c:v>
+                  <c:v>6.8719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.6930000000000001</c:v>
+                  <c:v>7.49</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.9279999999999999</c:v>
+                  <c:v>8.1359999999999992</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1930000000000001</c:v>
+                  <c:v>8.8119999999999994</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.4790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.7930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.1659999999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.569</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.0350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.5129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.0449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.6139999999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.242</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.9509999999999996</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7.74</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>8.5730000000000004</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.4809999999999999</c:v>
+                  <c:v>9.5589999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2982,7 +2912,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E327-4714-AA73-98C1A294FF07}"/>
+              <c16:uniqueId val="{00000002-7427-4367-9DFB-FBF38ECB406C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2995,7 +2925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>foldseek_ignore</c:v>
+                  <c:v>foldseek_fold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3014,10 +2944,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Fold!$A$2:$A$56</c:f>
+              <c:f>Fold!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -3146,168 +3076,93 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fold!$E$2:$E$57</c:f>
+              <c:f>Fold!$E$2:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="44"/>
+                <c:pt idx="3">
+                  <c:v>2.078E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0759999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.985E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7600000000000002E-2</c:v>
+                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>9.8390000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.078E-2</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0419999999999999E-2</c:v>
+                  <c:v>0.15409999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.943E-2</c:v>
+                  <c:v>0.1905</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7989999999999998E-2</c:v>
+                  <c:v>0.2407</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7180000000000002E-2</c:v>
+                  <c:v>0.30919999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.6449999999999995E-2</c:v>
+                  <c:v>0.39729999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.4209999999999998E-2</c:v>
+                  <c:v>0.5242</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.5180000000000006E-2</c:v>
+                  <c:v>0.68600000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.4460000000000002E-2</c:v>
+                  <c:v>0.8881</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10539999999999999</c:v>
+                  <c:v>1.147</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1173</c:v>
+                  <c:v>1.46</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13400000000000001</c:v>
+                  <c:v>1.841</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.15190000000000001</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.17119999999999999</c:v>
+                  <c:v>2.819</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19289999999999999</c:v>
+                  <c:v>3.4220000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.21920000000000001</c:v>
+                  <c:v>4.1360000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.25469999999999998</c:v>
+                  <c:v>4.944</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.29809999999999998</c:v>
+                  <c:v>5.8440000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3448</c:v>
+                  <c:v>6.8609999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.40820000000000001</c:v>
+                  <c:v>7.9749999999999996</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.48809999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.58750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.70809999999999995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.85040000000000004</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.028</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.2390000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.488</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.7869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.1360000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.5539999999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.036</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.5870000000000002</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.2690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.0270000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.8780000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.8570000000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.9589999999999996</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.2330000000000005</c:v>
+                  <c:v>9.1880000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3315,7 +3170,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E327-4714-AA73-98C1A294FF07}"/>
+              <c16:uniqueId val="{00000003-7427-4367-9DFB-FBF38ECB406C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3328,7 +3183,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reseek-fast_ignore</c:v>
+                  <c:v>devreseek-fast_fold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3348,10 +3203,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Fold!$A$2:$A$56</c:f>
+              <c:f>Fold!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -3480,132 +3335,78 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fold!$F$2:$F$57</c:f>
+              <c:f>Fold!$F$2:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="44"/>
+                <c:pt idx="6">
+                  <c:v>1.5339999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3990000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6749999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7090000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2843</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.124E-2</c:v>
+                  <c:v>0.41510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4630000000000001E-2</c:v>
+                  <c:v>0.57630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.9089999999999999E-2</c:v>
+                  <c:v>0.79010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.3730000000000001E-2</c:v>
+                  <c:v>1.0589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.988E-2</c:v>
+                  <c:v>1.3919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.7999999999999999E-2</c:v>
+                  <c:v>1.7989999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8259999999999997E-2</c:v>
+                  <c:v>2.2759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.2619999999999995E-2</c:v>
+                  <c:v>2.8530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.1259999999999999E-2</c:v>
+                  <c:v>3.5590000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1051</c:v>
+                  <c:v>4.43</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.14030000000000001</c:v>
+                  <c:v>5.4809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1888</c:v>
+                  <c:v>6.7619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.25069999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.32790000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.41439999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.52869999999999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.67669999999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.85960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.087</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.375</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.7509999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.2389999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.8769999999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.694</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.7910000000000004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.2149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.2609999999999992</c:v>
+                  <c:v>8.3040000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3613,7 +3414,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E327-4714-AA73-98C1A294FF07}"/>
+              <c16:uniqueId val="{00000004-7427-4367-9DFB-FBF38ECB406C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3626,7 +3427,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>reseek-sensitive_ignore</c:v>
+                  <c:v>devreseek-sensitive_fold</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3646,10 +3447,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Fold!$A$2:$A$56</c:f>
+              <c:f>Fold!$A$2:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="55"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0.01</c:v>
                 </c:pt>
@@ -3778,144 +3579,93 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fold!$G$2:$G$57</c:f>
+              <c:f>Fold!$G$2:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
+                <c:ptCount val="44"/>
+                <c:pt idx="5">
+                  <c:v>1.1679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9890000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4610000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.423E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7590000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1356</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.40889999999999999</c:v>
+                </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.061E-2</c:v>
+                  <c:v>0.55640000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.338E-2</c:v>
+                  <c:v>0.72960000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7479999999999999E-2</c:v>
+                  <c:v>0.94169999999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.1850000000000001E-2</c:v>
+                  <c:v>1.204</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.8539999999999999E-2</c:v>
+                  <c:v>1.4950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.5680000000000003E-2</c:v>
+                  <c:v>1.83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.5760000000000002E-2</c:v>
+                  <c:v>2.2200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7799999999999997E-2</c:v>
+                  <c:v>2.66</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.3770000000000002E-2</c:v>
+                  <c:v>3.1480000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.4640000000000002E-2</c:v>
+                  <c:v>3.7040000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.121</c:v>
+                  <c:v>4.327</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.15620000000000001</c:v>
+                  <c:v>5.0359999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2034</c:v>
+                  <c:v>5.8040000000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2641</c:v>
+                  <c:v>6.62</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.34</c:v>
+                  <c:v>7.5359999999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.43319999999999997</c:v>
+                  <c:v>8.5559999999999992</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.53159999999999996</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.65739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.81520000000000004</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.008</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.2450000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.528</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.8620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.262</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.7570000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.367</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4.1219999999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.0350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.1289999999999996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.5030000000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.1809999999999992</c:v>
+                  <c:v>9.6829999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,1994 +3673,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-E327-4714-AA73-98C1A294FF07}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1113740336"/>
-        <c:axId val="1113743696"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1113740336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>True</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> positive rate (sensitivity)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1113743696"/>
-        <c:crossesAt val="1.0000000000000002E-2"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="5"/>
-        <c:tickMarkSkip val="10"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1113743696"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>False</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> positive errors per query</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1113740336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:prstDash val="dash"/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SF!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>blastp_sf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SF!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SF!$D$2:$D$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="7">
-                  <c:v>2.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6689999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38769999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3009999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.6950000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SF!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DALI_sf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SF!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SF!$B$2:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="2">
-                  <c:v>1.204E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2030000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5499999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5390000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5449999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1174</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.154</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.20030000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25480000000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.32229999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.41820000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6542</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.79190000000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.95409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.125</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.3260000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.7869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0419999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.3180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.6150000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.9249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.2210000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5339999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.8620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1909999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.5289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.8520000000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.194</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.5229999999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.8739999999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.2140000000000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.5919999999999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.9359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.3230000000000004</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.7439999999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.1690000000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.6370000000000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.0830000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.6159999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SF!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TMalign_sf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SF!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SF!$C$2:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="5">
-                  <c:v>1.5520000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3189999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.2820000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.888E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.4399999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.7239999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.17119999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.21340000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.25969999999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.31259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.372</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.44479999999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.52890000000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.63260000000000005</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.74199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.88270000000000004</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.0469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.232</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.452</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.6930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.2309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.5750000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.9430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.3849999999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.8439999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.3719999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.9210000000000003</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.5609999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.2009999999999996</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.8979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.6289999999999996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.4149999999999991</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.2690000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SF!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>foldseek_sf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SF!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SF!$E$2:$E$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="5">
-                  <c:v>1.222E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3640000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9600000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.012E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.5900000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11609999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.15129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.19400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2422</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.29699999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.36520000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.43440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.5151</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.60899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.70930000000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.82320000000000004</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.94620000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.08</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.238</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4179999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.617</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.83</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.0739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.3559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.6779999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.036</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.4319999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.8820000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.3789999999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.9329999999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.5570000000000004</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.2430000000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.0279999999999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.9009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.85</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.9809999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SF!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>reseek-fast_sf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SF!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SF!$F$2:$F$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="9">
-                  <c:v>1.035E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7299999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5600000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.7199999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.1560000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.6900000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.6790000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1153</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.14990000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1933</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.24340000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.30690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.38590000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.48470000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.60299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.92269999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.135</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.377</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.649</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.978</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.3620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.8149999999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.3180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.9079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.6219999999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.484</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.5110000000000001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.7469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>9.3019999999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SF!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>reseek-sensitive_sf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SF!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SF!$G$2:$G$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="9">
-                  <c:v>1.044E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.695E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.4799999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.6040000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4.897E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.4850000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.4019999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.1116</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.14499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1852</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.23930000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.29820000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.37490000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.46600000000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.57750000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.71009999999999995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.86899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.0580000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.2789999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.542</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.8420000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.1469999999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.528</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.9580000000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.4470000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.0179999999999998</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.6520000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.3579999999999997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.149</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.0529999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.1289999999999996</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.3680000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
+              <c16:uniqueId val="{00000005-7427-4367-9DFB-FBF38ECB406C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6295,46 +4058,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7406,543 +5129,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67DF5F3F-B172-48F7-8DBD-E07B7F0AFA17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFA3818-381B-422E-B835-F359E4621E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7970,65 +5177,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9975B2E3-97DD-4C43-8948-A7B01D07C184}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EFA3818-381B-422E-B835-F359E4621E39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E31AC15-FBFD-4A31-9A30-31CABDC3F618}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8367,45 +5531,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C5B988-2C23-4DB0-A34A-FCE2AEB0F716}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48A558-673B-4B1E-8FF7-FCB07FA6F0FA}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8423,7 +5585,7 @@
         <v>0.03</v>
       </c>
       <c r="B4">
-        <v>1.1599999999999999E-2</v>
+        <v>1.204E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -8431,13 +5593,7 @@
         <v>0.04</v>
       </c>
       <c r="B5">
-        <v>3.184E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.10059999999999999</v>
-      </c>
-      <c r="E5">
-        <v>2.078E-2</v>
+        <v>2.2030000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -8445,16 +5601,7 @@
         <v>0.05</v>
       </c>
       <c r="B6">
-        <v>5.2179999999999997E-2</v>
-      </c>
-      <c r="C6">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>7.5990000000000002</v>
-      </c>
-      <c r="E6">
-        <v>4.0759999999999998E-2</v>
+        <v>3.5499999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8462,13 +5609,13 @@
         <v>0.06</v>
       </c>
       <c r="B7">
-        <v>7.0019999999999999E-2</v>
+        <v>5.5390000000000002E-2</v>
       </c>
       <c r="C7">
-        <v>1.7840000000000002E-2</v>
+        <v>1.5520000000000001E-2</v>
       </c>
       <c r="E7">
-        <v>5.985E-2</v>
+        <v>1.222E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -8476,19 +5623,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B8">
-        <v>0.09</v>
+        <v>8.5449999999999998E-2</v>
       </c>
       <c r="C8">
-        <v>2.9790000000000001E-2</v>
+        <v>2.3189999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="F8">
-        <v>1.383E-2</v>
-      </c>
-      <c r="G8">
-        <v>1.2489999999999999E-2</v>
+        <v>2.3640000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -8496,19 +5637,16 @@
         <v>0.08</v>
       </c>
       <c r="B9">
-        <v>0.11</v>
+        <v>0.1174</v>
       </c>
       <c r="C9">
-        <v>4.5310000000000003E-2</v>
+        <v>3.2820000000000002E-2</v>
+      </c>
+      <c r="D9">
+        <v>2.23E-2</v>
       </c>
       <c r="E9">
-        <v>9.8390000000000005E-2</v>
-      </c>
-      <c r="F9">
-        <v>2.3369999999999998E-2</v>
-      </c>
-      <c r="G9">
-        <v>2.1229999999999999E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -8516,19 +5654,19 @@
         <v>0.09</v>
       </c>
       <c r="B10">
-        <v>0.13039999999999999</v>
+        <v>0.154</v>
       </c>
       <c r="C10">
-        <v>6.7430000000000004E-2</v>
+        <v>4.888E-2</v>
+      </c>
+      <c r="D10">
+        <v>9.6689999999999998E-2</v>
       </c>
       <c r="E10">
-        <v>0.122</v>
-      </c>
-      <c r="F10">
-        <v>3.8179999999999999E-2</v>
+        <v>6.012E-2</v>
       </c>
       <c r="G10">
-        <v>3.5680000000000003E-2</v>
+        <v>1.3559999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -8536,19 +5674,22 @@
         <v>0.1</v>
       </c>
       <c r="B11">
-        <v>0.15129999999999999</v>
+        <v>0.20030000000000001</v>
       </c>
       <c r="C11">
-        <v>9.5979999999999996E-2</v>
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="D11">
+        <v>0.38769999999999999</v>
       </c>
       <c r="E11">
-        <v>0.15409999999999999</v>
+        <v>8.5900000000000004E-2</v>
       </c>
       <c r="F11">
-        <v>6.2619999999999995E-2</v>
+        <v>1.472E-2</v>
       </c>
       <c r="G11">
-        <v>5.7799999999999997E-2</v>
+        <v>2.0160000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -8556,19 +5697,22 @@
         <v>0.11</v>
       </c>
       <c r="B12">
-        <v>0.17899999999999999</v>
+        <v>0.25480000000000003</v>
       </c>
       <c r="C12">
-        <v>0.1308</v>
+        <v>8.7239999999999998E-2</v>
+      </c>
+      <c r="D12">
+        <v>1.3009999999999999</v>
       </c>
       <c r="E12">
-        <v>0.1905</v>
+        <v>0.11609999999999999</v>
       </c>
       <c r="F12">
-        <v>0.1016</v>
+        <v>2.3910000000000001E-2</v>
       </c>
       <c r="G12">
-        <v>9.3030000000000002E-2</v>
+        <v>3.0329999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8576,19 +5720,22 @@
         <v>0.12</v>
       </c>
       <c r="B13">
-        <v>0.20680000000000001</v>
+        <v>0.32229999999999998</v>
       </c>
       <c r="C13">
-        <v>0.17799999999999999</v>
+        <v>0.112</v>
+      </c>
+      <c r="D13">
+        <v>7.6950000000000003</v>
       </c>
       <c r="E13">
-        <v>0.2407</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="F13">
-        <v>0.16969999999999999</v>
+        <v>3.202E-2</v>
       </c>
       <c r="G13">
-        <v>0.14410000000000001</v>
+        <v>3.925E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -8596,19 +5743,19 @@
         <v>0.13</v>
       </c>
       <c r="B14">
-        <v>0.23499999999999999</v>
+        <v>0.41820000000000002</v>
       </c>
       <c r="C14">
-        <v>0.23250000000000001</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E14">
-        <v>0.30919999999999997</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="F14">
-        <v>0.27389999999999998</v>
+        <v>4.5400000000000003E-2</v>
       </c>
       <c r="G14">
-        <v>0.2258</v>
+        <v>5.3429999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -8616,19 +5763,19 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="B15">
-        <v>0.26550000000000001</v>
+        <v>0.5333</v>
       </c>
       <c r="C15">
-        <v>0.28649999999999998</v>
+        <v>0.17119999999999999</v>
       </c>
       <c r="E15">
-        <v>0.39729999999999999</v>
+        <v>0.2422</v>
       </c>
       <c r="F15">
-        <v>0.40539999999999998</v>
+        <v>6.0650000000000003E-2</v>
       </c>
       <c r="G15">
-        <v>0.33710000000000001</v>
+        <v>7.0730000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -8636,19 +5783,19 @@
         <v>0.15</v>
       </c>
       <c r="B16">
-        <v>0.29509999999999997</v>
+        <v>0.6542</v>
       </c>
       <c r="C16">
-        <v>0.34910000000000002</v>
+        <v>0.21340000000000001</v>
       </c>
       <c r="E16">
-        <v>0.5242</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="F16">
-        <v>0.58350000000000002</v>
+        <v>7.9920000000000005E-2</v>
       </c>
       <c r="G16">
-        <v>0.47660000000000002</v>
+        <v>9.2319999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -8656,19 +5803,19 @@
         <v>0.16</v>
       </c>
       <c r="B17">
-        <v>0.3362</v>
+        <v>0.79190000000000005</v>
       </c>
       <c r="C17">
-        <v>0.43780000000000002</v>
+        <v>0.25969999999999999</v>
       </c>
       <c r="E17">
-        <v>0.68600000000000005</v>
+        <v>0.36520000000000002</v>
       </c>
       <c r="F17">
-        <v>0.81789999999999996</v>
+        <v>0.1031</v>
       </c>
       <c r="G17">
-        <v>0.64459999999999995</v>
+        <v>0.1193</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -8676,19 +5823,19 @@
         <v>0.17</v>
       </c>
       <c r="B18">
-        <v>0.3851</v>
+        <v>0.95409999999999995</v>
       </c>
       <c r="C18">
-        <v>0.53069999999999995</v>
+        <v>0.31259999999999999</v>
       </c>
       <c r="E18">
-        <v>0.8881</v>
+        <v>0.43440000000000001</v>
       </c>
       <c r="F18">
-        <v>1.123</v>
+        <v>0.1308</v>
       </c>
       <c r="G18">
-        <v>0.86439999999999995</v>
+        <v>0.15310000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -8696,19 +5843,19 @@
         <v>0.18</v>
       </c>
       <c r="B19">
-        <v>0.44769999999999999</v>
+        <v>1.125</v>
       </c>
       <c r="C19">
-        <v>0.63549999999999995</v>
+        <v>0.372</v>
       </c>
       <c r="E19">
-        <v>1.147</v>
+        <v>0.5151</v>
       </c>
       <c r="F19">
-        <v>1.5269999999999999</v>
+        <v>0.1646</v>
       </c>
       <c r="G19">
-        <v>1.1399999999999999</v>
+        <v>0.191</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -8716,19 +5863,19 @@
         <v>0.19</v>
       </c>
       <c r="B20">
-        <v>0.52880000000000005</v>
+        <v>1.3260000000000001</v>
       </c>
       <c r="C20">
-        <v>0.74839999999999995</v>
+        <v>0.44479999999999997</v>
       </c>
       <c r="E20">
-        <v>1.46</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="F20">
-        <v>2.048</v>
+        <v>0.20680000000000001</v>
       </c>
       <c r="G20">
-        <v>1.458</v>
+        <v>0.2402</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -8736,19 +5883,19 @@
         <v>0.2</v>
       </c>
       <c r="B21">
-        <v>0.63119999999999998</v>
+        <v>1.5469999999999999</v>
       </c>
       <c r="C21">
-        <v>0.878</v>
+        <v>0.52890000000000004</v>
       </c>
       <c r="E21">
-        <v>1.841</v>
+        <v>0.70930000000000004</v>
       </c>
       <c r="F21">
-        <v>2.7469999999999999</v>
+        <v>0.26140000000000002</v>
       </c>
       <c r="G21">
-        <v>1.8560000000000001</v>
+        <v>0.30349999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -8756,19 +5903,19 @@
         <v>0.21</v>
       </c>
       <c r="B22">
-        <v>0.754</v>
+        <v>1.7869999999999999</v>
       </c>
       <c r="C22">
-        <v>1.024</v>
+        <v>0.63260000000000005</v>
       </c>
       <c r="E22">
-        <v>2.2999999999999998</v>
+        <v>0.82320000000000004</v>
       </c>
       <c r="F22">
-        <v>3.6419999999999999</v>
+        <v>0.31859999999999999</v>
       </c>
       <c r="G22">
-        <v>2.327</v>
+        <v>0.3795</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -8776,19 +5923,19 @@
         <v>0.22</v>
       </c>
       <c r="B23">
-        <v>0.90880000000000005</v>
+        <v>2.0419999999999998</v>
       </c>
       <c r="C23">
-        <v>1.181</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="E23">
-        <v>2.819</v>
+        <v>0.94620000000000004</v>
       </c>
       <c r="F23">
-        <v>4.8079999999999998</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="G23">
-        <v>2.903</v>
+        <v>0.46820000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -8796,19 +5943,19 @@
         <v>0.23</v>
       </c>
       <c r="B24">
-        <v>1.097</v>
+        <v>2.3180000000000001</v>
       </c>
       <c r="C24">
-        <v>1.3580000000000001</v>
+        <v>0.88270000000000004</v>
       </c>
       <c r="E24">
-        <v>3.4220000000000002</v>
+        <v>1.08</v>
       </c>
       <c r="F24">
-        <v>6.298</v>
+        <v>0.47089999999999999</v>
       </c>
       <c r="G24">
-        <v>3.5880000000000001</v>
+        <v>0.57550000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -8816,19 +5963,19 @@
         <v>0.24</v>
       </c>
       <c r="B25">
-        <v>1.325</v>
+        <v>2.6150000000000002</v>
       </c>
       <c r="C25">
-        <v>1.538</v>
+        <v>1.0469999999999999</v>
       </c>
       <c r="E25">
-        <v>4.1360000000000001</v>
+        <v>1.238</v>
       </c>
       <c r="F25">
-        <v>8.3719999999999999</v>
+        <v>0.56610000000000005</v>
       </c>
       <c r="G25">
-        <v>4.4180000000000001</v>
+        <v>0.70369999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -8836,16 +5983,19 @@
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>1.61</v>
+        <v>2.9249999999999998</v>
       </c>
       <c r="C26">
-        <v>1.732</v>
+        <v>1.232</v>
       </c>
       <c r="E26">
-        <v>4.944</v>
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.68659999999999999</v>
       </c>
       <c r="G26">
-        <v>5.41</v>
+        <v>0.8448</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -8853,16 +6003,19 @@
         <v>0.26</v>
       </c>
       <c r="B27">
-        <v>1.9259999999999999</v>
+        <v>3.2210000000000001</v>
       </c>
       <c r="C27">
-        <v>1.9450000000000001</v>
+        <v>1.452</v>
       </c>
       <c r="E27">
-        <v>5.8440000000000003</v>
+        <v>1.617</v>
+      </c>
+      <c r="F27">
+        <v>0.83130000000000004</v>
       </c>
       <c r="G27">
-        <v>6.609</v>
+        <v>1.0289999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -8870,16 +6023,19 @@
         <v>0.27</v>
       </c>
       <c r="B28">
-        <v>2.2919999999999998</v>
+        <v>3.5339999999999998</v>
       </c>
       <c r="C28">
-        <v>2.1779999999999999</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="E28">
-        <v>6.8609999999999998</v>
+        <v>1.83</v>
+      </c>
+      <c r="F28">
+        <v>1.002</v>
       </c>
       <c r="G28">
-        <v>8.0289999999999999</v>
+        <v>1.2490000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -8887,16 +6043,19 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="B29">
-        <v>2.7309999999999999</v>
+        <v>3.8620000000000001</v>
       </c>
       <c r="C29">
-        <v>2.4260000000000002</v>
+        <v>1.95</v>
       </c>
       <c r="E29">
-        <v>7.9749999999999996</v>
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="F29">
+        <v>1.204</v>
       </c>
       <c r="G29">
-        <v>9.7070000000000007</v>
+        <v>1.4970000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -8904,13 +6063,19 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="B30">
-        <v>3.246</v>
+        <v>4.1909999999999998</v>
       </c>
       <c r="C30">
-        <v>2.6890000000000001</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="E30">
-        <v>9.1880000000000006</v>
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="F30">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="G30">
+        <v>1.7809999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -8918,10 +6083,19 @@
         <v>0.3</v>
       </c>
       <c r="B31">
-        <v>3.8380000000000001</v>
+        <v>4.5289999999999999</v>
       </c>
       <c r="C31">
-        <v>2.9729999999999999</v>
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="E31">
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="F31">
+        <v>1.704</v>
+      </c>
+      <c r="G31">
+        <v>2.1150000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -8929,121 +6103,235 @@
         <v>0.31</v>
       </c>
       <c r="B32">
-        <v>4.4619999999999997</v>
+        <v>4.8520000000000003</v>
       </c>
       <c r="C32">
-        <v>3.3010000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>2.9430000000000001</v>
+      </c>
+      <c r="E32">
+        <v>3.036</v>
+      </c>
+      <c r="F32">
+        <v>2.0009999999999999</v>
+      </c>
+      <c r="G32">
+        <v>2.492</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.32</v>
       </c>
       <c r="B33">
-        <v>5.2190000000000003</v>
+        <v>5.194</v>
       </c>
       <c r="C33">
-        <v>3.6440000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="E33">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="F33">
+        <v>2.34</v>
+      </c>
+      <c r="G33">
+        <v>2.911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.33</v>
       </c>
       <c r="B34">
-        <v>5.9749999999999996</v>
+        <v>5.5229999999999997</v>
       </c>
       <c r="C34">
-        <v>4.0289999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.8439999999999999</v>
+      </c>
+      <c r="E34">
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="F34">
+        <v>2.7370000000000001</v>
+      </c>
+      <c r="G34">
+        <v>3.3860000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.34</v>
       </c>
       <c r="B35">
-        <v>6.8979999999999997</v>
+        <v>5.8739999999999997</v>
       </c>
       <c r="C35">
-        <v>4.4219999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.3719999999999999</v>
+      </c>
+      <c r="E35">
+        <v>4.3789999999999996</v>
+      </c>
+      <c r="F35">
+        <v>3.1989999999999998</v>
+      </c>
+      <c r="G35">
+        <v>3.931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.35</v>
       </c>
       <c r="B36">
-        <v>7.8540000000000001</v>
+        <v>6.2140000000000004</v>
       </c>
       <c r="C36">
-        <v>4.8380000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9210000000000003</v>
+      </c>
+      <c r="E36">
+        <v>4.9329999999999998</v>
+      </c>
+      <c r="F36">
+        <v>3.7120000000000002</v>
+      </c>
+      <c r="G36">
+        <v>4.5110000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36</v>
       </c>
       <c r="B37">
-        <v>8.9789999999999992</v>
+        <v>6.5919999999999996</v>
       </c>
       <c r="C37">
-        <v>5.2830000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5.5609999999999999</v>
+      </c>
+      <c r="E37">
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="F37">
+        <v>4.3129999999999997</v>
+      </c>
+      <c r="G37">
+        <v>5.1550000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.37</v>
       </c>
+      <c r="B38">
+        <v>6.9359999999999999</v>
+      </c>
       <c r="C38">
-        <v>5.7839999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.2009999999999996</v>
+      </c>
+      <c r="E38">
+        <v>6.2430000000000003</v>
+      </c>
+      <c r="F38">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="G38">
+        <v>5.859</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.38</v>
       </c>
+      <c r="B39">
+        <v>7.3230000000000004</v>
+      </c>
       <c r="C39">
-        <v>6.3049999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6.8979999999999997</v>
+      </c>
+      <c r="E39">
+        <v>7.0279999999999996</v>
+      </c>
+      <c r="F39">
+        <v>5.8220000000000001</v>
+      </c>
+      <c r="G39">
+        <v>6.6440000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.39</v>
       </c>
+      <c r="B40">
+        <v>7.7439999999999998</v>
+      </c>
       <c r="C40">
-        <v>6.8719999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="E40">
+        <v>7.9009999999999998</v>
+      </c>
+      <c r="F40">
+        <v>6.7119999999999997</v>
+      </c>
+      <c r="G40">
+        <v>7.5259999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.4</v>
       </c>
+      <c r="B41">
+        <v>8.1690000000000005</v>
+      </c>
       <c r="C41">
-        <v>7.49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8.4149999999999991</v>
+      </c>
+      <c r="E41">
+        <v>8.85</v>
+      </c>
+      <c r="F41">
+        <v>7.7889999999999997</v>
+      </c>
+      <c r="G41">
+        <v>8.4529999999999994</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.41</v>
       </c>
+      <c r="B42">
+        <v>8.6370000000000005</v>
+      </c>
       <c r="C42">
-        <v>8.1359999999999992</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>9.2690000000000001</v>
+      </c>
+      <c r="E42">
+        <v>9.9809999999999999</v>
+      </c>
+      <c r="F42">
+        <v>9.0039999999999996</v>
+      </c>
+      <c r="G42">
+        <v>9.5009999999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.42</v>
       </c>
-      <c r="C43">
-        <v>8.8119999999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>9.0830000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.43</v>
       </c>
-      <c r="C44">
-        <v>9.5589999999999993</v>
+      <c r="B44">
+        <v>9.6159999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -9053,1708 +6341,1298 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C310BC-632F-4D09-9E05-B8DBC7021566}">
-  <dimension ref="A1:G56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C0124-FDAB-4252-836F-9CFDB475E886}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD101"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="K4">
+        <v>0.03</v>
+      </c>
+      <c r="L4">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3.184E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="E5">
+        <v>2.078E-2</v>
+      </c>
+      <c r="K5">
+        <v>0.04</v>
+      </c>
+      <c r="L5">
+        <v>3.184E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>2.078E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5.2179999999999997E-2</v>
+      </c>
+      <c r="C6">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>7.5990000000000002</v>
+      </c>
+      <c r="E6">
+        <v>4.0759999999999998E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.05</v>
+      </c>
+      <c r="L6">
+        <v>5.2179999999999997E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="N6">
+        <v>7.5990000000000002</v>
+      </c>
+      <c r="Q6">
+        <v>4.0759999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>7.0019999999999999E-2</v>
+      </c>
+      <c r="C7">
+        <v>1.7840000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.985E-2</v>
+      </c>
+      <c r="G7">
+        <v>1.1679999999999999E-2</v>
+      </c>
+      <c r="K7">
+        <v>0.06</v>
+      </c>
+      <c r="L7">
+        <v>7.0019999999999999E-2</v>
+      </c>
+      <c r="M7">
+        <v>1.7840000000000002E-2</v>
+      </c>
+      <c r="P7">
+        <v>1.1679999999999999E-2</v>
+      </c>
+      <c r="Q7">
+        <v>5.985E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="B8">
-        <v>1.481E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.09</v>
+      </c>
+      <c r="C8">
+        <v>2.9790000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.5339999999999999E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.9890000000000001E-2</v>
+      </c>
+      <c r="K8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.09</v>
+      </c>
+      <c r="M8">
+        <v>2.9790000000000001E-2</v>
+      </c>
+      <c r="O8">
+        <v>1.5339999999999999E-2</v>
+      </c>
+      <c r="P8">
+        <v>1.9890000000000001E-2</v>
+      </c>
+      <c r="Q8">
+        <v>7.7600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.08</v>
       </c>
       <c r="B9">
-        <v>2.3550000000000001E-2</v>
-      </c>
-      <c r="D9">
-        <v>1.8020000000000001E-2</v>
+        <v>0.11</v>
+      </c>
+      <c r="C9">
+        <v>4.5310000000000003E-2</v>
       </c>
       <c r="E9">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.8390000000000005E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.3990000000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>3.4610000000000002E-2</v>
+      </c>
+      <c r="K9">
+        <v>0.08</v>
+      </c>
+      <c r="L9">
+        <v>0.11</v>
+      </c>
+      <c r="M9">
+        <v>4.5310000000000003E-2</v>
+      </c>
+      <c r="O9">
+        <v>2.3990000000000001E-2</v>
+      </c>
+      <c r="P9">
+        <v>3.4610000000000002E-2</v>
+      </c>
+      <c r="Q9">
+        <v>9.8390000000000005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.09</v>
       </c>
       <c r="B10">
-        <v>3.2910000000000002E-2</v>
-      </c>
-      <c r="D10">
-        <v>8.8220000000000007E-2</v>
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="C10">
+        <v>6.7430000000000004E-2</v>
       </c>
       <c r="E10">
-        <v>2.078E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.122</v>
+      </c>
+      <c r="F10">
+        <v>3.6749999999999998E-2</v>
+      </c>
+      <c r="G10">
+        <v>5.423E-2</v>
+      </c>
+      <c r="K10">
+        <v>0.09</v>
+      </c>
+      <c r="L10">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="M10">
+        <v>6.7430000000000004E-2</v>
+      </c>
+      <c r="O10">
+        <v>3.6749999999999998E-2</v>
+      </c>
+      <c r="P10">
+        <v>5.423E-2</v>
+      </c>
+      <c r="Q10">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.1</v>
       </c>
       <c r="B11">
-        <v>4.3529999999999999E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.37219999999999998</v>
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="C11">
+        <v>9.5979999999999996E-2</v>
       </c>
       <c r="E11">
-        <v>3.0419999999999999E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="F11">
+        <v>5.7090000000000002E-2</v>
+      </c>
+      <c r="G11">
+        <v>8.7590000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.1</v>
+      </c>
+      <c r="L11">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="M11">
+        <v>9.5979999999999996E-2</v>
+      </c>
+      <c r="O11">
+        <v>5.7090000000000002E-2</v>
+      </c>
+      <c r="P11">
+        <v>8.7590000000000001E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.15409999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.11</v>
       </c>
       <c r="B12">
-        <v>5.2810000000000003E-2</v>
-      </c>
-      <c r="D12">
-        <v>1.2709999999999999</v>
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.1308</v>
       </c>
       <c r="E12">
-        <v>3.943E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.1905</v>
+      </c>
+      <c r="F12">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.1356</v>
+      </c>
+      <c r="K12">
+        <v>0.11</v>
+      </c>
+      <c r="L12">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="M12">
+        <v>0.1308</v>
+      </c>
+      <c r="O12">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="P12">
+        <v>0.1356</v>
+      </c>
+      <c r="Q12">
+        <v>0.1905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.12</v>
       </c>
       <c r="B13">
-        <v>6.1100000000000002E-2</v>
+        <v>0.20680000000000001</v>
       </c>
       <c r="C13">
-        <v>1.2840000000000001E-2</v>
-      </c>
-      <c r="D13">
-        <v>7.5990000000000002</v>
+        <v>0.17799999999999999</v>
       </c>
       <c r="E13">
-        <v>4.7989999999999998E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2407</v>
+      </c>
+      <c r="F13">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.1996</v>
+      </c>
+      <c r="K13">
+        <v>0.12</v>
+      </c>
+      <c r="L13">
+        <v>0.20680000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="P13">
+        <v>0.1996</v>
+      </c>
+      <c r="Q13">
+        <v>0.2407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.13</v>
       </c>
       <c r="B14">
-        <v>7.2340000000000002E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="C14">
-        <v>1.6590000000000001E-2</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="E14">
-        <v>5.7180000000000002E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="F14">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="K14">
+        <v>0.13</v>
+      </c>
+      <c r="L14">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="M14">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="P14">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="Q14">
+        <v>0.30919999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.14000000000000001</v>
       </c>
       <c r="B15">
-        <v>8.4470000000000003E-2</v>
+        <v>0.26550000000000001</v>
       </c>
       <c r="C15">
-        <v>2.1499999999999998E-2</v>
+        <v>0.28649999999999998</v>
       </c>
       <c r="E15">
-        <v>6.6449999999999995E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.2843</v>
+      </c>
+      <c r="G15">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="K15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L15">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="O15">
+        <v>0.2843</v>
+      </c>
+      <c r="P15">
+        <v>0.40889999999999999</v>
+      </c>
+      <c r="Q15">
+        <v>0.39729999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.15</v>
       </c>
       <c r="B16">
-        <v>9.3840000000000007E-2</v>
+        <v>0.29509999999999997</v>
       </c>
       <c r="C16">
-        <v>2.6939999999999999E-2</v>
+        <v>0.34910000000000002</v>
       </c>
       <c r="E16">
-        <v>7.4209999999999998E-2</v>
+        <v>0.5242</v>
       </c>
       <c r="F16">
-        <v>1.124E-2</v>
+        <v>0.41510000000000002</v>
       </c>
       <c r="G16">
-        <v>1.061E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="K16">
+        <v>0.15</v>
+      </c>
+      <c r="L16">
+        <v>0.29509999999999997</v>
+      </c>
+      <c r="M16">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="O16">
+        <v>0.41510000000000002</v>
+      </c>
+      <c r="P16">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="Q16">
+        <v>0.5242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.16</v>
       </c>
       <c r="B17">
-        <v>0.1036</v>
+        <v>0.3362</v>
       </c>
       <c r="C17">
-        <v>3.2469999999999999E-2</v>
+        <v>0.43780000000000002</v>
       </c>
       <c r="E17">
-        <v>8.5180000000000006E-2</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="F17">
-        <v>1.4630000000000001E-2</v>
+        <v>0.57630000000000003</v>
       </c>
       <c r="G17">
-        <v>1.338E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="K17">
+        <v>0.16</v>
+      </c>
+      <c r="L17">
+        <v>0.3362</v>
+      </c>
+      <c r="M17">
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="O17">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="P17">
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="Q17">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.17</v>
       </c>
       <c r="B18">
-        <v>0.11849999999999999</v>
+        <v>0.3851</v>
       </c>
       <c r="C18">
-        <v>4.2369999999999998E-2</v>
+        <v>0.53069999999999995</v>
       </c>
       <c r="E18">
-        <v>9.4460000000000002E-2</v>
+        <v>0.8881</v>
       </c>
       <c r="F18">
-        <v>1.9089999999999999E-2</v>
+        <v>0.79010000000000002</v>
       </c>
       <c r="G18">
-        <v>1.7479999999999999E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="K18">
+        <v>0.17</v>
+      </c>
+      <c r="L18">
+        <v>0.3851</v>
+      </c>
+      <c r="M18">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="O18">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="P18">
+        <v>0.94169999999999998</v>
+      </c>
+      <c r="Q18">
+        <v>0.8881</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.18</v>
       </c>
       <c r="B19">
-        <v>0.13009999999999999</v>
+        <v>0.44769999999999999</v>
       </c>
       <c r="C19">
-        <v>4.9059999999999999E-2</v>
+        <v>0.63549999999999995</v>
       </c>
       <c r="E19">
-        <v>0.10539999999999999</v>
+        <v>1.147</v>
       </c>
       <c r="F19">
-        <v>2.3730000000000001E-2</v>
+        <v>1.0589999999999999</v>
       </c>
       <c r="G19">
-        <v>2.1850000000000001E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.204</v>
+      </c>
+      <c r="K19">
+        <v>0.18</v>
+      </c>
+      <c r="L19">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="M19">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="O19">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="P19">
+        <v>1.204</v>
+      </c>
+      <c r="Q19">
+        <v>1.147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.19</v>
       </c>
       <c r="B20">
-        <v>0.1421</v>
+        <v>0.52880000000000005</v>
       </c>
       <c r="C20">
-        <v>6.1550000000000001E-2</v>
+        <v>0.74839999999999995</v>
       </c>
       <c r="E20">
-        <v>0.1173</v>
+        <v>1.46</v>
       </c>
       <c r="F20">
-        <v>2.988E-2</v>
+        <v>1.3919999999999999</v>
       </c>
       <c r="G20">
-        <v>2.8539999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.19</v>
+      </c>
+      <c r="L20">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="M20">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="O20">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="P20">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.2</v>
       </c>
       <c r="B21">
-        <v>0.15790000000000001</v>
+        <v>0.63119999999999998</v>
       </c>
       <c r="C21">
-        <v>7.5020000000000003E-2</v>
+        <v>0.878</v>
       </c>
       <c r="E21">
-        <v>0.13400000000000001</v>
+        <v>1.841</v>
       </c>
       <c r="F21">
-        <v>3.7999999999999999E-2</v>
+        <v>1.7989999999999999</v>
       </c>
       <c r="G21">
-        <v>3.5680000000000003E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.83</v>
+      </c>
+      <c r="K21">
+        <v>0.2</v>
+      </c>
+      <c r="L21">
+        <v>0.63119999999999998</v>
+      </c>
+      <c r="M21">
+        <v>0.878</v>
+      </c>
+      <c r="O21">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="P21">
+        <v>1.83</v>
+      </c>
+      <c r="Q21">
+        <v>1.841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.21</v>
       </c>
       <c r="B22">
-        <v>0.17799999999999999</v>
+        <v>0.754</v>
       </c>
       <c r="C22">
-        <v>9.0800000000000006E-2</v>
+        <v>1.024</v>
       </c>
       <c r="E22">
-        <v>0.15190000000000001</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F22">
-        <v>4.8259999999999997E-2</v>
+        <v>2.2759999999999998</v>
       </c>
       <c r="G22">
-        <v>4.5760000000000002E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K22">
+        <v>0.21</v>
+      </c>
+      <c r="L22">
+        <v>0.754</v>
+      </c>
+      <c r="M22">
+        <v>1.024</v>
+      </c>
+      <c r="O22">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="P22">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="Q22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.22</v>
       </c>
       <c r="B23">
-        <v>0.1951</v>
+        <v>0.90880000000000005</v>
       </c>
       <c r="C23">
-        <v>0.1065</v>
+        <v>1.181</v>
       </c>
       <c r="E23">
-        <v>0.17119999999999999</v>
+        <v>2.819</v>
       </c>
       <c r="F23">
-        <v>6.2619999999999995E-2</v>
+        <v>2.8530000000000002</v>
       </c>
       <c r="G23">
-        <v>5.7799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.66</v>
+      </c>
+      <c r="K23">
+        <v>0.22</v>
+      </c>
+      <c r="L23">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="M23">
+        <v>1.181</v>
+      </c>
+      <c r="O23">
+        <v>2.8530000000000002</v>
+      </c>
+      <c r="P23">
+        <v>2.66</v>
+      </c>
+      <c r="Q23">
+        <v>2.819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.23</v>
       </c>
       <c r="B24">
-        <v>0.21779999999999999</v>
+        <v>1.097</v>
       </c>
       <c r="C24">
-        <v>0.12720000000000001</v>
+        <v>1.3580000000000001</v>
       </c>
       <c r="E24">
-        <v>0.19289999999999999</v>
+        <v>3.4220000000000002</v>
       </c>
       <c r="F24">
-        <v>8.1259999999999999E-2</v>
+        <v>3.5590000000000002</v>
       </c>
       <c r="G24">
-        <v>7.3770000000000002E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="K24">
+        <v>0.23</v>
+      </c>
+      <c r="L24">
+        <v>1.097</v>
+      </c>
+      <c r="M24">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="O24">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="P24">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="Q24">
+        <v>3.4220000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.24</v>
       </c>
       <c r="B25">
-        <v>0.23780000000000001</v>
+        <v>1.325</v>
       </c>
       <c r="C25">
-        <v>0.1522</v>
+        <v>1.538</v>
       </c>
       <c r="E25">
-        <v>0.21920000000000001</v>
+        <v>4.1360000000000001</v>
       </c>
       <c r="F25">
-        <v>0.1051</v>
+        <v>4.43</v>
       </c>
       <c r="G25">
-        <v>9.4640000000000002E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.7040000000000002</v>
+      </c>
+      <c r="K25">
+        <v>0.24</v>
+      </c>
+      <c r="L25">
+        <v>1.325</v>
+      </c>
+      <c r="M25">
+        <v>1.538</v>
+      </c>
+      <c r="O25">
+        <v>4.43</v>
+      </c>
+      <c r="P25">
+        <v>3.7040000000000002</v>
+      </c>
+      <c r="Q25">
+        <v>4.1360000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.25</v>
       </c>
       <c r="B26">
-        <v>0.26050000000000001</v>
+        <v>1.61</v>
       </c>
       <c r="C26">
-        <v>0.182</v>
+        <v>1.732</v>
       </c>
       <c r="E26">
-        <v>0.25469999999999998</v>
+        <v>4.944</v>
       </c>
       <c r="F26">
-        <v>0.14030000000000001</v>
+        <v>5.4809999999999999</v>
       </c>
       <c r="G26">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.327</v>
+      </c>
+      <c r="K26">
+        <v>0.25</v>
+      </c>
+      <c r="L26">
+        <v>1.61</v>
+      </c>
+      <c r="M26">
+        <v>1.732</v>
+      </c>
+      <c r="O26">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="P26">
+        <v>4.327</v>
+      </c>
+      <c r="Q26">
+        <v>4.944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.26</v>
       </c>
       <c r="B27">
-        <v>0.28210000000000002</v>
+        <v>1.9259999999999999</v>
       </c>
       <c r="C27">
-        <v>0.21679999999999999</v>
+        <v>1.9450000000000001</v>
       </c>
       <c r="E27">
-        <v>0.29809999999999998</v>
+        <v>5.8440000000000003</v>
       </c>
       <c r="F27">
-        <v>0.1888</v>
+        <v>6.7619999999999996</v>
       </c>
       <c r="G27">
-        <v>0.15620000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.0359999999999996</v>
+      </c>
+      <c r="K27">
+        <v>0.26</v>
+      </c>
+      <c r="L27">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="M27">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="O27">
+        <v>6.7619999999999996</v>
+      </c>
+      <c r="P27">
+        <v>5.0359999999999996</v>
+      </c>
+      <c r="Q27">
+        <v>5.8440000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.27</v>
       </c>
       <c r="B28">
-        <v>0.30819999999999997</v>
+        <v>2.2919999999999998</v>
       </c>
       <c r="C28">
-        <v>0.25419999999999998</v>
+        <v>2.1779999999999999</v>
       </c>
       <c r="E28">
-        <v>0.3448</v>
+        <v>6.8609999999999998</v>
       </c>
       <c r="F28">
-        <v>0.25069999999999998</v>
+        <v>8.3040000000000003</v>
       </c>
       <c r="G28">
-        <v>0.2034</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.8040000000000003</v>
+      </c>
+      <c r="K28">
+        <v>0.27</v>
+      </c>
+      <c r="L28">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="M28">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="O28">
+        <v>8.3040000000000003</v>
+      </c>
+      <c r="P28">
+        <v>5.8040000000000003</v>
+      </c>
+      <c r="Q28">
+        <v>6.8609999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.28000000000000003</v>
       </c>
       <c r="B29">
-        <v>0.33989999999999998</v>
+        <v>2.7309999999999999</v>
       </c>
       <c r="C29">
-        <v>0.29060000000000002</v>
+        <v>2.4260000000000002</v>
       </c>
       <c r="E29">
-        <v>0.40820000000000001</v>
-      </c>
-      <c r="F29">
-        <v>0.32790000000000002</v>
+        <v>7.9749999999999996</v>
       </c>
       <c r="G29">
-        <v>0.2641</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.62</v>
+      </c>
+      <c r="K29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L29">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="M29">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="P29">
+        <v>6.62</v>
+      </c>
+      <c r="Q29">
+        <v>7.9749999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.28999999999999998</v>
       </c>
       <c r="B30">
-        <v>0.37840000000000001</v>
+        <v>3.246</v>
       </c>
       <c r="C30">
-        <v>0.33250000000000002</v>
+        <v>2.6890000000000001</v>
       </c>
       <c r="E30">
-        <v>0.48809999999999998</v>
-      </c>
-      <c r="F30">
-        <v>0.41439999999999999</v>
+        <v>9.1880000000000006</v>
       </c>
       <c r="G30">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.5359999999999996</v>
+      </c>
+      <c r="K30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L30">
+        <v>3.246</v>
+      </c>
+      <c r="M30">
+        <v>2.6890000000000001</v>
+      </c>
+      <c r="P30">
+        <v>7.5359999999999996</v>
+      </c>
+      <c r="Q30">
+        <v>9.1880000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.3</v>
       </c>
       <c r="B31">
-        <v>0.42070000000000002</v>
+        <v>3.8380000000000001</v>
       </c>
       <c r="C31">
-        <v>0.39319999999999999</v>
-      </c>
-      <c r="E31">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="F31">
-        <v>0.52869999999999995</v>
+        <v>2.9729999999999999</v>
       </c>
       <c r="G31">
-        <v>0.43319999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.5559999999999992</v>
+      </c>
+      <c r="K31">
+        <v>0.3</v>
+      </c>
+      <c r="L31">
+        <v>3.8380000000000001</v>
+      </c>
+      <c r="M31">
+        <v>2.9729999999999999</v>
+      </c>
+      <c r="P31">
+        <v>8.5559999999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.31</v>
       </c>
       <c r="B32">
-        <v>0.47199999999999998</v>
+        <v>4.4619999999999997</v>
       </c>
       <c r="C32">
-        <v>0.4622</v>
-      </c>
-      <c r="E32">
-        <v>0.70809999999999995</v>
-      </c>
-      <c r="F32">
-        <v>0.67669999999999997</v>
+        <v>3.3010000000000002</v>
       </c>
       <c r="G32">
-        <v>0.53159999999999996</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>9.6829999999999998</v>
+      </c>
+      <c r="K32">
+        <v>0.31</v>
+      </c>
+      <c r="L32">
+        <v>4.4619999999999997</v>
+      </c>
+      <c r="M32">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="P32">
+        <v>9.6829999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.32</v>
       </c>
       <c r="B33">
-        <v>0.53520000000000001</v>
+        <v>5.2190000000000003</v>
       </c>
       <c r="C33">
-        <v>0.5444</v>
-      </c>
-      <c r="E33">
-        <v>0.85040000000000004</v>
-      </c>
-      <c r="F33">
-        <v>0.85960000000000003</v>
-      </c>
-      <c r="G33">
-        <v>0.65739999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="K33">
+        <v>0.32</v>
+      </c>
+      <c r="L33">
+        <v>5.2190000000000003</v>
+      </c>
+      <c r="M33">
+        <v>3.6440000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.33</v>
       </c>
       <c r="B34">
-        <v>0.60929999999999995</v>
+        <v>5.9749999999999996</v>
       </c>
       <c r="C34">
-        <v>0.63070000000000004</v>
-      </c>
-      <c r="E34">
-        <v>1.028</v>
-      </c>
-      <c r="F34">
-        <v>1.087</v>
-      </c>
-      <c r="G34">
-        <v>0.81520000000000004</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="K34">
+        <v>0.33</v>
+      </c>
+      <c r="L34">
+        <v>5.9749999999999996</v>
+      </c>
+      <c r="M34">
+        <v>4.0289999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.34</v>
       </c>
       <c r="B35">
-        <v>0.68820000000000003</v>
+        <v>6.8979999999999997</v>
       </c>
       <c r="C35">
-        <v>0.73419999999999996</v>
-      </c>
-      <c r="E35">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="F35">
-        <v>1.375</v>
-      </c>
-      <c r="G35">
-        <v>1.008</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.4219999999999997</v>
+      </c>
+      <c r="K35">
+        <v>0.34</v>
+      </c>
+      <c r="L35">
+        <v>6.8979999999999997</v>
+      </c>
+      <c r="M35">
+        <v>4.4219999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.35</v>
       </c>
       <c r="B36">
-        <v>0.78500000000000003</v>
+        <v>7.8540000000000001</v>
       </c>
       <c r="C36">
-        <v>0.84840000000000004</v>
-      </c>
-      <c r="E36">
-        <v>1.488</v>
-      </c>
-      <c r="F36">
-        <v>1.7509999999999999</v>
-      </c>
-      <c r="G36">
-        <v>1.2450000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.8380000000000001</v>
+      </c>
+      <c r="K36">
+        <v>0.35</v>
+      </c>
+      <c r="L36">
+        <v>7.8540000000000001</v>
+      </c>
+      <c r="M36">
+        <v>4.8380000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36</v>
       </c>
       <c r="B37">
-        <v>0.89829999999999999</v>
+        <v>8.9789999999999992</v>
       </c>
       <c r="C37">
-        <v>0.98729999999999996</v>
-      </c>
-      <c r="E37">
-        <v>1.7869999999999999</v>
-      </c>
-      <c r="F37">
-        <v>2.2389999999999999</v>
-      </c>
-      <c r="G37">
-        <v>1.528</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.2830000000000004</v>
+      </c>
+      <c r="K37">
+        <v>0.36</v>
+      </c>
+      <c r="L37">
+        <v>8.9789999999999992</v>
+      </c>
+      <c r="M37">
+        <v>5.2830000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.37</v>
       </c>
-      <c r="B38">
-        <v>1.0189999999999999</v>
-      </c>
       <c r="C38">
-        <v>1.133</v>
-      </c>
-      <c r="E38">
-        <v>2.1360000000000001</v>
-      </c>
-      <c r="F38">
-        <v>2.8769999999999998</v>
-      </c>
-      <c r="G38">
-        <v>1.8620000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="K38">
+        <v>0.37</v>
+      </c>
+      <c r="M38">
+        <v>5.7839999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.38</v>
       </c>
-      <c r="B39">
-        <v>1.1599999999999999</v>
-      </c>
       <c r="C39">
-        <v>1.306</v>
-      </c>
-      <c r="E39">
-        <v>2.5539999999999998</v>
-      </c>
-      <c r="F39">
-        <v>3.694</v>
-      </c>
-      <c r="G39">
-        <v>2.262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.3049999999999997</v>
+      </c>
+      <c r="K39">
+        <v>0.38</v>
+      </c>
+      <c r="M39">
+        <v>6.3049999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.39</v>
       </c>
-      <c r="B40">
-        <v>1.3380000000000001</v>
-      </c>
       <c r="C40">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="E40">
-        <v>3.036</v>
-      </c>
-      <c r="F40">
-        <v>4.7910000000000004</v>
-      </c>
-      <c r="G40">
-        <v>2.7570000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6.8719999999999999</v>
+      </c>
+      <c r="K40">
+        <v>0.39</v>
+      </c>
+      <c r="M40">
+        <v>6.8719999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.4</v>
       </c>
-      <c r="B41">
-        <v>1.526</v>
-      </c>
       <c r="C41">
-        <v>1.6930000000000001</v>
-      </c>
-      <c r="E41">
-        <v>3.5870000000000002</v>
-      </c>
-      <c r="F41">
-        <v>6.2149999999999999</v>
-      </c>
-      <c r="G41">
-        <v>3.367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7.49</v>
+      </c>
+      <c r="K41">
+        <v>0.4</v>
+      </c>
+      <c r="M41">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.41</v>
       </c>
-      <c r="B42">
-        <v>1.7470000000000001</v>
-      </c>
       <c r="C42">
-        <v>1.9279999999999999</v>
-      </c>
-      <c r="E42">
-        <v>4.2690000000000001</v>
-      </c>
-      <c r="F42">
-        <v>8.2609999999999992</v>
-      </c>
-      <c r="G42">
-        <v>4.1219999999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.1359999999999992</v>
+      </c>
+      <c r="K42">
+        <v>0.41</v>
+      </c>
+      <c r="M42">
+        <v>8.1359999999999992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.42</v>
       </c>
-      <c r="B43">
-        <v>1.9710000000000001</v>
-      </c>
       <c r="C43">
-        <v>2.1930000000000001</v>
-      </c>
-      <c r="E43">
-        <v>5.0270000000000001</v>
-      </c>
-      <c r="G43">
-        <v>5.0350000000000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8.8119999999999994</v>
+      </c>
+      <c r="K43">
+        <v>0.42</v>
+      </c>
+      <c r="M43">
+        <v>8.8119999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.43</v>
       </c>
-      <c r="B44">
-        <v>2.2330000000000001</v>
-      </c>
       <c r="C44">
-        <v>2.4790000000000001</v>
-      </c>
-      <c r="E44">
-        <v>5.8780000000000001</v>
-      </c>
-      <c r="G44">
-        <v>6.1289999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0.44</v>
-      </c>
-      <c r="B45">
-        <v>2.5539999999999998</v>
-      </c>
-      <c r="C45">
-        <v>2.7930000000000001</v>
-      </c>
-      <c r="E45">
-        <v>6.8570000000000002</v>
-      </c>
-      <c r="G45">
-        <v>7.5030000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0.45</v>
-      </c>
-      <c r="B46">
-        <v>2.903</v>
-      </c>
-      <c r="C46">
-        <v>3.1659999999999999</v>
-      </c>
-      <c r="E46">
-        <v>7.9589999999999996</v>
-      </c>
-      <c r="G46">
-        <v>9.1809999999999992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.46</v>
-      </c>
-      <c r="B47">
-        <v>3.2839999999999998</v>
-      </c>
-      <c r="C47">
-        <v>3.569</v>
-      </c>
-      <c r="E47">
-        <v>9.2330000000000005</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0.47</v>
-      </c>
-      <c r="B48">
-        <v>3.7080000000000002</v>
-      </c>
-      <c r="C48">
-        <v>4.0350000000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0.48</v>
-      </c>
-      <c r="B49">
-        <v>4.2169999999999996</v>
-      </c>
-      <c r="C49">
-        <v>4.5129999999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>0.49</v>
-      </c>
-      <c r="B50">
-        <v>4.758</v>
-      </c>
-      <c r="C50">
-        <v>5.0449999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>0.5</v>
-      </c>
-      <c r="B51">
-        <v>5.3419999999999996</v>
-      </c>
-      <c r="C51">
-        <v>5.6139999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0.51</v>
-      </c>
-      <c r="B52">
-        <v>5.9660000000000002</v>
-      </c>
-      <c r="C52">
-        <v>6.242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0.52</v>
-      </c>
-      <c r="B53">
-        <v>6.7130000000000001</v>
-      </c>
-      <c r="C53">
-        <v>6.9509999999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0.53</v>
-      </c>
-      <c r="B54">
-        <v>7.5570000000000004</v>
-      </c>
-      <c r="C54">
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>0.54</v>
-      </c>
-      <c r="B55">
-        <v>8.4670000000000005</v>
-      </c>
-      <c r="C55">
-        <v>8.5730000000000004</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="B56">
-        <v>9.5709999999999997</v>
-      </c>
-      <c r="C56">
-        <v>9.4809999999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48A558-673B-4B1E-8FF7-FCB07FA6F0FA}">
-  <dimension ref="A1:G44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.03</v>
-      </c>
-      <c r="B4">
-        <v>1.204E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.04</v>
-      </c>
-      <c r="B5">
-        <v>2.2030000000000001E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.05</v>
-      </c>
-      <c r="B6">
-        <v>3.5499999999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.06</v>
-      </c>
-      <c r="B7">
-        <v>5.5390000000000002E-2</v>
-      </c>
-      <c r="C7">
-        <v>1.5520000000000001E-2</v>
-      </c>
-      <c r="E7">
-        <v>1.222E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B8">
-        <v>8.5449999999999998E-2</v>
-      </c>
-      <c r="C8">
-        <v>2.3189999999999999E-2</v>
-      </c>
-      <c r="E8">
-        <v>2.3640000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.08</v>
-      </c>
-      <c r="B9">
-        <v>0.1174</v>
-      </c>
-      <c r="C9">
-        <v>3.2820000000000002E-2</v>
-      </c>
-      <c r="D9">
-        <v>2.23E-2</v>
-      </c>
-      <c r="E9">
-        <v>3.9600000000000003E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.09</v>
-      </c>
-      <c r="B10">
-        <v>0.154</v>
-      </c>
-      <c r="C10">
-        <v>4.888E-2</v>
-      </c>
-      <c r="D10">
-        <v>9.6689999999999998E-2</v>
-      </c>
-      <c r="E10">
-        <v>6.012E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.1</v>
-      </c>
-      <c r="B11">
-        <v>0.20030000000000001</v>
-      </c>
-      <c r="C11">
-        <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.38769999999999999</v>
-      </c>
-      <c r="E11">
-        <v>8.5900000000000004E-2</v>
-      </c>
-      <c r="F11">
-        <v>1.035E-2</v>
-      </c>
-      <c r="G11">
-        <v>1.044E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.11</v>
-      </c>
-      <c r="B12">
-        <v>0.25480000000000003</v>
-      </c>
-      <c r="C12">
-        <v>8.7239999999999998E-2</v>
-      </c>
-      <c r="D12">
-        <v>1.3009999999999999</v>
-      </c>
-      <c r="E12">
-        <v>0.11609999999999999</v>
-      </c>
-      <c r="F12">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="G12">
-        <v>1.695E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.12</v>
-      </c>
-      <c r="B13">
-        <v>0.32229999999999998</v>
-      </c>
-      <c r="C13">
-        <v>0.112</v>
-      </c>
-      <c r="D13">
-        <v>7.6950000000000003</v>
-      </c>
-      <c r="E13">
-        <v>0.15129999999999999</v>
-      </c>
-      <c r="F13">
-        <v>2.5600000000000001E-2</v>
-      </c>
-      <c r="G13">
-        <v>2.4799999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.13</v>
-      </c>
-      <c r="B14">
-        <v>0.41820000000000002</v>
-      </c>
-      <c r="C14">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="F14">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="G14">
-        <v>3.6040000000000003E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B15">
-        <v>0.5333</v>
-      </c>
-      <c r="C15">
-        <v>0.17119999999999999</v>
-      </c>
-      <c r="E15">
-        <v>0.2422</v>
-      </c>
-      <c r="F15">
-        <v>5.1560000000000002E-2</v>
-      </c>
-      <c r="G15">
-        <v>4.897E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.15</v>
-      </c>
-      <c r="B16">
-        <v>0.6542</v>
-      </c>
-      <c r="C16">
-        <v>0.21340000000000001</v>
-      </c>
-      <c r="E16">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="F16">
-        <v>6.6900000000000001E-2</v>
-      </c>
-      <c r="G16">
-        <v>6.4850000000000005E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.16</v>
-      </c>
-      <c r="B17">
-        <v>0.79190000000000005</v>
-      </c>
-      <c r="C17">
-        <v>0.25969999999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.36520000000000002</v>
-      </c>
-      <c r="F17">
-        <v>8.6790000000000006E-2</v>
-      </c>
-      <c r="G17">
-        <v>8.4019999999999997E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.17</v>
-      </c>
-      <c r="B18">
-        <v>0.95409999999999995</v>
-      </c>
-      <c r="C18">
-        <v>0.31259999999999999</v>
-      </c>
-      <c r="E18">
-        <v>0.43440000000000001</v>
-      </c>
-      <c r="F18">
-        <v>0.1153</v>
-      </c>
-      <c r="G18">
-        <v>0.1116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.18</v>
-      </c>
-      <c r="B19">
-        <v>1.125</v>
-      </c>
-      <c r="C19">
-        <v>0.372</v>
-      </c>
-      <c r="E19">
-        <v>0.5151</v>
-      </c>
-      <c r="F19">
-        <v>0.14990000000000001</v>
-      </c>
-      <c r="G19">
-        <v>0.14499999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.19</v>
-      </c>
-      <c r="B20">
-        <v>1.3260000000000001</v>
-      </c>
-      <c r="C20">
-        <v>0.44479999999999997</v>
-      </c>
-      <c r="E20">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="F20">
-        <v>0.1933</v>
-      </c>
-      <c r="G20">
-        <v>0.1852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.2</v>
-      </c>
-      <c r="B21">
-        <v>1.5469999999999999</v>
-      </c>
-      <c r="C21">
-        <v>0.52890000000000004</v>
-      </c>
-      <c r="E21">
-        <v>0.70930000000000004</v>
-      </c>
-      <c r="F21">
-        <v>0.24340000000000001</v>
-      </c>
-      <c r="G21">
-        <v>0.23930000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.21</v>
-      </c>
-      <c r="B22">
-        <v>1.7869999999999999</v>
-      </c>
-      <c r="C22">
-        <v>0.63260000000000005</v>
-      </c>
-      <c r="E22">
-        <v>0.82320000000000004</v>
-      </c>
-      <c r="F22">
-        <v>0.30690000000000001</v>
-      </c>
-      <c r="G22">
-        <v>0.29820000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.22</v>
-      </c>
-      <c r="B23">
-        <v>2.0419999999999998</v>
-      </c>
-      <c r="C23">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="E23">
-        <v>0.94620000000000004</v>
-      </c>
-      <c r="F23">
-        <v>0.38590000000000002</v>
-      </c>
-      <c r="G23">
-        <v>0.37490000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.23</v>
-      </c>
-      <c r="B24">
-        <v>2.3180000000000001</v>
-      </c>
-      <c r="C24">
-        <v>0.88270000000000004</v>
-      </c>
-      <c r="E24">
-        <v>1.08</v>
-      </c>
-      <c r="F24">
-        <v>0.48470000000000002</v>
-      </c>
-      <c r="G24">
-        <v>0.46600000000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.24</v>
-      </c>
-      <c r="B25">
-        <v>2.6150000000000002</v>
-      </c>
-      <c r="C25">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="E25">
-        <v>1.238</v>
-      </c>
-      <c r="F25">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="G25">
-        <v>0.57750000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.25</v>
-      </c>
-      <c r="B26">
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="C26">
-        <v>1.232</v>
-      </c>
-      <c r="E26">
-        <v>1.4179999999999999</v>
-      </c>
-      <c r="F26">
-        <v>0.75</v>
-      </c>
-      <c r="G26">
-        <v>0.71009999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0.26</v>
-      </c>
-      <c r="B27">
-        <v>3.2210000000000001</v>
-      </c>
-      <c r="C27">
-        <v>1.452</v>
-      </c>
-      <c r="E27">
-        <v>1.617</v>
-      </c>
-      <c r="F27">
-        <v>0.92269999999999996</v>
-      </c>
-      <c r="G27">
-        <v>0.86899999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.27</v>
-      </c>
-      <c r="B28">
-        <v>3.5339999999999998</v>
-      </c>
-      <c r="C28">
-        <v>1.6930000000000001</v>
-      </c>
-      <c r="E28">
-        <v>1.83</v>
-      </c>
-      <c r="F28">
-        <v>1.135</v>
-      </c>
-      <c r="G28">
-        <v>1.0580000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="B29">
-        <v>3.8620000000000001</v>
-      </c>
-      <c r="C29">
-        <v>1.95</v>
-      </c>
-      <c r="E29">
-        <v>2.0739999999999998</v>
-      </c>
-      <c r="F29">
-        <v>1.377</v>
-      </c>
-      <c r="G29">
-        <v>1.2789999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="B30">
-        <v>4.1909999999999998</v>
-      </c>
-      <c r="C30">
-        <v>2.2309999999999999</v>
-      </c>
-      <c r="E30">
-        <v>2.3559999999999999</v>
-      </c>
-      <c r="F30">
-        <v>1.649</v>
-      </c>
-      <c r="G30">
-        <v>1.542</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0.3</v>
-      </c>
-      <c r="B31">
-        <v>4.5289999999999999</v>
-      </c>
-      <c r="C31">
-        <v>2.5750000000000002</v>
-      </c>
-      <c r="E31">
-        <v>2.6779999999999999</v>
-      </c>
-      <c r="F31">
-        <v>1.978</v>
-      </c>
-      <c r="G31">
-        <v>1.8420000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.31</v>
-      </c>
-      <c r="B32">
-        <v>4.8520000000000003</v>
-      </c>
-      <c r="C32">
-        <v>2.9430000000000001</v>
-      </c>
-      <c r="E32">
-        <v>3.036</v>
-      </c>
-      <c r="F32">
-        <v>2.3620000000000001</v>
-      </c>
-      <c r="G32">
-        <v>2.1469999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0.32</v>
-      </c>
-      <c r="B33">
-        <v>5.194</v>
-      </c>
-      <c r="C33">
-        <v>3.3849999999999998</v>
-      </c>
-      <c r="E33">
-        <v>3.4319999999999999</v>
-      </c>
-      <c r="F33">
-        <v>2.8149999999999999</v>
-      </c>
-      <c r="G33">
-        <v>2.528</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.33</v>
-      </c>
-      <c r="B34">
-        <v>5.5229999999999997</v>
-      </c>
-      <c r="C34">
-        <v>3.8439999999999999</v>
-      </c>
-      <c r="E34">
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="F34">
-        <v>3.3180000000000001</v>
-      </c>
-      <c r="G34">
-        <v>2.9580000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0.34</v>
-      </c>
-      <c r="B35">
-        <v>5.8739999999999997</v>
-      </c>
-      <c r="C35">
-        <v>4.3719999999999999</v>
-      </c>
-      <c r="E35">
-        <v>4.3789999999999996</v>
-      </c>
-      <c r="F35">
-        <v>3.9079999999999999</v>
-      </c>
-      <c r="G35">
-        <v>3.4470000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0.35</v>
-      </c>
-      <c r="B36">
-        <v>6.2140000000000004</v>
-      </c>
-      <c r="C36">
-        <v>4.9210000000000003</v>
-      </c>
-      <c r="E36">
-        <v>4.9329999999999998</v>
-      </c>
-      <c r="F36">
-        <v>4.6219999999999999</v>
-      </c>
-      <c r="G36">
-        <v>4.0179999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0.36</v>
-      </c>
-      <c r="B37">
-        <v>6.5919999999999996</v>
-      </c>
-      <c r="C37">
-        <v>5.5609999999999999</v>
-      </c>
-      <c r="E37">
-        <v>5.5570000000000004</v>
-      </c>
-      <c r="F37">
-        <v>5.484</v>
-      </c>
-      <c r="G37">
-        <v>4.6520000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>0.37</v>
-      </c>
-      <c r="B38">
-        <v>6.9359999999999999</v>
-      </c>
-      <c r="C38">
-        <v>6.2009999999999996</v>
-      </c>
-      <c r="E38">
-        <v>6.2430000000000003</v>
-      </c>
-      <c r="F38">
-        <v>6.5110000000000001</v>
-      </c>
-      <c r="G38">
-        <v>5.3579999999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0.38</v>
-      </c>
-      <c r="B39">
-        <v>7.3230000000000004</v>
-      </c>
-      <c r="C39">
-        <v>6.8979999999999997</v>
-      </c>
-      <c r="E39">
-        <v>7.0279999999999996</v>
-      </c>
-      <c r="F39">
-        <v>7.7469999999999999</v>
-      </c>
-      <c r="G39">
-        <v>6.149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0.39</v>
-      </c>
-      <c r="B40">
-        <v>7.7439999999999998</v>
-      </c>
-      <c r="C40">
-        <v>7.6289999999999996</v>
-      </c>
-      <c r="E40">
-        <v>7.9009999999999998</v>
-      </c>
-      <c r="F40">
-        <v>9.3019999999999996</v>
-      </c>
-      <c r="G40">
-        <v>7.0529999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0.4</v>
-      </c>
-      <c r="B41">
-        <v>8.1690000000000005</v>
-      </c>
-      <c r="C41">
-        <v>8.4149999999999991</v>
-      </c>
-      <c r="E41">
-        <v>8.85</v>
-      </c>
-      <c r="G41">
-        <v>8.1289999999999996</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0.41</v>
-      </c>
-      <c r="B42">
-        <v>8.6370000000000005</v>
-      </c>
-      <c r="C42">
-        <v>9.2690000000000001</v>
-      </c>
-      <c r="E42">
-        <v>9.9809999999999999</v>
-      </c>
-      <c r="G42">
-        <v>9.3680000000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0.42</v>
-      </c>
-      <c r="B43">
-        <v>9.0830000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+        <v>9.5589999999999993</v>
+      </c>
+      <c r="K44">
         <v>0.43</v>
       </c>
-      <c r="B44">
-        <v>9.6159999999999997</v>
+      <c r="M44">
+        <v>9.5589999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D86C54-2C3D-4F3E-8018-D9EDFDF7DF43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9409BC-11B7-43BA-A4A2-6D474E021E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="3885" windowWidth="23295" windowHeight="15255" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="10935" yWindow="3315" windowWidth="23295" windowHeight="15255" activeTab="1" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
     <sheet name="SF" sheetId="9" r:id="rId1"/>
@@ -37,45 +37,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>fpepq</t>
   </si>
   <si>
-    <t>DALI_fold</t>
+    <t>DALI</t>
   </si>
   <si>
-    <t>TMalign_fold</t>
+    <t>TMalign</t>
   </si>
   <si>
-    <t>blastp_fold</t>
+    <t>Foldseek</t>
   </si>
   <si>
-    <t>foldseek_fold</t>
+    <t>BLASTP</t>
   </si>
   <si>
-    <t>DALI_sf</t>
-  </si>
-  <si>
-    <t>TMalign_sf</t>
-  </si>
-  <si>
-    <t>blastp_sf</t>
-  </si>
-  <si>
-    <t>foldseek_sf</t>
-  </si>
-  <si>
-    <t>devreseek-fast_sf</t>
-  </si>
-  <si>
-    <t>devreseek-sensitive_sf</t>
-  </si>
-  <si>
-    <t>devreseek-fast_fold</t>
-  </si>
-  <si>
-    <t>devreseek-sensitive_fold</t>
+    <t>Reseek</t>
   </si>
 </sst>
 </file>
@@ -144,221 +123,90 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sensitivity vs. error SCOP40</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> superfamily</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27019780219780221"/>
+          <c:y val="2.7444253859348199E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SF!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>blastp_sf</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>SF!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>SF!$D$2:$D$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="7">
-                  <c:v>2.23E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.6689999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.38769999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.3009999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.6950000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>SF!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DALI_sf</c:v>
+                  <c:v>BLASTP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -520,128 +368,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
-                <c:pt idx="2">
-                  <c:v>1.204E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.2030000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5499999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.5390000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.5449999999999998E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1174</c:v>
+                  <c:v>2.23E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.154</c:v>
+                  <c:v>9.6689999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20030000000000001</c:v>
+                  <c:v>0.38769999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.25480000000000003</c:v>
+                  <c:v>1.3009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.32229999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.41820000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.5333</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.6542</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.79190000000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.95409999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.125</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.3260000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.5469999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.7869999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.0419999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.3180000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.6150000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.9249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.2210000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.5339999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.8620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4.1909999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.5289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.8520000000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.194</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.5229999999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.8739999999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.2140000000000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.5919999999999996</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.9359999999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.3230000000000004</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.7439999999999998</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.1690000000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.6370000000000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.0830000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.6159999999999997</c:v>
+                  <c:v>7.6950000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,14 +395,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>SF!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TMalign_sf</c:v>
+                  <c:v>DALI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -823,113 +563,128 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
+                <c:pt idx="2">
+                  <c:v>1.204E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2030000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5499999999999997E-2</c:v>
+                </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5520000000000001E-2</c:v>
+                  <c:v>5.5390000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3189999999999999E-2</c:v>
+                  <c:v>8.5449999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2820000000000002E-2</c:v>
+                  <c:v>0.1174</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.888E-2</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4399999999999999E-2</c:v>
+                  <c:v>0.20030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7239999999999998E-2</c:v>
+                  <c:v>0.25480000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.112</c:v>
+                  <c:v>0.32229999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13700000000000001</c:v>
+                  <c:v>0.41820000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.17119999999999999</c:v>
+                  <c:v>0.5333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.21340000000000001</c:v>
+                  <c:v>0.6542</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.25969999999999999</c:v>
+                  <c:v>0.79190000000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31259999999999999</c:v>
+                  <c:v>0.95409999999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.372</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44479999999999997</c:v>
+                  <c:v>1.3260000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.52890000000000004</c:v>
+                  <c:v>1.5469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.63260000000000005</c:v>
+                  <c:v>1.7869999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.74199999999999999</c:v>
+                  <c:v>2.0419999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.88270000000000004</c:v>
+                  <c:v>2.3180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.0469999999999999</c:v>
+                  <c:v>2.6150000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.232</c:v>
+                  <c:v>2.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.452</c:v>
+                  <c:v>3.2210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6930000000000001</c:v>
+                  <c:v>3.5339999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.95</c:v>
+                  <c:v>3.8620000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2309999999999999</c:v>
+                  <c:v>4.1909999999999998</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.5750000000000002</c:v>
+                  <c:v>4.5289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9430000000000001</c:v>
+                  <c:v>4.8520000000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.3849999999999998</c:v>
+                  <c:v>5.194</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.8439999999999999</c:v>
+                  <c:v>5.5229999999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.3719999999999999</c:v>
+                  <c:v>5.8739999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.9210000000000003</c:v>
+                  <c:v>6.2140000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.5609999999999999</c:v>
+                  <c:v>6.5919999999999996</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.2009999999999996</c:v>
+                  <c:v>6.9359999999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.8979999999999997</c:v>
+                  <c:v>7.3230000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.6289999999999996</c:v>
+                  <c:v>7.7439999999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.4149999999999991</c:v>
+                  <c:v>8.1690000000000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.2690000000000001</c:v>
+                  <c:v>8.6370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6159999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -943,14 +698,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>SF!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>foldseek_sf</c:v>
+                  <c:v>Foldseek</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1230,25 +985,28 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>SF!$F$1</c:f>
+              <c:f>SF!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>devreseek-fast_sf</c:v>
+                  <c:v>TMalign</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="50800" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDash"/>
+              <a:prstDash val="sysDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1396,105 +1154,117 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SF!$F$2:$F$45</c:f>
+              <c:f>SF!$D$2:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
+                <c:pt idx="5">
+                  <c:v>1.5520000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3189999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2820000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.888E-2</c:v>
+                </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.472E-2</c:v>
+                  <c:v>6.4399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3910000000000001E-2</c:v>
+                  <c:v>8.7239999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.202E-2</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5400000000000003E-2</c:v>
+                  <c:v>0.13700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0650000000000003E-2</c:v>
+                  <c:v>0.17119999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9920000000000005E-2</c:v>
+                  <c:v>0.21340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1031</c:v>
+                  <c:v>0.25969999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1308</c:v>
+                  <c:v>0.31259999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1646</c:v>
+                  <c:v>0.372</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20680000000000001</c:v>
+                  <c:v>0.44479999999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26140000000000002</c:v>
+                  <c:v>0.52890000000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.31859999999999999</c:v>
+                  <c:v>0.63260000000000005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.38900000000000001</c:v>
+                  <c:v>0.74199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.47089999999999999</c:v>
+                  <c:v>0.88270000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.56610000000000005</c:v>
+                  <c:v>1.0469999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.68659999999999999</c:v>
+                  <c:v>1.232</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.83130000000000004</c:v>
+                  <c:v>1.452</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.002</c:v>
+                  <c:v>1.6930000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.204</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4319999999999999</c:v>
+                  <c:v>2.2309999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.704</c:v>
+                  <c:v>2.5750000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0009999999999999</c:v>
+                  <c:v>2.9430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.34</c:v>
+                  <c:v>3.3849999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>3.8439999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1989999999999998</c:v>
+                  <c:v>4.3719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.7120000000000002</c:v>
+                  <c:v>4.9210000000000003</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.3129999999999997</c:v>
+                  <c:v>5.5609999999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.0250000000000004</c:v>
+                  <c:v>6.2009999999999996</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8220000000000001</c:v>
+                  <c:v>6.8979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.7119999999999997</c:v>
+                  <c:v>7.6289999999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.7889999999999997</c:v>
+                  <c:v>8.4149999999999991</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.0039999999999996</c:v>
+                  <c:v>9.2690000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,30 +1272,29 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
+              <c16:uniqueId val="{00000000-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>SF!$G$1</c:f>
+              <c:f>SF!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>devreseek-sensitive_sf</c:v>
+                  <c:v>Reseek</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1673,108 +1442,105 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>SF!$G$2:$G$45</c:f>
+              <c:f>SF!$F$2:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
-                <c:pt idx="8">
-                  <c:v>1.3559999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.0160000000000001E-2</c:v>
+                  <c:v>1.472E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0329999999999999E-2</c:v>
+                  <c:v>2.3910000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.925E-2</c:v>
+                  <c:v>3.202E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.3429999999999998E-2</c:v>
+                  <c:v>4.5400000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0730000000000001E-2</c:v>
+                  <c:v>6.0650000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.2319999999999999E-2</c:v>
+                  <c:v>7.9920000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1193</c:v>
+                  <c:v>0.1031</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.15310000000000001</c:v>
+                  <c:v>0.1308</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.191</c:v>
+                  <c:v>0.1646</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2402</c:v>
+                  <c:v>0.20680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30349999999999999</c:v>
+                  <c:v>0.26140000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3795</c:v>
+                  <c:v>0.31859999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.46820000000000001</c:v>
+                  <c:v>0.38900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.57550000000000001</c:v>
+                  <c:v>0.47089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.70369999999999999</c:v>
+                  <c:v>0.56610000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.8448</c:v>
+                  <c:v>0.68659999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0289999999999999</c:v>
+                  <c:v>0.83130000000000004</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2490000000000001</c:v>
+                  <c:v>1.002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4970000000000001</c:v>
+                  <c:v>1.204</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7809999999999999</c:v>
+                  <c:v>1.4319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1150000000000002</c:v>
+                  <c:v>1.704</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.492</c:v>
+                  <c:v>2.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.911</c:v>
+                  <c:v>2.34</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.3860000000000001</c:v>
+                  <c:v>2.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.931</c:v>
+                  <c:v>3.1989999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.5110000000000001</c:v>
+                  <c:v>3.7120000000000002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.1550000000000002</c:v>
+                  <c:v>4.3129999999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.859</c:v>
+                  <c:v>5.0250000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.6440000000000001</c:v>
+                  <c:v>5.8220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.5259999999999998</c:v>
+                  <c:v>6.7119999999999997</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.4529999999999994</c:v>
+                  <c:v>7.7889999999999997</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.5009999999999994</c:v>
+                  <c:v>9.0039999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,7 +1548,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
+              <c16:uniqueId val="{00000004-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1826,7 +1592,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1839,14 +1605,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>True</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
                   <a:t> positive rate (sensitivity)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1863,7 +1629,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1954,7 +1720,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1967,14 +1733,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>False</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> positive errors per query</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1991,7 +1757,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2140,22 +1906,561 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sensitivity vs. error SCOP40 fold</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30177777777777776"/>
+          <c:y val="2.7586206896551724E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BLASTP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Fold!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold!$B$2:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="3">
+                  <c:v>0.10059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5990000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7427-4367-9DFB-FBF38ECB406C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DALI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Fold!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold!$C$2:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="2">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.184E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2179999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0019999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3362</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3851</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52880000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90880000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.246</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.4619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9789999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7427-4367-9DFB-FBF38ECB406C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="0"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Fold!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>blastp_fold</c:v>
+                  <c:v>TMalign</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2320,11 +2625,122 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
-                <c:pt idx="3">
-                  <c:v>0.10059999999999999</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.5990000000000002</c:v>
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7840000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9790000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5310000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7430000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5979999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1308</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.63549999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.181</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.538</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.732</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.4219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.2830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.3049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.8719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1359999999999992</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.8119999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.5589999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2333,586 +2749,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7427-4367-9DFB-FBF38ECB406C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fold!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DALI_fold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Fold!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fold!$B$2:$B$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="2">
-                  <c:v>1.1599999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.184E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.2179999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.0019999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15129999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.17899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.20680000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.23499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.26550000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.29509999999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.3362</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.3851</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.44769999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.52880000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.63119999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.754</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.90880000000000005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.097</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.325</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.61</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.9259999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.2919999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.246</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.8380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.4619999999999997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.2190000000000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.9749999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.8979999999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.8540000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9789999999999992</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7427-4367-9DFB-FBF38ECB406C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fold!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TMalign_fold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Fold!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fold!$C$2:$C$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="4">
-                  <c:v>1.0699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7840000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.9790000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.5310000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.7430000000000004E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.5979999999999996E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1308</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.17799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.23250000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.28649999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34910000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.43780000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.53069999999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.63549999999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.74839999999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.878</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.024</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.181</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.3580000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.538</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.732</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.9450000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.1779999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.4260000000000002</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.6890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9729999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.3010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.6440000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.0289999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.4219999999999997</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.8380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.2830000000000004</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.7839999999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.3049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.8719999999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.49</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.1359999999999992</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.8119999999999994</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.5589999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7427-4367-9DFB-FBF38ECB406C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2925,7 +2761,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>foldseek_fold</c:v>
+                  <c:v>Foldseek</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3183,257 +3019,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>devreseek-fast_fold</c:v>
+                  <c:v>Reseek</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Fold!$A$2:$A$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.43</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Fold!$F$2:$F$45</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="6">
-                  <c:v>1.5339999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3990000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.6749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.7090000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.6699999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13009999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.19450000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2843</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.41510000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.57630000000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.79010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.0589999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.3919999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7989999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.2759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.8530000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.5590000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.43</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.4809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.7619999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.3040000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7427-4367-9DFB-FBF38ECB406C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fold!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>devreseek-sensitive_fold</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -3585,87 +3177,72 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Fold!$G$2:$G$45</c:f>
+              <c:f>Fold!$F$2:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
-                <c:pt idx="5">
-                  <c:v>1.1679999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9890000000000001E-2</c:v>
+                  <c:v>1.5339999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4610000000000002E-2</c:v>
+                  <c:v>2.3990000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.423E-2</c:v>
+                  <c:v>3.6749999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7590000000000001E-2</c:v>
+                  <c:v>5.7090000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1356</c:v>
+                  <c:v>8.6699999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1996</c:v>
+                  <c:v>0.13009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.29599999999999999</c:v>
+                  <c:v>0.19450000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.40889999999999999</c:v>
+                  <c:v>0.2843</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.55640000000000001</c:v>
+                  <c:v>0.41510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72960000000000003</c:v>
+                  <c:v>0.57630000000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.94169999999999998</c:v>
+                  <c:v>0.79010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.204</c:v>
+                  <c:v>1.0589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.4950000000000001</c:v>
+                  <c:v>1.3919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.83</c:v>
+                  <c:v>1.7989999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>2.2759999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.66</c:v>
+                  <c:v>2.8530000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1480000000000001</c:v>
+                  <c:v>3.5590000000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.7040000000000002</c:v>
+                  <c:v>4.43</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.327</c:v>
+                  <c:v>5.4809999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.0359999999999996</c:v>
+                  <c:v>6.7619999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.8040000000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.62</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.5359999999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>8.5559999999999992</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.6829999999999998</c:v>
+                  <c:v>8.3040000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3673,7 +3250,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7427-4367-9DFB-FBF38ECB406C}"/>
+              <c16:uniqueId val="{00000004-7427-4367-9DFB-FBF38ECB406C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3717,7 +3294,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3730,14 +3307,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>True</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> positive rate (sensitivity)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3754,7 +3331,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3845,7 +3422,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3858,14 +3435,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1200"/>
                   <a:t>False</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
                   <a:t> positive errors per query</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3882,7 +3459,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5133,16 +4710,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5176,16 +4753,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5532,155 +5109,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48A558-673B-4B1E-8FF7-FCB07FA6F0FA}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.03</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1.204E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.04</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2.2030000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.05</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.06</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>5.5390000000000002E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.5520000000000001E-2</v>
       </c>
       <c r="E7">
         <v>1.222E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>8.5449999999999998E-2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2.3189999999999999E-2</v>
       </c>
       <c r="E8">
         <v>2.3640000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.08</v>
       </c>
       <c r="B9">
+        <v>2.23E-2</v>
+      </c>
+      <c r="C9">
         <v>0.1174</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>3.2820000000000002E-2</v>
-      </c>
-      <c r="D9">
-        <v>2.23E-2</v>
       </c>
       <c r="E9">
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.09</v>
       </c>
       <c r="B10">
+        <v>9.6689999999999998E-2</v>
+      </c>
+      <c r="C10">
         <v>0.154</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>4.888E-2</v>
-      </c>
-      <c r="D10">
-        <v>9.6689999999999998E-2</v>
       </c>
       <c r="E10">
         <v>6.012E-2</v>
       </c>
-      <c r="G10">
-        <v>1.3559999999999999E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.1</v>
       </c>
       <c r="B11">
+        <v>0.38769999999999999</v>
+      </c>
+      <c r="C11">
         <v>0.20030000000000001</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>6.4399999999999999E-2</v>
-      </c>
-      <c r="D11">
-        <v>0.38769999999999999</v>
       </c>
       <c r="E11">
         <v>8.5900000000000004E-2</v>
@@ -5688,22 +5258,19 @@
       <c r="F11">
         <v>1.472E-2</v>
       </c>
-      <c r="G11">
-        <v>2.0160000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.11</v>
       </c>
       <c r="B12">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="C12">
         <v>0.25480000000000003</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>8.7239999999999998E-2</v>
-      </c>
-      <c r="D12">
-        <v>1.3009999999999999</v>
       </c>
       <c r="E12">
         <v>0.11609999999999999</v>
@@ -5711,22 +5278,19 @@
       <c r="F12">
         <v>2.3910000000000001E-2</v>
       </c>
-      <c r="G12">
-        <v>3.0329999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.12</v>
       </c>
       <c r="B13">
+        <v>7.6950000000000003</v>
+      </c>
+      <c r="C13">
         <v>0.32229999999999998</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.112</v>
-      </c>
-      <c r="D13">
-        <v>7.6950000000000003</v>
       </c>
       <c r="E13">
         <v>0.15129999999999999</v>
@@ -5734,18 +5298,15 @@
       <c r="F13">
         <v>3.202E-2</v>
       </c>
-      <c r="G13">
-        <v>3.925E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.41820000000000002</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.13700000000000001</v>
       </c>
       <c r="E14">
@@ -5754,18 +5315,15 @@
       <c r="F14">
         <v>4.5400000000000003E-2</v>
       </c>
-      <c r="G14">
-        <v>5.3429999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.5333</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.17119999999999999</v>
       </c>
       <c r="E15">
@@ -5774,18 +5332,15 @@
       <c r="F15">
         <v>6.0650000000000003E-2</v>
       </c>
-      <c r="G15">
-        <v>7.0730000000000001E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.6542</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.21340000000000001</v>
       </c>
       <c r="E16">
@@ -5794,18 +5349,15 @@
       <c r="F16">
         <v>7.9920000000000005E-2</v>
       </c>
-      <c r="G16">
-        <v>9.2319999999999999E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.16</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.79190000000000005</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.25969999999999999</v>
       </c>
       <c r="E17">
@@ -5814,18 +5366,15 @@
       <c r="F17">
         <v>0.1031</v>
       </c>
-      <c r="G17">
-        <v>0.1193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.17</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.95409999999999995</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.31259999999999999</v>
       </c>
       <c r="E18">
@@ -5834,18 +5383,15 @@
       <c r="F18">
         <v>0.1308</v>
       </c>
-      <c r="G18">
-        <v>0.15310000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1.125</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.372</v>
       </c>
       <c r="E19">
@@ -5854,18 +5400,15 @@
       <c r="F19">
         <v>0.1646</v>
       </c>
-      <c r="G19">
-        <v>0.191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.19</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>1.3260000000000001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.44479999999999997</v>
       </c>
       <c r="E20">
@@ -5874,18 +5417,15 @@
       <c r="F20">
         <v>0.20680000000000001</v>
       </c>
-      <c r="G20">
-        <v>0.2402</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.2</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>1.5469999999999999</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.52890000000000004</v>
       </c>
       <c r="E21">
@@ -5894,18 +5434,15 @@
       <c r="F21">
         <v>0.26140000000000002</v>
       </c>
-      <c r="G21">
-        <v>0.30349999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.21</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>1.7869999999999999</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.63260000000000005</v>
       </c>
       <c r="E22">
@@ -5914,18 +5451,15 @@
       <c r="F22">
         <v>0.31859999999999999</v>
       </c>
-      <c r="G22">
-        <v>0.3795</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.22</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>2.0419999999999998</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.74199999999999999</v>
       </c>
       <c r="E23">
@@ -5934,18 +5468,15 @@
       <c r="F23">
         <v>0.38900000000000001</v>
       </c>
-      <c r="G23">
-        <v>0.46820000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.23</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2.3180000000000001</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.88270000000000004</v>
       </c>
       <c r="E24">
@@ -5954,18 +5485,15 @@
       <c r="F24">
         <v>0.47089999999999999</v>
       </c>
-      <c r="G24">
-        <v>0.57550000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.24</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>2.6150000000000002</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.0469999999999999</v>
       </c>
       <c r="E25">
@@ -5974,18 +5502,15 @@
       <c r="F25">
         <v>0.56610000000000005</v>
       </c>
-      <c r="G25">
-        <v>0.70369999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.25</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>2.9249999999999998</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.232</v>
       </c>
       <c r="E26">
@@ -5994,18 +5519,15 @@
       <c r="F26">
         <v>0.68659999999999999</v>
       </c>
-      <c r="G26">
-        <v>0.8448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.26</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>3.2210000000000001</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.452</v>
       </c>
       <c r="E27">
@@ -6014,18 +5536,15 @@
       <c r="F27">
         <v>0.83130000000000004</v>
       </c>
-      <c r="G27">
-        <v>1.0289999999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.27</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>3.5339999999999998</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.6930000000000001</v>
       </c>
       <c r="E28">
@@ -6034,18 +5553,15 @@
       <c r="F28">
         <v>1.002</v>
       </c>
-      <c r="G28">
-        <v>1.2490000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>3.8620000000000001</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.95</v>
       </c>
       <c r="E29">
@@ -6054,18 +5570,15 @@
       <c r="F29">
         <v>1.204</v>
       </c>
-      <c r="G29">
-        <v>1.4970000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>4.1909999999999998</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.2309999999999999</v>
       </c>
       <c r="E30">
@@ -6074,18 +5587,15 @@
       <c r="F30">
         <v>1.4319999999999999</v>
       </c>
-      <c r="G30">
-        <v>1.7809999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.3</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>4.5289999999999999</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.5750000000000002</v>
       </c>
       <c r="E31">
@@ -6094,18 +5604,15 @@
       <c r="F31">
         <v>1.704</v>
       </c>
-      <c r="G31">
-        <v>2.1150000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.31</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>4.8520000000000003</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2.9430000000000001</v>
       </c>
       <c r="E32">
@@ -6114,18 +5621,15 @@
       <c r="F32">
         <v>2.0009999999999999</v>
       </c>
-      <c r="G32">
-        <v>2.492</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.32</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>5.194</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3.3849999999999998</v>
       </c>
       <c r="E33">
@@ -6134,18 +5638,15 @@
       <c r="F33">
         <v>2.34</v>
       </c>
-      <c r="G33">
-        <v>2.911</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.33</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>5.5229999999999997</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>3.8439999999999999</v>
       </c>
       <c r="E34">
@@ -6154,18 +5655,15 @@
       <c r="F34">
         <v>2.7370000000000001</v>
       </c>
-      <c r="G34">
-        <v>3.3860000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.34</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>5.8739999999999997</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>4.3719999999999999</v>
       </c>
       <c r="E35">
@@ -6174,18 +5672,15 @@
       <c r="F35">
         <v>3.1989999999999998</v>
       </c>
-      <c r="G35">
-        <v>3.931</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.35</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>6.2140000000000004</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>4.9210000000000003</v>
       </c>
       <c r="E36">
@@ -6194,18 +5689,15 @@
       <c r="F36">
         <v>3.7120000000000002</v>
       </c>
-      <c r="G36">
-        <v>4.5110000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>6.5919999999999996</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>5.5609999999999999</v>
       </c>
       <c r="E37">
@@ -6214,18 +5706,15 @@
       <c r="F37">
         <v>4.3129999999999997</v>
       </c>
-      <c r="G37">
-        <v>5.1550000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.37</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>6.9359999999999999</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>6.2009999999999996</v>
       </c>
       <c r="E38">
@@ -6234,18 +5723,15 @@
       <c r="F38">
         <v>5.0250000000000004</v>
       </c>
-      <c r="G38">
-        <v>5.859</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.38</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>7.3230000000000004</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>6.8979999999999997</v>
       </c>
       <c r="E39">
@@ -6254,18 +5740,15 @@
       <c r="F39">
         <v>5.8220000000000001</v>
       </c>
-      <c r="G39">
-        <v>6.6440000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.39</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>7.7439999999999998</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>7.6289999999999996</v>
       </c>
       <c r="E40">
@@ -6274,18 +5757,15 @@
       <c r="F40">
         <v>6.7119999999999997</v>
       </c>
-      <c r="G40">
-        <v>7.5259999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.4</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>8.1690000000000005</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>8.4149999999999991</v>
       </c>
       <c r="E41">
@@ -6294,18 +5774,15 @@
       <c r="F41">
         <v>7.7889999999999997</v>
       </c>
-      <c r="G41">
-        <v>8.4529999999999994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.41</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>8.6370000000000005</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>9.2690000000000001</v>
       </c>
       <c r="E42">
@@ -6314,23 +5791,20 @@
       <c r="F42">
         <v>9.0039999999999996</v>
       </c>
-      <c r="G42">
-        <v>9.5009999999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.42</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>9.0830000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.43</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>9.6159999999999997</v>
       </c>
     </row>
@@ -6342,10 +5816,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C0124-FDAB-4252-836F-9CFDB475E886}">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6353,184 +5827,99 @@
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
-      <c r="K2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.02</v>
       </c>
-      <c r="K3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.03</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1.1599999999999999E-2</v>
       </c>
-      <c r="K4">
-        <v>0.03</v>
-      </c>
-      <c r="L4">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.04</v>
       </c>
       <c r="B5">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="C5">
         <v>3.184E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.10059999999999999</v>
       </c>
       <c r="E5">
         <v>2.078E-2</v>
       </c>
-      <c r="K5">
-        <v>0.04</v>
-      </c>
-      <c r="L5">
-        <v>3.184E-2</v>
-      </c>
-      <c r="N5">
-        <v>0.10059999999999999</v>
-      </c>
-      <c r="Q5">
-        <v>2.078E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.05</v>
       </c>
       <c r="B6">
+        <v>7.5990000000000002</v>
+      </c>
+      <c r="C6">
         <v>5.2179999999999997E-2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="D6">
-        <v>7.5990000000000002</v>
       </c>
       <c r="E6">
         <v>4.0759999999999998E-2</v>
       </c>
-      <c r="K6">
-        <v>0.05</v>
-      </c>
-      <c r="L6">
-        <v>5.2179999999999997E-2</v>
-      </c>
-      <c r="M6">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="N6">
-        <v>7.5990000000000002</v>
-      </c>
-      <c r="Q6">
-        <v>4.0759999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.06</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>7.0019999999999999E-2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>1.7840000000000002E-2</v>
       </c>
       <c r="E7">
         <v>5.985E-2</v>
       </c>
-      <c r="G7">
-        <v>1.1679999999999999E-2</v>
-      </c>
-      <c r="K7">
-        <v>0.06</v>
-      </c>
-      <c r="L7">
-        <v>7.0019999999999999E-2</v>
-      </c>
-      <c r="M7">
-        <v>1.7840000000000002E-2</v>
-      </c>
-      <c r="P7">
-        <v>1.1679999999999999E-2</v>
-      </c>
-      <c r="Q7">
-        <v>5.985E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.09</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2.9790000000000001E-2</v>
       </c>
       <c r="E8">
@@ -6539,36 +5928,15 @@
       <c r="F8">
         <v>1.5339999999999999E-2</v>
       </c>
-      <c r="G8">
-        <v>1.9890000000000001E-2</v>
-      </c>
-      <c r="K8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="L8">
-        <v>0.09</v>
-      </c>
-      <c r="M8">
-        <v>2.9790000000000001E-2</v>
-      </c>
-      <c r="O8">
-        <v>1.5339999999999999E-2</v>
-      </c>
-      <c r="P8">
-        <v>1.9890000000000001E-2</v>
-      </c>
-      <c r="Q8">
-        <v>7.7600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.08</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.11</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4.5310000000000003E-2</v>
       </c>
       <c r="E9">
@@ -6577,36 +5945,15 @@
       <c r="F9">
         <v>2.3990000000000001E-2</v>
       </c>
-      <c r="G9">
-        <v>3.4610000000000002E-2</v>
-      </c>
-      <c r="K9">
-        <v>0.08</v>
-      </c>
-      <c r="L9">
-        <v>0.11</v>
-      </c>
-      <c r="M9">
-        <v>4.5310000000000003E-2</v>
-      </c>
-      <c r="O9">
-        <v>2.3990000000000001E-2</v>
-      </c>
-      <c r="P9">
-        <v>3.4610000000000002E-2</v>
-      </c>
-      <c r="Q9">
-        <v>9.8390000000000005E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.09</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.13039999999999999</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6.7430000000000004E-2</v>
       </c>
       <c r="E10">
@@ -6615,36 +5962,15 @@
       <c r="F10">
         <v>3.6749999999999998E-2</v>
       </c>
-      <c r="G10">
-        <v>5.423E-2</v>
-      </c>
-      <c r="K10">
-        <v>0.09</v>
-      </c>
-      <c r="L10">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="M10">
-        <v>6.7430000000000004E-2</v>
-      </c>
-      <c r="O10">
-        <v>3.6749999999999998E-2</v>
-      </c>
-      <c r="P10">
-        <v>5.423E-2</v>
-      </c>
-      <c r="Q10">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.1</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.15129999999999999</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>9.5979999999999996E-2</v>
       </c>
       <c r="E11">
@@ -6653,36 +5979,15 @@
       <c r="F11">
         <v>5.7090000000000002E-2</v>
       </c>
-      <c r="G11">
-        <v>8.7590000000000001E-2</v>
-      </c>
-      <c r="K11">
-        <v>0.1</v>
-      </c>
-      <c r="L11">
-        <v>0.15129999999999999</v>
-      </c>
-      <c r="M11">
-        <v>9.5979999999999996E-2</v>
-      </c>
-      <c r="O11">
-        <v>5.7090000000000002E-2</v>
-      </c>
-      <c r="P11">
-        <v>8.7590000000000001E-2</v>
-      </c>
-      <c r="Q11">
-        <v>0.15409999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.11</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.17899999999999999</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.1308</v>
       </c>
       <c r="E12">
@@ -6691,36 +5996,15 @@
       <c r="F12">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="G12">
-        <v>0.1356</v>
-      </c>
-      <c r="K12">
-        <v>0.11</v>
-      </c>
-      <c r="L12">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="M12">
-        <v>0.1308</v>
-      </c>
-      <c r="O12">
-        <v>8.6699999999999999E-2</v>
-      </c>
-      <c r="P12">
-        <v>0.1356</v>
-      </c>
-      <c r="Q12">
-        <v>0.1905</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.12</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.20680000000000001</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.17799999999999999</v>
       </c>
       <c r="E13">
@@ -6729,36 +6013,15 @@
       <c r="F13">
         <v>0.13009999999999999</v>
       </c>
-      <c r="G13">
-        <v>0.1996</v>
-      </c>
-      <c r="K13">
-        <v>0.12</v>
-      </c>
-      <c r="L13">
-        <v>0.20680000000000001</v>
-      </c>
-      <c r="M13">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="O13">
-        <v>0.13009999999999999</v>
-      </c>
-      <c r="P13">
-        <v>0.1996</v>
-      </c>
-      <c r="Q13">
-        <v>0.2407</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.13</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.23499999999999999</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.23250000000000001</v>
       </c>
       <c r="E14">
@@ -6767,36 +6030,15 @@
       <c r="F14">
         <v>0.19450000000000001</v>
       </c>
-      <c r="G14">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="K14">
-        <v>0.13</v>
-      </c>
-      <c r="L14">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="M14">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="O14">
-        <v>0.19450000000000001</v>
-      </c>
-      <c r="P14">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="Q14">
-        <v>0.30919999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.14000000000000001</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.26550000000000001</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.28649999999999998</v>
       </c>
       <c r="E15">
@@ -6805,36 +6047,15 @@
       <c r="F15">
         <v>0.2843</v>
       </c>
-      <c r="G15">
-        <v>0.40889999999999999</v>
-      </c>
-      <c r="K15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L15">
-        <v>0.26550000000000001</v>
-      </c>
-      <c r="M15">
-        <v>0.28649999999999998</v>
-      </c>
-      <c r="O15">
-        <v>0.2843</v>
-      </c>
-      <c r="P15">
-        <v>0.40889999999999999</v>
-      </c>
-      <c r="Q15">
-        <v>0.39729999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.15</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.29509999999999997</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.34910000000000002</v>
       </c>
       <c r="E16">
@@ -6843,36 +6064,15 @@
       <c r="F16">
         <v>0.41510000000000002</v>
       </c>
-      <c r="G16">
-        <v>0.55640000000000001</v>
-      </c>
-      <c r="K16">
-        <v>0.15</v>
-      </c>
-      <c r="L16">
-        <v>0.29509999999999997</v>
-      </c>
-      <c r="M16">
-        <v>0.34910000000000002</v>
-      </c>
-      <c r="O16">
-        <v>0.41510000000000002</v>
-      </c>
-      <c r="P16">
-        <v>0.55640000000000001</v>
-      </c>
-      <c r="Q16">
-        <v>0.5242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.16</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.3362</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.43780000000000002</v>
       </c>
       <c r="E17">
@@ -6881,36 +6081,15 @@
       <c r="F17">
         <v>0.57630000000000003</v>
       </c>
-      <c r="G17">
-        <v>0.72960000000000003</v>
-      </c>
-      <c r="K17">
-        <v>0.16</v>
-      </c>
-      <c r="L17">
-        <v>0.3362</v>
-      </c>
-      <c r="M17">
-        <v>0.43780000000000002</v>
-      </c>
-      <c r="O17">
-        <v>0.57630000000000003</v>
-      </c>
-      <c r="P17">
-        <v>0.72960000000000003</v>
-      </c>
-      <c r="Q17">
-        <v>0.68600000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.17</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.3851</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.53069999999999995</v>
       </c>
       <c r="E18">
@@ -6919,36 +6098,15 @@
       <c r="F18">
         <v>0.79010000000000002</v>
       </c>
-      <c r="G18">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="K18">
-        <v>0.17</v>
-      </c>
-      <c r="L18">
-        <v>0.3851</v>
-      </c>
-      <c r="M18">
-        <v>0.53069999999999995</v>
-      </c>
-      <c r="O18">
-        <v>0.79010000000000002</v>
-      </c>
-      <c r="P18">
-        <v>0.94169999999999998</v>
-      </c>
-      <c r="Q18">
-        <v>0.8881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.18</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.44769999999999999</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.63549999999999995</v>
       </c>
       <c r="E19">
@@ -6957,36 +6115,15 @@
       <c r="F19">
         <v>1.0589999999999999</v>
       </c>
-      <c r="G19">
-        <v>1.204</v>
-      </c>
-      <c r="K19">
-        <v>0.18</v>
-      </c>
-      <c r="L19">
-        <v>0.44769999999999999</v>
-      </c>
-      <c r="M19">
-        <v>0.63549999999999995</v>
-      </c>
-      <c r="O19">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="P19">
-        <v>1.204</v>
-      </c>
-      <c r="Q19">
-        <v>1.147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.19</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.52880000000000005</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.74839999999999995</v>
       </c>
       <c r="E20">
@@ -6995,36 +6132,15 @@
       <c r="F20">
         <v>1.3919999999999999</v>
       </c>
-      <c r="G20">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="K20">
-        <v>0.19</v>
-      </c>
-      <c r="L20">
-        <v>0.52880000000000005</v>
-      </c>
-      <c r="M20">
-        <v>0.74839999999999995</v>
-      </c>
-      <c r="O20">
-        <v>1.3919999999999999</v>
-      </c>
-      <c r="P20">
-        <v>1.4950000000000001</v>
-      </c>
-      <c r="Q20">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.2</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.63119999999999998</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.878</v>
       </c>
       <c r="E21">
@@ -7033,36 +6149,15 @@
       <c r="F21">
         <v>1.7989999999999999</v>
       </c>
-      <c r="G21">
-        <v>1.83</v>
-      </c>
-      <c r="K21">
-        <v>0.2</v>
-      </c>
-      <c r="L21">
-        <v>0.63119999999999998</v>
-      </c>
-      <c r="M21">
-        <v>0.878</v>
-      </c>
-      <c r="O21">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="P21">
-        <v>1.83</v>
-      </c>
-      <c r="Q21">
-        <v>1.841</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.21</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>0.754</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>1.024</v>
       </c>
       <c r="E22">
@@ -7071,36 +6166,15 @@
       <c r="F22">
         <v>2.2759999999999998</v>
       </c>
-      <c r="G22">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="K22">
-        <v>0.21</v>
-      </c>
-      <c r="L22">
-        <v>0.754</v>
-      </c>
-      <c r="M22">
-        <v>1.024</v>
-      </c>
-      <c r="O22">
-        <v>2.2759999999999998</v>
-      </c>
-      <c r="P22">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="Q22">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.22</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>0.90880000000000005</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>1.181</v>
       </c>
       <c r="E23">
@@ -7109,36 +6183,15 @@
       <c r="F23">
         <v>2.8530000000000002</v>
       </c>
-      <c r="G23">
-        <v>2.66</v>
-      </c>
-      <c r="K23">
-        <v>0.22</v>
-      </c>
-      <c r="L23">
-        <v>0.90880000000000005</v>
-      </c>
-      <c r="M23">
-        <v>1.181</v>
-      </c>
-      <c r="O23">
-        <v>2.8530000000000002</v>
-      </c>
-      <c r="P23">
-        <v>2.66</v>
-      </c>
-      <c r="Q23">
-        <v>2.819</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.23</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>1.097</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>1.3580000000000001</v>
       </c>
       <c r="E24">
@@ -7147,36 +6200,15 @@
       <c r="F24">
         <v>3.5590000000000002</v>
       </c>
-      <c r="G24">
-        <v>3.1480000000000001</v>
-      </c>
-      <c r="K24">
-        <v>0.23</v>
-      </c>
-      <c r="L24">
-        <v>1.097</v>
-      </c>
-      <c r="M24">
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="O24">
-        <v>3.5590000000000002</v>
-      </c>
-      <c r="P24">
-        <v>3.1480000000000001</v>
-      </c>
-      <c r="Q24">
-        <v>3.4220000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.24</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1.325</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>1.538</v>
       </c>
       <c r="E25">
@@ -7185,36 +6217,15 @@
       <c r="F25">
         <v>4.43</v>
       </c>
-      <c r="G25">
-        <v>3.7040000000000002</v>
-      </c>
-      <c r="K25">
-        <v>0.24</v>
-      </c>
-      <c r="L25">
-        <v>1.325</v>
-      </c>
-      <c r="M25">
-        <v>1.538</v>
-      </c>
-      <c r="O25">
-        <v>4.43</v>
-      </c>
-      <c r="P25">
-        <v>3.7040000000000002</v>
-      </c>
-      <c r="Q25">
-        <v>4.1360000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.25</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>1.61</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>1.732</v>
       </c>
       <c r="E26">
@@ -7223,36 +6234,15 @@
       <c r="F26">
         <v>5.4809999999999999</v>
       </c>
-      <c r="G26">
-        <v>4.327</v>
-      </c>
-      <c r="K26">
-        <v>0.25</v>
-      </c>
-      <c r="L26">
-        <v>1.61</v>
-      </c>
-      <c r="M26">
-        <v>1.732</v>
-      </c>
-      <c r="O26">
-        <v>5.4809999999999999</v>
-      </c>
-      <c r="P26">
-        <v>4.327</v>
-      </c>
-      <c r="Q26">
-        <v>4.944</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.26</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1.9259999999999999</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1.9450000000000001</v>
       </c>
       <c r="E27">
@@ -7261,36 +6251,15 @@
       <c r="F27">
         <v>6.7619999999999996</v>
       </c>
-      <c r="G27">
-        <v>5.0359999999999996</v>
-      </c>
-      <c r="K27">
-        <v>0.26</v>
-      </c>
-      <c r="L27">
-        <v>1.9259999999999999</v>
-      </c>
-      <c r="M27">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="O27">
-        <v>6.7619999999999996</v>
-      </c>
-      <c r="P27">
-        <v>5.0359999999999996</v>
-      </c>
-      <c r="Q27">
-        <v>5.8440000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.27</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>2.2919999999999998</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2.1779999999999999</v>
       </c>
       <c r="E28">
@@ -7299,339 +6268,165 @@
       <c r="F28">
         <v>8.3040000000000003</v>
       </c>
-      <c r="G28">
-        <v>5.8040000000000003</v>
-      </c>
-      <c r="K28">
-        <v>0.27</v>
-      </c>
-      <c r="L28">
-        <v>2.2919999999999998</v>
-      </c>
-      <c r="M28">
-        <v>2.1779999999999999</v>
-      </c>
-      <c r="O28">
-        <v>8.3040000000000003</v>
-      </c>
-      <c r="P28">
-        <v>5.8040000000000003</v>
-      </c>
-      <c r="Q28">
-        <v>6.8609999999999998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.28000000000000003</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>2.7309999999999999</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.4260000000000002</v>
       </c>
       <c r="E29">
         <v>7.9749999999999996</v>
       </c>
-      <c r="G29">
-        <v>6.62</v>
-      </c>
-      <c r="K29">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="L29">
-        <v>2.7309999999999999</v>
-      </c>
-      <c r="M29">
-        <v>2.4260000000000002</v>
-      </c>
-      <c r="P29">
-        <v>6.62</v>
-      </c>
-      <c r="Q29">
-        <v>7.9749999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.28999999999999998</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>3.246</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.6890000000000001</v>
       </c>
       <c r="E30">
         <v>9.1880000000000006</v>
       </c>
-      <c r="G30">
-        <v>7.5359999999999996</v>
-      </c>
-      <c r="K30">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="L30">
-        <v>3.246</v>
-      </c>
-      <c r="M30">
-        <v>2.6890000000000001</v>
-      </c>
-      <c r="P30">
-        <v>7.5359999999999996</v>
-      </c>
-      <c r="Q30">
-        <v>9.1880000000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.3</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>3.8380000000000001</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.9729999999999999</v>
       </c>
-      <c r="G31">
-        <v>8.5559999999999992</v>
-      </c>
-      <c r="K31">
-        <v>0.3</v>
-      </c>
-      <c r="L31">
-        <v>3.8380000000000001</v>
-      </c>
-      <c r="M31">
-        <v>2.9729999999999999</v>
-      </c>
-      <c r="P31">
-        <v>8.5559999999999992</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.31</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>4.4619999999999997</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>3.3010000000000002</v>
       </c>
-      <c r="G32">
-        <v>9.6829999999999998</v>
-      </c>
-      <c r="K32">
-        <v>0.31</v>
-      </c>
-      <c r="L32">
-        <v>4.4619999999999997</v>
-      </c>
-      <c r="M32">
-        <v>3.3010000000000002</v>
-      </c>
-      <c r="P32">
-        <v>9.6829999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.32</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>5.2190000000000003</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>3.6440000000000001</v>
       </c>
-      <c r="K33">
-        <v>0.32</v>
-      </c>
-      <c r="L33">
-        <v>5.2190000000000003</v>
-      </c>
-      <c r="M33">
-        <v>3.6440000000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.33</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>5.9749999999999996</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>4.0289999999999999</v>
       </c>
-      <c r="K34">
-        <v>0.33</v>
-      </c>
-      <c r="L34">
-        <v>5.9749999999999996</v>
-      </c>
-      <c r="M34">
-        <v>4.0289999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.34</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>6.8979999999999997</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>4.4219999999999997</v>
       </c>
-      <c r="K35">
-        <v>0.34</v>
-      </c>
-      <c r="L35">
-        <v>6.8979999999999997</v>
-      </c>
-      <c r="M35">
-        <v>4.4219999999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.35</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>7.8540000000000001</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>4.8380000000000001</v>
       </c>
-      <c r="K36">
-        <v>0.35</v>
-      </c>
-      <c r="L36">
-        <v>7.8540000000000001</v>
-      </c>
-      <c r="M36">
-        <v>4.8380000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>8.9789999999999992</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>5.2830000000000004</v>
       </c>
-      <c r="K37">
-        <v>0.36</v>
-      </c>
-      <c r="L37">
-        <v>8.9789999999999992</v>
-      </c>
-      <c r="M37">
-        <v>5.2830000000000004</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.37</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>5.7839999999999998</v>
       </c>
-      <c r="K38">
-        <v>0.37</v>
-      </c>
-      <c r="M38">
-        <v>5.7839999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.38</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>6.3049999999999997</v>
       </c>
-      <c r="K39">
-        <v>0.38</v>
-      </c>
-      <c r="M39">
-        <v>6.3049999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.39</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>6.8719999999999999</v>
       </c>
-      <c r="K40">
-        <v>0.39</v>
-      </c>
-      <c r="M40">
-        <v>6.8719999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.4</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>7.49</v>
       </c>
-      <c r="K41">
-        <v>0.4</v>
-      </c>
-      <c r="M41">
-        <v>7.49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.41</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>8.1359999999999992</v>
       </c>
-      <c r="K42">
-        <v>0.41</v>
-      </c>
-      <c r="M42">
-        <v>8.1359999999999992</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.42</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>8.8119999999999994</v>
       </c>
-      <c r="K43">
-        <v>0.42</v>
-      </c>
-      <c r="M43">
-        <v>8.8119999999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.43</v>
       </c>
-      <c r="C44">
-        <v>9.5589999999999993</v>
-      </c>
-      <c r="K44">
-        <v>0.43</v>
-      </c>
-      <c r="M44">
+      <c r="D44">
         <v>9.5589999999999993</v>
       </c>
     </row>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9409BC-11B7-43BA-A4A2-6D474E021E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8AE384-BC14-4D45-91D3-C60305BC66C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10935" yWindow="3315" windowWidth="23295" windowHeight="15255" activeTab="1" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
     <sheet name="SF" sheetId="9" r:id="rId1"/>
-    <sheet name="Fold" sheetId="10" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="Fold" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>fpepq</t>
   </si>
@@ -55,6 +56,21 @@
   </si>
   <si>
     <t>Reseek</t>
+  </si>
+  <si>
+    <t>blastp</t>
+  </si>
+  <si>
+    <t>GTalign</t>
+  </si>
+  <si>
+    <t>foldseek</t>
+  </si>
+  <si>
+    <t>devreseek-fast</t>
+  </si>
+  <si>
+    <t>devreseek-sensitive</t>
   </si>
 </sst>
 </file>
@@ -985,8 +1001,165 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SF!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GTalign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SF!$G$2:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="5">
+                  <c:v>1.516E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.614E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.916E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0569999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7410000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2671</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51439999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7379</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88560000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.821</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.581</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.218</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.556</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.7439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.3239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.2479999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.8529999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F309-4D48-AF9D-5CD1365FCBDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>SF!$D$1</c:f>
@@ -1006,7 +1179,7 @@
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1278,7 +1451,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>SF!$F$1</c:f>
@@ -4710,16 +4883,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>390526</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5109,10 +5282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48A558-673B-4B1E-8FF7-FCB07FA6F0FA}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,7 +5296,7 @@
     <col min="15" max="15" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5142,18 +5315,21 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.03</v>
       </c>
@@ -5161,7 +5337,7 @@
         <v>1.204E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.04</v>
       </c>
@@ -5169,7 +5345,7 @@
         <v>2.2030000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.05</v>
       </c>
@@ -5177,7 +5353,7 @@
         <v>3.5499999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.06</v>
       </c>
@@ -5190,8 +5366,11 @@
       <c r="E7">
         <v>1.222E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1.516E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -5204,8 +5383,11 @@
       <c r="E8">
         <v>2.3640000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>2.614E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.08</v>
       </c>
@@ -5221,8 +5403,11 @@
       <c r="E9">
         <v>3.9600000000000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>3.916E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.09</v>
       </c>
@@ -5238,8 +5423,11 @@
       <c r="E10">
         <v>6.012E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>6.0569999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -5258,8 +5446,11 @@
       <c r="F11">
         <v>1.472E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>8.7410000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.11</v>
       </c>
@@ -5278,8 +5469,11 @@
       <c r="F12">
         <v>2.3910000000000001E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0.1202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.12</v>
       </c>
@@ -5298,8 +5492,11 @@
       <c r="F13">
         <v>3.202E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0.16489999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.13</v>
       </c>
@@ -5315,8 +5512,11 @@
       <c r="F14">
         <v>4.5400000000000003E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0.21029999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.14000000000000001</v>
       </c>
@@ -5332,8 +5532,11 @@
       <c r="F15">
         <v>6.0650000000000003E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0.2671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.15</v>
       </c>
@@ -5349,8 +5552,11 @@
       <c r="F16">
         <v>7.9920000000000005E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.16</v>
       </c>
@@ -5366,8 +5572,11 @@
       <c r="F17">
         <v>0.1031</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0.41920000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.17</v>
       </c>
@@ -5383,8 +5592,11 @@
       <c r="F18">
         <v>0.1308</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0.51439999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.18</v>
       </c>
@@ -5400,8 +5612,11 @@
       <c r="F19">
         <v>0.1646</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0.61539999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.19</v>
       </c>
@@ -5417,8 +5632,11 @@
       <c r="F20">
         <v>0.20680000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0.7379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.2</v>
       </c>
@@ -5434,8 +5652,11 @@
       <c r="F21">
         <v>0.26140000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0.88560000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.21</v>
       </c>
@@ -5451,8 +5672,11 @@
       <c r="F22">
         <v>0.31859999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1.038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.22</v>
       </c>
@@ -5468,8 +5692,11 @@
       <c r="F23">
         <v>0.38900000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1.2130000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.23</v>
       </c>
@@ -5485,8 +5712,11 @@
       <c r="F24">
         <v>0.47089999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1.403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.24</v>
       </c>
@@ -5502,8 +5732,11 @@
       <c r="F25">
         <v>0.56610000000000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1.599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -5519,8 +5752,11 @@
       <c r="F26">
         <v>0.68659999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1.821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.26</v>
       </c>
@@ -5536,8 +5772,11 @@
       <c r="F27">
         <v>0.83130000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>2.0529999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.27</v>
       </c>
@@ -5553,8 +5792,11 @@
       <c r="F28">
         <v>1.002</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>2.2989999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.28000000000000003</v>
       </c>
@@ -5570,8 +5812,11 @@
       <c r="F29">
         <v>1.204</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>2.581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.28999999999999998</v>
       </c>
@@ -5587,8 +5832,11 @@
       <c r="F30">
         <v>1.4319999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>2.8889999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.3</v>
       </c>
@@ -5604,8 +5852,11 @@
       <c r="F31">
         <v>1.704</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>3.218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.31</v>
       </c>
@@ -5621,8 +5872,11 @@
       <c r="F32">
         <v>2.0009999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>3.556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.32</v>
       </c>
@@ -5638,8 +5892,11 @@
       <c r="F33">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>3.9249999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.33</v>
       </c>
@@ -5655,8 +5912,11 @@
       <c r="F34">
         <v>2.7370000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>4.3259999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.34</v>
       </c>
@@ -5672,8 +5932,11 @@
       <c r="F35">
         <v>3.1989999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>4.7690000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.35</v>
       </c>
@@ -5689,8 +5952,11 @@
       <c r="F36">
         <v>3.7120000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36</v>
       </c>
@@ -5706,8 +5972,11 @@
       <c r="F37">
         <v>4.3129999999999997</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>5.7439999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.37</v>
       </c>
@@ -5723,8 +5992,11 @@
       <c r="F38">
         <v>5.0250000000000004</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>6.3239999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.38</v>
       </c>
@@ -5740,8 +6012,11 @@
       <c r="F39">
         <v>5.8220000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>6.9089999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.39</v>
       </c>
@@ -5757,8 +6032,11 @@
       <c r="F40">
         <v>6.7119999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.4</v>
       </c>
@@ -5774,8 +6052,11 @@
       <c r="F41">
         <v>7.7889999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>8.2479999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.41</v>
       </c>
@@ -5791,21 +6072,242 @@
       <c r="F42">
         <v>9.0039999999999996</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>9.0210000000000008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.42</v>
       </c>
       <c r="C43">
         <v>9.0830000000000002</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>9.8529999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.43</v>
       </c>
       <c r="C44">
         <v>9.6159999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>12.65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>17.32</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>20.260000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>21.95</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <v>23.79</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <v>25.73</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <v>27.85</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <v>32.65</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <v>35.380000000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <v>41.43</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <v>44.83</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <v>48.56</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <v>52.79</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <v>57.37</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <v>62.44</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <v>67.94</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <v>74.11</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <v>80.98</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <v>97.29</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <v>107.3</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <v>118.3</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <v>130.5</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <v>144.4</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <v>159.9</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <v>199.2</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <v>224.9</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G80">
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G81">
+        <v>290.2</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>334.4</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>456.7</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>545.5</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>667.6</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>865.2</v>
       </c>
     </row>
   </sheetData>
@@ -5815,11 +6317,1766 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D3F74A-42AA-4145-8ECA-556423A39940}">
+  <dimension ref="A1:H93"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <v>1.1599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.04</v>
+      </c>
+      <c r="B5">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="C5">
+        <v>3.184E-2</v>
+      </c>
+      <c r="F5">
+        <v>2.078E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.05</v>
+      </c>
+      <c r="B6">
+        <v>7.5990000000000002</v>
+      </c>
+      <c r="C6">
+        <v>5.2179999999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>4.0759999999999998E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.06</v>
+      </c>
+      <c r="C7">
+        <v>7.0019999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.7840000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.516E-2</v>
+      </c>
+      <c r="F7">
+        <v>5.985E-2</v>
+      </c>
+      <c r="H7">
+        <v>1.1679999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.09</v>
+      </c>
+      <c r="D8">
+        <v>2.9790000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.614E-2</v>
+      </c>
+      <c r="F8">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="G8">
+        <v>1.5339999999999999E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.9890000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.08</v>
+      </c>
+      <c r="C9">
+        <v>0.11</v>
+      </c>
+      <c r="D9">
+        <v>4.5310000000000003E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.916E-2</v>
+      </c>
+      <c r="F9">
+        <v>9.8390000000000005E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.3990000000000001E-2</v>
+      </c>
+      <c r="H9">
+        <v>3.4610000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.09</v>
+      </c>
+      <c r="C10">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="D10">
+        <v>6.7430000000000004E-2</v>
+      </c>
+      <c r="E10">
+        <v>6.0569999999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.122</v>
+      </c>
+      <c r="G10">
+        <v>3.6749999999999998E-2</v>
+      </c>
+      <c r="H10">
+        <v>5.423E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="D11">
+        <v>9.5979999999999996E-2</v>
+      </c>
+      <c r="E11">
+        <v>8.7410000000000002E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="G11">
+        <v>5.7090000000000002E-2</v>
+      </c>
+      <c r="H11">
+        <v>8.7590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.11</v>
+      </c>
+      <c r="C12">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.1308</v>
+      </c>
+      <c r="E12">
+        <v>0.1202</v>
+      </c>
+      <c r="F12">
+        <v>0.1905</v>
+      </c>
+      <c r="G12">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.1356</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.12</v>
+      </c>
+      <c r="C13">
+        <v>0.20680000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.16489999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.2407</v>
+      </c>
+      <c r="G13">
+        <v>0.13009999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.1996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.13</v>
+      </c>
+      <c r="C14">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.21029999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="G14">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.29599999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.2671</v>
+      </c>
+      <c r="F15">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.2843</v>
+      </c>
+      <c r="H15">
+        <v>0.40889999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.15</v>
+      </c>
+      <c r="C16">
+        <v>0.29509999999999997</v>
+      </c>
+      <c r="D16">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="E16">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="F16">
+        <v>0.5242</v>
+      </c>
+      <c r="G16">
+        <v>0.41510000000000002</v>
+      </c>
+      <c r="H16">
+        <v>0.55640000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.16</v>
+      </c>
+      <c r="C17">
+        <v>0.3362</v>
+      </c>
+      <c r="D17">
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="G17">
+        <v>0.57630000000000003</v>
+      </c>
+      <c r="H17">
+        <v>0.72960000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.17</v>
+      </c>
+      <c r="C18">
+        <v>0.3851</v>
+      </c>
+      <c r="D18">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.51439999999999997</v>
+      </c>
+      <c r="F18">
+        <v>0.8881</v>
+      </c>
+      <c r="G18">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="H18">
+        <v>0.94169999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.18</v>
+      </c>
+      <c r="C19">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="E19">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="F19">
+        <v>1.147</v>
+      </c>
+      <c r="G19">
+        <v>1.0589999999999999</v>
+      </c>
+      <c r="H19">
+        <v>1.204</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.19</v>
+      </c>
+      <c r="C20">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="D20">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="E20">
+        <v>0.7379</v>
+      </c>
+      <c r="F20">
+        <v>1.46</v>
+      </c>
+      <c r="G20">
+        <v>1.3919999999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.4950000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>0.63119999999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.878</v>
+      </c>
+      <c r="E21">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="F21">
+        <v>1.841</v>
+      </c>
+      <c r="G21">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.21</v>
+      </c>
+      <c r="C22">
+        <v>0.754</v>
+      </c>
+      <c r="D22">
+        <v>1.024</v>
+      </c>
+      <c r="E22">
+        <v>1.038</v>
+      </c>
+      <c r="F22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G22">
+        <v>2.2759999999999998</v>
+      </c>
+      <c r="H22">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.22</v>
+      </c>
+      <c r="C23">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="D23">
+        <v>1.181</v>
+      </c>
+      <c r="E23">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="F23">
+        <v>2.819</v>
+      </c>
+      <c r="G23">
+        <v>2.8530000000000002</v>
+      </c>
+      <c r="H23">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.23</v>
+      </c>
+      <c r="C24">
+        <v>1.097</v>
+      </c>
+      <c r="D24">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="E24">
+        <v>1.403</v>
+      </c>
+      <c r="F24">
+        <v>3.4220000000000002</v>
+      </c>
+      <c r="G24">
+        <v>3.5590000000000002</v>
+      </c>
+      <c r="H24">
+        <v>3.1480000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.24</v>
+      </c>
+      <c r="C25">
+        <v>1.325</v>
+      </c>
+      <c r="D25">
+        <v>1.538</v>
+      </c>
+      <c r="E25">
+        <v>1.599</v>
+      </c>
+      <c r="F25">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="G25">
+        <v>4.43</v>
+      </c>
+      <c r="H25">
+        <v>3.7040000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>1.61</v>
+      </c>
+      <c r="D26">
+        <v>1.732</v>
+      </c>
+      <c r="E26">
+        <v>1.821</v>
+      </c>
+      <c r="F26">
+        <v>4.944</v>
+      </c>
+      <c r="G26">
+        <v>5.4809999999999999</v>
+      </c>
+      <c r="H26">
+        <v>4.327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.26</v>
+      </c>
+      <c r="C27">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="D27">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="E27">
+        <v>2.0529999999999999</v>
+      </c>
+      <c r="F27">
+        <v>5.8440000000000003</v>
+      </c>
+      <c r="G27">
+        <v>6.7619999999999996</v>
+      </c>
+      <c r="H27">
+        <v>5.0359999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.27</v>
+      </c>
+      <c r="C28">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="D28">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="E28">
+        <v>2.2989999999999999</v>
+      </c>
+      <c r="F28">
+        <v>6.8609999999999998</v>
+      </c>
+      <c r="G28">
+        <v>8.3040000000000003</v>
+      </c>
+      <c r="H28">
+        <v>5.8040000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C29">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="D29">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="E29">
+        <v>2.581</v>
+      </c>
+      <c r="F29">
+        <v>7.9749999999999996</v>
+      </c>
+      <c r="G29">
+        <v>10.23</v>
+      </c>
+      <c r="H29">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C30">
+        <v>3.246</v>
+      </c>
+      <c r="D30">
+        <v>2.6890000000000001</v>
+      </c>
+      <c r="E30">
+        <v>2.8889999999999998</v>
+      </c>
+      <c r="F30">
+        <v>9.1880000000000006</v>
+      </c>
+      <c r="G30">
+        <v>12.67</v>
+      </c>
+      <c r="H30">
+        <v>7.5359999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="C31">
+        <v>3.8380000000000001</v>
+      </c>
+      <c r="D31">
+        <v>2.9729999999999999</v>
+      </c>
+      <c r="E31">
+        <v>3.218</v>
+      </c>
+      <c r="F31">
+        <v>10.51</v>
+      </c>
+      <c r="G31">
+        <v>15.86</v>
+      </c>
+      <c r="H31">
+        <v>8.5559999999999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.31</v>
+      </c>
+      <c r="C32">
+        <v>4.4619999999999997</v>
+      </c>
+      <c r="D32">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="E32">
+        <v>3.556</v>
+      </c>
+      <c r="F32">
+        <v>11.95</v>
+      </c>
+      <c r="G32">
+        <v>20.04</v>
+      </c>
+      <c r="H32">
+        <v>9.6829999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.32</v>
+      </c>
+      <c r="C33">
+        <v>5.2190000000000003</v>
+      </c>
+      <c r="D33">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="E33">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="F33">
+        <v>13.54</v>
+      </c>
+      <c r="G33">
+        <v>25.74</v>
+      </c>
+      <c r="H33">
+        <v>10.94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.33</v>
+      </c>
+      <c r="C34">
+        <v>5.9749999999999996</v>
+      </c>
+      <c r="D34">
+        <v>4.0289999999999999</v>
+      </c>
+      <c r="E34">
+        <v>4.3259999999999996</v>
+      </c>
+      <c r="F34">
+        <v>15.27</v>
+      </c>
+      <c r="G34">
+        <v>33.97</v>
+      </c>
+      <c r="H34">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.34</v>
+      </c>
+      <c r="C35">
+        <v>6.8979999999999997</v>
+      </c>
+      <c r="D35">
+        <v>4.4219999999999997</v>
+      </c>
+      <c r="E35">
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="F35">
+        <v>17.14</v>
+      </c>
+      <c r="G35">
+        <v>46.11</v>
+      </c>
+      <c r="H35">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.35</v>
+      </c>
+      <c r="C36">
+        <v>7.8540000000000001</v>
+      </c>
+      <c r="D36">
+        <v>4.8380000000000001</v>
+      </c>
+      <c r="E36">
+        <v>5.24</v>
+      </c>
+      <c r="F36">
+        <v>19.14</v>
+      </c>
+      <c r="G36">
+        <v>64.67</v>
+      </c>
+      <c r="H36">
+        <v>15.34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.36</v>
+      </c>
+      <c r="C37">
+        <v>8.9789999999999992</v>
+      </c>
+      <c r="D37">
+        <v>5.2830000000000004</v>
+      </c>
+      <c r="E37">
+        <v>5.7439999999999998</v>
+      </c>
+      <c r="F37">
+        <v>21.36</v>
+      </c>
+      <c r="G37">
+        <v>94.64</v>
+      </c>
+      <c r="H37">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.37</v>
+      </c>
+      <c r="C38">
+        <v>10.15</v>
+      </c>
+      <c r="D38">
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="E38">
+        <v>6.3239999999999998</v>
+      </c>
+      <c r="F38">
+        <v>23.69</v>
+      </c>
+      <c r="G38">
+        <v>150.6</v>
+      </c>
+      <c r="H38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.38</v>
+      </c>
+      <c r="C39">
+        <v>11.44</v>
+      </c>
+      <c r="D39">
+        <v>6.3049999999999997</v>
+      </c>
+      <c r="E39">
+        <v>6.9089999999999998</v>
+      </c>
+      <c r="F39">
+        <v>26.27</v>
+      </c>
+      <c r="G39">
+        <v>307.5</v>
+      </c>
+      <c r="H39">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.39</v>
+      </c>
+      <c r="C40">
+        <v>12.88</v>
+      </c>
+      <c r="D40">
+        <v>6.8719999999999999</v>
+      </c>
+      <c r="E40">
+        <v>7.54</v>
+      </c>
+      <c r="F40">
+        <v>29.05</v>
+      </c>
+      <c r="H40">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.4</v>
+      </c>
+      <c r="C41">
+        <v>14.4</v>
+      </c>
+      <c r="D41">
+        <v>7.49</v>
+      </c>
+      <c r="E41">
+        <v>8.2479999999999993</v>
+      </c>
+      <c r="F41">
+        <v>32.020000000000003</v>
+      </c>
+      <c r="H41">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.41</v>
+      </c>
+      <c r="C42">
+        <v>15.97</v>
+      </c>
+      <c r="D42">
+        <v>8.1359999999999992</v>
+      </c>
+      <c r="E42">
+        <v>9.0210000000000008</v>
+      </c>
+      <c r="F42">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="H42">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.42</v>
+      </c>
+      <c r="C43">
+        <v>17.73</v>
+      </c>
+      <c r="D43">
+        <v>8.8119999999999994</v>
+      </c>
+      <c r="E43">
+        <v>9.8529999999999998</v>
+      </c>
+      <c r="F43">
+        <v>38.72</v>
+      </c>
+      <c r="H43">
+        <v>31.54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.43</v>
+      </c>
+      <c r="C44">
+        <v>19.579999999999998</v>
+      </c>
+      <c r="D44">
+        <v>9.5589999999999993</v>
+      </c>
+      <c r="E44">
+        <v>10.7</v>
+      </c>
+      <c r="F44">
+        <v>42.49</v>
+      </c>
+      <c r="H44">
+        <v>34.68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.44</v>
+      </c>
+      <c r="C45">
+        <v>21.56</v>
+      </c>
+      <c r="D45">
+        <v>10.38</v>
+      </c>
+      <c r="E45">
+        <v>11.65</v>
+      </c>
+      <c r="F45">
+        <v>46.57</v>
+      </c>
+      <c r="H45">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.45</v>
+      </c>
+      <c r="C46">
+        <v>23.65</v>
+      </c>
+      <c r="D46">
+        <v>11.23</v>
+      </c>
+      <c r="E46">
+        <v>12.65</v>
+      </c>
+      <c r="F46">
+        <v>50.92</v>
+      </c>
+      <c r="H46">
+        <v>41.84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.46</v>
+      </c>
+      <c r="C47">
+        <v>25.87</v>
+      </c>
+      <c r="D47">
+        <v>12.15</v>
+      </c>
+      <c r="E47">
+        <v>13.7</v>
+      </c>
+      <c r="F47">
+        <v>55.55</v>
+      </c>
+      <c r="H47">
+        <v>45.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.47</v>
+      </c>
+      <c r="C48">
+        <v>28.26</v>
+      </c>
+      <c r="D48">
+        <v>13.13</v>
+      </c>
+      <c r="E48">
+        <v>14.82</v>
+      </c>
+      <c r="F48">
+        <v>60.58</v>
+      </c>
+      <c r="H48">
+        <v>50.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.48</v>
+      </c>
+      <c r="C49">
+        <v>30.78</v>
+      </c>
+      <c r="D49">
+        <v>14.18</v>
+      </c>
+      <c r="E49">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="F49">
+        <v>66.040000000000006</v>
+      </c>
+      <c r="H49">
+        <v>55.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.49</v>
+      </c>
+      <c r="C50">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="D50">
+        <v>15.3</v>
+      </c>
+      <c r="E50">
+        <v>17.32</v>
+      </c>
+      <c r="F50">
+        <v>71.89</v>
+      </c>
+      <c r="H50">
+        <v>60.49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.5</v>
+      </c>
+      <c r="C51">
+        <v>36.22</v>
+      </c>
+      <c r="D51">
+        <v>16.53</v>
+      </c>
+      <c r="E51">
+        <v>18.72</v>
+      </c>
+      <c r="F51">
+        <v>78.3</v>
+      </c>
+      <c r="H51">
+        <v>66.09</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.51</v>
+      </c>
+      <c r="C52">
+        <v>39.21</v>
+      </c>
+      <c r="D52">
+        <v>17.84</v>
+      </c>
+      <c r="E52">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="F52">
+        <v>85.33</v>
+      </c>
+      <c r="H52">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.52</v>
+      </c>
+      <c r="C53">
+        <v>42.54</v>
+      </c>
+      <c r="D53">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="E53">
+        <v>21.95</v>
+      </c>
+      <c r="F53">
+        <v>93.11</v>
+      </c>
+      <c r="H53">
+        <v>78.94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0.53</v>
+      </c>
+      <c r="C54">
+        <v>45.92</v>
+      </c>
+      <c r="D54">
+        <v>20.75</v>
+      </c>
+      <c r="E54">
+        <v>23.79</v>
+      </c>
+      <c r="F54">
+        <v>101.4</v>
+      </c>
+      <c r="H54">
+        <v>86.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0.54</v>
+      </c>
+      <c r="C55">
+        <v>49.57</v>
+      </c>
+      <c r="D55">
+        <v>22.4</v>
+      </c>
+      <c r="E55">
+        <v>25.73</v>
+      </c>
+      <c r="F55">
+        <v>110.4</v>
+      </c>
+      <c r="H55">
+        <v>94.11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C56">
+        <v>53.3</v>
+      </c>
+      <c r="D56">
+        <v>24.2</v>
+      </c>
+      <c r="E56">
+        <v>27.85</v>
+      </c>
+      <c r="F56">
+        <v>120.2</v>
+      </c>
+      <c r="H56">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C57">
+        <v>57.08</v>
+      </c>
+      <c r="D57">
+        <v>26.06</v>
+      </c>
+      <c r="E57">
+        <v>30.18</v>
+      </c>
+      <c r="F57">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="H57">
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C58">
+        <v>61.53</v>
+      </c>
+      <c r="D58">
+        <v>28.11</v>
+      </c>
+      <c r="E58">
+        <v>32.65</v>
+      </c>
+      <c r="F58">
+        <v>143.30000000000001</v>
+      </c>
+      <c r="H58">
+        <v>122.7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C59">
+        <v>66.11</v>
+      </c>
+      <c r="D59">
+        <v>30.35</v>
+      </c>
+      <c r="E59">
+        <v>35.380000000000003</v>
+      </c>
+      <c r="F59">
+        <v>156.4</v>
+      </c>
+      <c r="H59">
+        <v>134.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>0.59</v>
+      </c>
+      <c r="C60">
+        <v>70.73</v>
+      </c>
+      <c r="D60">
+        <v>32.74</v>
+      </c>
+      <c r="E60">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F60">
+        <v>171.1</v>
+      </c>
+      <c r="H60">
+        <v>146.69999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>0.6</v>
+      </c>
+      <c r="C61">
+        <v>75.84</v>
+      </c>
+      <c r="D61">
+        <v>35.340000000000003</v>
+      </c>
+      <c r="E61">
+        <v>41.43</v>
+      </c>
+      <c r="F61">
+        <v>187.7</v>
+      </c>
+      <c r="H61">
+        <v>160.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>0.61</v>
+      </c>
+      <c r="C62">
+        <v>81.44</v>
+      </c>
+      <c r="D62">
+        <v>38.18</v>
+      </c>
+      <c r="E62">
+        <v>44.83</v>
+      </c>
+      <c r="F62">
+        <v>206</v>
+      </c>
+      <c r="H62">
+        <v>175.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>0.62</v>
+      </c>
+      <c r="C63">
+        <v>86.95</v>
+      </c>
+      <c r="D63">
+        <v>41.19</v>
+      </c>
+      <c r="E63">
+        <v>48.56</v>
+      </c>
+      <c r="F63">
+        <v>226.5</v>
+      </c>
+      <c r="H63">
+        <v>191.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>0.63</v>
+      </c>
+      <c r="C64">
+        <v>92.84</v>
+      </c>
+      <c r="D64">
+        <v>44.51</v>
+      </c>
+      <c r="E64">
+        <v>52.79</v>
+      </c>
+      <c r="F64">
+        <v>249.6</v>
+      </c>
+      <c r="H64">
+        <v>210.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>0.64</v>
+      </c>
+      <c r="C65">
+        <v>99.54</v>
+      </c>
+      <c r="D65">
+        <v>48.06</v>
+      </c>
+      <c r="E65">
+        <v>57.37</v>
+      </c>
+      <c r="F65">
+        <v>276.10000000000002</v>
+      </c>
+      <c r="H65">
+        <v>230.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>0.65</v>
+      </c>
+      <c r="C66">
+        <v>106.5</v>
+      </c>
+      <c r="D66">
+        <v>51.98</v>
+      </c>
+      <c r="E66">
+        <v>62.44</v>
+      </c>
+      <c r="F66">
+        <v>306.2</v>
+      </c>
+      <c r="H66">
+        <v>253.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>0.66</v>
+      </c>
+      <c r="C67">
+        <v>113.8</v>
+      </c>
+      <c r="D67">
+        <v>56.2</v>
+      </c>
+      <c r="E67">
+        <v>67.94</v>
+      </c>
+      <c r="F67">
+        <v>341.5</v>
+      </c>
+      <c r="H67">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>0.67</v>
+      </c>
+      <c r="C68">
+        <v>122.1</v>
+      </c>
+      <c r="D68">
+        <v>60.82</v>
+      </c>
+      <c r="E68">
+        <v>74.11</v>
+      </c>
+      <c r="F68">
+        <v>404.6</v>
+      </c>
+      <c r="H68">
+        <v>307.60000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>0.68</v>
+      </c>
+      <c r="C69">
+        <v>130.4</v>
+      </c>
+      <c r="D69">
+        <v>65.819999999999993</v>
+      </c>
+      <c r="E69">
+        <v>80.98</v>
+      </c>
+      <c r="H69">
+        <v>339.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>0.69</v>
+      </c>
+      <c r="C70">
+        <v>138.9</v>
+      </c>
+      <c r="D70">
+        <v>71.45</v>
+      </c>
+      <c r="E70">
+        <v>88.7</v>
+      </c>
+      <c r="H70">
+        <v>375.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>0.7</v>
+      </c>
+      <c r="C71">
+        <v>149.1</v>
+      </c>
+      <c r="D71">
+        <v>77.650000000000006</v>
+      </c>
+      <c r="E71">
+        <v>97.29</v>
+      </c>
+      <c r="H71">
+        <v>416.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>0.71</v>
+      </c>
+      <c r="C72">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="D72">
+        <v>84.25</v>
+      </c>
+      <c r="E72">
+        <v>107.3</v>
+      </c>
+      <c r="H72">
+        <v>461.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.72</v>
+      </c>
+      <c r="C73">
+        <v>171.1</v>
+      </c>
+      <c r="D73">
+        <v>91.67</v>
+      </c>
+      <c r="E73">
+        <v>118.3</v>
+      </c>
+      <c r="H73">
+        <v>513.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>0.73</v>
+      </c>
+      <c r="C74">
+        <v>183.9</v>
+      </c>
+      <c r="D74">
+        <v>100.1</v>
+      </c>
+      <c r="E74">
+        <v>130.5</v>
+      </c>
+      <c r="H74">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.74</v>
+      </c>
+      <c r="C75">
+        <v>197.7</v>
+      </c>
+      <c r="D75">
+        <v>109.4</v>
+      </c>
+      <c r="E75">
+        <v>144.4</v>
+      </c>
+      <c r="H75">
+        <v>633.29999999999995</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>0.75</v>
+      </c>
+      <c r="C76">
+        <v>212.4</v>
+      </c>
+      <c r="D76">
+        <v>119.6</v>
+      </c>
+      <c r="E76">
+        <v>159.9</v>
+      </c>
+      <c r="H76">
+        <v>703.8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>0.76</v>
+      </c>
+      <c r="C77">
+        <v>229.3</v>
+      </c>
+      <c r="D77">
+        <v>131.1</v>
+      </c>
+      <c r="E77">
+        <v>178</v>
+      </c>
+      <c r="H77">
+        <v>783.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.77</v>
+      </c>
+      <c r="C78">
+        <v>248</v>
+      </c>
+      <c r="D78">
+        <v>143.9</v>
+      </c>
+      <c r="E78">
+        <v>199.2</v>
+      </c>
+      <c r="H78">
+        <v>871.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>0.78</v>
+      </c>
+      <c r="C79">
+        <v>268.5</v>
+      </c>
+      <c r="D79">
+        <v>158.5</v>
+      </c>
+      <c r="E79">
+        <v>224.9</v>
+      </c>
+      <c r="H79">
+        <v>970.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>0.79</v>
+      </c>
+      <c r="C80">
+        <v>292.7</v>
+      </c>
+      <c r="D80">
+        <v>175.1</v>
+      </c>
+      <c r="E80">
+        <v>254.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>0.8</v>
+      </c>
+      <c r="C81">
+        <v>342.5</v>
+      </c>
+      <c r="D81">
+        <v>194.2</v>
+      </c>
+      <c r="E81">
+        <v>290.2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>0.81</v>
+      </c>
+      <c r="D82">
+        <v>215.8</v>
+      </c>
+      <c r="E82">
+        <v>334.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>0.82</v>
+      </c>
+      <c r="D83">
+        <v>240.3</v>
+      </c>
+      <c r="E83">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>0.83</v>
+      </c>
+      <c r="D84">
+        <v>269</v>
+      </c>
+      <c r="E84">
+        <v>456.7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>0.84</v>
+      </c>
+      <c r="D85">
+        <v>302.8</v>
+      </c>
+      <c r="E85">
+        <v>545.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>0.85</v>
+      </c>
+      <c r="D86">
+        <v>341.7</v>
+      </c>
+      <c r="E86">
+        <v>667.6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>0.86</v>
+      </c>
+      <c r="D87">
+        <v>388.5</v>
+      </c>
+      <c r="E87">
+        <v>865.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>0.87</v>
+      </c>
+      <c r="D88">
+        <v>442.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>0.88</v>
+      </c>
+      <c r="D89">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.89</v>
+      </c>
+      <c r="D90">
+        <v>591.70000000000005</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>0.9</v>
+      </c>
+      <c r="D91">
+        <v>692.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.91</v>
+      </c>
+      <c r="D92">
+        <v>819.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>0.92</v>
+      </c>
+      <c r="D93">
+        <v>988.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C0124-FDAB-4252-836F-9CFDB475E886}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8AE384-BC14-4D45-91D3-C60305BC66C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B2073-B9E8-46DB-9DB0-71ED9C91922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
@@ -1037,115 +1037,112 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="5">
-                  <c:v>1.516E-2</c:v>
+                  <c:v>1.5339999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.614E-2</c:v>
+                  <c:v>2.266E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.916E-2</c:v>
+                  <c:v>3.3000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0569999999999999E-2</c:v>
+                  <c:v>4.6829999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.7410000000000002E-2</c:v>
+                  <c:v>6.1190000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1202</c:v>
+                  <c:v>8.1079999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.16489999999999999</c:v>
+                  <c:v>0.1046</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.21029999999999999</c:v>
+                  <c:v>0.12870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2671</c:v>
+                  <c:v>0.15790000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.33400000000000002</c:v>
+                  <c:v>0.1946</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.41920000000000002</c:v>
+                  <c:v>0.23680000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.51439999999999997</c:v>
+                  <c:v>0.28460000000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.61539999999999995</c:v>
+                  <c:v>0.34079999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.7379</c:v>
+                  <c:v>0.40810000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.88560000000000005</c:v>
+                  <c:v>0.4899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.038</c:v>
+                  <c:v>0.57689999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.2130000000000001</c:v>
+                  <c:v>0.68110000000000004</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.403</c:v>
+                  <c:v>0.81289999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.599</c:v>
+                  <c:v>0.95940000000000003</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.821</c:v>
+                  <c:v>1.1279999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0529999999999999</c:v>
+                  <c:v>1.3340000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2989999999999999</c:v>
+                  <c:v>1.548</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.581</c:v>
+                  <c:v>1.7929999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8889999999999998</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.218</c:v>
+                  <c:v>2.4009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.556</c:v>
+                  <c:v>2.7679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.9249999999999998</c:v>
+                  <c:v>3.1880000000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.3259999999999996</c:v>
+                  <c:v>3.6619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.7690000000000001</c:v>
+                  <c:v>4.1689999999999996</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.24</c:v>
+                  <c:v>4.7380000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.7439999999999998</c:v>
+                  <c:v>5.3369999999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.3239999999999998</c:v>
+                  <c:v>5.9909999999999997</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.9089999999999998</c:v>
+                  <c:v>6.7069999999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.54</c:v>
+                  <c:v>7.4509999999999996</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.2479999999999993</c:v>
+                  <c:v>8.266</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.0210000000000008</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.8529999999999998</c:v>
+                  <c:v>9.1129999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5282,10 +5279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48A558-673B-4B1E-8FF7-FCB07FA6F0FA}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5367,7 +5364,7 @@
         <v>1.222E-2</v>
       </c>
       <c r="G7">
-        <v>1.516E-2</v>
+        <v>1.5339999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -5384,7 +5381,7 @@
         <v>2.3640000000000001E-2</v>
       </c>
       <c r="G8">
-        <v>2.614E-2</v>
+        <v>2.266E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5404,7 +5401,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
       <c r="G9">
-        <v>3.916E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5424,7 +5421,7 @@
         <v>6.012E-2</v>
       </c>
       <c r="G10">
-        <v>6.0569999999999999E-2</v>
+        <v>4.6829999999999997E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5447,7 +5444,7 @@
         <v>1.472E-2</v>
       </c>
       <c r="G11">
-        <v>8.7410000000000002E-2</v>
+        <v>6.1190000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5470,7 +5467,7 @@
         <v>2.3910000000000001E-2</v>
       </c>
       <c r="G12">
-        <v>0.1202</v>
+        <v>8.1079999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5493,7 +5490,7 @@
         <v>3.202E-2</v>
       </c>
       <c r="G13">
-        <v>0.16489999999999999</v>
+        <v>0.1046</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5513,7 +5510,7 @@
         <v>4.5400000000000003E-2</v>
       </c>
       <c r="G14">
-        <v>0.21029999999999999</v>
+        <v>0.12870000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5533,7 +5530,7 @@
         <v>6.0650000000000003E-2</v>
       </c>
       <c r="G15">
-        <v>0.2671</v>
+        <v>0.15790000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5553,7 +5550,7 @@
         <v>7.9920000000000005E-2</v>
       </c>
       <c r="G16">
-        <v>0.33400000000000002</v>
+        <v>0.1946</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5573,7 +5570,7 @@
         <v>0.1031</v>
       </c>
       <c r="G17">
-        <v>0.41920000000000002</v>
+        <v>0.23680000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5593,7 +5590,7 @@
         <v>0.1308</v>
       </c>
       <c r="G18">
-        <v>0.51439999999999997</v>
+        <v>0.28460000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5613,7 +5610,7 @@
         <v>0.1646</v>
       </c>
       <c r="G19">
-        <v>0.61539999999999995</v>
+        <v>0.34079999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5633,7 +5630,7 @@
         <v>0.20680000000000001</v>
       </c>
       <c r="G20">
-        <v>0.7379</v>
+        <v>0.40810000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5653,7 +5650,7 @@
         <v>0.26140000000000002</v>
       </c>
       <c r="G21">
-        <v>0.88560000000000005</v>
+        <v>0.4899</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5673,7 +5670,7 @@
         <v>0.31859999999999999</v>
       </c>
       <c r="G22">
-        <v>1.038</v>
+        <v>0.57689999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5693,7 +5690,7 @@
         <v>0.38900000000000001</v>
       </c>
       <c r="G23">
-        <v>1.2130000000000001</v>
+        <v>0.68110000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5713,7 +5710,7 @@
         <v>0.47089999999999999</v>
       </c>
       <c r="G24">
-        <v>1.403</v>
+        <v>0.81289999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5733,7 +5730,7 @@
         <v>0.56610000000000005</v>
       </c>
       <c r="G25">
-        <v>1.599</v>
+        <v>0.95940000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5753,7 +5750,7 @@
         <v>0.68659999999999999</v>
       </c>
       <c r="G26">
-        <v>1.821</v>
+        <v>1.1279999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5773,7 +5770,7 @@
         <v>0.83130000000000004</v>
       </c>
       <c r="G27">
-        <v>2.0529999999999999</v>
+        <v>1.3340000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5793,7 +5790,7 @@
         <v>1.002</v>
       </c>
       <c r="G28">
-        <v>2.2989999999999999</v>
+        <v>1.548</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5813,7 +5810,7 @@
         <v>1.204</v>
       </c>
       <c r="G29">
-        <v>2.581</v>
+        <v>1.7929999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5833,7 +5830,7 @@
         <v>1.4319999999999999</v>
       </c>
       <c r="G30">
-        <v>2.8889999999999998</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5853,7 +5850,7 @@
         <v>1.704</v>
       </c>
       <c r="G31">
-        <v>3.218</v>
+        <v>2.4009999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5873,7 +5870,7 @@
         <v>2.0009999999999999</v>
       </c>
       <c r="G32">
-        <v>3.556</v>
+        <v>2.7679999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5893,7 +5890,7 @@
         <v>2.34</v>
       </c>
       <c r="G33">
-        <v>3.9249999999999998</v>
+        <v>3.1880000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -5913,7 +5910,7 @@
         <v>2.7370000000000001</v>
       </c>
       <c r="G34">
-        <v>4.3259999999999996</v>
+        <v>3.6619999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -5933,7 +5930,7 @@
         <v>3.1989999999999998</v>
       </c>
       <c r="G35">
-        <v>4.7690000000000001</v>
+        <v>4.1689999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -5953,7 +5950,7 @@
         <v>3.7120000000000002</v>
       </c>
       <c r="G36">
-        <v>5.24</v>
+        <v>4.7380000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -5973,7 +5970,7 @@
         <v>4.3129999999999997</v>
       </c>
       <c r="G37">
-        <v>5.7439999999999998</v>
+        <v>5.3369999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -5993,7 +5990,7 @@
         <v>5.0250000000000004</v>
       </c>
       <c r="G38">
-        <v>6.3239999999999998</v>
+        <v>5.9909999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6013,7 +6010,7 @@
         <v>5.8220000000000001</v>
       </c>
       <c r="G39">
-        <v>6.9089999999999998</v>
+        <v>6.7069999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6033,7 +6030,7 @@
         <v>6.7119999999999997</v>
       </c>
       <c r="G40">
-        <v>7.54</v>
+        <v>7.4509999999999996</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6053,7 +6050,7 @@
         <v>7.7889999999999997</v>
       </c>
       <c r="G41">
-        <v>8.2479999999999993</v>
+        <v>8.266</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6073,7 +6070,7 @@
         <v>9.0039999999999996</v>
       </c>
       <c r="G42">
-        <v>9.0210000000000008</v>
+        <v>9.1129999999999995</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6083,9 +6080,6 @@
       <c r="C43">
         <v>9.0830000000000002</v>
       </c>
-      <c r="G43">
-        <v>9.8529999999999998</v>
-      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -6093,221 +6087,6 @@
       </c>
       <c r="C44">
         <v>9.6159999999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G45">
-        <v>11.65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G46">
-        <v>12.65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G47">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G48">
-        <v>14.82</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49">
-        <v>16.010000000000002</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50">
-        <v>17.32</v>
-      </c>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G51">
-        <v>18.72</v>
-      </c>
-    </row>
-    <row r="52" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G52">
-        <v>20.260000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G53">
-        <v>21.95</v>
-      </c>
-    </row>
-    <row r="54" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G54">
-        <v>23.79</v>
-      </c>
-    </row>
-    <row r="55" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G55">
-        <v>25.73</v>
-      </c>
-    </row>
-    <row r="56" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G56">
-        <v>27.85</v>
-      </c>
-    </row>
-    <row r="57" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G57">
-        <v>30.18</v>
-      </c>
-    </row>
-    <row r="58" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G58">
-        <v>32.65</v>
-      </c>
-    </row>
-    <row r="59" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G59">
-        <v>35.380000000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G60">
-        <v>38.299999999999997</v>
-      </c>
-    </row>
-    <row r="61" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G61">
-        <v>41.43</v>
-      </c>
-    </row>
-    <row r="62" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G62">
-        <v>44.83</v>
-      </c>
-    </row>
-    <row r="63" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G63">
-        <v>48.56</v>
-      </c>
-    </row>
-    <row r="64" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G64">
-        <v>52.79</v>
-      </c>
-    </row>
-    <row r="65" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G65">
-        <v>57.37</v>
-      </c>
-    </row>
-    <row r="66" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G66">
-        <v>62.44</v>
-      </c>
-    </row>
-    <row r="67" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G67">
-        <v>67.94</v>
-      </c>
-    </row>
-    <row r="68" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G68">
-        <v>74.11</v>
-      </c>
-    </row>
-    <row r="69" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G69">
-        <v>80.98</v>
-      </c>
-    </row>
-    <row r="70" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G70">
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="71" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G71">
-        <v>97.29</v>
-      </c>
-    </row>
-    <row r="72" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G72">
-        <v>107.3</v>
-      </c>
-    </row>
-    <row r="73" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G73">
-        <v>118.3</v>
-      </c>
-    </row>
-    <row r="74" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G74">
-        <v>130.5</v>
-      </c>
-    </row>
-    <row r="75" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G75">
-        <v>144.4</v>
-      </c>
-    </row>
-    <row r="76" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G76">
-        <v>159.9</v>
-      </c>
-    </row>
-    <row r="77" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G77">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G78">
-        <v>199.2</v>
-      </c>
-    </row>
-    <row r="79" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G79">
-        <v>224.9</v>
-      </c>
-    </row>
-    <row r="80" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G80">
-        <v>254.4</v>
-      </c>
-    </row>
-    <row r="81" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G81">
-        <v>290.2</v>
-      </c>
-    </row>
-    <row r="82" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G82">
-        <v>334.4</v>
-      </c>
-    </row>
-    <row r="83" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G83">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="84" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G84">
-        <v>456.7</v>
-      </c>
-    </row>
-    <row r="85" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G85">
-        <v>545.5</v>
-      </c>
-    </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G86">
-        <v>667.6</v>
-      </c>
-    </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G87">
-        <v>865.2</v>
       </c>
     </row>
   </sheetData>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32B2073-B9E8-46DB-9DB0-71ED9C91922F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A5F507-50F5-4079-8D73-97F1FC9E3854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
     <sheet name="SF" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
-    <sheet name="Fold" sheetId="10" r:id="rId3"/>
+    <sheet name="Fold" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>fpepq</t>
   </si>
@@ -58,19 +57,7 @@
     <t>Reseek</t>
   </si>
   <si>
-    <t>blastp</t>
-  </si>
-  <si>
     <t>GTalign</t>
-  </si>
-  <si>
-    <t>foldseek</t>
-  </si>
-  <si>
-    <t>devreseek-fast</t>
-  </si>
-  <si>
-    <t>devreseek-sensitive</t>
   </si>
 </sst>
 </file>
@@ -2643,7 +2630,7 @@
                   <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="sysDot"/>
+              <a:prstDash val="dash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2923,8 +2910,165 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GTalign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold!$G$2:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="5">
+                  <c:v>1.516E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.614E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.916E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0569999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.7410000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1202</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2671</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.33400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51439999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61539999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7379</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.88560000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.038</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2130000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.599</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.821</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.581</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8889999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.218</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.556</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.9249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3259999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.7439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.3239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.9089999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.54</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.2479999999999993</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0210000000000008</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.8529999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16FC-45E1-AA5C-364965FBEF56}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Fold!$E$1</c:f>
@@ -3182,7 +3326,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Fold!$F$1</c:f>
@@ -5281,7 +5425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48A558-673B-4B1E-8FF7-FCB07FA6F0FA}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -5313,7 +5457,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6096,1766 +6240,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D3F74A-42AA-4145-8ECA-556423A39940}">
-  <dimension ref="A1:H93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C0124-FDAB-4252-836F-9CFDB475E886}">
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.03</v>
-      </c>
-      <c r="C4">
-        <v>1.1599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.04</v>
-      </c>
-      <c r="B5">
-        <v>0.10059999999999999</v>
-      </c>
-      <c r="C5">
-        <v>3.184E-2</v>
-      </c>
-      <c r="F5">
-        <v>2.078E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.05</v>
-      </c>
-      <c r="B6">
-        <v>7.5990000000000002</v>
-      </c>
-      <c r="C6">
-        <v>5.2179999999999997E-2</v>
-      </c>
-      <c r="D6">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="F6">
-        <v>4.0759999999999998E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.06</v>
-      </c>
-      <c r="C7">
-        <v>7.0019999999999999E-2</v>
-      </c>
-      <c r="D7">
-        <v>1.7840000000000002E-2</v>
-      </c>
-      <c r="E7">
-        <v>1.516E-2</v>
-      </c>
-      <c r="F7">
-        <v>5.985E-2</v>
-      </c>
-      <c r="H7">
-        <v>1.1679999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C8">
-        <v>0.09</v>
-      </c>
-      <c r="D8">
-        <v>2.9790000000000001E-2</v>
-      </c>
-      <c r="E8">
-        <v>2.614E-2</v>
-      </c>
-      <c r="F8">
-        <v>7.7600000000000002E-2</v>
-      </c>
-      <c r="G8">
-        <v>1.5339999999999999E-2</v>
-      </c>
-      <c r="H8">
-        <v>1.9890000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.08</v>
-      </c>
-      <c r="C9">
-        <v>0.11</v>
-      </c>
-      <c r="D9">
-        <v>4.5310000000000003E-2</v>
-      </c>
-      <c r="E9">
-        <v>3.916E-2</v>
-      </c>
-      <c r="F9">
-        <v>9.8390000000000005E-2</v>
-      </c>
-      <c r="G9">
-        <v>2.3990000000000001E-2</v>
-      </c>
-      <c r="H9">
-        <v>3.4610000000000002E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.09</v>
-      </c>
-      <c r="C10">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="D10">
-        <v>6.7430000000000004E-2</v>
-      </c>
-      <c r="E10">
-        <v>6.0569999999999999E-2</v>
-      </c>
-      <c r="F10">
-        <v>0.122</v>
-      </c>
-      <c r="G10">
-        <v>3.6749999999999998E-2</v>
-      </c>
-      <c r="H10">
-        <v>5.423E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>0.1</v>
-      </c>
-      <c r="C11">
-        <v>0.15129999999999999</v>
-      </c>
-      <c r="D11">
-        <v>9.5979999999999996E-2</v>
-      </c>
-      <c r="E11">
-        <v>8.7410000000000002E-2</v>
-      </c>
-      <c r="F11">
-        <v>0.15409999999999999</v>
-      </c>
-      <c r="G11">
-        <v>5.7090000000000002E-2</v>
-      </c>
-      <c r="H11">
-        <v>8.7590000000000001E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.11</v>
-      </c>
-      <c r="C12">
-        <v>0.17899999999999999</v>
-      </c>
-      <c r="D12">
-        <v>0.1308</v>
-      </c>
-      <c r="E12">
-        <v>0.1202</v>
-      </c>
-      <c r="F12">
-        <v>0.1905</v>
-      </c>
-      <c r="G12">
-        <v>8.6699999999999999E-2</v>
-      </c>
-      <c r="H12">
-        <v>0.1356</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.12</v>
-      </c>
-      <c r="C13">
-        <v>0.20680000000000001</v>
-      </c>
-      <c r="D13">
-        <v>0.17799999999999999</v>
-      </c>
-      <c r="E13">
-        <v>0.16489999999999999</v>
-      </c>
-      <c r="F13">
-        <v>0.2407</v>
-      </c>
-      <c r="G13">
-        <v>0.13009999999999999</v>
-      </c>
-      <c r="H13">
-        <v>0.1996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>0.13</v>
-      </c>
-      <c r="C14">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D14">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="E14">
-        <v>0.21029999999999999</v>
-      </c>
-      <c r="F14">
-        <v>0.30919999999999997</v>
-      </c>
-      <c r="G14">
-        <v>0.19450000000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.29599999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.26550000000000001</v>
-      </c>
-      <c r="D15">
-        <v>0.28649999999999998</v>
-      </c>
-      <c r="E15">
-        <v>0.2671</v>
-      </c>
-      <c r="F15">
-        <v>0.39729999999999999</v>
-      </c>
-      <c r="G15">
-        <v>0.2843</v>
-      </c>
-      <c r="H15">
-        <v>0.40889999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0.15</v>
-      </c>
-      <c r="C16">
-        <v>0.29509999999999997</v>
-      </c>
-      <c r="D16">
-        <v>0.34910000000000002</v>
-      </c>
-      <c r="E16">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="F16">
-        <v>0.5242</v>
-      </c>
-      <c r="G16">
-        <v>0.41510000000000002</v>
-      </c>
-      <c r="H16">
-        <v>0.55640000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0.16</v>
-      </c>
-      <c r="C17">
-        <v>0.3362</v>
-      </c>
-      <c r="D17">
-        <v>0.43780000000000002</v>
-      </c>
-      <c r="E17">
-        <v>0.41920000000000002</v>
-      </c>
-      <c r="F17">
-        <v>0.68600000000000005</v>
-      </c>
-      <c r="G17">
-        <v>0.57630000000000003</v>
-      </c>
-      <c r="H17">
-        <v>0.72960000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>0.17</v>
-      </c>
-      <c r="C18">
-        <v>0.3851</v>
-      </c>
-      <c r="D18">
-        <v>0.53069999999999995</v>
-      </c>
-      <c r="E18">
-        <v>0.51439999999999997</v>
-      </c>
-      <c r="F18">
-        <v>0.8881</v>
-      </c>
-      <c r="G18">
-        <v>0.79010000000000002</v>
-      </c>
-      <c r="H18">
-        <v>0.94169999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>0.18</v>
-      </c>
-      <c r="C19">
-        <v>0.44769999999999999</v>
-      </c>
-      <c r="D19">
-        <v>0.63549999999999995</v>
-      </c>
-      <c r="E19">
-        <v>0.61539999999999995</v>
-      </c>
-      <c r="F19">
-        <v>1.147</v>
-      </c>
-      <c r="G19">
-        <v>1.0589999999999999</v>
-      </c>
-      <c r="H19">
-        <v>1.204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>0.19</v>
-      </c>
-      <c r="C20">
-        <v>0.52880000000000005</v>
-      </c>
-      <c r="D20">
-        <v>0.74839999999999995</v>
-      </c>
-      <c r="E20">
-        <v>0.7379</v>
-      </c>
-      <c r="F20">
-        <v>1.46</v>
-      </c>
-      <c r="G20">
-        <v>1.3919999999999999</v>
-      </c>
-      <c r="H20">
-        <v>1.4950000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>0.2</v>
-      </c>
-      <c r="C21">
-        <v>0.63119999999999998</v>
-      </c>
-      <c r="D21">
-        <v>0.878</v>
-      </c>
-      <c r="E21">
-        <v>0.88560000000000005</v>
-      </c>
-      <c r="F21">
-        <v>1.841</v>
-      </c>
-      <c r="G21">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="H21">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.21</v>
-      </c>
-      <c r="C22">
-        <v>0.754</v>
-      </c>
-      <c r="D22">
-        <v>1.024</v>
-      </c>
-      <c r="E22">
-        <v>1.038</v>
-      </c>
-      <c r="F22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G22">
-        <v>2.2759999999999998</v>
-      </c>
-      <c r="H22">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>0.22</v>
-      </c>
-      <c r="C23">
-        <v>0.90880000000000005</v>
-      </c>
-      <c r="D23">
-        <v>1.181</v>
-      </c>
-      <c r="E23">
-        <v>1.2130000000000001</v>
-      </c>
-      <c r="F23">
-        <v>2.819</v>
-      </c>
-      <c r="G23">
-        <v>2.8530000000000002</v>
-      </c>
-      <c r="H23">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>0.23</v>
-      </c>
-      <c r="C24">
-        <v>1.097</v>
-      </c>
-      <c r="D24">
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="E24">
-        <v>1.403</v>
-      </c>
-      <c r="F24">
-        <v>3.4220000000000002</v>
-      </c>
-      <c r="G24">
-        <v>3.5590000000000002</v>
-      </c>
-      <c r="H24">
-        <v>3.1480000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>0.24</v>
-      </c>
-      <c r="C25">
-        <v>1.325</v>
-      </c>
-      <c r="D25">
-        <v>1.538</v>
-      </c>
-      <c r="E25">
-        <v>1.599</v>
-      </c>
-      <c r="F25">
-        <v>4.1360000000000001</v>
-      </c>
-      <c r="G25">
-        <v>4.43</v>
-      </c>
-      <c r="H25">
-        <v>3.7040000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0.25</v>
-      </c>
-      <c r="C26">
-        <v>1.61</v>
-      </c>
-      <c r="D26">
-        <v>1.732</v>
-      </c>
-      <c r="E26">
-        <v>1.821</v>
-      </c>
-      <c r="F26">
-        <v>4.944</v>
-      </c>
-      <c r="G26">
-        <v>5.4809999999999999</v>
-      </c>
-      <c r="H26">
-        <v>4.327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>0.26</v>
-      </c>
-      <c r="C27">
-        <v>1.9259999999999999</v>
-      </c>
-      <c r="D27">
-        <v>1.9450000000000001</v>
-      </c>
-      <c r="E27">
-        <v>2.0529999999999999</v>
-      </c>
-      <c r="F27">
-        <v>5.8440000000000003</v>
-      </c>
-      <c r="G27">
-        <v>6.7619999999999996</v>
-      </c>
-      <c r="H27">
-        <v>5.0359999999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0.27</v>
-      </c>
-      <c r="C28">
-        <v>2.2919999999999998</v>
-      </c>
-      <c r="D28">
-        <v>2.1779999999999999</v>
-      </c>
-      <c r="E28">
-        <v>2.2989999999999999</v>
-      </c>
-      <c r="F28">
-        <v>6.8609999999999998</v>
-      </c>
-      <c r="G28">
-        <v>8.3040000000000003</v>
-      </c>
-      <c r="H28">
-        <v>5.8040000000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C29">
-        <v>2.7309999999999999</v>
-      </c>
-      <c r="D29">
-        <v>2.4260000000000002</v>
-      </c>
-      <c r="E29">
-        <v>2.581</v>
-      </c>
-      <c r="F29">
-        <v>7.9749999999999996</v>
-      </c>
-      <c r="G29">
-        <v>10.23</v>
-      </c>
-      <c r="H29">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C30">
-        <v>3.246</v>
-      </c>
-      <c r="D30">
-        <v>2.6890000000000001</v>
-      </c>
-      <c r="E30">
-        <v>2.8889999999999998</v>
-      </c>
-      <c r="F30">
-        <v>9.1880000000000006</v>
-      </c>
-      <c r="G30">
-        <v>12.67</v>
-      </c>
-      <c r="H30">
-        <v>7.5359999999999996</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>0.3</v>
-      </c>
-      <c r="C31">
-        <v>3.8380000000000001</v>
-      </c>
-      <c r="D31">
-        <v>2.9729999999999999</v>
-      </c>
-      <c r="E31">
-        <v>3.218</v>
-      </c>
-      <c r="F31">
-        <v>10.51</v>
-      </c>
-      <c r="G31">
-        <v>15.86</v>
-      </c>
-      <c r="H31">
-        <v>8.5559999999999992</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>0.31</v>
-      </c>
-      <c r="C32">
-        <v>4.4619999999999997</v>
-      </c>
-      <c r="D32">
-        <v>3.3010000000000002</v>
-      </c>
-      <c r="E32">
-        <v>3.556</v>
-      </c>
-      <c r="F32">
-        <v>11.95</v>
-      </c>
-      <c r="G32">
-        <v>20.04</v>
-      </c>
-      <c r="H32">
-        <v>9.6829999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>0.32</v>
-      </c>
-      <c r="C33">
-        <v>5.2190000000000003</v>
-      </c>
-      <c r="D33">
-        <v>3.6440000000000001</v>
-      </c>
-      <c r="E33">
-        <v>3.9249999999999998</v>
-      </c>
-      <c r="F33">
-        <v>13.54</v>
-      </c>
-      <c r="G33">
-        <v>25.74</v>
-      </c>
-      <c r="H33">
-        <v>10.94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>0.33</v>
-      </c>
-      <c r="C34">
-        <v>5.9749999999999996</v>
-      </c>
-      <c r="D34">
-        <v>4.0289999999999999</v>
-      </c>
-      <c r="E34">
-        <v>4.3259999999999996</v>
-      </c>
-      <c r="F34">
-        <v>15.27</v>
-      </c>
-      <c r="G34">
-        <v>33.97</v>
-      </c>
-      <c r="H34">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>0.34</v>
-      </c>
-      <c r="C35">
-        <v>6.8979999999999997</v>
-      </c>
-      <c r="D35">
-        <v>4.4219999999999997</v>
-      </c>
-      <c r="E35">
-        <v>4.7690000000000001</v>
-      </c>
-      <c r="F35">
-        <v>17.14</v>
-      </c>
-      <c r="G35">
-        <v>46.11</v>
-      </c>
-      <c r="H35">
-        <v>13.76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>0.35</v>
-      </c>
-      <c r="C36">
-        <v>7.8540000000000001</v>
-      </c>
-      <c r="D36">
-        <v>4.8380000000000001</v>
-      </c>
-      <c r="E36">
-        <v>5.24</v>
-      </c>
-      <c r="F36">
-        <v>19.14</v>
-      </c>
-      <c r="G36">
-        <v>64.67</v>
-      </c>
-      <c r="H36">
-        <v>15.34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>0.36</v>
-      </c>
-      <c r="C37">
-        <v>8.9789999999999992</v>
-      </c>
-      <c r="D37">
-        <v>5.2830000000000004</v>
-      </c>
-      <c r="E37">
-        <v>5.7439999999999998</v>
-      </c>
-      <c r="F37">
-        <v>21.36</v>
-      </c>
-      <c r="G37">
-        <v>94.64</v>
-      </c>
-      <c r="H37">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>0.37</v>
-      </c>
-      <c r="C38">
-        <v>10.15</v>
-      </c>
-      <c r="D38">
-        <v>5.7839999999999998</v>
-      </c>
-      <c r="E38">
-        <v>6.3239999999999998</v>
-      </c>
-      <c r="F38">
-        <v>23.69</v>
-      </c>
-      <c r="G38">
-        <v>150.6</v>
-      </c>
-      <c r="H38">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0.38</v>
-      </c>
-      <c r="C39">
-        <v>11.44</v>
-      </c>
-      <c r="D39">
-        <v>6.3049999999999997</v>
-      </c>
-      <c r="E39">
-        <v>6.9089999999999998</v>
-      </c>
-      <c r="F39">
-        <v>26.27</v>
-      </c>
-      <c r="G39">
-        <v>307.5</v>
-      </c>
-      <c r="H39">
-        <v>21.11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0.39</v>
-      </c>
-      <c r="C40">
-        <v>12.88</v>
-      </c>
-      <c r="D40">
-        <v>6.8719999999999999</v>
-      </c>
-      <c r="E40">
-        <v>7.54</v>
-      </c>
-      <c r="F40">
-        <v>29.05</v>
-      </c>
-      <c r="H40">
-        <v>23.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0.4</v>
-      </c>
-      <c r="C41">
-        <v>14.4</v>
-      </c>
-      <c r="D41">
-        <v>7.49</v>
-      </c>
-      <c r="E41">
-        <v>8.2479999999999993</v>
-      </c>
-      <c r="F41">
-        <v>32.020000000000003</v>
-      </c>
-      <c r="H41">
-        <v>25.88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0.41</v>
-      </c>
-      <c r="C42">
-        <v>15.97</v>
-      </c>
-      <c r="D42">
-        <v>8.1359999999999992</v>
-      </c>
-      <c r="E42">
-        <v>9.0210000000000008</v>
-      </c>
-      <c r="F42">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="H42">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0.42</v>
-      </c>
-      <c r="C43">
-        <v>17.73</v>
-      </c>
-      <c r="D43">
-        <v>8.8119999999999994</v>
-      </c>
-      <c r="E43">
-        <v>9.8529999999999998</v>
-      </c>
-      <c r="F43">
-        <v>38.72</v>
-      </c>
-      <c r="H43">
-        <v>31.54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0.43</v>
-      </c>
-      <c r="C44">
-        <v>19.579999999999998</v>
-      </c>
-      <c r="D44">
-        <v>9.5589999999999993</v>
-      </c>
-      <c r="E44">
-        <v>10.7</v>
-      </c>
-      <c r="F44">
-        <v>42.49</v>
-      </c>
-      <c r="H44">
-        <v>34.68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0.44</v>
-      </c>
-      <c r="C45">
-        <v>21.56</v>
-      </c>
-      <c r="D45">
-        <v>10.38</v>
-      </c>
-      <c r="E45">
-        <v>11.65</v>
-      </c>
-      <c r="F45">
-        <v>46.57</v>
-      </c>
-      <c r="H45">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>0.45</v>
-      </c>
-      <c r="C46">
-        <v>23.65</v>
-      </c>
-      <c r="D46">
-        <v>11.23</v>
-      </c>
-      <c r="E46">
-        <v>12.65</v>
-      </c>
-      <c r="F46">
-        <v>50.92</v>
-      </c>
-      <c r="H46">
-        <v>41.84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.46</v>
-      </c>
-      <c r="C47">
-        <v>25.87</v>
-      </c>
-      <c r="D47">
-        <v>12.15</v>
-      </c>
-      <c r="E47">
-        <v>13.7</v>
-      </c>
-      <c r="F47">
-        <v>55.55</v>
-      </c>
-      <c r="H47">
-        <v>45.96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0.47</v>
-      </c>
-      <c r="C48">
-        <v>28.26</v>
-      </c>
-      <c r="D48">
-        <v>13.13</v>
-      </c>
-      <c r="E48">
-        <v>14.82</v>
-      </c>
-      <c r="F48">
-        <v>60.58</v>
-      </c>
-      <c r="H48">
-        <v>50.46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0.48</v>
-      </c>
-      <c r="C49">
-        <v>30.78</v>
-      </c>
-      <c r="D49">
-        <v>14.18</v>
-      </c>
-      <c r="E49">
-        <v>16.010000000000002</v>
-      </c>
-      <c r="F49">
-        <v>66.040000000000006</v>
-      </c>
-      <c r="H49">
-        <v>55.31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>0.49</v>
-      </c>
-      <c r="C50">
-        <v>33.450000000000003</v>
-      </c>
-      <c r="D50">
-        <v>15.3</v>
-      </c>
-      <c r="E50">
-        <v>17.32</v>
-      </c>
-      <c r="F50">
-        <v>71.89</v>
-      </c>
-      <c r="H50">
-        <v>60.49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>0.5</v>
-      </c>
-      <c r="C51">
-        <v>36.22</v>
-      </c>
-      <c r="D51">
-        <v>16.53</v>
-      </c>
-      <c r="E51">
-        <v>18.72</v>
-      </c>
-      <c r="F51">
-        <v>78.3</v>
-      </c>
-      <c r="H51">
-        <v>66.09</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0.51</v>
-      </c>
-      <c r="C52">
-        <v>39.21</v>
-      </c>
-      <c r="D52">
-        <v>17.84</v>
-      </c>
-      <c r="E52">
-        <v>20.260000000000002</v>
-      </c>
-      <c r="F52">
-        <v>85.33</v>
-      </c>
-      <c r="H52">
-        <v>72.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0.52</v>
-      </c>
-      <c r="C53">
-        <v>42.54</v>
-      </c>
-      <c r="D53">
-        <v>19.260000000000002</v>
-      </c>
-      <c r="E53">
-        <v>21.95</v>
-      </c>
-      <c r="F53">
-        <v>93.11</v>
-      </c>
-      <c r="H53">
-        <v>78.94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0.53</v>
-      </c>
-      <c r="C54">
-        <v>45.92</v>
-      </c>
-      <c r="D54">
-        <v>20.75</v>
-      </c>
-      <c r="E54">
-        <v>23.79</v>
-      </c>
-      <c r="F54">
-        <v>101.4</v>
-      </c>
-      <c r="H54">
-        <v>86.25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>0.54</v>
-      </c>
-      <c r="C55">
-        <v>49.57</v>
-      </c>
-      <c r="D55">
-        <v>22.4</v>
-      </c>
-      <c r="E55">
-        <v>25.73</v>
-      </c>
-      <c r="F55">
-        <v>110.4</v>
-      </c>
-      <c r="H55">
-        <v>94.11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C56">
-        <v>53.3</v>
-      </c>
-      <c r="D56">
-        <v>24.2</v>
-      </c>
-      <c r="E56">
-        <v>27.85</v>
-      </c>
-      <c r="F56">
-        <v>120.2</v>
-      </c>
-      <c r="H56">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C57">
-        <v>57.08</v>
-      </c>
-      <c r="D57">
-        <v>26.06</v>
-      </c>
-      <c r="E57">
-        <v>30.18</v>
-      </c>
-      <c r="F57">
-        <v>131.19999999999999</v>
-      </c>
-      <c r="H57">
-        <v>112.4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C58">
-        <v>61.53</v>
-      </c>
-      <c r="D58">
-        <v>28.11</v>
-      </c>
-      <c r="E58">
-        <v>32.65</v>
-      </c>
-      <c r="F58">
-        <v>143.30000000000001</v>
-      </c>
-      <c r="H58">
-        <v>122.7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C59">
-        <v>66.11</v>
-      </c>
-      <c r="D59">
-        <v>30.35</v>
-      </c>
-      <c r="E59">
-        <v>35.380000000000003</v>
-      </c>
-      <c r="F59">
-        <v>156.4</v>
-      </c>
-      <c r="H59">
-        <v>134.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>0.59</v>
-      </c>
-      <c r="C60">
-        <v>70.73</v>
-      </c>
-      <c r="D60">
-        <v>32.74</v>
-      </c>
-      <c r="E60">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="F60">
-        <v>171.1</v>
-      </c>
-      <c r="H60">
-        <v>146.69999999999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>0.6</v>
-      </c>
-      <c r="C61">
-        <v>75.84</v>
-      </c>
-      <c r="D61">
-        <v>35.340000000000003</v>
-      </c>
-      <c r="E61">
-        <v>41.43</v>
-      </c>
-      <c r="F61">
-        <v>187.7</v>
-      </c>
-      <c r="H61">
-        <v>160.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>0.61</v>
-      </c>
-      <c r="C62">
-        <v>81.44</v>
-      </c>
-      <c r="D62">
-        <v>38.18</v>
-      </c>
-      <c r="E62">
-        <v>44.83</v>
-      </c>
-      <c r="F62">
-        <v>206</v>
-      </c>
-      <c r="H62">
-        <v>175.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>0.62</v>
-      </c>
-      <c r="C63">
-        <v>86.95</v>
-      </c>
-      <c r="D63">
-        <v>41.19</v>
-      </c>
-      <c r="E63">
-        <v>48.56</v>
-      </c>
-      <c r="F63">
-        <v>226.5</v>
-      </c>
-      <c r="H63">
-        <v>191.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>0.63</v>
-      </c>
-      <c r="C64">
-        <v>92.84</v>
-      </c>
-      <c r="D64">
-        <v>44.51</v>
-      </c>
-      <c r="E64">
-        <v>52.79</v>
-      </c>
-      <c r="F64">
-        <v>249.6</v>
-      </c>
-      <c r="H64">
-        <v>210.2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>0.64</v>
-      </c>
-      <c r="C65">
-        <v>99.54</v>
-      </c>
-      <c r="D65">
-        <v>48.06</v>
-      </c>
-      <c r="E65">
-        <v>57.37</v>
-      </c>
-      <c r="F65">
-        <v>276.10000000000002</v>
-      </c>
-      <c r="H65">
-        <v>230.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>0.65</v>
-      </c>
-      <c r="C66">
-        <v>106.5</v>
-      </c>
-      <c r="D66">
-        <v>51.98</v>
-      </c>
-      <c r="E66">
-        <v>62.44</v>
-      </c>
-      <c r="F66">
-        <v>306.2</v>
-      </c>
-      <c r="H66">
-        <v>253.6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>0.66</v>
-      </c>
-      <c r="C67">
-        <v>113.8</v>
-      </c>
-      <c r="D67">
-        <v>56.2</v>
-      </c>
-      <c r="E67">
-        <v>67.94</v>
-      </c>
-      <c r="F67">
-        <v>341.5</v>
-      </c>
-      <c r="H67">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>0.67</v>
-      </c>
-      <c r="C68">
-        <v>122.1</v>
-      </c>
-      <c r="D68">
-        <v>60.82</v>
-      </c>
-      <c r="E68">
-        <v>74.11</v>
-      </c>
-      <c r="F68">
-        <v>404.6</v>
-      </c>
-      <c r="H68">
-        <v>307.60000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>0.68</v>
-      </c>
-      <c r="C69">
-        <v>130.4</v>
-      </c>
-      <c r="D69">
-        <v>65.819999999999993</v>
-      </c>
-      <c r="E69">
-        <v>80.98</v>
-      </c>
-      <c r="H69">
-        <v>339.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>0.69</v>
-      </c>
-      <c r="C70">
-        <v>138.9</v>
-      </c>
-      <c r="D70">
-        <v>71.45</v>
-      </c>
-      <c r="E70">
-        <v>88.7</v>
-      </c>
-      <c r="H70">
-        <v>375.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>0.7</v>
-      </c>
-      <c r="C71">
-        <v>149.1</v>
-      </c>
-      <c r="D71">
-        <v>77.650000000000006</v>
-      </c>
-      <c r="E71">
-        <v>97.29</v>
-      </c>
-      <c r="H71">
-        <v>416.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>0.71</v>
-      </c>
-      <c r="C72">
-        <v>159.69999999999999</v>
-      </c>
-      <c r="D72">
-        <v>84.25</v>
-      </c>
-      <c r="E72">
-        <v>107.3</v>
-      </c>
-      <c r="H72">
-        <v>461.7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>0.72</v>
-      </c>
-      <c r="C73">
-        <v>171.1</v>
-      </c>
-      <c r="D73">
-        <v>91.67</v>
-      </c>
-      <c r="E73">
-        <v>118.3</v>
-      </c>
-      <c r="H73">
-        <v>513.1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>0.73</v>
-      </c>
-      <c r="C74">
-        <v>183.9</v>
-      </c>
-      <c r="D74">
-        <v>100.1</v>
-      </c>
-      <c r="E74">
-        <v>130.5</v>
-      </c>
-      <c r="H74">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>0.74</v>
-      </c>
-      <c r="C75">
-        <v>197.7</v>
-      </c>
-      <c r="D75">
-        <v>109.4</v>
-      </c>
-      <c r="E75">
-        <v>144.4</v>
-      </c>
-      <c r="H75">
-        <v>633.29999999999995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>0.75</v>
-      </c>
-      <c r="C76">
-        <v>212.4</v>
-      </c>
-      <c r="D76">
-        <v>119.6</v>
-      </c>
-      <c r="E76">
-        <v>159.9</v>
-      </c>
-      <c r="H76">
-        <v>703.8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>0.76</v>
-      </c>
-      <c r="C77">
-        <v>229.3</v>
-      </c>
-      <c r="D77">
-        <v>131.1</v>
-      </c>
-      <c r="E77">
-        <v>178</v>
-      </c>
-      <c r="H77">
-        <v>783.3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>0.77</v>
-      </c>
-      <c r="C78">
-        <v>248</v>
-      </c>
-      <c r="D78">
-        <v>143.9</v>
-      </c>
-      <c r="E78">
-        <v>199.2</v>
-      </c>
-      <c r="H78">
-        <v>871.3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>0.78</v>
-      </c>
-      <c r="C79">
-        <v>268.5</v>
-      </c>
-      <c r="D79">
-        <v>158.5</v>
-      </c>
-      <c r="E79">
-        <v>224.9</v>
-      </c>
-      <c r="H79">
-        <v>970.3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>0.79</v>
-      </c>
-      <c r="C80">
-        <v>292.7</v>
-      </c>
-      <c r="D80">
-        <v>175.1</v>
-      </c>
-      <c r="E80">
-        <v>254.4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>0.8</v>
-      </c>
-      <c r="C81">
-        <v>342.5</v>
-      </c>
-      <c r="D81">
-        <v>194.2</v>
-      </c>
-      <c r="E81">
-        <v>290.2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>0.81</v>
-      </c>
-      <c r="D82">
-        <v>215.8</v>
-      </c>
-      <c r="E82">
-        <v>334.4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>0.82</v>
-      </c>
-      <c r="D83">
-        <v>240.3</v>
-      </c>
-      <c r="E83">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>0.83</v>
-      </c>
-      <c r="D84">
-        <v>269</v>
-      </c>
-      <c r="E84">
-        <v>456.7</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>0.84</v>
-      </c>
-      <c r="D85">
-        <v>302.8</v>
-      </c>
-      <c r="E85">
-        <v>545.5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>0.85</v>
-      </c>
-      <c r="D86">
-        <v>341.7</v>
-      </c>
-      <c r="E86">
-        <v>667.6</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>0.86</v>
-      </c>
-      <c r="D87">
-        <v>388.5</v>
-      </c>
-      <c r="E87">
-        <v>865.2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>0.87</v>
-      </c>
-      <c r="D88">
-        <v>442.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>0.88</v>
-      </c>
-      <c r="D89">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>0.89</v>
-      </c>
-      <c r="D90">
-        <v>591.70000000000005</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>0.9</v>
-      </c>
-      <c r="D91">
-        <v>692.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>0.91</v>
-      </c>
-      <c r="D92">
-        <v>819.4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>0.92</v>
-      </c>
-      <c r="D93">
-        <v>988.7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C0124-FDAB-4252-836F-9CFDB475E886}">
-  <dimension ref="A1:F44"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7865,7 +6254,7 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7884,18 +6273,21 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.03</v>
       </c>
@@ -7903,7 +6295,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.04</v>
       </c>
@@ -7917,7 +6309,7 @@
         <v>2.078E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.05</v>
       </c>
@@ -7934,7 +6326,7 @@
         <v>4.0759999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.06</v>
       </c>
@@ -7947,8 +6339,11 @@
       <c r="E7">
         <v>5.985E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1.516E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7964,8 +6359,11 @@
       <c r="F8">
         <v>1.5339999999999999E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>2.614E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.08</v>
       </c>
@@ -7981,8 +6379,11 @@
       <c r="F9">
         <v>2.3990000000000001E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>3.916E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.09</v>
       </c>
@@ -7998,8 +6399,11 @@
       <c r="F10">
         <v>3.6749999999999998E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>6.0569999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -8015,8 +6419,11 @@
       <c r="F11">
         <v>5.7090000000000002E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>8.7410000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.11</v>
       </c>
@@ -8032,8 +6439,11 @@
       <c r="F12">
         <v>8.6699999999999999E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0.1202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.12</v>
       </c>
@@ -8049,8 +6459,11 @@
       <c r="F13">
         <v>0.13009999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0.16489999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.13</v>
       </c>
@@ -8066,8 +6479,11 @@
       <c r="F14">
         <v>0.19450000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0.21029999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.14000000000000001</v>
       </c>
@@ -8083,8 +6499,11 @@
       <c r="F15">
         <v>0.2843</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0.2671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.15</v>
       </c>
@@ -8100,8 +6519,11 @@
       <c r="F16">
         <v>0.41510000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.16</v>
       </c>
@@ -8117,8 +6539,11 @@
       <c r="F17">
         <v>0.57630000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0.41920000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.17</v>
       </c>
@@ -8134,8 +6559,11 @@
       <c r="F18">
         <v>0.79010000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0.51439999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.18</v>
       </c>
@@ -8151,8 +6579,11 @@
       <c r="F19">
         <v>1.0589999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0.61539999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.19</v>
       </c>
@@ -8168,8 +6599,11 @@
       <c r="F20">
         <v>1.3919999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0.7379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.2</v>
       </c>
@@ -8185,8 +6619,11 @@
       <c r="F21">
         <v>1.7989999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0.88560000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.21</v>
       </c>
@@ -8202,8 +6639,11 @@
       <c r="F22">
         <v>2.2759999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1.038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.22</v>
       </c>
@@ -8219,8 +6659,11 @@
       <c r="F23">
         <v>2.8530000000000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1.2130000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>0.23</v>
       </c>
@@ -8236,8 +6679,11 @@
       <c r="F24">
         <v>3.5590000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1.403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>0.24</v>
       </c>
@@ -8253,8 +6699,11 @@
       <c r="F25">
         <v>4.43</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1.599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -8270,8 +6719,11 @@
       <c r="F26">
         <v>5.4809999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1.821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0.26</v>
       </c>
@@ -8287,8 +6739,11 @@
       <c r="F27">
         <v>6.7619999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>2.0529999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0.27</v>
       </c>
@@ -8304,8 +6759,11 @@
       <c r="F28">
         <v>8.3040000000000003</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>2.2989999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0.28000000000000003</v>
       </c>
@@ -8318,8 +6776,11 @@
       <c r="E29">
         <v>7.9749999999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>2.581</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0.28999999999999998</v>
       </c>
@@ -8332,8 +6793,11 @@
       <c r="E30">
         <v>9.1880000000000006</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>2.8889999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0.3</v>
       </c>
@@ -8343,8 +6807,11 @@
       <c r="D31">
         <v>2.9729999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>3.218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>0.31</v>
       </c>
@@ -8354,8 +6821,11 @@
       <c r="D32">
         <v>3.3010000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>3.556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.32</v>
       </c>
@@ -8365,8 +6835,11 @@
       <c r="D33">
         <v>3.6440000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>3.9249999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.33</v>
       </c>
@@ -8376,8 +6849,11 @@
       <c r="D34">
         <v>4.0289999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>4.3259999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.34</v>
       </c>
@@ -8387,8 +6863,11 @@
       <c r="D35">
         <v>4.4219999999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>4.7690000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.35</v>
       </c>
@@ -8398,8 +6877,11 @@
       <c r="D36">
         <v>4.8380000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36</v>
       </c>
@@ -8409,56 +6891,77 @@
       <c r="D37">
         <v>5.2830000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>5.7439999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.37</v>
       </c>
       <c r="D38">
         <v>5.7839999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>6.3239999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.38</v>
       </c>
       <c r="D39">
         <v>6.3049999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>6.9089999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.39</v>
       </c>
       <c r="D40">
         <v>6.8719999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>7.54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.4</v>
       </c>
       <c r="D41">
         <v>7.49</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>8.2479999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.41</v>
       </c>
       <c r="D42">
         <v>8.1359999999999992</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>9.0210000000000008</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.42</v>
       </c>
       <c r="D43">
         <v>8.8119999999999994</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>9.8529999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.43</v>
       </c>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A5F507-50F5-4079-8D73-97F1FC9E3854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A896C3D1-E1C4-4A40-99D4-C59C56DBAEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="2070" yWindow="4335" windowWidth="23940" windowHeight="15420" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
     <sheet name="SF" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>fpepq</t>
   </si>
@@ -57,7 +57,10 @@
     <t>Reseek</t>
   </si>
   <si>
-    <t>GTalign</t>
+    <t>devreseek-sensitive</t>
+  </si>
+  <si>
+    <t>Reseek-sensitive</t>
   </si>
 </sst>
 </file>
@@ -988,162 +991,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="2"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>SF!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GTalign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>SF!$G$2:$G$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="5">
-                  <c:v>1.5339999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.266E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.3000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.6829999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1190000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1079999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1046</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12870000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.1946</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.23680000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.28460000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.34079999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.40810000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.4899</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.57689999999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.68110000000000004</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.81289999999999996</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.95940000000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.1279999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.3340000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.548</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.7929999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.08</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.4009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.7679999999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1880000000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.6619999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.1689999999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.7380000000000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.3369999999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.9909999999999997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.7069999999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.4509999999999996</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.266</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.1129999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F309-4D48-AF9D-5CD1365FCBDA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>SF!$D$1</c:f>
@@ -1435,7 +1284,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>SF!$F$1</c:f>
@@ -1604,100 +1453,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="9">
-                  <c:v>1.472E-2</c:v>
+                  <c:v>1.418E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3910000000000001E-2</c:v>
+                  <c:v>2.2919999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.202E-2</c:v>
+                  <c:v>3.4250000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.5400000000000003E-2</c:v>
+                  <c:v>4.8520000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0650000000000003E-2</c:v>
+                  <c:v>6.5379999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.9920000000000005E-2</c:v>
+                  <c:v>8.5089999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1031</c:v>
+                  <c:v>0.11310000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1308</c:v>
+                  <c:v>0.1457</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1646</c:v>
+                  <c:v>0.17899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20680000000000001</c:v>
+                  <c:v>0.22489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.26140000000000002</c:v>
+                  <c:v>0.28120000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.31859999999999999</c:v>
+                  <c:v>0.34720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.38900000000000001</c:v>
+                  <c:v>0.42899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.47089999999999999</c:v>
+                  <c:v>0.52859999999999996</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.56610000000000005</c:v>
+                  <c:v>0.6462</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.68659999999999999</c:v>
+                  <c:v>0.79359999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.83130000000000004</c:v>
+                  <c:v>0.96650000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.002</c:v>
+                  <c:v>1.18</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.204</c:v>
+                  <c:v>1.4330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.4319999999999999</c:v>
+                  <c:v>1.742</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.704</c:v>
+                  <c:v>2.1269999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.0009999999999999</c:v>
+                  <c:v>2.6160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.34</c:v>
+                  <c:v>3.2490000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.7370000000000001</c:v>
+                  <c:v>4.1619999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1989999999999998</c:v>
+                  <c:v>5.5209999999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.7120000000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.3129999999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.0250000000000004</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.8220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.7119999999999997</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.7889999999999997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.0039999999999996</c:v>
+                  <c:v>8.0180000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,6 +1537,147 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-BEEB-47F3-8EDD-6D5CB1B06A4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SF!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reseek-sensitive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SF!$G$2:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="9">
+                  <c:v>1.418E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.248E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2559999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7539999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.4579999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5269999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.1119</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1918</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.30509999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.3846</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4824</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.73080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.88729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.4990000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.073</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.762</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6869999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.2089999999999996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.8659999999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.2610000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.157</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.2430000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F309-4D48-AF9D-5CD1365FCBDA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2910,165 +2882,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Fold!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GTalign</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Fold!$G$2:$G$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="5">
-                  <c:v>1.516E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.614E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.916E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0569999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.7410000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.1202</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.16489999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.21029999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.2671</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.33400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.41920000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.51439999999999997</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.61539999999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.7379</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.88560000000000005</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.038</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2130000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.403</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.599</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.821</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.0529999999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.2989999999999999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.581</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8889999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.218</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.556</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.9249999999999998</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>4.3259999999999996</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.7690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.7439999999999998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.3239999999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.9089999999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.54</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.2479999999999993</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>9.0210000000000008</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>9.8529999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-16FC-45E1-AA5C-364965FBEF56}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Fold!$E$1</c:f>
@@ -3326,7 +3141,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Fold!$F$1</c:f>
@@ -3495,68 +3310,50 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
+                <c:pt idx="5">
+                  <c:v>1.1950000000000001E-2</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5339999999999999E-2</c:v>
+                  <c:v>2.069E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3990000000000001E-2</c:v>
+                  <c:v>3.175E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6749999999999998E-2</c:v>
+                  <c:v>5.058E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7090000000000002E-2</c:v>
+                  <c:v>7.9740000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.6699999999999999E-2</c:v>
+                  <c:v>0.1229</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13009999999999999</c:v>
+                  <c:v>0.2031</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.19450000000000001</c:v>
+                  <c:v>0.32400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2843</c:v>
+                  <c:v>0.50919999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41510000000000002</c:v>
+                  <c:v>0.78349999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.57630000000000003</c:v>
+                  <c:v>1.1950000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.79010000000000002</c:v>
+                  <c:v>1.8320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.0589999999999999</c:v>
+                  <c:v>2.911</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3919999999999999</c:v>
+                  <c:v>5.0650000000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7989999999999999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.2759999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.8530000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.5590000000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4.43</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.4809999999999999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.7619999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>8.3040000000000003</c:v>
+                  <c:v>22.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3565,6 +3362,165 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-7427-4367-9DFB-FBF38ECB406C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>devreseek-sensitive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold!$G$2:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="5">
+                  <c:v>1.044E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7659999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7650000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0320000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.164E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5170000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1409</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2903</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41060000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.57069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.76549999999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.643</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.097</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.8739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.1609999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.63</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.92</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>18.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.81</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32.94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.01</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>62.46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79.41</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>101.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>179.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>251.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-16FC-45E1-AA5C-364965FBEF56}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5024,16 +4980,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5425,14 +5381,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48A558-673B-4B1E-8FF7-FCB07FA6F0FA}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="15" max="15" width="15.140625" customWidth="1"/>
   </cols>
@@ -5457,7 +5412,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5507,9 +5462,6 @@
       <c r="E7">
         <v>1.222E-2</v>
       </c>
-      <c r="G7">
-        <v>1.5339999999999999E-2</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -5524,9 +5476,6 @@
       <c r="E8">
         <v>2.3640000000000001E-2</v>
       </c>
-      <c r="G8">
-        <v>2.266E-2</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -5544,9 +5493,6 @@
       <c r="E9">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="G9">
-        <v>3.3000000000000002E-2</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -5564,9 +5510,6 @@
       <c r="E10">
         <v>6.012E-2</v>
       </c>
-      <c r="G10">
-        <v>4.6829999999999997E-2</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -5585,10 +5528,10 @@
         <v>8.5900000000000004E-2</v>
       </c>
       <c r="F11">
-        <v>1.472E-2</v>
+        <v>1.418E-2</v>
       </c>
       <c r="G11">
-        <v>6.1190000000000001E-2</v>
+        <v>1.418E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5608,10 +5551,10 @@
         <v>0.11609999999999999</v>
       </c>
       <c r="F12">
-        <v>2.3910000000000001E-2</v>
+        <v>2.2919999999999999E-2</v>
       </c>
       <c r="G12">
-        <v>8.1079999999999999E-2</v>
+        <v>2.248E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5631,10 +5574,10 @@
         <v>0.15129999999999999</v>
       </c>
       <c r="F13">
-        <v>3.202E-2</v>
+        <v>3.4250000000000003E-2</v>
       </c>
       <c r="G13">
-        <v>0.1046</v>
+        <v>3.2559999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5651,10 +5594,10 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="F14">
-        <v>4.5400000000000003E-2</v>
+        <v>4.8520000000000001E-2</v>
       </c>
       <c r="G14">
-        <v>0.12870000000000001</v>
+        <v>4.7539999999999999E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5671,10 +5614,10 @@
         <v>0.2422</v>
       </c>
       <c r="F15">
-        <v>6.0650000000000003E-2</v>
+        <v>6.5379999999999994E-2</v>
       </c>
       <c r="G15">
-        <v>0.15790000000000001</v>
+        <v>6.4579999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5691,10 +5634,10 @@
         <v>0.29699999999999999</v>
       </c>
       <c r="F16">
-        <v>7.9920000000000005E-2</v>
+        <v>8.5089999999999999E-2</v>
       </c>
       <c r="G16">
-        <v>0.1946</v>
+        <v>8.5269999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5711,10 +5654,10 @@
         <v>0.36520000000000002</v>
       </c>
       <c r="F17">
-        <v>0.1031</v>
+        <v>0.11310000000000001</v>
       </c>
       <c r="G17">
-        <v>0.23680000000000001</v>
+        <v>0.1119</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5731,10 +5674,10 @@
         <v>0.43440000000000001</v>
       </c>
       <c r="F18">
-        <v>0.1308</v>
+        <v>0.1457</v>
       </c>
       <c r="G18">
-        <v>0.28460000000000002</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5751,10 +5694,10 @@
         <v>0.5151</v>
       </c>
       <c r="F19">
-        <v>0.1646</v>
+        <v>0.17899999999999999</v>
       </c>
       <c r="G19">
-        <v>0.34079999999999999</v>
+        <v>0.1918</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5771,10 +5714,10 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="F20">
-        <v>0.20680000000000001</v>
+        <v>0.22489999999999999</v>
       </c>
       <c r="G20">
-        <v>0.40810000000000002</v>
+        <v>0.24129999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5791,10 +5734,10 @@
         <v>0.70930000000000004</v>
       </c>
       <c r="F21">
-        <v>0.26140000000000002</v>
+        <v>0.28120000000000001</v>
       </c>
       <c r="G21">
-        <v>0.4899</v>
+        <v>0.30509999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5811,10 +5754,10 @@
         <v>0.82320000000000004</v>
       </c>
       <c r="F22">
-        <v>0.31859999999999999</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="G22">
-        <v>0.57689999999999997</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5831,10 +5774,10 @@
         <v>0.94620000000000004</v>
       </c>
       <c r="F23">
-        <v>0.38900000000000001</v>
+        <v>0.42899999999999999</v>
       </c>
       <c r="G23">
-        <v>0.68110000000000004</v>
+        <v>0.4824</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5851,10 +5794,10 @@
         <v>1.08</v>
       </c>
       <c r="F24">
-        <v>0.47089999999999999</v>
+        <v>0.52859999999999996</v>
       </c>
       <c r="G24">
-        <v>0.81289999999999996</v>
+        <v>0.59799999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5871,10 +5814,10 @@
         <v>1.238</v>
       </c>
       <c r="F25">
-        <v>0.56610000000000005</v>
+        <v>0.6462</v>
       </c>
       <c r="G25">
-        <v>0.95940000000000003</v>
+        <v>0.73080000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5891,10 +5834,10 @@
         <v>1.4179999999999999</v>
       </c>
       <c r="F26">
-        <v>0.68659999999999999</v>
+        <v>0.79359999999999997</v>
       </c>
       <c r="G26">
-        <v>1.1279999999999999</v>
+        <v>0.88729999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5911,10 +5854,10 @@
         <v>1.617</v>
       </c>
       <c r="F27">
-        <v>0.83130000000000004</v>
+        <v>0.96650000000000003</v>
       </c>
       <c r="G27">
-        <v>1.3340000000000001</v>
+        <v>1.0649999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5931,10 +5874,10 @@
         <v>1.83</v>
       </c>
       <c r="F28">
-        <v>1.002</v>
+        <v>1.18</v>
       </c>
       <c r="G28">
-        <v>1.548</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5951,10 +5894,10 @@
         <v>2.0739999999999998</v>
       </c>
       <c r="F29">
-        <v>1.204</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="G29">
-        <v>1.7929999999999999</v>
+        <v>1.4990000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5971,10 +5914,10 @@
         <v>2.3559999999999999</v>
       </c>
       <c r="F30">
-        <v>1.4319999999999999</v>
+        <v>1.742</v>
       </c>
       <c r="G30">
-        <v>2.08</v>
+        <v>1.7669999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5991,10 +5934,10 @@
         <v>2.6779999999999999</v>
       </c>
       <c r="F31">
-        <v>1.704</v>
+        <v>2.1269999999999998</v>
       </c>
       <c r="G31">
-        <v>2.4009999999999998</v>
+        <v>2.073</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6011,10 +5954,10 @@
         <v>3.036</v>
       </c>
       <c r="F32">
-        <v>2.0009999999999999</v>
+        <v>2.6160000000000001</v>
       </c>
       <c r="G32">
-        <v>2.7679999999999998</v>
+        <v>2.407</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6031,10 +5974,10 @@
         <v>3.4319999999999999</v>
       </c>
       <c r="F33">
-        <v>2.34</v>
+        <v>3.2490000000000001</v>
       </c>
       <c r="G33">
-        <v>3.1880000000000002</v>
+        <v>2.762</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6051,10 +5994,10 @@
         <v>3.8820000000000001</v>
       </c>
       <c r="F34">
-        <v>2.7370000000000001</v>
+        <v>4.1619999999999999</v>
       </c>
       <c r="G34">
-        <v>3.6619999999999999</v>
+        <v>3.2360000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6071,10 +6014,10 @@
         <v>4.3789999999999996</v>
       </c>
       <c r="F35">
-        <v>3.1989999999999998</v>
+        <v>5.5209999999999999</v>
       </c>
       <c r="G35">
-        <v>4.1689999999999996</v>
+        <v>3.6869999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6091,10 +6034,10 @@
         <v>4.9329999999999998</v>
       </c>
       <c r="F36">
-        <v>3.7120000000000002</v>
+        <v>8.0180000000000007</v>
       </c>
       <c r="G36">
-        <v>4.7380000000000004</v>
+        <v>4.2089999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6110,11 +6053,8 @@
       <c r="E37">
         <v>5.5570000000000004</v>
       </c>
-      <c r="F37">
-        <v>4.3129999999999997</v>
-      </c>
       <c r="G37">
-        <v>5.3369999999999997</v>
+        <v>4.8659999999999997</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6130,11 +6070,8 @@
       <c r="E38">
         <v>6.2430000000000003</v>
       </c>
-      <c r="F38">
-        <v>5.0250000000000004</v>
-      </c>
       <c r="G38">
-        <v>5.9909999999999997</v>
+        <v>5.5049999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6150,11 +6087,8 @@
       <c r="E39">
         <v>7.0279999999999996</v>
       </c>
-      <c r="F39">
-        <v>5.8220000000000001</v>
-      </c>
       <c r="G39">
-        <v>6.7069999999999999</v>
+        <v>6.2610000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6170,11 +6104,8 @@
       <c r="E40">
         <v>7.9009999999999998</v>
       </c>
-      <c r="F40">
-        <v>6.7119999999999997</v>
-      </c>
       <c r="G40">
-        <v>7.4509999999999996</v>
+        <v>7.157</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6190,11 +6121,8 @@
       <c r="E41">
         <v>8.85</v>
       </c>
-      <c r="F41">
-        <v>7.7889999999999997</v>
-      </c>
       <c r="G41">
-        <v>8.266</v>
+        <v>8.0990000000000002</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6210,11 +6138,8 @@
       <c r="E42">
         <v>9.9809999999999999</v>
       </c>
-      <c r="F42">
-        <v>9.0039999999999996</v>
-      </c>
       <c r="G42">
-        <v>9.1129999999999995</v>
+        <v>9.2430000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6241,17 +6166,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C0124-FDAB-4252-836F-9CFDB475E886}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -6339,8 +6263,11 @@
       <c r="E7">
         <v>5.985E-2</v>
       </c>
+      <c r="F7">
+        <v>1.1950000000000001E-2</v>
+      </c>
       <c r="G7">
-        <v>1.516E-2</v>
+        <v>1.044E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -6357,10 +6284,10 @@
         <v>7.7600000000000002E-2</v>
       </c>
       <c r="F8">
-        <v>1.5339999999999999E-2</v>
+        <v>2.069E-2</v>
       </c>
       <c r="G8">
-        <v>2.614E-2</v>
+        <v>1.7659999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6377,10 +6304,10 @@
         <v>9.8390000000000005E-2</v>
       </c>
       <c r="F9">
-        <v>2.3990000000000001E-2</v>
+        <v>3.175E-2</v>
       </c>
       <c r="G9">
-        <v>3.916E-2</v>
+        <v>2.7650000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6397,10 +6324,10 @@
         <v>0.122</v>
       </c>
       <c r="F10">
-        <v>3.6749999999999998E-2</v>
+        <v>5.058E-2</v>
       </c>
       <c r="G10">
-        <v>6.0569999999999999E-2</v>
+        <v>4.0320000000000002E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -6417,10 +6344,10 @@
         <v>0.15409999999999999</v>
       </c>
       <c r="F11">
-        <v>5.7090000000000002E-2</v>
+        <v>7.9740000000000005E-2</v>
       </c>
       <c r="G11">
-        <v>8.7410000000000002E-2</v>
+        <v>6.164E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6437,10 +6364,10 @@
         <v>0.1905</v>
       </c>
       <c r="F12">
-        <v>8.6699999999999999E-2</v>
+        <v>0.1229</v>
       </c>
       <c r="G12">
-        <v>0.1202</v>
+        <v>9.5170000000000005E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6457,10 +6384,10 @@
         <v>0.2407</v>
       </c>
       <c r="F13">
-        <v>0.13009999999999999</v>
+        <v>0.2031</v>
       </c>
       <c r="G13">
-        <v>0.16489999999999999</v>
+        <v>0.1409</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -6477,10 +6404,10 @@
         <v>0.30919999999999997</v>
       </c>
       <c r="F14">
-        <v>0.19450000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="G14">
-        <v>0.21029999999999999</v>
+        <v>0.20050000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6497,10 +6424,10 @@
         <v>0.39729999999999999</v>
       </c>
       <c r="F15">
-        <v>0.2843</v>
+        <v>0.50919999999999999</v>
       </c>
       <c r="G15">
-        <v>0.2671</v>
+        <v>0.2903</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6517,10 +6444,10 @@
         <v>0.5242</v>
       </c>
       <c r="F16">
-        <v>0.41510000000000002</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="G16">
-        <v>0.33400000000000002</v>
+        <v>0.41060000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6537,10 +6464,10 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="F17">
-        <v>0.57630000000000003</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="G17">
-        <v>0.41920000000000002</v>
+        <v>0.57069999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6557,10 +6484,10 @@
         <v>0.8881</v>
       </c>
       <c r="F18">
-        <v>0.79010000000000002</v>
+        <v>1.8320000000000001</v>
       </c>
       <c r="G18">
-        <v>0.51439999999999997</v>
+        <v>0.76549999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6577,10 +6504,10 @@
         <v>1.147</v>
       </c>
       <c r="F19">
-        <v>1.0589999999999999</v>
+        <v>2.911</v>
       </c>
       <c r="G19">
-        <v>0.61539999999999995</v>
+        <v>1.004</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6597,10 +6524,10 @@
         <v>1.46</v>
       </c>
       <c r="F20">
-        <v>1.3919999999999999</v>
+        <v>5.0650000000000004</v>
       </c>
       <c r="G20">
-        <v>0.7379</v>
+        <v>1.2849999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6617,10 +6544,10 @@
         <v>1.841</v>
       </c>
       <c r="F21">
-        <v>1.7989999999999999</v>
+        <v>22.65</v>
       </c>
       <c r="G21">
-        <v>0.88560000000000005</v>
+        <v>1.643</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6636,11 +6563,8 @@
       <c r="E22">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F22">
-        <v>2.2759999999999998</v>
-      </c>
       <c r="G22">
-        <v>1.038</v>
+        <v>2.097</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6656,11 +6580,8 @@
       <c r="E23">
         <v>2.819</v>
       </c>
-      <c r="F23">
-        <v>2.8530000000000002</v>
-      </c>
       <c r="G23">
-        <v>1.2130000000000001</v>
+        <v>2.6379999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6676,11 +6597,8 @@
       <c r="E24">
         <v>3.4220000000000002</v>
       </c>
-      <c r="F24">
-        <v>3.5590000000000002</v>
-      </c>
       <c r="G24">
-        <v>1.403</v>
+        <v>3.2290000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6696,11 +6614,8 @@
       <c r="E25">
         <v>4.1360000000000001</v>
       </c>
-      <c r="F25">
-        <v>4.43</v>
-      </c>
       <c r="G25">
-        <v>1.599</v>
+        <v>3.9580000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6716,11 +6631,8 @@
       <c r="E26">
         <v>4.944</v>
       </c>
-      <c r="F26">
-        <v>5.4809999999999999</v>
-      </c>
       <c r="G26">
-        <v>1.821</v>
+        <v>4.8739999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6736,11 +6648,8 @@
       <c r="E27">
         <v>5.8440000000000003</v>
       </c>
-      <c r="F27">
-        <v>6.7619999999999996</v>
-      </c>
       <c r="G27">
-        <v>2.0529999999999999</v>
+        <v>5.8250000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6756,11 +6665,8 @@
       <c r="E28">
         <v>6.8609999999999998</v>
       </c>
-      <c r="F28">
-        <v>8.3040000000000003</v>
-      </c>
       <c r="G28">
-        <v>2.2989999999999999</v>
+        <v>7.1609999999999996</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6777,7 +6683,7 @@
         <v>7.9749999999999996</v>
       </c>
       <c r="G29">
-        <v>2.581</v>
+        <v>8.6920000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6794,7 +6700,7 @@
         <v>9.1880000000000006</v>
       </c>
       <c r="G30">
-        <v>2.8889999999999998</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6808,7 +6714,7 @@
         <v>2.9729999999999999</v>
       </c>
       <c r="G31">
-        <v>3.218</v>
+        <v>12.63</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6822,7 +6728,7 @@
         <v>3.3010000000000002</v>
       </c>
       <c r="G32">
-        <v>3.556</v>
+        <v>14.92</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6836,7 +6742,7 @@
         <v>3.6440000000000001</v>
       </c>
       <c r="G33">
-        <v>3.9249999999999998</v>
+        <v>18.25</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6850,7 +6756,7 @@
         <v>4.0289999999999999</v>
       </c>
       <c r="G34">
-        <v>4.3259999999999996</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6864,7 +6770,7 @@
         <v>4.4219999999999997</v>
       </c>
       <c r="G35">
-        <v>4.7690000000000001</v>
+        <v>26.81</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6878,7 +6784,7 @@
         <v>4.8380000000000001</v>
       </c>
       <c r="G36">
-        <v>5.24</v>
+        <v>32.94</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6892,7 +6798,7 @@
         <v>5.2830000000000004</v>
       </c>
       <c r="G37">
-        <v>5.7439999999999998</v>
+        <v>40.25</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6903,7 +6809,7 @@
         <v>5.7839999999999998</v>
       </c>
       <c r="G38">
-        <v>6.3239999999999998</v>
+        <v>50.01</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6914,7 +6820,7 @@
         <v>6.3049999999999997</v>
       </c>
       <c r="G39">
-        <v>6.9089999999999998</v>
+        <v>62.46</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6925,7 +6831,7 @@
         <v>6.8719999999999999</v>
       </c>
       <c r="G40">
-        <v>7.54</v>
+        <v>79.41</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6936,7 +6842,7 @@
         <v>7.49</v>
       </c>
       <c r="G41">
-        <v>8.2479999999999993</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6947,7 +6853,7 @@
         <v>8.1359999999999992</v>
       </c>
       <c r="G42">
-        <v>9.0210000000000008</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6958,7 +6864,7 @@
         <v>8.8119999999999994</v>
       </c>
       <c r="G43">
-        <v>9.8529999999999998</v>
+        <v>179.5</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6967,6 +6873,14 @@
       </c>
       <c r="D44">
         <v>9.5589999999999993</v>
+      </c>
+      <c r="G44">
+        <v>251.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>603.79999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A896C3D1-E1C4-4A40-99D4-C59C56DBAEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E878C3BF-C421-4054-980D-8689E9C81298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4335" windowWidth="23940" windowHeight="15420" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="2070" yWindow="4335" windowWidth="23940" windowHeight="15420" activeTab="1" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
     <sheet name="SF" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>fpepq</t>
   </si>
@@ -60,7 +60,10 @@
     <t>devreseek-sensitive</t>
   </si>
   <si>
-    <t>Reseek-sensitive</t>
+    <t>devreseek</t>
+  </si>
+  <si>
+    <t>Reseek-sens</t>
   </si>
 </sst>
 </file>
@@ -1453,82 +1456,88 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="9">
-                  <c:v>1.418E-2</c:v>
+                  <c:v>1.204E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2919999999999999E-2</c:v>
+                  <c:v>1.9449999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4250000000000003E-2</c:v>
+                  <c:v>3.006E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.8520000000000001E-2</c:v>
+                  <c:v>4.2819999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.5379999999999994E-2</c:v>
+                  <c:v>5.7709999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5089999999999999E-2</c:v>
+                  <c:v>7.6439999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11310000000000001</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1457</c:v>
+                  <c:v>0.13289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.17899999999999999</c:v>
+                  <c:v>0.1643</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22489999999999999</c:v>
+                  <c:v>0.20669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28120000000000001</c:v>
+                  <c:v>0.25790000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.34720000000000001</c:v>
+                  <c:v>0.31940000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.42899999999999999</c:v>
+                  <c:v>0.39550000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.52859999999999996</c:v>
+                  <c:v>0.49099999999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.6462</c:v>
+                  <c:v>0.60060000000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.79359999999999997</c:v>
+                  <c:v>0.74009999999999998</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.96650000000000003</c:v>
+                  <c:v>0.90049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.18</c:v>
+                  <c:v>1.095</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4330000000000001</c:v>
+                  <c:v>1.33</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.742</c:v>
+                  <c:v>1.6080000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1269999999999998</c:v>
+                  <c:v>1.954</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.6160000000000001</c:v>
+                  <c:v>2.3690000000000002</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.2490000000000001</c:v>
+                  <c:v>2.8860000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.1619999999999999</c:v>
+                  <c:v>3.544</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.5209999999999999</c:v>
+                  <c:v>4.3579999999999997</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.0180000000000007</c:v>
+                  <c:v>5.3819999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.9409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.1479999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,7 +1558,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reseek-sensitive</c:v>
+                  <c:v>Reseek-sens</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1576,100 +1585,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="9">
-                  <c:v>1.418E-2</c:v>
+                  <c:v>1.1679999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.248E-2</c:v>
+                  <c:v>1.882E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2559999999999999E-2</c:v>
+                  <c:v>2.819E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7539999999999999E-2</c:v>
+                  <c:v>4.1300000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.4579999999999999E-2</c:v>
+                  <c:v>5.7270000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5269999999999999E-2</c:v>
+                  <c:v>7.671E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1119</c:v>
+                  <c:v>0.10349999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1474</c:v>
+                  <c:v>0.1366</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1918</c:v>
+                  <c:v>0.1804</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.24129999999999999</c:v>
+                  <c:v>0.22650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30509999999999998</c:v>
+                  <c:v>0.28560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.3846</c:v>
+                  <c:v>0.36120000000000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.4824</c:v>
+                  <c:v>0.45379999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.59799999999999998</c:v>
+                  <c:v>0.56469999999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.73080000000000001</c:v>
+                  <c:v>0.69489999999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.88729999999999998</c:v>
+                  <c:v>0.8458</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.0649999999999999</c:v>
+                  <c:v>1.018</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.26</c:v>
+                  <c:v>1.21</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.4990000000000001</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7669999999999999</c:v>
+                  <c:v>1.7170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.073</c:v>
+                  <c:v>2.0179999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.407</c:v>
+                  <c:v>2.355</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.762</c:v>
+                  <c:v>2.7170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2360000000000002</c:v>
+                  <c:v>3.1949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.6869999999999998</c:v>
+                  <c:v>3.6389999999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.2089999999999996</c:v>
+                  <c:v>4.1580000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4.8659999999999997</c:v>
+                  <c:v>4.7910000000000004</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.5049999999999999</c:v>
+                  <c:v>5.431</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.2610000000000001</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7.157</c:v>
+                  <c:v>7.0449999999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.0990000000000002</c:v>
+                  <c:v>7.9409999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.2430000000000003</c:v>
+                  <c:v>9.0619999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3148,7 +3157,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Reseek</c:v>
+                  <c:v>devreseek</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3310,50 +3319,56 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
-                <c:pt idx="5">
-                  <c:v>1.1950000000000001E-2</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.069E-2</c:v>
+                  <c:v>1.204E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.175E-2</c:v>
+                  <c:v>1.9449999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.058E-2</c:v>
+                  <c:v>3.4520000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9740000000000005E-2</c:v>
+                  <c:v>6.1100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1229</c:v>
+                  <c:v>0.1038</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2031</c:v>
+                  <c:v>0.186</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.32400000000000001</c:v>
+                  <c:v>0.31140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.50919999999999999</c:v>
+                  <c:v>0.4768</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.78349999999999997</c:v>
+                  <c:v>0.73850000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1950000000000001</c:v>
+                  <c:v>1.0840000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.8320000000000001</c:v>
+                  <c:v>1.5720000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.911</c:v>
+                  <c:v>2.294</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.0650000000000004</c:v>
+                  <c:v>3.2949999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22.65</c:v>
+                  <c:v>4.8680000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.5640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3400,119 +3415,113 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
-                <c:pt idx="5">
-                  <c:v>1.044E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7659999999999999E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.7650000000000001E-2</c:v>
+                  <c:v>1.686E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0320000000000002E-2</c:v>
+                  <c:v>2.605E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.164E-2</c:v>
+                  <c:v>4.326E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.5170000000000005E-2</c:v>
+                  <c:v>7.3230000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1409</c:v>
+                  <c:v>0.1168</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20050000000000001</c:v>
+                  <c:v>0.1754</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2903</c:v>
+                  <c:v>0.26600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41060000000000002</c:v>
+                  <c:v>0.38579999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.57069999999999999</c:v>
+                  <c:v>0.54569999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.76549999999999996</c:v>
+                  <c:v>0.74450000000000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.004</c:v>
+                  <c:v>0.98280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2849999999999999</c:v>
+                  <c:v>1.2669999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.643</c:v>
+                  <c:v>1.625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.097</c:v>
+                  <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.6379999999999999</c:v>
+                  <c:v>2.61</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2290000000000001</c:v>
+                  <c:v>3.165</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.9580000000000002</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.8739999999999997</c:v>
+                  <c:v>4.7370000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.8250000000000002</c:v>
+                  <c:v>5.6870000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.1609999999999996</c:v>
+                  <c:v>6.9249999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.6920000000000002</c:v>
+                  <c:v>8.1839999999999993</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.39</c:v>
+                  <c:v>9.8940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>12.63</c:v>
+                  <c:v>11.57</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>14.92</c:v>
+                  <c:v>13.95</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>18.25</c:v>
+                  <c:v>16.43</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>22.1</c:v>
+                  <c:v>19.670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26.81</c:v>
+                  <c:v>23.36</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>32.94</c:v>
+                  <c:v>27.85</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>40.25</c:v>
+                  <c:v>33.39</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50.01</c:v>
+                  <c:v>39.96</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>62.46</c:v>
+                  <c:v>48.32</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>79.41</c:v>
+                  <c:v>58.22</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>101.9</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>133</c:v>
+                  <c:v>87.23</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>179.5</c:v>
+                  <c:v>108.7</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>251.3</c:v>
+                  <c:v>135.80000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5381,8 +5390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D48A558-673B-4B1E-8FF7-FCB07FA6F0FA}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5412,7 +5421,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5528,10 +5537,10 @@
         <v>8.5900000000000004E-2</v>
       </c>
       <c r="F11">
-        <v>1.418E-2</v>
+        <v>1.204E-2</v>
       </c>
       <c r="G11">
-        <v>1.418E-2</v>
+        <v>1.1679999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5551,10 +5560,10 @@
         <v>0.11609999999999999</v>
       </c>
       <c r="F12">
-        <v>2.2919999999999999E-2</v>
+        <v>1.9449999999999999E-2</v>
       </c>
       <c r="G12">
-        <v>2.248E-2</v>
+        <v>1.882E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5574,10 +5583,10 @@
         <v>0.15129999999999999</v>
       </c>
       <c r="F13">
-        <v>3.4250000000000003E-2</v>
+        <v>3.006E-2</v>
       </c>
       <c r="G13">
-        <v>3.2559999999999999E-2</v>
+        <v>2.819E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5594,10 +5603,10 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="F14">
-        <v>4.8520000000000001E-2</v>
+        <v>4.2819999999999997E-2</v>
       </c>
       <c r="G14">
-        <v>4.7539999999999999E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5614,10 +5623,10 @@
         <v>0.2422</v>
       </c>
       <c r="F15">
-        <v>6.5379999999999994E-2</v>
+        <v>5.7709999999999997E-2</v>
       </c>
       <c r="G15">
-        <v>6.4579999999999999E-2</v>
+        <v>5.7270000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5634,10 +5643,10 @@
         <v>0.29699999999999999</v>
       </c>
       <c r="F16">
-        <v>8.5089999999999999E-2</v>
+        <v>7.6439999999999994E-2</v>
       </c>
       <c r="G16">
-        <v>8.5269999999999999E-2</v>
+        <v>7.671E-2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5654,10 +5663,10 @@
         <v>0.36520000000000002</v>
       </c>
       <c r="F17">
-        <v>0.11310000000000001</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G17">
-        <v>0.1119</v>
+        <v>0.10349999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5674,10 +5683,10 @@
         <v>0.43440000000000001</v>
       </c>
       <c r="F18">
-        <v>0.1457</v>
+        <v>0.13289999999999999</v>
       </c>
       <c r="G18">
-        <v>0.1474</v>
+        <v>0.1366</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5694,10 +5703,10 @@
         <v>0.5151</v>
       </c>
       <c r="F19">
-        <v>0.17899999999999999</v>
+        <v>0.1643</v>
       </c>
       <c r="G19">
-        <v>0.1918</v>
+        <v>0.1804</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5714,10 +5723,10 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="F20">
-        <v>0.22489999999999999</v>
+        <v>0.20669999999999999</v>
       </c>
       <c r="G20">
-        <v>0.24129999999999999</v>
+        <v>0.22650000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -5734,10 +5743,10 @@
         <v>0.70930000000000004</v>
       </c>
       <c r="F21">
-        <v>0.28120000000000001</v>
+        <v>0.25790000000000002</v>
       </c>
       <c r="G21">
-        <v>0.30509999999999998</v>
+        <v>0.28560000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5754,10 +5763,10 @@
         <v>0.82320000000000004</v>
       </c>
       <c r="F22">
-        <v>0.34720000000000001</v>
+        <v>0.31940000000000002</v>
       </c>
       <c r="G22">
-        <v>0.3846</v>
+        <v>0.36120000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -5774,10 +5783,10 @@
         <v>0.94620000000000004</v>
       </c>
       <c r="F23">
-        <v>0.42899999999999999</v>
+        <v>0.39550000000000002</v>
       </c>
       <c r="G23">
-        <v>0.4824</v>
+        <v>0.45379999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -5794,10 +5803,10 @@
         <v>1.08</v>
       </c>
       <c r="F24">
-        <v>0.52859999999999996</v>
+        <v>0.49099999999999999</v>
       </c>
       <c r="G24">
-        <v>0.59799999999999998</v>
+        <v>0.56469999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -5814,10 +5823,10 @@
         <v>1.238</v>
       </c>
       <c r="F25">
-        <v>0.6462</v>
+        <v>0.60060000000000002</v>
       </c>
       <c r="G25">
-        <v>0.73080000000000001</v>
+        <v>0.69489999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -5834,10 +5843,10 @@
         <v>1.4179999999999999</v>
       </c>
       <c r="F26">
-        <v>0.79359999999999997</v>
+        <v>0.74009999999999998</v>
       </c>
       <c r="G26">
-        <v>0.88729999999999998</v>
+        <v>0.8458</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -5854,10 +5863,10 @@
         <v>1.617</v>
       </c>
       <c r="F27">
-        <v>0.96650000000000003</v>
+        <v>0.90049999999999997</v>
       </c>
       <c r="G27">
-        <v>1.0649999999999999</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -5874,10 +5883,10 @@
         <v>1.83</v>
       </c>
       <c r="F28">
-        <v>1.18</v>
+        <v>1.095</v>
       </c>
       <c r="G28">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5894,10 +5903,10 @@
         <v>2.0739999999999998</v>
       </c>
       <c r="F29">
-        <v>1.4330000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="G29">
-        <v>1.4990000000000001</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5914,10 +5923,10 @@
         <v>2.3559999999999999</v>
       </c>
       <c r="F30">
-        <v>1.742</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="G30">
-        <v>1.7669999999999999</v>
+        <v>1.7170000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5934,10 +5943,10 @@
         <v>2.6779999999999999</v>
       </c>
       <c r="F31">
-        <v>2.1269999999999998</v>
+        <v>1.954</v>
       </c>
       <c r="G31">
-        <v>2.073</v>
+        <v>2.0179999999999998</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5954,10 +5963,10 @@
         <v>3.036</v>
       </c>
       <c r="F32">
-        <v>2.6160000000000001</v>
+        <v>2.3690000000000002</v>
       </c>
       <c r="G32">
-        <v>2.407</v>
+        <v>2.355</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5974,10 +5983,10 @@
         <v>3.4319999999999999</v>
       </c>
       <c r="F33">
-        <v>3.2490000000000001</v>
+        <v>2.8860000000000001</v>
       </c>
       <c r="G33">
-        <v>2.762</v>
+        <v>2.7170000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -5994,10 +6003,10 @@
         <v>3.8820000000000001</v>
       </c>
       <c r="F34">
-        <v>4.1619999999999999</v>
+        <v>3.544</v>
       </c>
       <c r="G34">
-        <v>3.2360000000000002</v>
+        <v>3.1949999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6014,10 +6023,10 @@
         <v>4.3789999999999996</v>
       </c>
       <c r="F35">
-        <v>5.5209999999999999</v>
+        <v>4.3579999999999997</v>
       </c>
       <c r="G35">
-        <v>3.6869999999999998</v>
+        <v>3.6389999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6034,10 +6043,10 @@
         <v>4.9329999999999998</v>
       </c>
       <c r="F36">
-        <v>8.0180000000000007</v>
+        <v>5.3819999999999997</v>
       </c>
       <c r="G36">
-        <v>4.2089999999999996</v>
+        <v>4.1580000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6053,8 +6062,11 @@
       <c r="E37">
         <v>5.5570000000000004</v>
       </c>
+      <c r="F37">
+        <v>6.9409999999999998</v>
+      </c>
       <c r="G37">
-        <v>4.8659999999999997</v>
+        <v>4.7910000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6070,8 +6082,11 @@
       <c r="E38">
         <v>6.2430000000000003</v>
       </c>
+      <c r="F38">
+        <v>9.1479999999999997</v>
+      </c>
       <c r="G38">
-        <v>5.5049999999999999</v>
+        <v>5.431</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6088,7 +6103,7 @@
         <v>7.0279999999999996</v>
       </c>
       <c r="G39">
-        <v>6.2610000000000001</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6105,7 +6120,7 @@
         <v>7.9009999999999998</v>
       </c>
       <c r="G40">
-        <v>7.157</v>
+        <v>7.0449999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6122,7 +6137,7 @@
         <v>8.85</v>
       </c>
       <c r="G41">
-        <v>8.0990000000000002</v>
+        <v>7.9409999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6139,7 +6154,7 @@
         <v>9.9809999999999999</v>
       </c>
       <c r="G42">
-        <v>9.2430000000000003</v>
+        <v>9.0619999999999994</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6166,10 +6181,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C0124-FDAB-4252-836F-9CFDB475E886}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6195,7 +6210,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -6263,12 +6278,6 @@
       <c r="E7">
         <v>5.985E-2</v>
       </c>
-      <c r="F7">
-        <v>1.1950000000000001E-2</v>
-      </c>
-      <c r="G7">
-        <v>1.044E-2</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -6284,10 +6293,7 @@
         <v>7.7600000000000002E-2</v>
       </c>
       <c r="F8">
-        <v>2.069E-2</v>
-      </c>
-      <c r="G8">
-        <v>1.7659999999999999E-2</v>
+        <v>1.204E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6304,10 +6310,10 @@
         <v>9.8390000000000005E-2</v>
       </c>
       <c r="F9">
-        <v>3.175E-2</v>
+        <v>1.9449999999999999E-2</v>
       </c>
       <c r="G9">
-        <v>2.7650000000000001E-2</v>
+        <v>1.686E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6324,10 +6330,10 @@
         <v>0.122</v>
       </c>
       <c r="F10">
-        <v>5.058E-2</v>
+        <v>3.4520000000000002E-2</v>
       </c>
       <c r="G10">
-        <v>4.0320000000000002E-2</v>
+        <v>2.605E-2</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -6344,10 +6350,10 @@
         <v>0.15409999999999999</v>
       </c>
       <c r="F11">
-        <v>7.9740000000000005E-2</v>
+        <v>6.1100000000000002E-2</v>
       </c>
       <c r="G11">
-        <v>6.164E-2</v>
+        <v>4.326E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -6364,10 +6370,10 @@
         <v>0.1905</v>
       </c>
       <c r="F12">
-        <v>0.1229</v>
+        <v>0.1038</v>
       </c>
       <c r="G12">
-        <v>9.5170000000000005E-2</v>
+        <v>7.3230000000000003E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -6384,10 +6390,10 @@
         <v>0.2407</v>
       </c>
       <c r="F13">
-        <v>0.2031</v>
+        <v>0.186</v>
       </c>
       <c r="G13">
-        <v>0.1409</v>
+        <v>0.1168</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -6404,10 +6410,10 @@
         <v>0.30919999999999997</v>
       </c>
       <c r="F14">
-        <v>0.32400000000000001</v>
+        <v>0.31140000000000001</v>
       </c>
       <c r="G14">
-        <v>0.20050000000000001</v>
+        <v>0.1754</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -6424,10 +6430,10 @@
         <v>0.39729999999999999</v>
       </c>
       <c r="F15">
-        <v>0.50919999999999999</v>
+        <v>0.4768</v>
       </c>
       <c r="G15">
-        <v>0.2903</v>
+        <v>0.26600000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -6444,10 +6450,10 @@
         <v>0.5242</v>
       </c>
       <c r="F16">
-        <v>0.78349999999999997</v>
+        <v>0.73850000000000005</v>
       </c>
       <c r="G16">
-        <v>0.41060000000000002</v>
+        <v>0.38579999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6464,10 +6470,10 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="F17">
-        <v>1.1950000000000001</v>
+        <v>1.0840000000000001</v>
       </c>
       <c r="G17">
-        <v>0.57069999999999999</v>
+        <v>0.54569999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6484,10 +6490,10 @@
         <v>0.8881</v>
       </c>
       <c r="F18">
-        <v>1.8320000000000001</v>
+        <v>1.5720000000000001</v>
       </c>
       <c r="G18">
-        <v>0.76549999999999996</v>
+        <v>0.74450000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -6504,10 +6510,10 @@
         <v>1.147</v>
       </c>
       <c r="F19">
-        <v>2.911</v>
+        <v>2.294</v>
       </c>
       <c r="G19">
-        <v>1.004</v>
+        <v>0.98280000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6524,10 +6530,10 @@
         <v>1.46</v>
       </c>
       <c r="F20">
-        <v>5.0650000000000004</v>
+        <v>3.2949999999999999</v>
       </c>
       <c r="G20">
-        <v>1.2849999999999999</v>
+        <v>1.2669999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -6544,10 +6550,10 @@
         <v>1.841</v>
       </c>
       <c r="F21">
-        <v>22.65</v>
+        <v>4.8680000000000003</v>
       </c>
       <c r="G21">
-        <v>1.643</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -6563,8 +6569,11 @@
       <c r="E22">
         <v>2.2999999999999998</v>
       </c>
+      <c r="F22">
+        <v>7.5640000000000001</v>
+      </c>
       <c r="G22">
-        <v>2.097</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -6580,8 +6589,11 @@
       <c r="E23">
         <v>2.819</v>
       </c>
+      <c r="F23">
+        <v>13.13</v>
+      </c>
       <c r="G23">
-        <v>2.6379999999999999</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -6597,8 +6609,11 @@
       <c r="E24">
         <v>3.4220000000000002</v>
       </c>
+      <c r="F24">
+        <v>56.99</v>
+      </c>
       <c r="G24">
-        <v>3.2290000000000001</v>
+        <v>3.165</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -6615,7 +6630,7 @@
         <v>4.1360000000000001</v>
       </c>
       <c r="G25">
-        <v>3.9580000000000002</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -6632,7 +6647,7 @@
         <v>4.944</v>
       </c>
       <c r="G26">
-        <v>4.8739999999999997</v>
+        <v>4.7370000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -6649,7 +6664,7 @@
         <v>5.8440000000000003</v>
       </c>
       <c r="G27">
-        <v>5.8250000000000002</v>
+        <v>5.6870000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -6666,7 +6681,7 @@
         <v>6.8609999999999998</v>
       </c>
       <c r="G28">
-        <v>7.1609999999999996</v>
+        <v>6.9249999999999998</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -6683,7 +6698,7 @@
         <v>7.9749999999999996</v>
       </c>
       <c r="G29">
-        <v>8.6920000000000002</v>
+        <v>8.1839999999999993</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -6700,7 +6715,7 @@
         <v>9.1880000000000006</v>
       </c>
       <c r="G30">
-        <v>10.39</v>
+        <v>9.8940000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -6714,7 +6729,7 @@
         <v>2.9729999999999999</v>
       </c>
       <c r="G31">
-        <v>12.63</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -6728,7 +6743,7 @@
         <v>3.3010000000000002</v>
       </c>
       <c r="G32">
-        <v>14.92</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -6742,7 +6757,7 @@
         <v>3.6440000000000001</v>
       </c>
       <c r="G33">
-        <v>18.25</v>
+        <v>16.43</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -6756,7 +6771,7 @@
         <v>4.0289999999999999</v>
       </c>
       <c r="G34">
-        <v>22.1</v>
+        <v>19.670000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6770,7 +6785,7 @@
         <v>4.4219999999999997</v>
       </c>
       <c r="G35">
-        <v>26.81</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -6784,7 +6799,7 @@
         <v>4.8380000000000001</v>
       </c>
       <c r="G36">
-        <v>32.94</v>
+        <v>27.85</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -6798,7 +6813,7 @@
         <v>5.2830000000000004</v>
       </c>
       <c r="G37">
-        <v>40.25</v>
+        <v>33.39</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -6809,7 +6824,7 @@
         <v>5.7839999999999998</v>
       </c>
       <c r="G38">
-        <v>50.01</v>
+        <v>39.96</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -6820,7 +6835,7 @@
         <v>6.3049999999999997</v>
       </c>
       <c r="G39">
-        <v>62.46</v>
+        <v>48.32</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -6831,7 +6846,7 @@
         <v>6.8719999999999999</v>
       </c>
       <c r="G40">
-        <v>79.41</v>
+        <v>58.22</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -6842,7 +6857,7 @@
         <v>7.49</v>
       </c>
       <c r="G41">
-        <v>101.9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -6853,7 +6868,7 @@
         <v>8.1359999999999992</v>
       </c>
       <c r="G42">
-        <v>133</v>
+        <v>87.23</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -6864,7 +6879,7 @@
         <v>8.8119999999999994</v>
       </c>
       <c r="G43">
-        <v>179.5</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -6875,12 +6890,37 @@
         <v>9.5589999999999993</v>
       </c>
       <c r="G44">
-        <v>251.3</v>
+        <v>135.80000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G45">
-        <v>603.79999999999995</v>
+        <v>171.9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>222.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>293.39999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>393.6</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>560.20000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>914.6</v>
       </c>
     </row>
   </sheetData>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E878C3BF-C421-4054-980D-8689E9C81298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF16DA40-AE6B-4C96-AB88-277EF78FDF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2070" yWindow="4335" windowWidth="23940" windowHeight="15420" activeTab="1" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="2100" yWindow="3660" windowWidth="23940" windowHeight="15420" activeTab="1" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
     <sheet name="SF" sheetId="9" r:id="rId1"/>
@@ -57,13 +57,13 @@
     <t>Reseek</t>
   </si>
   <si>
-    <t>devreseek-sensitive</t>
+    <t>Reseek-sens</t>
   </si>
   <si>
     <t>devreseek</t>
   </si>
   <si>
-    <t>Reseek-sens</t>
+    <t>devreseek-sensitive</t>
   </si>
 </sst>
 </file>
@@ -1456,88 +1456,91 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="9">
-                  <c:v>1.204E-2</c:v>
+                  <c:v>1.142E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9449999999999999E-2</c:v>
+                  <c:v>1.8550000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.006E-2</c:v>
+                  <c:v>2.9260000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.2819999999999997E-2</c:v>
+                  <c:v>4.1390000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7709999999999997E-2</c:v>
+                  <c:v>5.7090000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.6439999999999994E-2</c:v>
+                  <c:v>7.51E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10199999999999999</c:v>
+                  <c:v>9.9099999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13289999999999999</c:v>
+                  <c:v>0.1303</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1643</c:v>
+                  <c:v>0.16170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.20669999999999999</c:v>
+                  <c:v>0.20280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.25790000000000002</c:v>
+                  <c:v>0.25369999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.31940000000000002</c:v>
+                  <c:v>0.31590000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.39550000000000002</c:v>
+                  <c:v>0.38840000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.49099999999999999</c:v>
+                  <c:v>0.47860000000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.60060000000000002</c:v>
+                  <c:v>0.58320000000000005</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.74009999999999998</c:v>
+                  <c:v>0.71560000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.90049999999999997</c:v>
+                  <c:v>0.87570000000000003</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.095</c:v>
+                  <c:v>1.0580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.33</c:v>
+                  <c:v>1.2749999999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.6080000000000001</c:v>
+                  <c:v>1.5389999999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.954</c:v>
+                  <c:v>1.8420000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3690000000000002</c:v>
+                  <c:v>2.2029999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.8860000000000001</c:v>
+                  <c:v>2.6459999999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.544</c:v>
+                  <c:v>3.1720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.3579999999999997</c:v>
+                  <c:v>3.802</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.3819999999999997</c:v>
+                  <c:v>4.5869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.9409999999999998</c:v>
+                  <c:v>5.5949999999999998</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.1479999999999997</c:v>
+                  <c:v>6.8979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7149999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3320,55 +3323,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="6">
-                  <c:v>1.204E-2</c:v>
+                  <c:v>1.0970000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.9449999999999999E-2</c:v>
+                  <c:v>1.8370000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4520000000000002E-2</c:v>
+                  <c:v>3.1309999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.1100000000000002E-2</c:v>
+                  <c:v>5.6279999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1038</c:v>
+                  <c:v>9.5350000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.186</c:v>
+                  <c:v>0.16139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31140000000000001</c:v>
+                  <c:v>0.27379999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4768</c:v>
+                  <c:v>0.41720000000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.73850000000000005</c:v>
+                  <c:v>0.6462</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0840000000000001</c:v>
+                  <c:v>0.91920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.5720000000000001</c:v>
+                  <c:v>1.319</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.294</c:v>
+                  <c:v>1.839</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2949999999999999</c:v>
+                  <c:v>2.56</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8680000000000003</c:v>
+                  <c:v>3.5339999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.5640000000000001</c:v>
+                  <c:v>4.9370000000000003</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.13</c:v>
+                  <c:v>7.0259999999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>56.99</c:v>
+                  <c:v>10.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3480,48 +3483,6 @@
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>9.8940000000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>11.57</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>13.95</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>16.43</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>19.670000000000002</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>23.36</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>27.85</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>33.39</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>39.96</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>48.32</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>58.22</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>87.23</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>108.7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>135.80000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3677,6 +3638,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5032,16 +4994,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5391,7 +5353,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5421,7 +5383,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -5537,7 +5499,7 @@
         <v>8.5900000000000004E-2</v>
       </c>
       <c r="F11">
-        <v>1.204E-2</v>
+        <v>1.142E-2</v>
       </c>
       <c r="G11">
         <v>1.1679999999999999E-2</v>
@@ -5560,7 +5522,7 @@
         <v>0.11609999999999999</v>
       </c>
       <c r="F12">
-        <v>1.9449999999999999E-2</v>
+        <v>1.8550000000000001E-2</v>
       </c>
       <c r="G12">
         <v>1.882E-2</v>
@@ -5583,7 +5545,7 @@
         <v>0.15129999999999999</v>
       </c>
       <c r="F13">
-        <v>3.006E-2</v>
+        <v>2.9260000000000001E-2</v>
       </c>
       <c r="G13">
         <v>2.819E-2</v>
@@ -5603,7 +5565,7 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="F14">
-        <v>4.2819999999999997E-2</v>
+        <v>4.1390000000000003E-2</v>
       </c>
       <c r="G14">
         <v>4.1300000000000003E-2</v>
@@ -5623,7 +5585,7 @@
         <v>0.2422</v>
       </c>
       <c r="F15">
-        <v>5.7709999999999997E-2</v>
+        <v>5.7090000000000002E-2</v>
       </c>
       <c r="G15">
         <v>5.7270000000000001E-2</v>
@@ -5643,7 +5605,7 @@
         <v>0.29699999999999999</v>
       </c>
       <c r="F16">
-        <v>7.6439999999999994E-2</v>
+        <v>7.51E-2</v>
       </c>
       <c r="G16">
         <v>7.671E-2</v>
@@ -5663,7 +5625,7 @@
         <v>0.36520000000000002</v>
       </c>
       <c r="F17">
-        <v>0.10199999999999999</v>
+        <v>9.9099999999999994E-2</v>
       </c>
       <c r="G17">
         <v>0.10349999999999999</v>
@@ -5683,7 +5645,7 @@
         <v>0.43440000000000001</v>
       </c>
       <c r="F18">
-        <v>0.13289999999999999</v>
+        <v>0.1303</v>
       </c>
       <c r="G18">
         <v>0.1366</v>
@@ -5703,7 +5665,7 @@
         <v>0.5151</v>
       </c>
       <c r="F19">
-        <v>0.1643</v>
+        <v>0.16170000000000001</v>
       </c>
       <c r="G19">
         <v>0.1804</v>
@@ -5723,7 +5685,7 @@
         <v>0.60899999999999999</v>
       </c>
       <c r="F20">
-        <v>0.20669999999999999</v>
+        <v>0.20280000000000001</v>
       </c>
       <c r="G20">
         <v>0.22650000000000001</v>
@@ -5743,7 +5705,7 @@
         <v>0.70930000000000004</v>
       </c>
       <c r="F21">
-        <v>0.25790000000000002</v>
+        <v>0.25369999999999998</v>
       </c>
       <c r="G21">
         <v>0.28560000000000002</v>
@@ -5763,7 +5725,7 @@
         <v>0.82320000000000004</v>
       </c>
       <c r="F22">
-        <v>0.31940000000000002</v>
+        <v>0.31590000000000001</v>
       </c>
       <c r="G22">
         <v>0.36120000000000002</v>
@@ -5783,7 +5745,7 @@
         <v>0.94620000000000004</v>
       </c>
       <c r="F23">
-        <v>0.39550000000000002</v>
+        <v>0.38840000000000002</v>
       </c>
       <c r="G23">
         <v>0.45379999999999998</v>
@@ -5803,7 +5765,7 @@
         <v>1.08</v>
       </c>
       <c r="F24">
-        <v>0.49099999999999999</v>
+        <v>0.47860000000000003</v>
       </c>
       <c r="G24">
         <v>0.56469999999999998</v>
@@ -5823,7 +5785,7 @@
         <v>1.238</v>
       </c>
       <c r="F25">
-        <v>0.60060000000000002</v>
+        <v>0.58320000000000005</v>
       </c>
       <c r="G25">
         <v>0.69489999999999996</v>
@@ -5843,7 +5805,7 @@
         <v>1.4179999999999999</v>
       </c>
       <c r="F26">
-        <v>0.74009999999999998</v>
+        <v>0.71560000000000001</v>
       </c>
       <c r="G26">
         <v>0.8458</v>
@@ -5863,7 +5825,7 @@
         <v>1.617</v>
       </c>
       <c r="F27">
-        <v>0.90049999999999997</v>
+        <v>0.87570000000000003</v>
       </c>
       <c r="G27">
         <v>1.018</v>
@@ -5883,7 +5845,7 @@
         <v>1.83</v>
       </c>
       <c r="F28">
-        <v>1.095</v>
+        <v>1.0580000000000001</v>
       </c>
       <c r="G28">
         <v>1.21</v>
@@ -5903,7 +5865,7 @@
         <v>2.0739999999999998</v>
       </c>
       <c r="F29">
-        <v>1.33</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="G29">
         <v>1.45</v>
@@ -5923,7 +5885,7 @@
         <v>2.3559999999999999</v>
       </c>
       <c r="F30">
-        <v>1.6080000000000001</v>
+        <v>1.5389999999999999</v>
       </c>
       <c r="G30">
         <v>1.7170000000000001</v>
@@ -5943,7 +5905,7 @@
         <v>2.6779999999999999</v>
       </c>
       <c r="F31">
-        <v>1.954</v>
+        <v>1.8420000000000001</v>
       </c>
       <c r="G31">
         <v>2.0179999999999998</v>
@@ -5963,7 +5925,7 @@
         <v>3.036</v>
       </c>
       <c r="F32">
-        <v>2.3690000000000002</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="G32">
         <v>2.355</v>
@@ -5983,7 +5945,7 @@
         <v>3.4319999999999999</v>
       </c>
       <c r="F33">
-        <v>2.8860000000000001</v>
+        <v>2.6459999999999999</v>
       </c>
       <c r="G33">
         <v>2.7170000000000001</v>
@@ -6003,7 +5965,7 @@
         <v>3.8820000000000001</v>
       </c>
       <c r="F34">
-        <v>3.544</v>
+        <v>3.1720000000000002</v>
       </c>
       <c r="G34">
         <v>3.1949999999999998</v>
@@ -6023,7 +5985,7 @@
         <v>4.3789999999999996</v>
       </c>
       <c r="F35">
-        <v>4.3579999999999997</v>
+        <v>3.802</v>
       </c>
       <c r="G35">
         <v>3.6389999999999998</v>
@@ -6043,7 +6005,7 @@
         <v>4.9329999999999998</v>
       </c>
       <c r="F36">
-        <v>5.3819999999999997</v>
+        <v>4.5869999999999997</v>
       </c>
       <c r="G36">
         <v>4.1580000000000004</v>
@@ -6063,7 +6025,7 @@
         <v>5.5570000000000004</v>
       </c>
       <c r="F37">
-        <v>6.9409999999999998</v>
+        <v>5.5949999999999998</v>
       </c>
       <c r="G37">
         <v>4.7910000000000004</v>
@@ -6083,7 +6045,7 @@
         <v>6.2430000000000003</v>
       </c>
       <c r="F38">
-        <v>9.1479999999999997</v>
+        <v>6.8979999999999997</v>
       </c>
       <c r="G38">
         <v>5.431</v>
@@ -6101,6 +6063,9 @@
       </c>
       <c r="E39">
         <v>7.0279999999999996</v>
+      </c>
+      <c r="F39">
+        <v>8.7149999999999999</v>
       </c>
       <c r="G39">
         <v>6.2</v>
@@ -6181,10 +6146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C0124-FDAB-4252-836F-9CFDB475E886}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6213,7 +6178,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -6293,7 +6258,7 @@
         <v>7.7600000000000002E-2</v>
       </c>
       <c r="F8">
-        <v>1.204E-2</v>
+        <v>1.0970000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6310,7 +6275,7 @@
         <v>9.8390000000000005E-2</v>
       </c>
       <c r="F9">
-        <v>1.9449999999999999E-2</v>
+        <v>1.8370000000000001E-2</v>
       </c>
       <c r="G9">
         <v>1.686E-2</v>
@@ -6330,7 +6295,7 @@
         <v>0.122</v>
       </c>
       <c r="F10">
-        <v>3.4520000000000002E-2</v>
+        <v>3.1309999999999998E-2</v>
       </c>
       <c r="G10">
         <v>2.605E-2</v>
@@ -6350,7 +6315,7 @@
         <v>0.15409999999999999</v>
       </c>
       <c r="F11">
-        <v>6.1100000000000002E-2</v>
+        <v>5.6279999999999997E-2</v>
       </c>
       <c r="G11">
         <v>4.326E-2</v>
@@ -6370,7 +6335,7 @@
         <v>0.1905</v>
       </c>
       <c r="F12">
-        <v>0.1038</v>
+        <v>9.5350000000000004E-2</v>
       </c>
       <c r="G12">
         <v>7.3230000000000003E-2</v>
@@ -6390,7 +6355,7 @@
         <v>0.2407</v>
       </c>
       <c r="F13">
-        <v>0.186</v>
+        <v>0.16139999999999999</v>
       </c>
       <c r="G13">
         <v>0.1168</v>
@@ -6410,7 +6375,7 @@
         <v>0.30919999999999997</v>
       </c>
       <c r="F14">
-        <v>0.31140000000000001</v>
+        <v>0.27379999999999999</v>
       </c>
       <c r="G14">
         <v>0.1754</v>
@@ -6430,7 +6395,7 @@
         <v>0.39729999999999999</v>
       </c>
       <c r="F15">
-        <v>0.4768</v>
+        <v>0.41720000000000002</v>
       </c>
       <c r="G15">
         <v>0.26600000000000001</v>
@@ -6450,7 +6415,7 @@
         <v>0.5242</v>
       </c>
       <c r="F16">
-        <v>0.73850000000000005</v>
+        <v>0.6462</v>
       </c>
       <c r="G16">
         <v>0.38579999999999998</v>
@@ -6470,7 +6435,7 @@
         <v>0.68600000000000005</v>
       </c>
       <c r="F17">
-        <v>1.0840000000000001</v>
+        <v>0.91920000000000002</v>
       </c>
       <c r="G17">
         <v>0.54569999999999996</v>
@@ -6490,7 +6455,7 @@
         <v>0.8881</v>
       </c>
       <c r="F18">
-        <v>1.5720000000000001</v>
+        <v>1.319</v>
       </c>
       <c r="G18">
         <v>0.74450000000000005</v>
@@ -6510,7 +6475,7 @@
         <v>1.147</v>
       </c>
       <c r="F19">
-        <v>2.294</v>
+        <v>1.839</v>
       </c>
       <c r="G19">
         <v>0.98280000000000001</v>
@@ -6530,7 +6495,7 @@
         <v>1.46</v>
       </c>
       <c r="F20">
-        <v>3.2949999999999999</v>
+        <v>2.56</v>
       </c>
       <c r="G20">
         <v>1.2669999999999999</v>
@@ -6550,7 +6515,7 @@
         <v>1.841</v>
       </c>
       <c r="F21">
-        <v>4.8680000000000003</v>
+        <v>3.5339999999999998</v>
       </c>
       <c r="G21">
         <v>1.625</v>
@@ -6570,7 +6535,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F22">
-        <v>7.5640000000000001</v>
+        <v>4.9370000000000003</v>
       </c>
       <c r="G22">
         <v>2.08</v>
@@ -6590,7 +6555,7 @@
         <v>2.819</v>
       </c>
       <c r="F23">
-        <v>13.13</v>
+        <v>7.0259999999999998</v>
       </c>
       <c r="G23">
         <v>2.61</v>
@@ -6610,7 +6575,7 @@
         <v>3.4220000000000002</v>
       </c>
       <c r="F24">
-        <v>56.99</v>
+        <v>10.4</v>
       </c>
       <c r="G24">
         <v>3.165</v>
@@ -6728,9 +6693,6 @@
       <c r="D31">
         <v>2.9729999999999999</v>
       </c>
-      <c r="G31">
-        <v>11.57</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -6742,11 +6704,8 @@
       <c r="D32">
         <v>3.3010000000000002</v>
       </c>
-      <c r="G32">
-        <v>13.95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>0.32</v>
       </c>
@@ -6756,11 +6715,8 @@
       <c r="D33">
         <v>3.6440000000000001</v>
       </c>
-      <c r="G33">
-        <v>16.43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0.33</v>
       </c>
@@ -6770,11 +6726,8 @@
       <c r="D34">
         <v>4.0289999999999999</v>
       </c>
-      <c r="G34">
-        <v>19.670000000000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>0.34</v>
       </c>
@@ -6784,11 +6737,8 @@
       <c r="D35">
         <v>4.4219999999999997</v>
       </c>
-      <c r="G35">
-        <v>23.36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>0.35</v>
       </c>
@@ -6798,11 +6748,8 @@
       <c r="D36">
         <v>4.8380000000000001</v>
       </c>
-      <c r="G36">
-        <v>27.85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0.36</v>
       </c>
@@ -6812,115 +6759,61 @@
       <c r="D37">
         <v>5.2830000000000004</v>
       </c>
-      <c r="G37">
-        <v>33.39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>0.37</v>
       </c>
       <c r="D38">
         <v>5.7839999999999998</v>
       </c>
-      <c r="G38">
-        <v>39.96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>0.38</v>
       </c>
       <c r="D39">
         <v>6.3049999999999997</v>
       </c>
-      <c r="G39">
-        <v>48.32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>0.39</v>
       </c>
       <c r="D40">
         <v>6.8719999999999999</v>
       </c>
-      <c r="G40">
-        <v>58.22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>0.4</v>
       </c>
       <c r="D41">
         <v>7.49</v>
       </c>
-      <c r="G41">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0.41</v>
       </c>
       <c r="D42">
         <v>8.1359999999999992</v>
       </c>
-      <c r="G42">
-        <v>87.23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>0.42</v>
       </c>
       <c r="D43">
         <v>8.8119999999999994</v>
       </c>
-      <c r="G43">
-        <v>108.7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0.43</v>
       </c>
       <c r="D44">
         <v>9.5589999999999993</v>
-      </c>
-      <c r="G44">
-        <v>135.80000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G45">
-        <v>171.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G46">
-        <v>222.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G47">
-        <v>293.39999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G48">
-        <v>393.6</v>
-      </c>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G49">
-        <v>560.20000000000005</v>
-      </c>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G50">
-        <v>914.6</v>
       </c>
     </row>
   </sheetData>

--- a/results/sensitivity_vs_error.xlsx
+++ b/results/sensitivity_vs_error.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\reseek_scop40\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computer\source\repos\rcedgar\reseek_scop40\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF16DA40-AE6B-4C96-AB88-277EF78FDF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032F4ED9-2403-4F75-B2BC-43B06A3CB219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3660" windowWidth="23940" windowHeight="15420" activeTab="1" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
+    <workbookView xWindow="8985" yWindow="2400" windowWidth="30510" windowHeight="15345" activeTab="2" xr2:uid="{30A151E1-5A68-4C81-B266-04173DADF783}"/>
   </bookViews>
   <sheets>
     <sheet name="SF" sheetId="9" r:id="rId1"/>
     <sheet name="Fold" sheetId="10" r:id="rId2"/>
+    <sheet name="SF_with_NNP" sheetId="11" r:id="rId3"/>
+    <sheet name="Fold_with_NNP" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="18">
   <si>
     <t>fpepq</t>
   </si>
@@ -64,6 +66,33 @@
   </si>
   <si>
     <t>devreseek-sensitive</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Sens=TPR</t>
+  </si>
+  <si>
+    <t>EPQ</t>
+  </si>
+  <si>
+    <t>sf</t>
+  </si>
+  <si>
+    <t>NNP</t>
+  </si>
+  <si>
+    <t>fold</t>
+  </si>
+  <si>
+    <t>NNP[fb82303]</t>
   </si>
 </sst>
 </file>
@@ -99,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3835,6 +3865,3955 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sensitivity vs. error SCOP40</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> superfamily</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27019780219780221"/>
+          <c:y val="2.7444253859348199E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SF_with_NNP!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BLASTP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SF_with_NNP!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SF_with_NNP!$B$2:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="7">
+                  <c:v>2.23E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6689999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.38769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6950000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4200-4F6A-A543-4F62337757C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SF_with_NNP!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DALI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SF_with_NNP!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SF_with_NNP!$C$2:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="2">
+                  <c:v>1.204E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2030000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5390000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5449999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.154</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.20030000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25480000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32229999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.41820000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.5333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6542</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.79190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95409999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.6150000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.9249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.1909999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.5289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.8520000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.194</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5229999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.8739999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.2140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.5919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.3230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.7439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.1690000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.6370000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6159999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4200-4F6A-A543-4F62337757C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SF_with_NNP!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Foldseek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SF_with_NNP!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SF_with_NNP!$E$2:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="5">
+                  <c:v>1.222E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3640000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.5900000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2422</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.36520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.43440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5151</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.70930000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.82320000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94620000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.238</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.617</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.3559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.036</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3789999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5570000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.2430000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.0279999999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.9009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.85</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.9809999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4200-4F6A-A543-4F62337757C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SF_with_NNP!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TMalign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SF_with_NNP!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SF_with_NNP!$D$2:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="5">
+                  <c:v>1.5520000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3189999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2820000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.888E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4399999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7239999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.31259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44479999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52890000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.63260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.74199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88270000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.232</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.452</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.6930000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.2309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.3849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8439999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.3719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.9210000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.2009999999999996</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.8979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.6289999999999996</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.4149999999999991</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.2690000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4200-4F6A-A543-4F62337757C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SF_with_NNP!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reseek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>SF_with_NNP!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>SF_with_NNP!$F$2:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="9">
+                  <c:v>1.142E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8550000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9260000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1390000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7090000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.51E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9099999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1303</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.31590000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.38840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.47860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.58320000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.87570000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2749999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2029999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.5869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.5949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.8979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.7149999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4200-4F6A-A543-4F62337757C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SF_with_NNP!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reseek-sens</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SF_with_NNP!$G$2:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="9">
+                  <c:v>1.1679999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.882E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.819E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1300000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.7270000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.671E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1366</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1804</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.28560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.36120000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45379999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.56469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.69489999999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8458</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0179999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.355</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.1949999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.1580000000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.7910000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.431</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.9409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.0619999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4200-4F6A-A543-4F62337757C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SF_with_NNP!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NNP[fb82303]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>SF_with_NNP!$H$2:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="4">
+                  <c:v>3.57E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3499999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8499999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.17E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.61E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.4200000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.6300000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.8400000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.157</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.33800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.42699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.64100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.56</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.81</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4200-4F6A-A543-4F62337757C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1113740336"/>
+        <c:axId val="1113743696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1113740336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>True</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> positive rate (sensitivity)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113743696"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1113743696"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>False</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> positive errors per query</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113740336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="dash"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sensitivity vs. error SCOP40 fold</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30177777777777776"/>
+          <c:y val="2.7586206896551724E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold_with_NNP!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BLASTP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$B$2:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="3">
+                  <c:v>0.10059999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5990000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B98-4BDD-BEB2-DB92B569145D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold_with_NNP!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DALI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$C$2:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="2">
+                  <c:v>1.1599999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.184E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2179999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0019999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.17899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26550000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29509999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.3362</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.3851</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.44769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.52880000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.63119999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.90880000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.325</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.61</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9259999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.246</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.4619999999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2190000000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.8979999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.8540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9789999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4B98-4BDD-BEB2-DB92B569145D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold_with_NNP!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TMalign</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$D$2:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="4">
+                  <c:v>1.0699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7840000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9790000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5310000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.7430000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5979999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1308</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.17799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.23250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.28649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.43780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53069999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.63549999999999995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.74839999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.024</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.181</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.538</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.732</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.1779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.4260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.3010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.6440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.4219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.8380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.2830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.3049999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.8719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.49</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1359999999999992</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.8119999999999994</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.5589999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4B98-4BDD-BEB2-DB92B569145D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold_with_NNP!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Foldseek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$E$2:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="3">
+                  <c:v>2.078E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0759999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.985E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7600000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8390000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.15409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1905</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2407</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30919999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8881</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.147</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.46</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.841</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.819</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.1360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.944</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8440000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9749999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.1880000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4B98-4BDD-BEB2-DB92B569145D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold_with_NNP!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>devreseek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$A$2:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$F$2:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="6">
+                  <c:v>1.0970000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8370000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1309999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6279999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.5350000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.41720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6462</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.91920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.319</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.839</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.9370000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4B98-4BDD-BEB2-DB92B569145D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold_with_NNP!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>devreseek-sensitive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$G$2:$G$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="7">
+                  <c:v>1.686E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.605E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.326E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.3230000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1168</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.26600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.38579999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.54569999999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.74450000000000005</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.98280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.61</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.165</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.7370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.6870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1839999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.8940000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4B98-4BDD-BEB2-DB92B569145D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Fold_with_NNP!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NNP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Fold_with_NNP!$H$2:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="2" formatCode="0.00E+00">
+                  <c:v>8.92E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.46E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.03E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9399999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0499999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.47E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7699999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.6099999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4B98-4BDD-BEB2-DB92B569145D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1113740336"/>
+        <c:axId val="1113743696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1113740336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>True</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> positive rate (sensitivity)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113743696"/>
+        <c:crossesAt val="1.0000000000000002E-2"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1113743696"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="1.0000000000000002E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>False</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> positive errors per query</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113740336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="dash"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3876,6 +7855,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4947,6 +9006,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4994,16 +10085,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5011,6 +10102,92 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E31AC15-FBFD-4A31-9A30-31CABDC3F618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>180976</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A35838E-6B54-4A84-99A2-BFC54F402E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4F08E6-9539-4295-8A98-9AF0D735B003}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6148,7 +11325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5C0124-FDAB-4252-836F-9CFDB475E886}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
@@ -6820,4 +11997,2567 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50269F4D-C0E8-453B-AEC2-85F16CB72511}">
+  <dimension ref="A1:Z44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+      <c r="V2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2.9000000000000002E-6</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.02</v>
+      </c>
+      <c r="V3" t="s">
+        <v>14</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>1.06E-5</v>
+      </c>
+      <c r="Y3">
+        <v>0.01</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <v>1.204E-2</v>
+      </c>
+      <c r="V4" t="s">
+        <v>14</v>
+      </c>
+      <c r="W4">
+        <v>2</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2.65E-5</v>
+      </c>
+      <c r="Y4">
+        <v>0.02</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.04</v>
+      </c>
+      <c r="C5">
+        <v>2.2030000000000001E-2</v>
+      </c>
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1">
+        <v>5.2599999999999998E-5</v>
+      </c>
+      <c r="Y5">
+        <v>0.03</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.05</v>
+      </c>
+      <c r="C6">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="H6">
+        <v>3.57E-4</v>
+      </c>
+      <c r="V6" t="s">
+        <v>14</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <v>9.1199999999999994E-5</v>
+      </c>
+      <c r="Y6">
+        <v>0.04</v>
+      </c>
+      <c r="Z6">
+        <v>3.57E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.06</v>
+      </c>
+      <c r="C7">
+        <v>5.5390000000000002E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.5520000000000001E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.222E-2</v>
+      </c>
+      <c r="H7">
+        <v>5.3499999999999999E-4</v>
+      </c>
+      <c r="V7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W7">
+        <v>5</v>
+      </c>
+      <c r="X7">
+        <v>1.46E-4</v>
+      </c>
+      <c r="Y7">
+        <v>0.05</v>
+      </c>
+      <c r="Z7">
+        <v>5.3499999999999999E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8">
+        <v>8.5449999999999998E-2</v>
+      </c>
+      <c r="D8">
+        <v>2.3189999999999999E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.3640000000000001E-2</v>
+      </c>
+      <c r="H8">
+        <v>1.25E-3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>14</v>
+      </c>
+      <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>2.2000000000000001E-4</v>
+      </c>
+      <c r="Y8">
+        <v>0.06</v>
+      </c>
+      <c r="Z8">
+        <v>1.25E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.08</v>
+      </c>
+      <c r="B9">
+        <v>2.23E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.1174</v>
+      </c>
+      <c r="D9">
+        <v>3.2820000000000002E-2</v>
+      </c>
+      <c r="E9">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.4099999999999998E-3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>14</v>
+      </c>
+      <c r="W9">
+        <v>7</v>
+      </c>
+      <c r="X9">
+        <v>3.19E-4</v>
+      </c>
+      <c r="Y9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Z9">
+        <v>2.4099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.09</v>
+      </c>
+      <c r="B10">
+        <v>9.6689999999999998E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.154</v>
+      </c>
+      <c r="D10">
+        <v>4.888E-2</v>
+      </c>
+      <c r="E10">
+        <v>6.012E-2</v>
+      </c>
+      <c r="H10">
+        <v>4.64E-3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>14</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="Y10">
+        <v>0.08</v>
+      </c>
+      <c r="Z10">
+        <v>4.64E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>0.38769999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.20030000000000001</v>
+      </c>
+      <c r="D11">
+        <v>6.4399999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.142E-2</v>
+      </c>
+      <c r="G11">
+        <v>1.1679999999999999E-2</v>
+      </c>
+      <c r="H11">
+        <v>7.8499999999999993E-3</v>
+      </c>
+      <c r="V11" t="s">
+        <v>14</v>
+      </c>
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>6.0800000000000003E-4</v>
+      </c>
+      <c r="Y11">
+        <v>0.09</v>
+      </c>
+      <c r="Z11">
+        <v>7.8499999999999993E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.11</v>
+      </c>
+      <c r="B12">
+        <v>1.3009999999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.25480000000000003</v>
+      </c>
+      <c r="D12">
+        <v>8.7239999999999998E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.11609999999999999</v>
+      </c>
+      <c r="F12">
+        <v>1.8550000000000001E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.882E-2</v>
+      </c>
+      <c r="H12">
+        <v>1.17E-2</v>
+      </c>
+      <c r="V12" t="s">
+        <v>14</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>8.0800000000000002E-4</v>
+      </c>
+      <c r="Y12">
+        <v>0.1</v>
+      </c>
+      <c r="Z12">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.12</v>
+      </c>
+      <c r="B13">
+        <v>7.6950000000000003</v>
+      </c>
+      <c r="C13">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.112</v>
+      </c>
+      <c r="E13">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="F13">
+        <v>2.9260000000000001E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.819E-2</v>
+      </c>
+      <c r="H13">
+        <v>1.61E-2</v>
+      </c>
+      <c r="V13" t="s">
+        <v>14</v>
+      </c>
+      <c r="W13">
+        <v>11</v>
+      </c>
+      <c r="X13">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="Y13">
+        <v>0.11</v>
+      </c>
+      <c r="Z13">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.13</v>
+      </c>
+      <c r="C14">
+        <v>0.41820000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F14">
+        <v>4.1390000000000003E-2</v>
+      </c>
+      <c r="G14">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="H14">
+        <v>2.47E-2</v>
+      </c>
+      <c r="V14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W14">
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <v>1.32E-3</v>
+      </c>
+      <c r="Y14">
+        <v>0.12</v>
+      </c>
+      <c r="Z14">
+        <v>2.47E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.5333</v>
+      </c>
+      <c r="D15">
+        <v>0.17119999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0.2422</v>
+      </c>
+      <c r="F15">
+        <v>5.7090000000000002E-2</v>
+      </c>
+      <c r="G15">
+        <v>5.7270000000000001E-2</v>
+      </c>
+      <c r="H15">
+        <v>3.4200000000000001E-2</v>
+      </c>
+      <c r="V15" t="s">
+        <v>14</v>
+      </c>
+      <c r="W15">
+        <v>13</v>
+      </c>
+      <c r="X15">
+        <v>1.6299999999999999E-3</v>
+      </c>
+      <c r="Y15">
+        <v>0.13</v>
+      </c>
+      <c r="Z15">
+        <v>3.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.15</v>
+      </c>
+      <c r="C16">
+        <v>0.6542</v>
+      </c>
+      <c r="D16">
+        <v>0.21340000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F16">
+        <v>7.51E-2</v>
+      </c>
+      <c r="G16">
+        <v>7.671E-2</v>
+      </c>
+      <c r="H16">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="V16" t="s">
+        <v>14</v>
+      </c>
+      <c r="W16">
+        <v>14</v>
+      </c>
+      <c r="X16">
+        <v>1.99E-3</v>
+      </c>
+      <c r="Y16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Z16">
+        <v>4.6300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.16</v>
+      </c>
+      <c r="C17">
+        <v>0.79190000000000005</v>
+      </c>
+      <c r="D17">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="E17">
+        <v>0.36520000000000002</v>
+      </c>
+      <c r="F17">
+        <v>9.9099999999999994E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.10349999999999999</v>
+      </c>
+      <c r="H17">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="V17" t="s">
+        <v>14</v>
+      </c>
+      <c r="W17">
+        <v>15</v>
+      </c>
+      <c r="X17">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="Y17">
+        <v>0.15</v>
+      </c>
+      <c r="Z17">
+        <v>6.5299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.17</v>
+      </c>
+      <c r="C18">
+        <v>0.95409999999999995</v>
+      </c>
+      <c r="D18">
+        <v>0.31259999999999999</v>
+      </c>
+      <c r="E18">
+        <v>0.43440000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.1303</v>
+      </c>
+      <c r="G18">
+        <v>0.1366</v>
+      </c>
+      <c r="H18">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="V18" t="s">
+        <v>14</v>
+      </c>
+      <c r="W18">
+        <v>16</v>
+      </c>
+      <c r="X18">
+        <v>2.8400000000000001E-3</v>
+      </c>
+      <c r="Y18">
+        <v>0.16</v>
+      </c>
+      <c r="Z18">
+        <v>8.8400000000000006E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.18</v>
+      </c>
+      <c r="C19">
+        <v>1.125</v>
+      </c>
+      <c r="D19">
+        <v>0.372</v>
+      </c>
+      <c r="E19">
+        <v>0.5151</v>
+      </c>
+      <c r="F19">
+        <v>0.16170000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.1804</v>
+      </c>
+      <c r="H19">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="V19" t="s">
+        <v>14</v>
+      </c>
+      <c r="W19">
+        <v>17</v>
+      </c>
+      <c r="X19">
+        <v>3.31E-3</v>
+      </c>
+      <c r="Y19">
+        <v>0.17</v>
+      </c>
+      <c r="Z19">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.19</v>
+      </c>
+      <c r="C20">
+        <v>1.3260000000000001</v>
+      </c>
+      <c r="D20">
+        <v>0.44479999999999997</v>
+      </c>
+      <c r="E20">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="G20">
+        <v>0.22650000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.157</v>
+      </c>
+      <c r="V20" t="s">
+        <v>14</v>
+      </c>
+      <c r="W20">
+        <v>18</v>
+      </c>
+      <c r="X20">
+        <v>3.8300000000000001E-3</v>
+      </c>
+      <c r="Y20">
+        <v>0.18</v>
+      </c>
+      <c r="Z20">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>1.5469999999999999</v>
+      </c>
+      <c r="D21">
+        <v>0.52890000000000004</v>
+      </c>
+      <c r="E21">
+        <v>0.70930000000000004</v>
+      </c>
+      <c r="F21">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="G21">
+        <v>0.28560000000000002</v>
+      </c>
+      <c r="H21">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="V21" t="s">
+        <v>14</v>
+      </c>
+      <c r="W21">
+        <v>19</v>
+      </c>
+      <c r="X21">
+        <v>4.3400000000000001E-3</v>
+      </c>
+      <c r="Y21">
+        <v>0.19</v>
+      </c>
+      <c r="Z21">
+        <v>0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.21</v>
+      </c>
+      <c r="C22">
+        <v>1.7869999999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="E22">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="F22">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="G22">
+        <v>0.36120000000000002</v>
+      </c>
+      <c r="H22">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="V22" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22">
+        <v>20</v>
+      </c>
+      <c r="X22">
+        <v>4.8599999999999997E-3</v>
+      </c>
+      <c r="Y22">
+        <v>0.2</v>
+      </c>
+      <c r="Z22">
+        <v>0.26600000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.22</v>
+      </c>
+      <c r="C23">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="D23">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E23">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="F23">
+        <v>0.38840000000000002</v>
+      </c>
+      <c r="G23">
+        <v>0.45379999999999998</v>
+      </c>
+      <c r="H23">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="V23" t="s">
+        <v>14</v>
+      </c>
+      <c r="W23">
+        <v>21</v>
+      </c>
+      <c r="X23">
+        <v>5.3499999999999997E-3</v>
+      </c>
+      <c r="Y23">
+        <v>0.21</v>
+      </c>
+      <c r="Z23">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.23</v>
+      </c>
+      <c r="C24">
+        <v>2.3180000000000001</v>
+      </c>
+      <c r="D24">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="E24">
+        <v>1.08</v>
+      </c>
+      <c r="F24">
+        <v>0.47860000000000003</v>
+      </c>
+      <c r="G24">
+        <v>0.56469999999999998</v>
+      </c>
+      <c r="H24">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="V24" t="s">
+        <v>14</v>
+      </c>
+      <c r="W24">
+        <v>22</v>
+      </c>
+      <c r="X24">
+        <v>5.8399999999999997E-3</v>
+      </c>
+      <c r="Y24">
+        <v>0.22</v>
+      </c>
+      <c r="Z24">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.24</v>
+      </c>
+      <c r="C25">
+        <v>2.6150000000000002</v>
+      </c>
+      <c r="D25">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="E25">
+        <v>1.238</v>
+      </c>
+      <c r="F25">
+        <v>0.58320000000000005</v>
+      </c>
+      <c r="G25">
+        <v>0.69489999999999996</v>
+      </c>
+      <c r="H25">
+        <v>0.53</v>
+      </c>
+      <c r="V25" t="s">
+        <v>14</v>
+      </c>
+      <c r="W25">
+        <v>23</v>
+      </c>
+      <c r="X25">
+        <v>6.3099999999999996E-3</v>
+      </c>
+      <c r="Y25">
+        <v>0.23</v>
+      </c>
+      <c r="Z25">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="D26">
+        <v>1.232</v>
+      </c>
+      <c r="E26">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="G26">
+        <v>0.8458</v>
+      </c>
+      <c r="H26">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="V26" t="s">
+        <v>14</v>
+      </c>
+      <c r="W26">
+        <v>24</v>
+      </c>
+      <c r="X26">
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="Y26">
+        <v>0.24</v>
+      </c>
+      <c r="Z26">
+        <v>0.64100000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.26</v>
+      </c>
+      <c r="C27">
+        <v>3.2210000000000001</v>
+      </c>
+      <c r="D27">
+        <v>1.452</v>
+      </c>
+      <c r="E27">
+        <v>1.617</v>
+      </c>
+      <c r="F27">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="G27">
+        <v>1.018</v>
+      </c>
+      <c r="H27">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="V27" t="s">
+        <v>14</v>
+      </c>
+      <c r="W27">
+        <v>25</v>
+      </c>
+      <c r="X27">
+        <v>7.1700000000000002E-3</v>
+      </c>
+      <c r="Y27">
+        <v>0.25</v>
+      </c>
+      <c r="Z27">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.27</v>
+      </c>
+      <c r="C28">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="D28">
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="E28">
+        <v>1.83</v>
+      </c>
+      <c r="F28">
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="G28">
+        <v>1.21</v>
+      </c>
+      <c r="H28">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="V28" t="s">
+        <v>14</v>
+      </c>
+      <c r="W28">
+        <v>26</v>
+      </c>
+      <c r="X28">
+        <v>7.5599999999999999E-3</v>
+      </c>
+      <c r="Y28">
+        <v>0.26</v>
+      </c>
+      <c r="Z28">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C29">
+        <v>3.8620000000000001</v>
+      </c>
+      <c r="D29">
+        <v>1.95</v>
+      </c>
+      <c r="E29">
+        <v>2.0739999999999998</v>
+      </c>
+      <c r="F29">
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="G29">
+        <v>1.45</v>
+      </c>
+      <c r="H29">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="V29" t="s">
+        <v>14</v>
+      </c>
+      <c r="W29">
+        <v>27</v>
+      </c>
+      <c r="X29">
+        <v>7.9299999999999995E-3</v>
+      </c>
+      <c r="Y29">
+        <v>0.27</v>
+      </c>
+      <c r="Z29">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C30">
+        <v>4.1909999999999998</v>
+      </c>
+      <c r="D30">
+        <v>2.2309999999999999</v>
+      </c>
+      <c r="E30">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="F30">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="G30">
+        <v>1.7170000000000001</v>
+      </c>
+      <c r="H30">
+        <v>1.31</v>
+      </c>
+      <c r="V30" t="s">
+        <v>14</v>
+      </c>
+      <c r="W30">
+        <v>28</v>
+      </c>
+      <c r="X30">
+        <v>8.2699999999999996E-3</v>
+      </c>
+      <c r="Y30">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Z30">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="C31">
+        <v>4.5289999999999999</v>
+      </c>
+      <c r="D31">
+        <v>2.5750000000000002</v>
+      </c>
+      <c r="E31">
+        <v>2.6779999999999999</v>
+      </c>
+      <c r="F31">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="G31">
+        <v>2.0179999999999998</v>
+      </c>
+      <c r="H31">
+        <v>1.56</v>
+      </c>
+      <c r="V31" t="s">
+        <v>14</v>
+      </c>
+      <c r="W31">
+        <v>29</v>
+      </c>
+      <c r="X31">
+        <v>8.5699999999999995E-3</v>
+      </c>
+      <c r="Y31">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Z31">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.31</v>
+      </c>
+      <c r="C32">
+        <v>4.8520000000000003</v>
+      </c>
+      <c r="D32">
+        <v>2.9430000000000001</v>
+      </c>
+      <c r="E32">
+        <v>3.036</v>
+      </c>
+      <c r="F32">
+        <v>2.2029999999999998</v>
+      </c>
+      <c r="G32">
+        <v>2.355</v>
+      </c>
+      <c r="H32">
+        <v>2.02</v>
+      </c>
+      <c r="V32" t="s">
+        <v>14</v>
+      </c>
+      <c r="W32">
+        <v>30</v>
+      </c>
+      <c r="X32">
+        <v>9.0500000000000008E-3</v>
+      </c>
+      <c r="Y32">
+        <v>0.3</v>
+      </c>
+      <c r="Z32">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.32</v>
+      </c>
+      <c r="C33">
+        <v>5.194</v>
+      </c>
+      <c r="D33">
+        <v>3.3849999999999998</v>
+      </c>
+      <c r="E33">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="F33">
+        <v>2.6459999999999999</v>
+      </c>
+      <c r="G33">
+        <v>2.7170000000000001</v>
+      </c>
+      <c r="H33">
+        <v>2.64</v>
+      </c>
+      <c r="V33" t="s">
+        <v>14</v>
+      </c>
+      <c r="W33">
+        <v>31</v>
+      </c>
+      <c r="X33">
+        <v>9.8700000000000003E-3</v>
+      </c>
+      <c r="Y33">
+        <v>0.31</v>
+      </c>
+      <c r="Z33">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.33</v>
+      </c>
+      <c r="C34">
+        <v>5.5229999999999997</v>
+      </c>
+      <c r="D34">
+        <v>3.8439999999999999</v>
+      </c>
+      <c r="E34">
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="F34">
+        <v>3.1720000000000002</v>
+      </c>
+      <c r="G34">
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="H34">
+        <v>3.13</v>
+      </c>
+      <c r="V34" t="s">
+        <v>14</v>
+      </c>
+      <c r="W34">
+        <v>32</v>
+      </c>
+      <c r="X34">
+        <v>1.58</v>
+      </c>
+      <c r="Y34">
+        <v>0.32</v>
+      </c>
+      <c r="Z34">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.34</v>
+      </c>
+      <c r="C35">
+        <v>5.8739999999999997</v>
+      </c>
+      <c r="D35">
+        <v>4.3719999999999999</v>
+      </c>
+      <c r="E35">
+        <v>4.3789999999999996</v>
+      </c>
+      <c r="F35">
+        <v>3.802</v>
+      </c>
+      <c r="G35">
+        <v>3.6389999999999998</v>
+      </c>
+      <c r="H35">
+        <v>3.81</v>
+      </c>
+      <c r="V35" t="s">
+        <v>14</v>
+      </c>
+      <c r="W35">
+        <v>33</v>
+      </c>
+      <c r="X35">
+        <v>1.68</v>
+      </c>
+      <c r="Y35">
+        <v>0.33</v>
+      </c>
+      <c r="Z35">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.35</v>
+      </c>
+      <c r="C36">
+        <v>6.2140000000000004</v>
+      </c>
+      <c r="D36">
+        <v>4.9210000000000003</v>
+      </c>
+      <c r="E36">
+        <v>4.9329999999999998</v>
+      </c>
+      <c r="F36">
+        <v>4.5869999999999997</v>
+      </c>
+      <c r="G36">
+        <v>4.1580000000000004</v>
+      </c>
+      <c r="H36">
+        <v>4.55</v>
+      </c>
+      <c r="V36" t="s">
+        <v>14</v>
+      </c>
+      <c r="W36">
+        <v>34</v>
+      </c>
+      <c r="X36">
+        <v>1.78</v>
+      </c>
+      <c r="Y36">
+        <v>0.34</v>
+      </c>
+      <c r="Z36">
+        <v>4.55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.36</v>
+      </c>
+      <c r="C37">
+        <v>6.5919999999999996</v>
+      </c>
+      <c r="D37">
+        <v>5.5609999999999999</v>
+      </c>
+      <c r="E37">
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="F37">
+        <v>5.5949999999999998</v>
+      </c>
+      <c r="G37">
+        <v>4.7910000000000004</v>
+      </c>
+      <c r="H37">
+        <v>5.48</v>
+      </c>
+      <c r="V37" t="s">
+        <v>14</v>
+      </c>
+      <c r="W37">
+        <v>35</v>
+      </c>
+      <c r="X37">
+        <v>1.89</v>
+      </c>
+      <c r="Y37">
+        <v>0.35</v>
+      </c>
+      <c r="Z37">
+        <v>5.48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.37</v>
+      </c>
+      <c r="C38">
+        <v>6.9359999999999999</v>
+      </c>
+      <c r="D38">
+        <v>6.2009999999999996</v>
+      </c>
+      <c r="E38">
+        <v>6.2430000000000003</v>
+      </c>
+      <c r="F38">
+        <v>6.8979999999999997</v>
+      </c>
+      <c r="G38">
+        <v>5.431</v>
+      </c>
+      <c r="H38">
+        <v>6.74</v>
+      </c>
+      <c r="V38" t="s">
+        <v>14</v>
+      </c>
+      <c r="W38">
+        <v>36</v>
+      </c>
+      <c r="X38">
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <v>0.36</v>
+      </c>
+      <c r="Z38">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.38</v>
+      </c>
+      <c r="C39">
+        <v>7.3230000000000004</v>
+      </c>
+      <c r="D39">
+        <v>6.8979999999999997</v>
+      </c>
+      <c r="E39">
+        <v>7.0279999999999996</v>
+      </c>
+      <c r="F39">
+        <v>8.7149999999999999</v>
+      </c>
+      <c r="G39">
+        <v>6.2</v>
+      </c>
+      <c r="H39">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="V39" t="s">
+        <v>14</v>
+      </c>
+      <c r="W39">
+        <v>37</v>
+      </c>
+      <c r="X39">
+        <v>2.14</v>
+      </c>
+      <c r="Y39">
+        <v>0.37</v>
+      </c>
+      <c r="Z39">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.39</v>
+      </c>
+      <c r="C40">
+        <v>7.7439999999999998</v>
+      </c>
+      <c r="D40">
+        <v>7.6289999999999996</v>
+      </c>
+      <c r="E40">
+        <v>7.9009999999999998</v>
+      </c>
+      <c r="G40">
+        <v>7.0449999999999999</v>
+      </c>
+      <c r="V40" t="s">
+        <v>14</v>
+      </c>
+      <c r="W40">
+        <v>38</v>
+      </c>
+      <c r="X40">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Y40">
+        <v>0.38</v>
+      </c>
+      <c r="Z40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.4</v>
+      </c>
+      <c r="C41">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="D41">
+        <v>8.4149999999999991</v>
+      </c>
+      <c r="E41">
+        <v>8.85</v>
+      </c>
+      <c r="G41">
+        <v>7.9409999999999998</v>
+      </c>
+      <c r="V41" t="s">
+        <v>14</v>
+      </c>
+      <c r="W41">
+        <v>39</v>
+      </c>
+      <c r="X41">
+        <v>2.44</v>
+      </c>
+      <c r="Y41">
+        <v>0.39</v>
+      </c>
+      <c r="Z41">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.41</v>
+      </c>
+      <c r="C42">
+        <v>8.6370000000000005</v>
+      </c>
+      <c r="D42">
+        <v>9.2690000000000001</v>
+      </c>
+      <c r="E42">
+        <v>9.9809999999999999</v>
+      </c>
+      <c r="G42">
+        <v>9.0619999999999994</v>
+      </c>
+      <c r="V42" t="s">
+        <v>14</v>
+      </c>
+      <c r="W42">
+        <v>40</v>
+      </c>
+      <c r="X42">
+        <v>2.64</v>
+      </c>
+      <c r="Y42">
+        <v>0.4</v>
+      </c>
+      <c r="Z42">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.42</v>
+      </c>
+      <c r="C43">
+        <v>9.0830000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.43</v>
+      </c>
+      <c r="C44">
+        <v>9.6159999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9354025B-98E2-45D7-A022-004AF67C1038}">
+  <dimension ref="A1:AC44"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.01</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.02</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="AB3">
+        <v>0.01</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.03</v>
+      </c>
+      <c r="C4">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8.92E-5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z4">
+        <v>2</v>
+      </c>
+      <c r="AA4">
+        <v>0.98</v>
+      </c>
+      <c r="AB4">
+        <v>0.02</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>8.92E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.04</v>
+      </c>
+      <c r="B5">
+        <v>0.10059999999999999</v>
+      </c>
+      <c r="C5">
+        <v>3.184E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.078E-2</v>
+      </c>
+      <c r="H5">
+        <v>4.46E-4</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="AB5">
+        <v>0.03</v>
+      </c>
+      <c r="AC5">
+        <v>4.46E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.05</v>
+      </c>
+      <c r="B6">
+        <v>7.5990000000000002</v>
+      </c>
+      <c r="C6">
+        <v>5.2179999999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.0759999999999998E-2</v>
+      </c>
+      <c r="H6">
+        <v>8.03E-4</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="AB6">
+        <v>0.04</v>
+      </c>
+      <c r="AC6">
+        <v>8.03E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.06</v>
+      </c>
+      <c r="C7">
+        <v>7.0019999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>1.7840000000000002E-2</v>
+      </c>
+      <c r="E7">
+        <v>5.985E-2</v>
+      </c>
+      <c r="H7">
+        <v>2.9399999999999999E-3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z7">
+        <v>5</v>
+      </c>
+      <c r="AA7">
+        <v>0.85</v>
+      </c>
+      <c r="AB7">
+        <v>0.05</v>
+      </c>
+      <c r="AC7">
+        <v>2.9399999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C8">
+        <v>0.09</v>
+      </c>
+      <c r="D8">
+        <v>2.9790000000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>7.7600000000000002E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.0970000000000001E-2</v>
+      </c>
+      <c r="H8">
+        <v>7.0499999999999998E-3</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z8">
+        <v>6</v>
+      </c>
+      <c r="AA8">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="AB8">
+        <v>0.06</v>
+      </c>
+      <c r="AC8">
+        <v>7.0499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.08</v>
+      </c>
+      <c r="C9">
+        <v>0.11</v>
+      </c>
+      <c r="D9">
+        <v>4.5310000000000003E-2</v>
+      </c>
+      <c r="E9">
+        <v>9.8390000000000005E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.8370000000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.686E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.47E-2</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z9">
+        <v>7</v>
+      </c>
+      <c r="AA9">
+        <v>0.66900000000000004</v>
+      </c>
+      <c r="AB9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC9">
+        <v>1.47E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.09</v>
+      </c>
+      <c r="C10">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="D10">
+        <v>6.7430000000000004E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.122</v>
+      </c>
+      <c r="F10">
+        <v>3.1309999999999998E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.605E-2</v>
+      </c>
+      <c r="H10">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z10">
+        <v>8</v>
+      </c>
+      <c r="AA10">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="AB10">
+        <v>0.08</v>
+      </c>
+      <c r="AC10">
+        <v>2.7699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>0.15129999999999999</v>
+      </c>
+      <c r="D11">
+        <v>9.5979999999999996E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.15409999999999999</v>
+      </c>
+      <c r="F11">
+        <v>5.6279999999999997E-2</v>
+      </c>
+      <c r="G11">
+        <v>4.326E-2</v>
+      </c>
+      <c r="H11">
+        <v>5.6099999999999997E-2</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z11">
+        <v>9</v>
+      </c>
+      <c r="AA11">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="AB11">
+        <v>0.09</v>
+      </c>
+      <c r="AC11">
+        <v>5.6099999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.11</v>
+      </c>
+      <c r="C12">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.1308</v>
+      </c>
+      <c r="E12">
+        <v>0.1905</v>
+      </c>
+      <c r="F12">
+        <v>9.5350000000000004E-2</v>
+      </c>
+      <c r="G12">
+        <v>7.3230000000000003E-2</v>
+      </c>
+      <c r="H12">
+        <v>0.109</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12">
+        <v>0.376</v>
+      </c>
+      <c r="AB12">
+        <v>0.1</v>
+      </c>
+      <c r="AC12">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.12</v>
+      </c>
+      <c r="C13">
+        <v>0.20680000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.2407</v>
+      </c>
+      <c r="F13">
+        <v>0.16139999999999999</v>
+      </c>
+      <c r="G13">
+        <v>0.1168</v>
+      </c>
+      <c r="H13">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13">
+        <v>11</v>
+      </c>
+      <c r="AA13">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AB13">
+        <v>0.11</v>
+      </c>
+      <c r="AC13">
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.13</v>
+      </c>
+      <c r="C14">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="E14">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="F14">
+        <v>0.27379999999999999</v>
+      </c>
+      <c r="G14">
+        <v>0.1754</v>
+      </c>
+      <c r="H14">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z14">
+        <v>12</v>
+      </c>
+      <c r="AA14">
+        <v>0.247</v>
+      </c>
+      <c r="AB14">
+        <v>0.12</v>
+      </c>
+      <c r="AC14">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="F15">
+        <v>0.41720000000000002</v>
+      </c>
+      <c r="G15">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z15">
+        <v>13</v>
+      </c>
+      <c r="AA15">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="AB15">
+        <v>0.13</v>
+      </c>
+      <c r="AC15">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.15</v>
+      </c>
+      <c r="C16">
+        <v>0.29509999999999997</v>
+      </c>
+      <c r="D16">
+        <v>0.34910000000000002</v>
+      </c>
+      <c r="E16">
+        <v>0.5242</v>
+      </c>
+      <c r="F16">
+        <v>0.6462</v>
+      </c>
+      <c r="G16">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="H16">
+        <v>1.36</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z16">
+        <v>14</v>
+      </c>
+      <c r="AA16">
+        <v>0.158</v>
+      </c>
+      <c r="AB16">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AC16">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>0.16</v>
+      </c>
+      <c r="C17">
+        <v>0.3362</v>
+      </c>
+      <c r="D17">
+        <v>0.43780000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="F17">
+        <v>0.91920000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.54569999999999996</v>
+      </c>
+      <c r="H17">
+        <v>2.31</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z17">
+        <v>15</v>
+      </c>
+      <c r="AA17">
+        <v>0.126</v>
+      </c>
+      <c r="AB17">
+        <v>0.15</v>
+      </c>
+      <c r="AC17">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>0.17</v>
+      </c>
+      <c r="C18">
+        <v>0.3851</v>
+      </c>
+      <c r="D18">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="E18">
+        <v>0.8881</v>
+      </c>
+      <c r="F18">
+        <v>1.319</v>
+      </c>
+      <c r="G18">
+        <v>0.74450000000000005</v>
+      </c>
+      <c r="H18">
+        <v>3.78</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z18">
+        <v>16</v>
+      </c>
+      <c r="AA18">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="AB18">
+        <v>0.16</v>
+      </c>
+      <c r="AC18">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0.18</v>
+      </c>
+      <c r="C19">
+        <v>0.44769999999999999</v>
+      </c>
+      <c r="D19">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="E19">
+        <v>1.147</v>
+      </c>
+      <c r="F19">
+        <v>1.839</v>
+      </c>
+      <c r="G19">
+        <v>0.98280000000000001</v>
+      </c>
+      <c r="H19">
+        <v>5.77</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z19">
+        <v>17</v>
+      </c>
+      <c r="AA19">
+        <v>7.85E-2</v>
+      </c>
+      <c r="AB19">
+        <v>0.17</v>
+      </c>
+      <c r="AC19">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0.19</v>
+      </c>
+      <c r="C20">
+        <v>0.52880000000000005</v>
+      </c>
+      <c r="D20">
+        <v>0.74839999999999995</v>
+      </c>
+      <c r="E20">
+        <v>1.46</v>
+      </c>
+      <c r="F20">
+        <v>2.56</v>
+      </c>
+      <c r="G20">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="H20">
+        <v>8.31</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z20">
+        <v>18</v>
+      </c>
+      <c r="AA20">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="AB20">
+        <v>0.18</v>
+      </c>
+      <c r="AC20">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>0.63119999999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.878</v>
+      </c>
+      <c r="E21">
+        <v>1.841</v>
+      </c>
+      <c r="F21">
+        <v>3.5339999999999998</v>
+      </c>
+      <c r="G21">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.21</v>
+      </c>
+      <c r="C22">
+        <v>0.754</v>
+      </c>
+      <c r="D22">
+        <v>1.024</v>
+      </c>
+      <c r="E22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F22">
+        <v>4.9370000000000003</v>
+      </c>
+      <c r="G22">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>0.22</v>
+      </c>
+      <c r="C23">
+        <v>0.90880000000000005</v>
+      </c>
+      <c r="D23">
+        <v>1.181</v>
+      </c>
+      <c r="E23">
+        <v>2.819</v>
+      </c>
+      <c r="F23">
+        <v>7.0259999999999998</v>
+      </c>
+      <c r="G23">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.23</v>
+      </c>
+      <c r="C24">
+        <v>1.097</v>
+      </c>
+      <c r="D24">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="E24">
+        <v>3.4220000000000002</v>
+      </c>
+      <c r="F24">
+        <v>10.4</v>
+      </c>
+      <c r="G24">
+        <v>3.165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.24</v>
+      </c>
+      <c r="C25">
+        <v>1.325</v>
+      </c>
+      <c r="D25">
+        <v>1.538</v>
+      </c>
+      <c r="E25">
+        <v>4.1360000000000001</v>
+      </c>
+      <c r="G25">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>1.61</v>
+      </c>
+      <c r="D26">
+        <v>1.732</v>
+      </c>
+      <c r="E26">
+        <v>4.944</v>
+      </c>
+      <c r="G26">
+        <v>4.7370000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.26</v>
+      </c>
+      <c r="C27">
+        <v>1.9259999999999999</v>
+      </c>
+      <c r="D27">
+        <v>1.9450000000000001</v>
+      </c>
+      <c r="E27">
+        <v>5.8440000000000003</v>
+      </c>
+      <c r="G27">
+        <v>5.6870000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0.27</v>
+      </c>
+      <c r="C28">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="D28">
+        <v>2.1779999999999999</v>
+      </c>
+      <c r="E28">
+        <v>6.8609999999999998</v>
+      </c>
+      <c r="G28">
+        <v>6.9249999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C29">
+        <v>2.7309999999999999</v>
+      </c>
+      <c r="D29">
+        <v>2.4260000000000002</v>
+      </c>
+      <c r="E29">
+        <v>7.9749999999999996</v>
+      </c>
+      <c r="G29">
+        <v>8.1839999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C30">
+        <v>3.246</v>
+      </c>
+      <c r="D30">
+        <v>2.6890000000000001</v>
+      </c>
+      <c r="E30">
+        <v>9.1880000000000006</v>
+      </c>
+      <c r="G30">
+        <v>9.8940000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0.3</v>
+      </c>
+      <c r="C31">
+        <v>3.8380000000000001</v>
+      </c>
+      <c r="D31">
+        <v>2.9729999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>0.31</v>
+      </c>
+      <c r="C32">
+        <v>4.4619999999999997</v>
+      </c>
+      <c r="D32">
+        <v>3.3010000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.32</v>
+      </c>
+      <c r="C33">
+        <v>5.2190000000000003</v>
+      </c>
+      <c r="D33">
+        <v>3.6440000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>0.33</v>
+      </c>
+      <c r="C34">
+        <v>5.9749999999999996</v>
+      </c>
+      <c r="D34">
+        <v>4.0289999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.34</v>
+      </c>
+      <c r="C35">
+        <v>6.8979999999999997</v>
+      </c>
+      <c r="D35">
+        <v>4.4219999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0.35</v>
+      </c>
+      <c r="C36">
+        <v>7.8540000000000001</v>
+      </c>
+      <c r="D36">
+        <v>4.8380000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>0.36</v>
+      </c>
+      <c r="C37">
+        <v>8.9789999999999992</v>
+      </c>
+      <c r="D37">
+        <v>5.2830000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0.37</v>
+      </c>
+      <c r="D38">
+        <v>5.7839999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.38</v>
+      </c>
+      <c r="D39">
+        <v>6.3049999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.39</v>
+      </c>
+      <c r="D40">
+        <v>6.8719999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.4</v>
+      </c>
+      <c r="D41">
+        <v>7.49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.41</v>
+      </c>
+      <c r="D42">
+        <v>8.1359999999999992</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.42</v>
+      </c>
+      <c r="D43">
+        <v>8.8119999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.43</v>
+      </c>
+      <c r="D44">
+        <v>9.5589999999999993</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>